--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\_MacroX\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF34E3-4CEA-461C-96E3-5B8D2ECA55A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D868586-9780-4C93-A363-A9EDFAF98F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="9" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="22">
   <si>
     <t>Belgium</t>
   </si>
@@ -114,10 +114,7 @@
     <t>Slovak Republic</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>n.a.</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -985,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,8 +2364,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,61 +2375,61 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
       <c r="T1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2440,61 +2437,61 @@
         <v>1999</v>
       </c>
       <c r="B2">
+        <v>103.9</v>
+      </c>
+      <c r="C2">
+        <v>103.14</v>
+      </c>
+      <c r="D2">
+        <v>47.17</v>
+      </c>
+      <c r="E2">
+        <v>96.66</v>
+      </c>
+      <c r="F2">
+        <v>95.61</v>
+      </c>
+      <c r="G2">
+        <v>104.56</v>
+      </c>
+      <c r="H2">
+        <v>95.43</v>
+      </c>
+      <c r="I2">
+        <v>107.58</v>
+      </c>
+      <c r="J2">
+        <v>86.8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>98.49</v>
+      </c>
+      <c r="P2">
         <v>98.73</v>
-      </c>
-      <c r="C2">
-        <v>103.9</v>
-      </c>
-      <c r="D2">
-        <v>86.8</v>
-      </c>
-      <c r="E2">
-        <v>47.17</v>
-      </c>
-      <c r="F2">
-        <v>95.7</v>
-      </c>
-      <c r="G2">
-        <v>95.43</v>
-      </c>
-      <c r="H2">
-        <v>103.14</v>
-      </c>
-      <c r="I2">
-        <v>95.61</v>
-      </c>
-      <c r="J2">
-        <v>96.66</v>
-      </c>
-      <c r="K2">
-        <v>107.58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2">
-        <v>98.49</v>
       </c>
       <c r="Q2">
         <v>104.7</v>
       </c>
       <c r="R2">
+        <v>104.3</v>
+      </c>
+      <c r="S2">
         <v>97.1</v>
       </c>
-      <c r="S2">
-        <v>104.3</v>
-      </c>
       <c r="T2">
-        <v>104.56</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2502,61 +2499,61 @@
         <v>2000</v>
       </c>
       <c r="B3">
+        <v>101.13</v>
+      </c>
+      <c r="C3">
+        <v>96.51</v>
+      </c>
+      <c r="D3">
+        <v>50.99</v>
+      </c>
+      <c r="E3">
+        <v>101.67</v>
+      </c>
+      <c r="F3">
+        <v>103.71</v>
+      </c>
+      <c r="G3">
+        <v>98.14</v>
+      </c>
+      <c r="H3">
+        <v>94.28</v>
+      </c>
+      <c r="I3">
+        <v>99.58</v>
+      </c>
+      <c r="J3">
+        <v>93</v>
+      </c>
+      <c r="K3">
+        <v>98.84</v>
+      </c>
+      <c r="L3">
+        <v>101.3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3">
+        <v>98</v>
+      </c>
+      <c r="P3">
         <v>98.4</v>
-      </c>
-      <c r="C3">
-        <v>101.13</v>
-      </c>
-      <c r="D3">
-        <v>93</v>
-      </c>
-      <c r="E3">
-        <v>50.99</v>
-      </c>
-      <c r="F3">
-        <v>91.59</v>
-      </c>
-      <c r="G3">
-        <v>94.28</v>
-      </c>
-      <c r="H3">
-        <v>96.51</v>
-      </c>
-      <c r="I3">
-        <v>103.71</v>
-      </c>
-      <c r="J3">
-        <v>101.67</v>
-      </c>
-      <c r="K3">
-        <v>99.58</v>
-      </c>
-      <c r="L3">
-        <v>98.84</v>
-      </c>
-      <c r="M3">
-        <v>101.3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3">
-        <v>98</v>
       </c>
       <c r="Q3">
         <v>101.9</v>
       </c>
       <c r="R3">
+        <v>100.76</v>
+      </c>
+      <c r="S3">
         <v>100.66</v>
       </c>
-      <c r="S3">
-        <v>100.76</v>
-      </c>
       <c r="T3">
-        <v>98.14</v>
+        <v>91.59</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -2564,61 +2561,61 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>97.07</v>
+        <v>100.78</v>
       </c>
       <c r="C4">
-        <v>100.78</v>
+        <v>96.93</v>
       </c>
       <c r="D4">
+        <v>54.93</v>
+      </c>
+      <c r="E4">
+        <v>97.49</v>
+      </c>
+      <c r="F4">
+        <v>101.14</v>
+      </c>
+      <c r="G4">
+        <v>100.06</v>
+      </c>
+      <c r="H4">
+        <v>95.15</v>
+      </c>
+      <c r="I4">
+        <v>101.54</v>
+      </c>
+      <c r="J4">
         <v>94.4</v>
       </c>
-      <c r="E4">
-        <v>54.93</v>
-      </c>
-      <c r="F4">
-        <v>90.05</v>
-      </c>
-      <c r="G4">
-        <v>95.15</v>
-      </c>
-      <c r="H4">
-        <v>96.93</v>
-      </c>
-      <c r="I4">
-        <v>101.14</v>
-      </c>
-      <c r="J4">
-        <v>97.49</v>
-      </c>
       <c r="K4">
-        <v>101.54</v>
+        <v>100</v>
       </c>
       <c r="L4">
         <v>100</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
       <c r="P4">
-        <v>100</v>
+        <v>97.07</v>
       </c>
       <c r="Q4">
         <v>102.51</v>
       </c>
       <c r="R4">
+        <v>102.78</v>
+      </c>
+      <c r="S4">
         <v>99.59</v>
       </c>
-      <c r="S4">
-        <v>102.78</v>
-      </c>
       <c r="T4">
-        <v>100.06</v>
+        <v>90.05</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2626,61 +2623,61 @@
         <v>2002</v>
       </c>
       <c r="B5">
+        <v>102.02</v>
+      </c>
+      <c r="C5">
+        <v>98.83</v>
+      </c>
+      <c r="D5">
+        <v>49.62</v>
+      </c>
+      <c r="E5">
+        <v>100.34</v>
+      </c>
+      <c r="F5">
+        <v>102.08</v>
+      </c>
+      <c r="G5">
+        <v>102.96</v>
+      </c>
+      <c r="H5">
+        <v>98.35</v>
+      </c>
+      <c r="I5">
+        <v>102.05</v>
+      </c>
+      <c r="J5">
+        <v>95.3</v>
+      </c>
+      <c r="K5">
+        <v>103.38</v>
+      </c>
+      <c r="L5">
+        <v>100.34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>101.42</v>
+      </c>
+      <c r="P5">
         <v>100.46</v>
-      </c>
-      <c r="C5">
-        <v>102.02</v>
-      </c>
-      <c r="D5">
-        <v>95.3</v>
-      </c>
-      <c r="E5">
-        <v>49.62</v>
-      </c>
-      <c r="F5">
-        <v>87.74</v>
-      </c>
-      <c r="G5">
-        <v>98.35</v>
-      </c>
-      <c r="H5">
-        <v>98.83</v>
-      </c>
-      <c r="I5">
-        <v>102.08</v>
-      </c>
-      <c r="J5">
-        <v>100.34</v>
-      </c>
-      <c r="K5">
-        <v>102.05</v>
-      </c>
-      <c r="L5">
-        <v>103.38</v>
-      </c>
-      <c r="M5">
-        <v>100.34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5">
-        <v>101.42</v>
       </c>
       <c r="Q5">
         <v>104.1</v>
       </c>
       <c r="R5">
+        <v>104.59</v>
+      </c>
+      <c r="S5">
         <v>99.33</v>
       </c>
-      <c r="S5">
-        <v>104.59</v>
-      </c>
       <c r="T5">
-        <v>102.96</v>
+        <v>87.74</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2688,61 +2685,61 @@
         <v>2003</v>
       </c>
       <c r="B6">
+        <v>101.34</v>
+      </c>
+      <c r="C6">
+        <v>100.94</v>
+      </c>
+      <c r="D6">
+        <v>40.92</v>
+      </c>
+      <c r="E6">
+        <v>102.98</v>
+      </c>
+      <c r="F6">
+        <v>85.98</v>
+      </c>
+      <c r="G6">
+        <v>103.76</v>
+      </c>
+      <c r="H6">
+        <v>97.57</v>
+      </c>
+      <c r="I6">
+        <v>102.2</v>
+      </c>
+      <c r="J6">
+        <v>95.3</v>
+      </c>
+      <c r="K6">
+        <v>102.78</v>
+      </c>
+      <c r="L6">
+        <v>104.48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6">
+        <v>102.14</v>
+      </c>
+      <c r="P6">
         <v>99.46</v>
-      </c>
-      <c r="C6">
-        <v>101.34</v>
-      </c>
-      <c r="D6">
-        <v>95.3</v>
-      </c>
-      <c r="E6">
-        <v>40.92</v>
-      </c>
-      <c r="F6">
-        <v>84.43</v>
-      </c>
-      <c r="G6">
-        <v>97.57</v>
-      </c>
-      <c r="H6">
-        <v>100.94</v>
-      </c>
-      <c r="I6">
-        <v>85.98</v>
-      </c>
-      <c r="J6">
-        <v>102.98</v>
-      </c>
-      <c r="K6">
-        <v>102.2</v>
-      </c>
-      <c r="L6">
-        <v>102.78</v>
-      </c>
-      <c r="M6">
-        <v>104.48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6">
-        <v>102.14</v>
       </c>
       <c r="Q6">
         <v>103.62</v>
       </c>
       <c r="R6">
+        <v>105.07</v>
+      </c>
+      <c r="S6">
         <v>99.04</v>
       </c>
-      <c r="S6">
-        <v>105.07</v>
-      </c>
       <c r="T6">
-        <v>103.76</v>
+        <v>84.43</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2750,61 +2747,61 @@
         <v>2004</v>
       </c>
       <c r="B7">
+        <v>99.74</v>
+      </c>
+      <c r="C7">
+        <v>100.39</v>
+      </c>
+      <c r="D7">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="E7">
+        <v>94.1</v>
+      </c>
+      <c r="F7">
+        <v>87.67</v>
+      </c>
+      <c r="G7">
+        <v>102.45</v>
+      </c>
+      <c r="H7">
+        <v>96.91</v>
+      </c>
+      <c r="I7">
+        <v>102.16</v>
+      </c>
+      <c r="J7">
+        <v>96.2</v>
+      </c>
+      <c r="K7">
+        <v>105.31</v>
+      </c>
+      <c r="L7">
+        <v>105.55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>101.51</v>
+      </c>
+      <c r="P7">
         <v>98.21</v>
-      </c>
-      <c r="C7">
-        <v>99.74</v>
-      </c>
-      <c r="D7">
-        <v>96.2</v>
-      </c>
-      <c r="E7">
-        <v>37.119999999999997</v>
-      </c>
-      <c r="F7">
-        <v>82.01</v>
-      </c>
-      <c r="G7">
-        <v>96.91</v>
-      </c>
-      <c r="H7">
-        <v>100.39</v>
-      </c>
-      <c r="I7">
-        <v>87.67</v>
-      </c>
-      <c r="J7">
-        <v>94.1</v>
-      </c>
-      <c r="K7">
-        <v>102.16</v>
-      </c>
-      <c r="L7">
-        <v>105.31</v>
-      </c>
-      <c r="M7">
-        <v>105.55</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7">
-        <v>101.51</v>
       </c>
       <c r="Q7">
         <v>102.74</v>
       </c>
       <c r="R7">
+        <v>103.85</v>
+      </c>
+      <c r="S7">
         <v>98.75</v>
       </c>
-      <c r="S7">
-        <v>103.85</v>
-      </c>
       <c r="T7">
-        <v>102.45</v>
+        <v>82.01</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2812,61 +2809,61 @@
         <v>2005</v>
       </c>
       <c r="B8">
+        <v>99.51</v>
+      </c>
+      <c r="C8">
+        <v>97.95</v>
+      </c>
+      <c r="D8">
+        <v>36.4</v>
+      </c>
+      <c r="E8">
+        <v>99.01</v>
+      </c>
+      <c r="F8">
+        <v>83.47</v>
+      </c>
+      <c r="G8">
+        <v>102.26</v>
+      </c>
+      <c r="H8">
+        <v>94.73</v>
+      </c>
+      <c r="I8">
+        <v>99.9</v>
+      </c>
+      <c r="J8">
+        <v>94.4</v>
+      </c>
+      <c r="K8">
+        <v>102.34</v>
+      </c>
+      <c r="L8">
+        <v>101.83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>101.86</v>
+      </c>
+      <c r="P8">
         <v>96.47</v>
-      </c>
-      <c r="C8">
-        <v>99.51</v>
-      </c>
-      <c r="D8">
-        <v>94.4</v>
-      </c>
-      <c r="E8">
-        <v>36.4</v>
-      </c>
-      <c r="F8">
-        <v>78.489999999999995</v>
-      </c>
-      <c r="G8">
-        <v>94.73</v>
-      </c>
-      <c r="H8">
-        <v>97.95</v>
-      </c>
-      <c r="I8">
-        <v>83.47</v>
-      </c>
-      <c r="J8">
-        <v>99.01</v>
-      </c>
-      <c r="K8">
-        <v>99.9</v>
-      </c>
-      <c r="L8">
-        <v>102.34</v>
-      </c>
-      <c r="M8">
-        <v>101.83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8">
-        <v>101.86</v>
       </c>
       <c r="Q8">
         <v>101.59</v>
       </c>
       <c r="R8">
+        <v>100.9</v>
+      </c>
+      <c r="S8">
         <v>98.76</v>
       </c>
-      <c r="S8">
-        <v>100.9</v>
-      </c>
       <c r="T8">
-        <v>102.26</v>
+        <v>78.489999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2874,61 +2871,61 @@
         <v>2006</v>
       </c>
       <c r="B9">
+        <v>98.97</v>
+      </c>
+      <c r="C9">
+        <v>95.52</v>
+      </c>
+      <c r="D9">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="E9">
+        <v>97.73</v>
+      </c>
+      <c r="F9">
+        <v>83.96</v>
+      </c>
+      <c r="G9">
+        <v>102.7</v>
+      </c>
+      <c r="H9">
+        <v>91.71</v>
+      </c>
+      <c r="I9">
+        <v>100.4</v>
+      </c>
+      <c r="J9">
+        <v>95.5</v>
+      </c>
+      <c r="K9">
+        <v>101.27</v>
+      </c>
+      <c r="L9">
+        <v>98.88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9">
+        <v>101.95</v>
+      </c>
+      <c r="P9">
         <v>95.31</v>
-      </c>
-      <c r="C9">
-        <v>98.97</v>
-      </c>
-      <c r="D9">
-        <v>95.5</v>
-      </c>
-      <c r="E9">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="F9">
-        <v>75.13</v>
-      </c>
-      <c r="G9">
-        <v>91.71</v>
-      </c>
-      <c r="H9">
-        <v>95.52</v>
-      </c>
-      <c r="I9">
-        <v>83.96</v>
-      </c>
-      <c r="J9">
-        <v>97.73</v>
-      </c>
-      <c r="K9">
-        <v>100.4</v>
-      </c>
-      <c r="L9">
-        <v>101.27</v>
-      </c>
-      <c r="M9">
-        <v>98.88</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9">
-        <v>101.95</v>
       </c>
       <c r="Q9">
         <v>102.38</v>
       </c>
       <c r="R9">
+        <v>101.09</v>
+      </c>
+      <c r="S9">
         <v>97.37</v>
       </c>
-      <c r="S9">
-        <v>101.09</v>
-      </c>
       <c r="T9">
-        <v>102.7</v>
+        <v>75.13</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2936,61 +2933,61 @@
         <v>2007</v>
       </c>
       <c r="B10">
+        <v>99.24</v>
+      </c>
+      <c r="C10">
+        <v>96.03</v>
+      </c>
+      <c r="D10">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="E10">
+        <v>101.59</v>
+      </c>
+      <c r="F10">
+        <v>84.37</v>
+      </c>
+      <c r="G10">
+        <v>103.04</v>
+      </c>
+      <c r="H10">
+        <v>92</v>
+      </c>
+      <c r="I10">
+        <v>101.3</v>
+      </c>
+      <c r="J10">
+        <v>94.3</v>
+      </c>
+      <c r="K10">
+        <v>106.7</v>
+      </c>
+      <c r="L10">
+        <v>100.07</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10">
+        <v>101.76</v>
+      </c>
+      <c r="P10">
         <v>95.92</v>
-      </c>
-      <c r="C10">
-        <v>99.24</v>
-      </c>
-      <c r="D10">
-        <v>94.3</v>
-      </c>
-      <c r="E10">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="F10">
-        <v>74.23</v>
-      </c>
-      <c r="G10">
-        <v>92</v>
-      </c>
-      <c r="H10">
-        <v>96.03</v>
-      </c>
-      <c r="I10">
-        <v>84.37</v>
-      </c>
-      <c r="J10">
-        <v>101.59</v>
-      </c>
-      <c r="K10">
-        <v>101.3</v>
-      </c>
-      <c r="L10">
-        <v>106.7</v>
-      </c>
-      <c r="M10">
-        <v>100.07</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10">
-        <v>101.76</v>
       </c>
       <c r="Q10">
         <v>102.85</v>
       </c>
       <c r="R10">
+        <v>102.33</v>
+      </c>
+      <c r="S10">
         <v>96.27</v>
       </c>
-      <c r="S10">
-        <v>102.33</v>
-      </c>
       <c r="T10">
-        <v>103.04</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2998,61 +2995,61 @@
         <v>2008</v>
       </c>
       <c r="B11">
+        <v>96.28</v>
+      </c>
+      <c r="C11">
+        <v>93.46</v>
+      </c>
+      <c r="D11">
+        <v>30.29</v>
+      </c>
+      <c r="E11">
+        <v>107.94</v>
+      </c>
+      <c r="F11">
+        <v>83.77</v>
+      </c>
+      <c r="G11">
+        <v>100.26</v>
+      </c>
+      <c r="H11">
+        <v>90.11</v>
+      </c>
+      <c r="I11">
+        <v>99.3</v>
+      </c>
+      <c r="J11">
+        <v>98.7</v>
+      </c>
+      <c r="K11">
+        <v>102.39</v>
+      </c>
+      <c r="L11">
+        <v>96.82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>101.33</v>
+      </c>
+      <c r="P11">
         <v>93.38</v>
-      </c>
-      <c r="C11">
-        <v>96.28</v>
-      </c>
-      <c r="D11">
-        <v>98.7</v>
-      </c>
-      <c r="E11">
-        <v>30.29</v>
-      </c>
-      <c r="F11">
-        <v>72.09</v>
-      </c>
-      <c r="G11">
-        <v>90.11</v>
-      </c>
-      <c r="H11">
-        <v>93.46</v>
-      </c>
-      <c r="I11">
-        <v>83.77</v>
-      </c>
-      <c r="J11">
-        <v>107.94</v>
-      </c>
-      <c r="K11">
-        <v>99.3</v>
-      </c>
-      <c r="L11">
-        <v>102.39</v>
-      </c>
-      <c r="M11">
-        <v>96.82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11">
-        <v>101.33</v>
       </c>
       <c r="Q11">
         <v>99.67</v>
       </c>
       <c r="R11">
+        <v>97.63</v>
+      </c>
+      <c r="S11">
         <v>94.69</v>
       </c>
-      <c r="S11">
-        <v>97.63</v>
-      </c>
       <c r="T11">
-        <v>100.26</v>
+        <v>72.09</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3060,61 +3057,61 @@
         <v>2009</v>
       </c>
       <c r="B12">
+        <v>99.18</v>
+      </c>
+      <c r="C12">
+        <v>99.86</v>
+      </c>
+      <c r="D12">
+        <v>33.29</v>
+      </c>
+      <c r="E12">
+        <v>101.44</v>
+      </c>
+      <c r="F12">
+        <v>80.14</v>
+      </c>
+      <c r="G12">
+        <v>106.03</v>
+      </c>
+      <c r="H12">
+        <v>94.23</v>
+      </c>
+      <c r="I12">
+        <v>100.5</v>
+      </c>
+      <c r="J12">
+        <v>90.1</v>
+      </c>
+      <c r="K12">
+        <v>102.31</v>
+      </c>
+      <c r="L12">
+        <v>97.89</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12">
+        <v>102.51</v>
+      </c>
+      <c r="P12">
         <v>95.21</v>
-      </c>
-      <c r="C12">
-        <v>99.18</v>
-      </c>
-      <c r="D12">
-        <v>90.1</v>
-      </c>
-      <c r="E12">
-        <v>33.29</v>
-      </c>
-      <c r="F12">
-        <v>72.16</v>
-      </c>
-      <c r="G12">
-        <v>94.23</v>
-      </c>
-      <c r="H12">
-        <v>99.86</v>
-      </c>
-      <c r="I12">
-        <v>80.14</v>
-      </c>
-      <c r="J12">
-        <v>101.44</v>
-      </c>
-      <c r="K12">
-        <v>100.5</v>
-      </c>
-      <c r="L12">
-        <v>102.31</v>
-      </c>
-      <c r="M12">
-        <v>97.89</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12">
-        <v>102.51</v>
       </c>
       <c r="Q12">
         <v>104.67</v>
       </c>
       <c r="R12">
+        <v>103.27</v>
+      </c>
+      <c r="S12">
         <v>93.62</v>
       </c>
-      <c r="S12">
-        <v>103.27</v>
-      </c>
       <c r="T12">
-        <v>106.03</v>
+        <v>72.16</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -3122,61 +3119,61 @@
         <v>2010</v>
       </c>
       <c r="B13">
+        <v>97.02</v>
+      </c>
+      <c r="C13">
+        <v>96.13</v>
+      </c>
+      <c r="D13">
+        <v>34.71</v>
+      </c>
+      <c r="E13">
+        <v>99.99</v>
+      </c>
+      <c r="F13">
+        <v>81.8</v>
+      </c>
+      <c r="G13">
+        <v>103.14</v>
+      </c>
+      <c r="H13">
+        <v>90.16</v>
+      </c>
+      <c r="I13">
+        <v>99.7</v>
+      </c>
+      <c r="J13">
+        <v>91.2</v>
+      </c>
+      <c r="K13">
+        <v>104.84</v>
+      </c>
+      <c r="L13">
+        <v>95.76</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <v>99.93</v>
+      </c>
+      <c r="P13">
         <v>92.86</v>
-      </c>
-      <c r="C13">
-        <v>97.02</v>
-      </c>
-      <c r="D13">
-        <v>91.2</v>
-      </c>
-      <c r="E13">
-        <v>34.71</v>
-      </c>
-      <c r="F13">
-        <v>71.08</v>
-      </c>
-      <c r="G13">
-        <v>90.16</v>
-      </c>
-      <c r="H13">
-        <v>96.13</v>
-      </c>
-      <c r="I13">
-        <v>81.8</v>
-      </c>
-      <c r="J13">
-        <v>99.99</v>
-      </c>
-      <c r="K13">
-        <v>99.7</v>
-      </c>
-      <c r="L13">
-        <v>104.84</v>
-      </c>
-      <c r="M13">
-        <v>95.76</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13">
-        <v>99.93</v>
       </c>
       <c r="Q13">
         <v>104.72</v>
       </c>
       <c r="R13">
+        <v>98.5</v>
+      </c>
+      <c r="S13">
         <v>92.9</v>
       </c>
-      <c r="S13">
-        <v>98.5</v>
-      </c>
       <c r="T13">
-        <v>103.14</v>
+        <v>71.08</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3184,61 +3181,61 @@
         <v>2011</v>
       </c>
       <c r="B14">
+        <v>95.12</v>
+      </c>
+      <c r="C14">
+        <v>93.29</v>
+      </c>
+      <c r="D14">
+        <v>32.68</v>
+      </c>
+      <c r="E14">
+        <v>97.92</v>
+      </c>
+      <c r="F14">
+        <v>82.71</v>
+      </c>
+      <c r="G14">
+        <v>98.47</v>
+      </c>
+      <c r="H14">
+        <v>86.97</v>
+      </c>
+      <c r="I14">
+        <v>98.7</v>
+      </c>
+      <c r="J14">
+        <v>89.8</v>
+      </c>
+      <c r="K14">
+        <v>103.61</v>
+      </c>
+      <c r="L14">
+        <v>95.09</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14">
+        <v>98.28</v>
+      </c>
+      <c r="P14">
         <v>90.06</v>
-      </c>
-      <c r="C14">
-        <v>95.12</v>
-      </c>
-      <c r="D14">
-        <v>89.8</v>
-      </c>
-      <c r="E14">
-        <v>32.68</v>
-      </c>
-      <c r="F14">
-        <v>68.84</v>
-      </c>
-      <c r="G14">
-        <v>86.97</v>
-      </c>
-      <c r="H14">
-        <v>93.29</v>
-      </c>
-      <c r="I14">
-        <v>82.71</v>
-      </c>
-      <c r="J14">
-        <v>97.92</v>
-      </c>
-      <c r="K14">
-        <v>98.7</v>
-      </c>
-      <c r="L14">
-        <v>103.61</v>
-      </c>
-      <c r="M14">
-        <v>95.09</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14">
-        <v>98.28</v>
       </c>
       <c r="Q14">
         <v>103.59</v>
       </c>
       <c r="R14">
+        <v>97.5</v>
+      </c>
+      <c r="S14">
         <v>91.66</v>
       </c>
-      <c r="S14">
-        <v>97.5</v>
-      </c>
       <c r="T14">
-        <v>98.47</v>
+        <v>68.84</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3246,61 +3243,61 @@
         <v>2012</v>
       </c>
       <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>92.79</v>
+      </c>
+      <c r="D15">
+        <v>34.57</v>
+      </c>
+      <c r="E15">
+        <v>106.54</v>
+      </c>
+      <c r="F15">
+        <v>82.38</v>
+      </c>
+      <c r="G15">
+        <v>98</v>
+      </c>
+      <c r="H15">
+        <v>85.77</v>
+      </c>
+      <c r="I15">
+        <v>96.7</v>
+      </c>
+      <c r="J15">
+        <v>87.2</v>
+      </c>
+      <c r="K15">
+        <v>100.74</v>
+      </c>
+      <c r="L15">
+        <v>94.91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>98.28</v>
+      </c>
+      <c r="P15">
         <v>88.97</v>
-      </c>
-      <c r="C15">
-        <v>95</v>
-      </c>
-      <c r="D15">
-        <v>87.2</v>
-      </c>
-      <c r="E15">
-        <v>34.57</v>
-      </c>
-      <c r="F15">
-        <v>67.25</v>
-      </c>
-      <c r="G15">
-        <v>85.77</v>
-      </c>
-      <c r="H15">
-        <v>92.79</v>
-      </c>
-      <c r="I15">
-        <v>82.38</v>
-      </c>
-      <c r="J15">
-        <v>106.54</v>
-      </c>
-      <c r="K15">
-        <v>96.7</v>
-      </c>
-      <c r="L15">
-        <v>100.74</v>
-      </c>
-      <c r="M15">
-        <v>94.91</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15">
-        <v>98.28</v>
       </c>
       <c r="Q15">
         <v>103.92</v>
       </c>
       <c r="R15">
+        <v>95.88</v>
+      </c>
+      <c r="S15">
         <v>90.53</v>
       </c>
-      <c r="S15">
-        <v>95.88</v>
-      </c>
       <c r="T15">
-        <v>98</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3308,61 +3305,61 @@
         <v>2013</v>
       </c>
       <c r="B16">
+        <v>95.11</v>
+      </c>
+      <c r="C16">
+        <v>94.7</v>
+      </c>
+      <c r="D16">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="E16">
+        <v>104.63</v>
+      </c>
+      <c r="F16">
+        <v>83.22</v>
+      </c>
+      <c r="G16">
+        <v>98.95</v>
+      </c>
+      <c r="H16">
+        <v>87.27</v>
+      </c>
+      <c r="I16">
+        <v>97.3</v>
+      </c>
+      <c r="J16">
+        <v>85.8</v>
+      </c>
+      <c r="K16">
+        <v>102.01</v>
+      </c>
+      <c r="L16">
+        <v>95.58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16">
+        <v>98.73</v>
+      </c>
+      <c r="P16">
         <v>89.32</v>
-      </c>
-      <c r="C16">
-        <v>95.11</v>
-      </c>
-      <c r="D16">
-        <v>85.8</v>
-      </c>
-      <c r="E16">
-        <v>33.630000000000003</v>
-      </c>
-      <c r="F16">
-        <v>67.66</v>
-      </c>
-      <c r="G16">
-        <v>87.27</v>
-      </c>
-      <c r="H16">
-        <v>94.7</v>
-      </c>
-      <c r="I16">
-        <v>83.22</v>
-      </c>
-      <c r="J16">
-        <v>104.63</v>
-      </c>
-      <c r="K16">
-        <v>97.3</v>
-      </c>
-      <c r="L16">
-        <v>102.01</v>
-      </c>
-      <c r="M16">
-        <v>95.58</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16">
-        <v>98.73</v>
       </c>
       <c r="Q16">
         <v>105.34</v>
       </c>
       <c r="R16">
+        <v>96.99</v>
+      </c>
+      <c r="S16">
         <v>90.13</v>
       </c>
-      <c r="S16">
-        <v>96.99</v>
-      </c>
       <c r="T16">
-        <v>98.95</v>
+        <v>67.66</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -3370,61 +3367,61 @@
         <v>2014</v>
       </c>
       <c r="B17">
+        <v>95.48</v>
+      </c>
+      <c r="C17">
+        <v>96.54</v>
+      </c>
+      <c r="D17">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="E17">
+        <v>100.78</v>
+      </c>
+      <c r="F17">
+        <v>84.13</v>
+      </c>
+      <c r="G17">
+        <v>98.33</v>
+      </c>
+      <c r="H17">
+        <v>100.79</v>
+      </c>
+      <c r="I17">
+        <v>97.2</v>
+      </c>
+      <c r="J17">
+        <v>85.9</v>
+      </c>
+      <c r="K17">
+        <v>102.42</v>
+      </c>
+      <c r="L17">
+        <v>97.63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17">
+        <v>98.75</v>
+      </c>
+      <c r="P17">
         <v>89.19</v>
-      </c>
-      <c r="C17">
-        <v>95.48</v>
-      </c>
-      <c r="D17">
-        <v>85.9</v>
-      </c>
-      <c r="E17">
-        <v>33.369999999999997</v>
-      </c>
-      <c r="F17">
-        <v>68.38</v>
-      </c>
-      <c r="G17">
-        <v>100.79</v>
-      </c>
-      <c r="H17">
-        <v>96.54</v>
-      </c>
-      <c r="I17">
-        <v>84.13</v>
-      </c>
-      <c r="J17">
-        <v>100.78</v>
-      </c>
-      <c r="K17">
-        <v>97.2</v>
-      </c>
-      <c r="L17">
-        <v>102.42</v>
-      </c>
-      <c r="M17">
-        <v>97.63</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17">
-        <v>98.75</v>
       </c>
       <c r="Q17">
         <v>106.43</v>
       </c>
       <c r="R17">
+        <v>99.36</v>
+      </c>
+      <c r="S17">
         <v>90.17</v>
       </c>
-      <c r="S17">
-        <v>99.36</v>
-      </c>
       <c r="T17">
-        <v>98.33</v>
+        <v>68.38</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3432,61 +3429,61 @@
         <v>2015</v>
       </c>
       <c r="B18">
+        <v>97.27</v>
+      </c>
+      <c r="C18">
+        <v>99.9</v>
+      </c>
+      <c r="D18">
+        <v>39.97</v>
+      </c>
+      <c r="E18">
+        <v>106.52</v>
+      </c>
+      <c r="F18">
+        <v>83.36</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>106.07</v>
+      </c>
+      <c r="I18">
+        <v>99.4</v>
+      </c>
+      <c r="J18">
+        <v>86</v>
+      </c>
+      <c r="K18">
+        <v>103.89</v>
+      </c>
+      <c r="L18">
+        <v>99.76</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18">
+        <v>101.15</v>
+      </c>
+      <c r="P18">
         <v>89.83</v>
-      </c>
-      <c r="C18">
-        <v>97.27</v>
-      </c>
-      <c r="D18">
-        <v>86</v>
-      </c>
-      <c r="E18">
-        <v>39.97</v>
-      </c>
-      <c r="F18">
-        <v>71.48</v>
-      </c>
-      <c r="G18">
-        <v>106.07</v>
-      </c>
-      <c r="H18">
-        <v>99.9</v>
-      </c>
-      <c r="I18">
-        <v>83.36</v>
-      </c>
-      <c r="J18">
-        <v>106.52</v>
-      </c>
-      <c r="K18">
-        <v>99.4</v>
-      </c>
-      <c r="L18">
-        <v>103.89</v>
-      </c>
-      <c r="M18">
-        <v>99.76</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18">
-        <v>101.15</v>
       </c>
       <c r="Q18">
         <v>106.85</v>
       </c>
       <c r="R18">
+        <v>100.07</v>
+      </c>
+      <c r="S18">
         <v>89.93</v>
       </c>
-      <c r="S18">
-        <v>100.07</v>
-      </c>
       <c r="T18">
-        <v>100</v>
+        <v>71.48</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3494,61 +3491,61 @@
         <v>2016</v>
       </c>
       <c r="B19">
+        <v>97.54</v>
+      </c>
+      <c r="C19">
+        <v>102.35</v>
+      </c>
+      <c r="D19">
+        <v>40.78</v>
+      </c>
+      <c r="E19">
+        <v>110.14</v>
+      </c>
+      <c r="F19">
+        <v>79.92</v>
+      </c>
+      <c r="G19">
+        <v>100.08</v>
+      </c>
+      <c r="H19">
+        <v>108.77</v>
+      </c>
+      <c r="I19">
+        <v>104.4</v>
+      </c>
+      <c r="J19">
+        <v>84.1</v>
+      </c>
+      <c r="K19">
+        <v>105.59</v>
+      </c>
+      <c r="L19">
+        <v>100.57</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>102.12</v>
+      </c>
+      <c r="P19">
         <v>90.05</v>
-      </c>
-      <c r="C19">
-        <v>97.54</v>
-      </c>
-      <c r="D19">
-        <v>84.1</v>
-      </c>
-      <c r="E19">
-        <v>40.78</v>
-      </c>
-      <c r="F19">
-        <v>71.52</v>
-      </c>
-      <c r="G19">
-        <v>108.77</v>
-      </c>
-      <c r="H19">
-        <v>102.35</v>
-      </c>
-      <c r="I19">
-        <v>79.92</v>
-      </c>
-      <c r="J19">
-        <v>110.14</v>
-      </c>
-      <c r="K19">
-        <v>104.4</v>
-      </c>
-      <c r="L19">
-        <v>105.59</v>
-      </c>
-      <c r="M19">
-        <v>100.57</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19">
-        <v>102.12</v>
       </c>
       <c r="Q19">
         <v>109.55</v>
       </c>
       <c r="R19">
+        <v>100.99</v>
+      </c>
+      <c r="S19">
         <v>89.59</v>
       </c>
-      <c r="S19">
-        <v>100.99</v>
-      </c>
       <c r="T19">
-        <v>100.08</v>
+        <v>71.52</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3556,61 +3553,61 @@
         <v>2017</v>
       </c>
       <c r="B20">
+        <v>96.59</v>
+      </c>
+      <c r="C20">
+        <v>100.46</v>
+      </c>
+      <c r="D20">
+        <v>39.53</v>
+      </c>
+      <c r="E20">
+        <v>103.33</v>
+      </c>
+      <c r="F20">
+        <v>82.39</v>
+      </c>
+      <c r="G20">
+        <v>99.16</v>
+      </c>
+      <c r="H20">
+        <v>108.95</v>
+      </c>
+      <c r="I20">
+        <v>103.6</v>
+      </c>
+      <c r="J20">
+        <v>84.2</v>
+      </c>
+      <c r="K20">
+        <v>104.33</v>
+      </c>
+      <c r="L20">
+        <v>99.92</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <v>101.84</v>
+      </c>
+      <c r="P20">
         <v>88.7</v>
-      </c>
-      <c r="C20">
-        <v>96.59</v>
-      </c>
-      <c r="D20">
-        <v>84.2</v>
-      </c>
-      <c r="E20">
-        <v>39.53</v>
-      </c>
-      <c r="F20">
-        <v>69.739999999999995</v>
-      </c>
-      <c r="G20">
-        <v>108.95</v>
-      </c>
-      <c r="H20">
-        <v>100.46</v>
-      </c>
-      <c r="I20">
-        <v>82.39</v>
-      </c>
-      <c r="J20">
-        <v>103.33</v>
-      </c>
-      <c r="K20">
-        <v>103.6</v>
-      </c>
-      <c r="L20">
-        <v>104.33</v>
-      </c>
-      <c r="M20">
-        <v>99.92</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20">
-        <v>101.84</v>
       </c>
       <c r="Q20">
         <v>107.37</v>
       </c>
       <c r="R20">
+        <v>99.47</v>
+      </c>
+      <c r="S20">
         <v>89.09</v>
       </c>
-      <c r="S20">
-        <v>99.47</v>
-      </c>
       <c r="T20">
-        <v>99.16</v>
+        <v>69.739999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3618,61 +3615,61 @@
         <v>2018</v>
       </c>
       <c r="B21">
+        <v>95.33</v>
+      </c>
+      <c r="C21">
+        <v>99.25</v>
+      </c>
+      <c r="D21">
+        <v>37.89</v>
+      </c>
+      <c r="E21">
+        <v>99.64</v>
+      </c>
+      <c r="F21">
+        <v>83.14</v>
+      </c>
+      <c r="G21">
+        <v>97.04</v>
+      </c>
+      <c r="H21">
+        <v>108.25</v>
+      </c>
+      <c r="I21">
+        <v>104.5</v>
+      </c>
+      <c r="J21">
+        <v>86.7</v>
+      </c>
+      <c r="K21">
+        <v>106.31</v>
+      </c>
+      <c r="L21">
+        <v>99.37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <v>101.65</v>
+      </c>
+      <c r="P21">
         <v>87.34</v>
-      </c>
-      <c r="C21">
-        <v>95.33</v>
-      </c>
-      <c r="D21">
-        <v>86.7</v>
-      </c>
-      <c r="E21">
-        <v>37.89</v>
-      </c>
-      <c r="F21">
-        <v>69.84</v>
-      </c>
-      <c r="G21">
-        <v>108.25</v>
-      </c>
-      <c r="H21">
-        <v>99.25</v>
-      </c>
-      <c r="I21">
-        <v>83.14</v>
-      </c>
-      <c r="J21">
-        <v>99.64</v>
-      </c>
-      <c r="K21">
-        <v>104.5</v>
-      </c>
-      <c r="L21">
-        <v>106.31</v>
-      </c>
-      <c r="M21">
-        <v>99.37</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21">
-        <v>101.65</v>
       </c>
       <c r="Q21">
         <v>106.61</v>
       </c>
       <c r="R21">
+        <v>98.1</v>
+      </c>
+      <c r="S21">
         <v>88.56</v>
       </c>
-      <c r="S21">
-        <v>98.1</v>
-      </c>
       <c r="T21">
-        <v>97.04</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3680,61 +3677,61 @@
         <v>2019</v>
       </c>
       <c r="B22">
+        <v>95.76</v>
+      </c>
+      <c r="C22">
+        <v>100.64</v>
+      </c>
+      <c r="D22">
+        <v>39.99</v>
+      </c>
+      <c r="E22">
+        <v>103.3</v>
+      </c>
+      <c r="F22">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="G22">
+        <v>96.38</v>
+      </c>
+      <c r="H22">
+        <v>108.98</v>
+      </c>
+      <c r="I22">
+        <v>103.7</v>
+      </c>
+      <c r="J22">
+        <v>84.6</v>
+      </c>
+      <c r="K22">
+        <v>106.75</v>
+      </c>
+      <c r="L22">
+        <v>99.81</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>102.52</v>
+      </c>
+      <c r="P22">
         <v>87.49</v>
-      </c>
-      <c r="C22">
-        <v>95.76</v>
-      </c>
-      <c r="D22">
-        <v>84.6</v>
-      </c>
-      <c r="E22">
-        <v>39.99</v>
-      </c>
-      <c r="F22">
-        <v>70.16</v>
-      </c>
-      <c r="G22">
-        <v>108.98</v>
-      </c>
-      <c r="H22">
-        <v>100.64</v>
-      </c>
-      <c r="I22">
-        <v>80.260000000000005</v>
-      </c>
-      <c r="J22">
-        <v>103.3</v>
-      </c>
-      <c r="K22">
-        <v>103.7</v>
-      </c>
-      <c r="L22">
-        <v>106.75</v>
-      </c>
-      <c r="M22">
-        <v>99.81</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22">
-        <v>102.52</v>
       </c>
       <c r="Q22">
         <v>105.57</v>
       </c>
       <c r="R22">
+        <v>95.92</v>
+      </c>
+      <c r="S22">
         <v>88.4</v>
       </c>
-      <c r="S22">
-        <v>95.92</v>
-      </c>
       <c r="T22">
-        <v>96.38</v>
+        <v>70.16</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3746,7 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -5131,7 +5128,7 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -6513,8 +6510,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7895,8 +7892,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9277,8 +9274,8 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10660,8 +10657,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12042,8 +12039,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13424,8 +13421,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13435,61 +13432,61 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -13497,61 +13494,61 @@
         <v>1999</v>
       </c>
       <c r="B2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+      <c r="D2">
+        <v>3.1</v>
+      </c>
+      <c r="E2">
+        <v>2.4</v>
+      </c>
+      <c r="F2">
+        <v>2.1</v>
+      </c>
+      <c r="G2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="I2">
+        <v>1.7</v>
+      </c>
+      <c r="J2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K2">
+        <v>2.1</v>
+      </c>
+      <c r="L2">
+        <v>1.4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
         <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E2">
-        <v>3.1</v>
-      </c>
-      <c r="F2">
-        <v>1.3</v>
-      </c>
-      <c r="G2">
-        <v>0.6</v>
-      </c>
-      <c r="H2">
-        <v>0.7</v>
-      </c>
-      <c r="I2">
-        <v>2.1</v>
-      </c>
-      <c r="J2">
-        <v>2.4</v>
-      </c>
-      <c r="K2">
-        <v>1.7</v>
-      </c>
-      <c r="L2">
-        <v>2.1</v>
-      </c>
-      <c r="M2">
-        <v>1.4</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
       </c>
       <c r="Q2">
         <v>2.2000000000000002</v>
       </c>
       <c r="R2">
+        <v>6.1</v>
+      </c>
+      <c r="S2">
         <v>10.5</v>
       </c>
-      <c r="S2">
-        <v>6.1</v>
-      </c>
       <c r="T2">
-        <v>2.2000000000000002</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -13559,61 +13556,61 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="D3">
+        <v>3.9</v>
+      </c>
+      <c r="E3">
+        <v>5.3</v>
+      </c>
+      <c r="F3">
+        <v>2.9</v>
+      </c>
+      <c r="G3">
+        <v>3.5</v>
+      </c>
+      <c r="H3">
+        <v>1.8</v>
+      </c>
+      <c r="I3">
+        <v>2.6</v>
+      </c>
+      <c r="J3">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="E3">
-        <v>3.9</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>1.8</v>
-      </c>
-      <c r="H3">
-        <v>1.4</v>
-      </c>
-      <c r="I3">
-        <v>2.9</v>
-      </c>
-      <c r="J3">
-        <v>5.3</v>
       </c>
       <c r="K3">
         <v>2.6</v>
       </c>
       <c r="L3">
-        <v>2.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M3">
-        <v>1.1000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P3">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>2.8</v>
       </c>
       <c r="R3">
+        <v>8.9</v>
+      </c>
+      <c r="S3">
         <v>12.2</v>
       </c>
-      <c r="S3">
-        <v>8.9</v>
-      </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -13621,61 +13618,61 @@
         <v>2001</v>
       </c>
       <c r="B4">
+        <v>2.4</v>
+      </c>
+      <c r="C4">
+        <v>1.9</v>
+      </c>
+      <c r="D4">
+        <v>5.6</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3.6</v>
+      </c>
+      <c r="G4">
+        <v>3.6</v>
+      </c>
+      <c r="H4">
+        <v>1.8</v>
+      </c>
+      <c r="I4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C4">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2.5</v>
+      </c>
+      <c r="L4">
+        <v>1.5</v>
+      </c>
+      <c r="M4">
         <v>2.4</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>5.6</v>
-      </c>
-      <c r="F4">
-        <v>2.7</v>
-      </c>
-      <c r="G4">
-        <v>1.8</v>
-      </c>
-      <c r="H4">
-        <v>1.9</v>
-      </c>
-      <c r="I4">
-        <v>3.6</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
+      <c r="N4">
+        <v>2.5</v>
+      </c>
+      <c r="O4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P4">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="L4">
-        <v>2.5</v>
-      </c>
-      <c r="M4">
-        <v>1.5</v>
-      </c>
-      <c r="N4">
-        <v>2.4</v>
-      </c>
-      <c r="O4">
-        <v>2.5</v>
-      </c>
-      <c r="P4">
-        <v>5.0999999999999996</v>
       </c>
       <c r="Q4">
         <v>4.4000000000000004</v>
       </c>
       <c r="R4">
+        <v>8.4</v>
+      </c>
+      <c r="S4">
         <v>7.1</v>
       </c>
-      <c r="S4">
-        <v>8.4</v>
-      </c>
       <c r="T4">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -13683,61 +13680,61 @@
         <v>2002</v>
       </c>
       <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>3.6</v>
+      </c>
+      <c r="E5">
+        <v>4.7</v>
+      </c>
+      <c r="F5">
+        <v>3.9</v>
+      </c>
+      <c r="G5">
+        <v>3.1</v>
+      </c>
+      <c r="H5">
+        <v>1.9</v>
+      </c>
+      <c r="I5">
+        <v>2.6</v>
+      </c>
+      <c r="J5">
+        <v>2.8</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>2.1</v>
+      </c>
+      <c r="N5">
+        <v>2.6</v>
+      </c>
+      <c r="O5">
+        <v>3.9</v>
+      </c>
+      <c r="P5">
         <v>1.7</v>
-      </c>
-      <c r="C5">
-        <v>1.5</v>
-      </c>
-      <c r="D5">
-        <v>2.8</v>
-      </c>
-      <c r="E5">
-        <v>3.6</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1.9</v>
-      </c>
-      <c r="H5">
-        <v>1.3</v>
-      </c>
-      <c r="I5">
-        <v>3.9</v>
-      </c>
-      <c r="J5">
-        <v>4.7</v>
-      </c>
-      <c r="K5">
-        <v>2.6</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>0.3</v>
-      </c>
-      <c r="N5">
-        <v>2.1</v>
-      </c>
-      <c r="O5">
-        <v>2.6</v>
-      </c>
-      <c r="P5">
-        <v>3.9</v>
       </c>
       <c r="Q5">
         <v>3.7</v>
       </c>
       <c r="R5">
+        <v>7.5</v>
+      </c>
+      <c r="S5">
         <v>3.5</v>
       </c>
-      <c r="S5">
-        <v>7.5</v>
-      </c>
       <c r="T5">
-        <v>3.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -13745,61 +13742,61 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D6">
+        <v>1.4</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1.4</v>
-      </c>
       <c r="F6">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H6">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="I6">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L6">
-        <v>2.9</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="M6">
-        <v>-1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="O6">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P6">
-        <v>2.2000000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="Q6">
         <v>3.2</v>
       </c>
       <c r="R6">
+        <v>5.5</v>
+      </c>
+      <c r="S6">
         <v>8.4</v>
       </c>
-      <c r="S6">
-        <v>5.5</v>
-      </c>
       <c r="T6">
-        <v>3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -13807,61 +13804,61 @@
         <v>2004</v>
       </c>
       <c r="B7">
+        <v>1.9</v>
+      </c>
+      <c r="C7">
+        <v>1.8</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J7">
+        <v>1.9</v>
+      </c>
+      <c r="K7">
+        <v>6.2</v>
+      </c>
+      <c r="L7">
+        <v>1.2</v>
+      </c>
+      <c r="M7">
+        <v>3.2</v>
+      </c>
+      <c r="N7">
+        <v>2.7</v>
+      </c>
+      <c r="O7">
+        <v>1.4</v>
+      </c>
+      <c r="P7">
         <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1.9</v>
-      </c>
-      <c r="D7">
-        <v>1.9</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>0.1</v>
-      </c>
-      <c r="G7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H7">
-        <v>1.8</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L7">
-        <v>6.2</v>
-      </c>
-      <c r="M7">
-        <v>1.2</v>
-      </c>
-      <c r="N7">
-        <v>3.2</v>
-      </c>
-      <c r="O7">
-        <v>2.7</v>
-      </c>
-      <c r="P7">
-        <v>1.4</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
       </c>
       <c r="R7">
+        <v>3.6</v>
+      </c>
+      <c r="S7">
         <v>7.5</v>
       </c>
-      <c r="S7">
-        <v>3.6</v>
-      </c>
       <c r="T7">
-        <v>3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -13869,61 +13866,61 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E8">
-        <v>4.0999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F8">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="G8">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H8">
         <v>1.9</v>
       </c>
       <c r="I8">
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J8">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>2.2000000000000002</v>
+        <v>6.9</v>
       </c>
       <c r="L8">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="M8">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="O8">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
         <v>2.1</v>
       </c>
       <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
         <v>2.8</v>
       </c>
-      <c r="S8">
-        <v>2.5</v>
-      </c>
       <c r="T8">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -13931,46 +13928,46 @@
         <v>2006</v>
       </c>
       <c r="B9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C9">
+        <v>1.8</v>
+      </c>
+      <c r="D9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9">
+        <v>2.7</v>
+      </c>
+      <c r="F9">
+        <v>3.3</v>
+      </c>
+      <c r="G9">
+        <v>3.5</v>
+      </c>
+      <c r="H9">
+        <v>1.9</v>
+      </c>
+      <c r="I9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K9">
+        <v>6.6</v>
+      </c>
+      <c r="L9">
+        <v>3.8</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2.6</v>
+      </c>
+      <c r="O9">
         <v>1.7</v>
-      </c>
-      <c r="C9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F9">
-        <v>1.3</v>
-      </c>
-      <c r="G9">
-        <v>1.9</v>
-      </c>
-      <c r="H9">
-        <v>1.8</v>
-      </c>
-      <c r="I9">
-        <v>3.3</v>
-      </c>
-      <c r="J9">
-        <v>2.7</v>
-      </c>
-      <c r="K9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L9">
-        <v>6.6</v>
-      </c>
-      <c r="M9">
-        <v>3.8</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>2.6</v>
       </c>
       <c r="P9">
         <v>1.7</v>
@@ -13979,13 +13976,13 @@
         <v>3</v>
       </c>
       <c r="R9">
+        <v>2.5</v>
+      </c>
+      <c r="S9">
         <v>4.3</v>
       </c>
-      <c r="S9">
-        <v>2.5</v>
-      </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -13993,61 +13990,61 @@
         <v>2007</v>
       </c>
       <c r="B10">
+        <v>1.8</v>
+      </c>
+      <c r="C10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D10">
+        <v>6.7</v>
+      </c>
+      <c r="E10">
+        <v>2.9</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2.8</v>
+      </c>
+      <c r="H10">
+        <v>1.6</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C10">
-        <v>1.8</v>
-      </c>
-      <c r="D10">
+      <c r="K10">
+        <v>10.1</v>
+      </c>
+      <c r="L10">
+        <v>5.8</v>
+      </c>
+      <c r="M10">
+        <v>2.7</v>
+      </c>
+      <c r="N10">
+        <v>0.7</v>
+      </c>
+      <c r="O10">
+        <v>1.6</v>
+      </c>
+      <c r="P10">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="E10">
-        <v>6.7</v>
-      </c>
-      <c r="F10">
-        <v>1.6</v>
-      </c>
-      <c r="G10">
-        <v>1.6</v>
-      </c>
-      <c r="H10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>2.9</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>10.1</v>
-      </c>
-      <c r="M10">
-        <v>5.8</v>
-      </c>
-      <c r="N10">
-        <v>2.7</v>
-      </c>
-      <c r="O10">
-        <v>0.7</v>
-      </c>
-      <c r="P10">
-        <v>1.6</v>
       </c>
       <c r="Q10">
         <v>2.4</v>
       </c>
       <c r="R10">
+        <v>3.7</v>
+      </c>
+      <c r="S10">
         <v>1.9</v>
       </c>
-      <c r="S10">
-        <v>3.7</v>
-      </c>
       <c r="T10">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -14055,61 +14052,61 @@
         <v>2008</v>
       </c>
       <c r="B11">
+        <v>4.5</v>
+      </c>
+      <c r="C11">
+        <v>2.7</v>
+      </c>
+      <c r="D11">
+        <v>10.6</v>
+      </c>
+      <c r="E11">
+        <v>3.1</v>
+      </c>
+      <c r="F11">
+        <v>4.2</v>
+      </c>
+      <c r="G11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H11">
         <v>3.2</v>
       </c>
-      <c r="C11">
-        <v>4.5</v>
-      </c>
-      <c r="D11">
+      <c r="I11">
+        <v>3.5</v>
+      </c>
+      <c r="J11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E11">
-        <v>10.6</v>
-      </c>
-      <c r="F11">
-        <v>3.9</v>
-      </c>
-      <c r="G11">
+      <c r="K11">
+        <v>15.3</v>
+      </c>
+      <c r="L11">
+        <v>11.2</v>
+      </c>
+      <c r="M11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N11">
+        <v>4.7</v>
+      </c>
+      <c r="O11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P11">
         <v>3.2</v>
-      </c>
-      <c r="H11">
-        <v>2.7</v>
-      </c>
-      <c r="I11">
-        <v>4.2</v>
-      </c>
-      <c r="J11">
-        <v>3.1</v>
-      </c>
-      <c r="K11">
-        <v>3.5</v>
-      </c>
-      <c r="L11">
-        <v>15.3</v>
-      </c>
-      <c r="M11">
-        <v>11.2</v>
-      </c>
-      <c r="N11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O11">
-        <v>4.7</v>
-      </c>
-      <c r="P11">
-        <v>2.2000000000000002</v>
       </c>
       <c r="Q11">
         <v>2.7</v>
       </c>
       <c r="R11">
+        <v>5.7</v>
+      </c>
+      <c r="S11">
         <v>4</v>
       </c>
-      <c r="S11">
-        <v>5.7</v>
-      </c>
       <c r="T11">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -14117,61 +14114,61 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
         <v>0.2</v>
       </c>
       <c r="E12">
+        <v>-1.7</v>
+      </c>
+      <c r="F12">
+        <v>1.3</v>
+      </c>
+      <c r="G12">
+        <v>-0.3</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="I12">
+        <v>0.8</v>
+      </c>
+      <c r="J12">
         <v>0.2</v>
       </c>
-      <c r="F12">
-        <v>1.6</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>0.2</v>
-      </c>
-      <c r="I12">
-        <v>1.3</v>
-      </c>
-      <c r="J12">
-        <v>-1.7</v>
-      </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q12">
         <v>-0.9</v>
       </c>
       <c r="R12">
+        <v>0.8</v>
+      </c>
+      <c r="S12">
         <v>0.9</v>
       </c>
-      <c r="S12">
-        <v>0.8</v>
-      </c>
       <c r="T12">
-        <v>-0.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -14179,61 +14176,61 @@
         <v>2010</v>
       </c>
       <c r="B13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13">
+        <v>2.7</v>
+      </c>
+      <c r="E13">
+        <v>-1.6</v>
+      </c>
+      <c r="F13">
+        <v>4.7</v>
+      </c>
+      <c r="G13">
+        <v>1.8</v>
+      </c>
+      <c r="H13">
         <v>1.7</v>
       </c>
-      <c r="C13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D13">
+      <c r="I13">
+        <v>1.6</v>
+      </c>
+      <c r="J13">
         <v>2.6</v>
       </c>
-      <c r="E13">
-        <v>2.7</v>
-      </c>
-      <c r="F13">
+      <c r="K13">
+        <v>-1.2</v>
+      </c>
+      <c r="L13">
+        <v>1.2</v>
+      </c>
+      <c r="M13">
+        <v>2.8</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>0.9</v>
+      </c>
+      <c r="P13">
         <v>1.7</v>
-      </c>
-      <c r="G13">
-        <v>1.7</v>
-      </c>
-      <c r="H13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I13">
-        <v>4.7</v>
-      </c>
-      <c r="J13">
-        <v>-1.6</v>
-      </c>
-      <c r="K13">
-        <v>1.6</v>
-      </c>
-      <c r="L13">
-        <v>-1.2</v>
-      </c>
-      <c r="M13">
-        <v>1.2</v>
-      </c>
-      <c r="N13">
-        <v>2.8</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>0.9</v>
       </c>
       <c r="Q13">
         <v>1.4</v>
       </c>
       <c r="R13">
+        <v>1.8</v>
+      </c>
+      <c r="S13">
         <v>0.7</v>
       </c>
-      <c r="S13">
-        <v>1.8</v>
-      </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -14241,61 +14238,61 @@
         <v>2011</v>
       </c>
       <c r="B14">
+        <v>3.4</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E14">
+        <v>1.2</v>
+      </c>
+      <c r="F14">
+        <v>3.1</v>
+      </c>
+      <c r="G14">
+        <v>3.2</v>
+      </c>
+      <c r="H14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I14">
+        <v>2.9</v>
+      </c>
+      <c r="J14">
         <v>3.5</v>
       </c>
-      <c r="C14">
-        <v>3.4</v>
-      </c>
-      <c r="D14">
-        <v>3.5</v>
-      </c>
-      <c r="E14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F14">
-        <v>3.3</v>
-      </c>
-      <c r="G14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H14">
+      <c r="K14">
+        <v>4.2</v>
+      </c>
+      <c r="L14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M14">
+        <v>3.7</v>
+      </c>
+      <c r="N14">
         <v>2.5</v>
-      </c>
-      <c r="I14">
-        <v>3.1</v>
-      </c>
-      <c r="J14">
-        <v>1.2</v>
-      </c>
-      <c r="K14">
-        <v>2.9</v>
-      </c>
-      <c r="L14">
-        <v>4.2</v>
-      </c>
-      <c r="M14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N14">
-        <v>3.7</v>
       </c>
       <c r="O14">
         <v>2.5</v>
       </c>
       <c r="P14">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
         <v>3.6</v>
       </c>
       <c r="R14">
+        <v>1.8</v>
+      </c>
+      <c r="S14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S14">
-        <v>1.8</v>
-      </c>
       <c r="T14">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -14306,58 +14303,58 @@
         <v>2.6</v>
       </c>
       <c r="C15">
+        <v>2.1</v>
+      </c>
+      <c r="D15">
+        <v>4.2</v>
+      </c>
+      <c r="E15">
+        <v>1.9</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.4</v>
+      </c>
+      <c r="H15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I15">
+        <v>3.3</v>
+      </c>
+      <c r="J15">
+        <v>3.1</v>
+      </c>
+      <c r="K15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L15">
+        <v>3.2</v>
+      </c>
+      <c r="M15">
+        <v>2.9</v>
+      </c>
+      <c r="N15">
+        <v>3.2</v>
+      </c>
+      <c r="O15">
+        <v>2.8</v>
+      </c>
+      <c r="P15">
         <v>2.6</v>
-      </c>
-      <c r="D15">
-        <v>3.1</v>
-      </c>
-      <c r="E15">
-        <v>4.2</v>
-      </c>
-      <c r="F15">
-        <v>3.2</v>
-      </c>
-      <c r="G15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H15">
-        <v>2.1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1.9</v>
-      </c>
-      <c r="K15">
-        <v>3.3</v>
-      </c>
-      <c r="L15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M15">
-        <v>3.2</v>
-      </c>
-      <c r="N15">
-        <v>2.9</v>
-      </c>
-      <c r="O15">
-        <v>3.2</v>
-      </c>
-      <c r="P15">
-        <v>2.8</v>
       </c>
       <c r="Q15">
         <v>2.8</v>
       </c>
       <c r="R15">
+        <v>2.6</v>
+      </c>
+      <c r="S15">
         <v>3.7</v>
       </c>
-      <c r="S15">
-        <v>2.6</v>
-      </c>
       <c r="T15">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -14365,61 +14362,61 @@
         <v>2013</v>
       </c>
       <c r="B16">
+        <v>1.2</v>
+      </c>
+      <c r="C16">
+        <v>1.6</v>
+      </c>
+      <c r="D16">
+        <v>3.2</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>-0.9</v>
+      </c>
+      <c r="G16">
+        <v>1.4</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.2</v>
+      </c>
+      <c r="J16">
+        <v>0.4</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1.2</v>
+      </c>
+      <c r="M16">
+        <v>1.7</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>2.6</v>
+      </c>
+      <c r="P16">
         <v>2.1</v>
-      </c>
-      <c r="C16">
-        <v>1.2</v>
-      </c>
-      <c r="D16">
-        <v>0.4</v>
-      </c>
-      <c r="E16">
-        <v>3.2</v>
-      </c>
-      <c r="F16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1.6</v>
-      </c>
-      <c r="I16">
-        <v>-0.9</v>
-      </c>
-      <c r="J16">
-        <v>0.5</v>
-      </c>
-      <c r="K16">
-        <v>1.2</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1.2</v>
-      </c>
-      <c r="N16">
-        <v>1.7</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>2.6</v>
       </c>
       <c r="Q16">
         <v>0.4</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
         <v>1.5</v>
       </c>
-      <c r="S16">
-        <v>1.8</v>
-      </c>
       <c r="T16">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -14427,61 +14424,61 @@
         <v>2014</v>
       </c>
       <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17">
+        <v>-1.4</v>
+      </c>
+      <c r="G17">
+        <v>-0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.6</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>-0.3</v>
+      </c>
+      <c r="K17">
+        <v>0.7</v>
+      </c>
+      <c r="L17">
+        <v>0.2</v>
+      </c>
+      <c r="M17">
+        <v>0.7</v>
+      </c>
+      <c r="N17">
+        <v>0.8</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+      <c r="P17">
         <v>1.5</v>
-      </c>
-      <c r="C17">
-        <v>0.5</v>
-      </c>
-      <c r="D17">
-        <v>-0.3</v>
-      </c>
-      <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17">
-        <v>1.2</v>
-      </c>
-      <c r="G17">
-        <v>0.6</v>
-      </c>
-      <c r="H17">
-        <v>0.8</v>
-      </c>
-      <c r="I17">
-        <v>-1.4</v>
-      </c>
-      <c r="J17">
-        <v>0.3</v>
-      </c>
-      <c r="K17">
-        <v>0.2</v>
-      </c>
-      <c r="L17">
-        <v>0.7</v>
-      </c>
-      <c r="M17">
-        <v>0.2</v>
-      </c>
-      <c r="N17">
-        <v>0.7</v>
-      </c>
-      <c r="O17">
-        <v>0.8</v>
-      </c>
-      <c r="P17">
-        <v>0.3</v>
       </c>
       <c r="Q17">
         <v>-0.2</v>
       </c>
       <c r="R17">
+        <v>0.2</v>
+      </c>
+      <c r="S17">
         <v>-0.1</v>
       </c>
-      <c r="S17">
-        <v>0.2</v>
-      </c>
       <c r="T17">
-        <v>-0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -14489,61 +14486,61 @@
         <v>2015</v>
       </c>
       <c r="B18">
+        <v>0.6</v>
+      </c>
+      <c r="C18">
+        <v>0.7</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G18">
+        <v>-0.5</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>-1.5</v>
+      </c>
+      <c r="K18">
+        <v>0.2</v>
+      </c>
+      <c r="L18">
+        <v>-0.7</v>
+      </c>
+      <c r="M18">
+        <v>0.1</v>
+      </c>
+      <c r="N18">
+        <v>1.2</v>
+      </c>
+      <c r="O18">
+        <v>0.2</v>
+      </c>
+      <c r="P18">
         <v>0.8</v>
-      </c>
-      <c r="C18">
-        <v>0.6</v>
-      </c>
-      <c r="D18">
-        <v>-1.5</v>
-      </c>
-      <c r="E18">
-        <v>0.1</v>
-      </c>
-      <c r="F18">
-        <v>-0.2</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>0.7</v>
-      </c>
-      <c r="I18">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0.1</v>
-      </c>
-      <c r="L18">
-        <v>0.2</v>
-      </c>
-      <c r="M18">
-        <v>-0.7</v>
-      </c>
-      <c r="N18">
-        <v>0.1</v>
-      </c>
-      <c r="O18">
-        <v>1.2</v>
-      </c>
-      <c r="P18">
-        <v>0.2</v>
       </c>
       <c r="Q18">
         <v>0.5</v>
       </c>
       <c r="R18">
+        <v>-0.5</v>
+      </c>
+      <c r="S18">
         <v>-0.3</v>
       </c>
-      <c r="S18">
-        <v>-0.5</v>
-      </c>
       <c r="T18">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -14551,61 +14548,61 @@
         <v>2016</v>
       </c>
       <c r="B19">
+        <v>1.8</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>-0.2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>-0.2</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+      <c r="I19">
+        <v>-0.1</v>
+      </c>
+      <c r="J19">
+        <v>-1.2</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19">
+        <v>0.7</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.9</v>
+      </c>
+      <c r="O19">
+        <v>0.1</v>
+      </c>
+      <c r="P19">
         <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1.8</v>
-      </c>
-      <c r="D19">
-        <v>-1.2</v>
-      </c>
-      <c r="E19">
-        <v>0.8</v>
-      </c>
-      <c r="F19">
-        <v>0.4</v>
-      </c>
-      <c r="G19">
-        <v>0.3</v>
-      </c>
-      <c r="H19">
-        <v>0.4</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>-0.2</v>
-      </c>
-      <c r="K19">
-        <v>-0.1</v>
-      </c>
-      <c r="L19">
-        <v>0.1</v>
-      </c>
-      <c r="M19">
-        <v>0.7</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0.9</v>
-      </c>
-      <c r="P19">
-        <v>0.1</v>
       </c>
       <c r="Q19">
         <v>0.6</v>
       </c>
       <c r="R19">
+        <v>-0.1</v>
+      </c>
+      <c r="S19">
         <v>-0.5</v>
       </c>
-      <c r="S19">
-        <v>-0.1</v>
-      </c>
       <c r="T19">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -14616,46 +14613,46 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C20">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="D20">
+        <v>3.7</v>
+      </c>
+      <c r="E20">
+        <v>0.3</v>
+      </c>
+      <c r="F20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1.2</v>
+      </c>
+      <c r="I20">
+        <v>1.3</v>
+      </c>
+      <c r="J20">
         <v>0.7</v>
       </c>
-      <c r="E20">
+      <c r="K20">
+        <v>2.9</v>
+      </c>
+      <c r="L20">
         <v>3.7</v>
       </c>
-      <c r="F20">
-        <v>0.8</v>
-      </c>
-      <c r="G20">
-        <v>1.2</v>
-      </c>
-      <c r="H20">
-        <v>1.7</v>
-      </c>
-      <c r="I20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J20">
-        <v>0.3</v>
-      </c>
-      <c r="K20">
+      <c r="M20">
+        <v>2.1</v>
+      </c>
+      <c r="N20">
         <v>1.3</v>
-      </c>
-      <c r="L20">
-        <v>2.9</v>
-      </c>
-      <c r="M20">
-        <v>3.7</v>
-      </c>
-      <c r="N20">
-        <v>2.1</v>
       </c>
       <c r="O20">
         <v>1.3</v>
       </c>
       <c r="P20">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q20">
         <v>1.6</v>
@@ -14667,7 +14664,7 @@
         <v>1.4</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -14675,61 +14672,61 @@
         <v>2018</v>
       </c>
       <c r="B21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3.4</v>
+      </c>
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+      <c r="F21">
+        <v>0.8</v>
+      </c>
+      <c r="G21">
+        <v>1.7</v>
+      </c>
+      <c r="H21">
         <v>2.1</v>
       </c>
-      <c r="C21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D21">
+      <c r="I21">
+        <v>1.2</v>
+      </c>
+      <c r="J21">
         <v>0.8</v>
       </c>
-      <c r="E21">
-        <v>3.4</v>
-      </c>
-      <c r="F21">
-        <v>1.2</v>
-      </c>
-      <c r="G21">
+      <c r="K21">
+        <v>2.6</v>
+      </c>
+      <c r="L21">
+        <v>2.5</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>1.7</v>
+      </c>
+      <c r="O21">
+        <v>1.6</v>
+      </c>
+      <c r="P21">
         <v>2.1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>0.8</v>
-      </c>
-      <c r="J21">
-        <v>0.7</v>
-      </c>
-      <c r="K21">
-        <v>1.2</v>
-      </c>
-      <c r="L21">
-        <v>2.6</v>
-      </c>
-      <c r="M21">
-        <v>2.5</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21">
-        <v>1.7</v>
-      </c>
-      <c r="P21">
-        <v>1.6</v>
       </c>
       <c r="Q21">
         <v>1.2</v>
       </c>
       <c r="R21">
+        <v>1.7</v>
+      </c>
+      <c r="S21">
         <v>2.5</v>
       </c>
-      <c r="S21">
-        <v>1.7</v>
-      </c>
       <c r="T21">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -14737,61 +14734,61 @@
         <v>2019</v>
       </c>
       <c r="B22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C22">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D22">
-        <v>0.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E22">
-        <v>2.2999999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="F22">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H22">
         <v>1.3</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J22">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="L22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M22">
+        <v>1.7</v>
+      </c>
+      <c r="N22">
+        <v>1.5</v>
+      </c>
+      <c r="O22">
         <v>2.7</v>
       </c>
-      <c r="M22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N22">
-        <v>1.7</v>
-      </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.5</v>
-      </c>
-      <c r="P22">
-        <v>2.7</v>
       </c>
       <c r="Q22">
         <v>0.3</v>
       </c>
       <c r="R22">
+        <v>1.6</v>
+      </c>
+      <c r="S22">
         <v>2.8</v>
       </c>
-      <c r="S22">
-        <v>1.6</v>
-      </c>
       <c r="T22">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14806,8 +14803,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14817,61 +14814,61 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -14879,61 +14876,61 @@
         <v>1999</v>
       </c>
       <c r="B2">
+        <v>0.67083900226757398</v>
+      </c>
+      <c r="C2">
+        <v>0.62485260770975104</v>
+      </c>
+      <c r="D2">
+        <v>0.12755102040816363</v>
+      </c>
+      <c r="E2">
+        <v>0.47675736961451337</v>
+      </c>
+      <c r="F2">
+        <v>1.0000000000000018E-2</v>
+      </c>
+      <c r="G2">
+        <v>9.0702947845806032E-3</v>
+      </c>
+      <c r="H2">
+        <v>0.86224489795918435</v>
+      </c>
+      <c r="I2">
+        <v>5.8049886621315454E-3</v>
+      </c>
+      <c r="J2">
+        <v>0.40716553287981883</v>
+      </c>
+      <c r="K2">
+        <v>2.1651020408163268</v>
+      </c>
+      <c r="L2">
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="M2">
+        <v>1.4514512471655343</v>
+      </c>
+      <c r="N2">
+        <v>5.4444444444444469E-2</v>
+      </c>
+      <c r="O2">
+        <v>1.0000000000000018E-2</v>
+      </c>
+      <c r="P2">
         <v>1.7651020408163269</v>
-      </c>
-      <c r="C2">
-        <v>0.67083900226757398</v>
-      </c>
-      <c r="D2">
-        <v>0.40716553287981883</v>
-      </c>
-      <c r="E2">
-        <v>0.12755102040816363</v>
-      </c>
-      <c r="F2">
-        <v>0.11755102040816319</v>
-      </c>
-      <c r="G2">
-        <v>0.86224489795918435</v>
-      </c>
-      <c r="H2">
-        <v>0.62485260770975104</v>
-      </c>
-      <c r="I2">
-        <v>1.0000000000000018E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.47675736961451337</v>
-      </c>
-      <c r="K2">
-        <v>5.8049886621315454E-3</v>
-      </c>
-      <c r="L2">
-        <v>2.1651020408163268</v>
-      </c>
-      <c r="M2">
-        <v>1.0000000000000018</v>
-      </c>
-      <c r="N2">
-        <v>1.4514512471655343</v>
-      </c>
-      <c r="O2">
-        <v>5.4444444444444469E-2</v>
-      </c>
-      <c r="P2">
-        <v>1.0000000000000018E-2</v>
       </c>
       <c r="Q2">
         <v>7.8934240362811978E-2</v>
       </c>
       <c r="R2">
+        <v>8.3273469387755075</v>
+      </c>
+      <c r="S2">
         <v>45.466122448979583</v>
       </c>
-      <c r="S2">
-        <v>8.3273469387755075</v>
-      </c>
       <c r="T2">
-        <v>9.0702947845806032E-3</v>
+        <v>0.11755102040816319</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -14941,61 +14938,61 @@
         <v>2000</v>
       </c>
       <c r="B3">
+        <v>0.60988662131519256</v>
+      </c>
+      <c r="C3">
+        <v>8.1859410430839621E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.19612244897959122</v>
+      </c>
+      <c r="E3">
+        <v>12.891519274376421</v>
+      </c>
+      <c r="F3">
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="G3">
+        <v>1.9466893424036291</v>
+      </c>
+      <c r="H3">
+        <v>7.3673469387754945E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.67866213151927435</v>
+      </c>
+      <c r="J3">
+        <v>9.9976417233560113</v>
+      </c>
+      <c r="K3">
+        <v>0.94367346938775531</v>
+      </c>
+      <c r="L3">
+        <v>1.6900000000000019</v>
+      </c>
+      <c r="M3">
+        <v>2.5447845804988636</v>
+      </c>
+      <c r="N3">
+        <v>0.8711111111111115</v>
+      </c>
+      <c r="O3">
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="P3">
         <v>2.9387755102040759E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.60988662131519256</v>
-      </c>
-      <c r="D3">
-        <v>9.9976417233560113</v>
-      </c>
-      <c r="E3">
-        <v>0.19612244897959122</v>
-      </c>
-      <c r="F3">
-        <v>1.8418367346938778</v>
-      </c>
-      <c r="G3">
-        <v>7.3673469387754945E-2</v>
-      </c>
-      <c r="H3">
-        <v>8.1859410430839621E-3</v>
-      </c>
-      <c r="I3">
-        <v>0.80999999999999983</v>
-      </c>
-      <c r="J3">
-        <v>12.891519274376421</v>
-      </c>
-      <c r="K3">
-        <v>0.67866213151927435</v>
-      </c>
-      <c r="L3">
-        <v>0.94367346938775531</v>
-      </c>
-      <c r="M3">
-        <v>1.6900000000000019</v>
-      </c>
-      <c r="N3">
-        <v>2.5447845804988636</v>
-      </c>
-      <c r="O3">
-        <v>0.8711111111111115</v>
-      </c>
-      <c r="P3">
-        <v>0.15999999999999992</v>
       </c>
       <c r="Q3">
         <v>0.77607709750566889</v>
       </c>
       <c r="R3">
+        <v>32.327346938775513</v>
+      </c>
+      <c r="S3">
         <v>71.281836734693854</v>
       </c>
-      <c r="S3">
-        <v>32.327346938775513</v>
-      </c>
       <c r="T3">
-        <v>1.9466893424036291</v>
+        <v>1.8418367346938778</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -15003,61 +15000,61 @@
         <v>2001</v>
       </c>
       <c r="B4">
+        <v>0.2313151927437638</v>
+      </c>
+      <c r="C4">
+        <v>0.16770975056689313</v>
+      </c>
+      <c r="D4">
+        <v>4.5918367346938735</v>
+      </c>
+      <c r="E4">
+        <v>5.2462811791383253</v>
+      </c>
+      <c r="F4">
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="G4">
+        <v>2.2357369614512486</v>
+      </c>
+      <c r="H4">
+        <v>7.3673469387754945E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.27437641723355977</v>
+      </c>
+      <c r="J4">
+        <v>6.8594104308389886E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.1479591836734697</v>
+      </c>
+      <c r="L4">
+        <v>0.81000000000000139</v>
+      </c>
+      <c r="M4">
+        <v>3.8117913832199278E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.18777777777777799</v>
+      </c>
+      <c r="O4">
+        <v>10.239999999999998</v>
+      </c>
+      <c r="P4">
         <v>0.22224489795918334</v>
-      </c>
-      <c r="C4">
-        <v>0.2313151927437638</v>
-      </c>
-      <c r="D4">
-        <v>6.8594104308389886E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.5918367346938735</v>
-      </c>
-      <c r="F4">
-        <v>1.1175510204081638</v>
-      </c>
-      <c r="G4">
-        <v>7.3673469387754945E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.16770975056689313</v>
-      </c>
-      <c r="I4">
-        <v>2.5600000000000005</v>
-      </c>
-      <c r="J4">
-        <v>5.2462811791383253</v>
-      </c>
-      <c r="K4">
-        <v>0.27437641723355977</v>
-      </c>
-      <c r="L4">
-        <v>1.1479591836734697</v>
-      </c>
-      <c r="M4">
-        <v>0.81000000000000139</v>
-      </c>
-      <c r="N4">
-        <v>3.8117913832199278E-2</v>
-      </c>
-      <c r="O4">
-        <v>0.18777777777777799</v>
-      </c>
-      <c r="P4">
-        <v>10.239999999999998</v>
       </c>
       <c r="Q4">
         <v>6.1551247165532903</v>
       </c>
       <c r="R4">
+        <v>26.891632653061226</v>
+      </c>
+      <c r="S4">
         <v>11.174693877551015</v>
       </c>
-      <c r="S4">
-        <v>26.891632653061226</v>
-      </c>
       <c r="T4">
-        <v>2.2357369614512486</v>
+        <v>1.1175510204081638</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -15065,61 +15062,61 @@
         <v>2002</v>
       </c>
       <c r="B5">
+        <v>0.1756009070294787</v>
+      </c>
+      <c r="C5">
+        <v>3.6281179138322073E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.0408163265305979E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.9429478458049942</v>
+      </c>
+      <c r="F5">
+        <v>3.61</v>
+      </c>
+      <c r="G5">
+        <v>0.99049886621315286</v>
+      </c>
+      <c r="H5">
+        <v>0.13795918367346907</v>
+      </c>
+      <c r="I5">
+        <v>0.67866213151927435</v>
+      </c>
+      <c r="J5">
+        <v>1.1276417233560081</v>
+      </c>
+      <c r="K5">
+        <v>2.4693877551020416</v>
+      </c>
+      <c r="L5">
+        <v>4.4100000000000037</v>
+      </c>
+      <c r="M5">
+        <v>1.0975056689342512E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.28444444444444478</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
         <v>1.6530612244898012E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.1756009070294787</v>
-      </c>
-      <c r="D5">
-        <v>1.1276417233560081</v>
-      </c>
-      <c r="E5">
-        <v>2.0408163265305979E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.12755102040816332</v>
-      </c>
-      <c r="G5">
-        <v>0.13795918367346907</v>
-      </c>
-      <c r="H5">
-        <v>3.6281179138322073E-2</v>
-      </c>
-      <c r="I5">
-        <v>3.61</v>
-      </c>
-      <c r="J5">
-        <v>8.9429478458049942</v>
-      </c>
-      <c r="K5">
-        <v>0.67866213151927435</v>
-      </c>
-      <c r="L5">
-        <v>2.4693877551020416</v>
-      </c>
-      <c r="M5">
-        <v>4.4100000000000037</v>
-      </c>
-      <c r="N5">
-        <v>1.0975056689342512E-2</v>
-      </c>
-      <c r="O5">
-        <v>0.28444444444444478</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
       </c>
       <c r="Q5">
         <v>3.171791383219956</v>
       </c>
       <c r="R5">
+        <v>18.367346938775508</v>
+      </c>
+      <c r="S5">
         <v>6.6122448979592047E-2</v>
       </c>
-      <c r="S5">
-        <v>18.367346938775508</v>
-      </c>
       <c r="T5">
-        <v>0.99049886621315286</v>
+        <v>0.12755102040816332</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -15127,61 +15124,61 @@
         <v>2003</v>
       </c>
       <c r="B6">
+        <v>0.1756009070294787</v>
+      </c>
+      <c r="C6">
+        <v>0.15247165532879831</v>
+      </c>
+      <c r="D6">
+        <v>4.2318367346938803</v>
+      </c>
+      <c r="E6">
+        <v>5.2462811791383253</v>
+      </c>
+      <c r="F6">
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.80145124716553351</v>
+      </c>
+      <c r="H6">
+        <v>0.45081632653061204</v>
+      </c>
+      <c r="I6">
+        <v>1.0481859410430834</v>
+      </c>
+      <c r="J6">
+        <v>5.1162131519274379</v>
+      </c>
+      <c r="K6">
+        <v>0.4508163265306126</v>
+      </c>
+      <c r="L6">
+        <v>12.250000000000007</v>
+      </c>
+      <c r="M6">
+        <v>8.7165532879818236E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.7777777777777728E-2</v>
+      </c>
+      <c r="O6">
+        <v>9.0000000000000163E-2</v>
+      </c>
+      <c r="P6">
         <v>0.27938775510204095</v>
-      </c>
-      <c r="C6">
-        <v>0.1756009070294787</v>
-      </c>
-      <c r="D6">
-        <v>5.1162131519274379</v>
-      </c>
-      <c r="E6">
-        <v>4.2318367346938803</v>
-      </c>
-      <c r="F6">
-        <v>0.11755102040816319</v>
-      </c>
-      <c r="G6">
-        <v>0.45081632653061204</v>
-      </c>
-      <c r="H6">
-        <v>0.15247165532879831</v>
-      </c>
-      <c r="I6">
-        <v>1.9599999999999997</v>
-      </c>
-      <c r="J6">
-        <v>5.2462811791383253</v>
-      </c>
-      <c r="K6">
-        <v>1.0481859410430834</v>
-      </c>
-      <c r="L6">
-        <v>0.4508163265306126</v>
-      </c>
-      <c r="M6">
-        <v>12.250000000000007</v>
-      </c>
-      <c r="N6">
-        <v>8.7165532879818236E-2</v>
-      </c>
-      <c r="O6">
-        <v>2.7777777777777728E-2</v>
-      </c>
-      <c r="P6">
-        <v>9.0000000000000163E-2</v>
       </c>
       <c r="Q6">
         <v>1.6408390022675745</v>
       </c>
       <c r="R6">
+        <v>5.2244897959183669</v>
+      </c>
+      <c r="S6">
         <v>21.556122448979586</v>
       </c>
-      <c r="S6">
-        <v>5.2244897959183669</v>
-      </c>
       <c r="T6">
-        <v>0.80145124716553351</v>
+        <v>0.11755102040816319</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -15189,61 +15186,61 @@
         <v>2004</v>
       </c>
       <c r="B7">
+        <v>3.6281179138323427E-4</v>
+      </c>
+      <c r="C7">
+        <v>9.5804988662131385E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.20897959183673523</v>
+      </c>
+      <c r="E7">
+        <v>0.34866213151927505</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.80145124716553351</v>
+      </c>
+      <c r="H7">
+        <v>0.59510204081632567</v>
+      </c>
+      <c r="I7">
+        <v>0.27437641723355977</v>
+      </c>
+      <c r="J7">
+        <v>2.6213151927437527E-2</v>
+      </c>
+      <c r="K7">
+        <v>6.9093877551020411</v>
+      </c>
+      <c r="L7">
+        <v>1.4400000000000019</v>
+      </c>
+      <c r="M7">
+        <v>0.99049886621315109</v>
+      </c>
+      <c r="N7">
+        <v>0.40111111111111164</v>
+      </c>
+      <c r="O7">
+        <v>0.25</v>
+      </c>
+      <c r="P7">
         <v>2.9387755102040759E-2</v>
-      </c>
-      <c r="C7">
-        <v>3.6281179138323427E-4</v>
-      </c>
-      <c r="D7">
-        <v>2.6213151927437527E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.20897959183673523</v>
-      </c>
-      <c r="F7">
-        <v>2.3804081632653058</v>
-      </c>
-      <c r="G7">
-        <v>0.59510204081632567</v>
-      </c>
-      <c r="H7">
-        <v>9.5804988662131385E-2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.34866213151927505</v>
-      </c>
-      <c r="K7">
-        <v>0.27437641723355977</v>
-      </c>
-      <c r="L7">
-        <v>6.9093877551020411</v>
-      </c>
-      <c r="M7">
-        <v>1.4400000000000019</v>
-      </c>
-      <c r="N7">
-        <v>0.99049886621315109</v>
-      </c>
-      <c r="O7">
-        <v>0.40111111111111164</v>
-      </c>
-      <c r="P7">
-        <v>0.25</v>
       </c>
       <c r="Q7">
         <v>0.33750566893424055</v>
       </c>
       <c r="R7">
+        <v>0.14877551020408161</v>
+      </c>
+      <c r="S7">
         <v>14.008979591836731</v>
       </c>
-      <c r="S7">
-        <v>0.14877551020408161</v>
-      </c>
       <c r="T7">
-        <v>0.80145124716553351</v>
+        <v>2.3804081632653058</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -15251,61 +15248,61 @@
         <v>2005</v>
       </c>
       <c r="B8">
+        <v>0.33750566893424006</v>
+      </c>
+      <c r="C8">
+        <v>0.16770975056689313</v>
+      </c>
+      <c r="D8">
+        <v>0.41326530612244777</v>
+      </c>
+      <c r="E8">
+        <v>0.2405668934240372</v>
+      </c>
+      <c r="F8">
+        <v>2.25</v>
+      </c>
+      <c r="G8">
+        <v>1.6776417233560097</v>
+      </c>
+      <c r="H8">
+        <v>0.13795918367346907</v>
+      </c>
+      <c r="I8">
+        <v>0.17961451247165536</v>
+      </c>
+      <c r="J8">
+        <v>6.8594104308389886E-2</v>
+      </c>
+      <c r="K8">
+        <v>11.079387755102042</v>
+      </c>
+      <c r="L8">
+        <v>8.9999999999999622E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.5447845804988636</v>
+      </c>
+      <c r="N8">
+        <v>0.18777777777777799</v>
+      </c>
+      <c r="O8">
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="P8">
         <v>7.3673469387755056E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.33750566893424006</v>
-      </c>
-      <c r="D8">
-        <v>6.8594104308389886E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.41326530612244777</v>
-      </c>
-      <c r="F8">
-        <v>0.71040816326530598</v>
-      </c>
-      <c r="G8">
-        <v>0.13795918367346907</v>
-      </c>
-      <c r="H8">
-        <v>0.16770975056689313</v>
-      </c>
-      <c r="I8">
-        <v>2.25</v>
-      </c>
-      <c r="J8">
-        <v>0.2405668934240372</v>
-      </c>
-      <c r="K8">
-        <v>0.17961451247165536</v>
-      </c>
-      <c r="L8">
-        <v>11.079387755102042</v>
-      </c>
-      <c r="M8">
-        <v>8.9999999999999622E-2</v>
-      </c>
-      <c r="N8">
-        <v>2.5447845804988636</v>
-      </c>
-      <c r="O8">
-        <v>0.18777777777777799</v>
-      </c>
-      <c r="P8">
-        <v>0.15999999999999992</v>
       </c>
       <c r="Q8">
         <v>3.2743764172335689E-2</v>
       </c>
       <c r="R8">
+        <v>0.51020408163265329</v>
+      </c>
+      <c r="S8">
         <v>0.91612244897959294</v>
       </c>
-      <c r="S8">
-        <v>0.51020408163265329</v>
-      </c>
       <c r="T8">
-        <v>1.6776417233560097</v>
+        <v>0.71040816326530598</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -15313,61 +15310,61 @@
         <v>2006</v>
       </c>
       <c r="B9">
+        <v>0.14512471655328762</v>
+      </c>
+      <c r="C9">
+        <v>9.5804988662131385E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.88897959183673425</v>
+      </c>
+      <c r="E9">
+        <v>0.98104308390022854</v>
+      </c>
+      <c r="F9">
+        <v>1.6899999999999995</v>
+      </c>
+      <c r="G9">
+        <v>1.9466893424036291</v>
+      </c>
+      <c r="H9">
+        <v>0.13795918367346907</v>
+      </c>
+      <c r="I9">
+        <v>0.17961451247165536</v>
+      </c>
+      <c r="J9">
+        <v>0.31573696145124669</v>
+      </c>
+      <c r="K9">
+        <v>9.17224489795918</v>
+      </c>
+      <c r="L9">
+        <v>1.9599999999999973</v>
+      </c>
+      <c r="M9">
+        <v>0.63240362811791284</v>
+      </c>
+      <c r="N9">
+        <v>0.28444444444444478</v>
+      </c>
+      <c r="O9">
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="P9">
         <v>1.6530612244898012E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.14512471655328762</v>
-      </c>
-      <c r="D9">
-        <v>0.31573696145124669</v>
-      </c>
-      <c r="E9">
-        <v>0.88897959183673425</v>
-      </c>
-      <c r="F9">
-        <v>0.11755102040816319</v>
-      </c>
-      <c r="G9">
-        <v>0.13795918367346907</v>
-      </c>
-      <c r="H9">
-        <v>9.5804988662131385E-2</v>
-      </c>
-      <c r="I9">
-        <v>1.6899999999999995</v>
-      </c>
-      <c r="J9">
-        <v>0.98104308390022854</v>
-      </c>
-      <c r="K9">
-        <v>0.17961451247165536</v>
-      </c>
-      <c r="L9">
-        <v>9.17224489795918</v>
-      </c>
-      <c r="M9">
-        <v>1.9599999999999973</v>
-      </c>
-      <c r="N9">
-        <v>0.63240362811791284</v>
-      </c>
-      <c r="O9">
-        <v>0.28444444444444478</v>
-      </c>
-      <c r="P9">
-        <v>3.999999999999998E-2</v>
       </c>
       <c r="Q9">
         <v>1.1684580498866217</v>
       </c>
       <c r="R9">
+        <v>0.51020408163265329</v>
+      </c>
+      <c r="S9">
         <v>0.29469387755101978</v>
       </c>
-      <c r="S9">
-        <v>0.51020408163265329</v>
-      </c>
       <c r="T9">
-        <v>1.9466893424036291</v>
+        <v>0.11755102040816319</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -15375,61 +15372,61 @@
         <v>2007</v>
       </c>
       <c r="B10">
+        <v>1.4172335600907087E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.65532879818594036</v>
+      </c>
+      <c r="D10">
+        <v>10.516122448979589</v>
+      </c>
+      <c r="E10">
+        <v>1.4172335600907044</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.48335600907029508</v>
+      </c>
+      <c r="H10">
+        <v>5.1020408163264946E-3</v>
+      </c>
+      <c r="I10">
+        <v>5.0090702947845747E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.2133560090702947</v>
+      </c>
+      <c r="K10">
+        <v>42.622244897959185</v>
+      </c>
+      <c r="L10">
+        <v>11.559999999999993</v>
+      </c>
+      <c r="M10">
+        <v>0.24526077097505627</v>
+      </c>
+      <c r="N10">
+        <v>1.8677777777777773</v>
+      </c>
+      <c r="O10">
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="P10">
         <v>0.1379591836734694</v>
-      </c>
-      <c r="C10">
-        <v>1.4172335600907087E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.2133560090702947</v>
-      </c>
-      <c r="E10">
-        <v>10.516122448979589</v>
-      </c>
-      <c r="F10">
-        <v>1.8367346938775379E-3</v>
-      </c>
-      <c r="G10">
-        <v>5.1020408163264946E-3</v>
-      </c>
-      <c r="H10">
-        <v>0.65532879818594036</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1.4172335600907044</v>
-      </c>
-      <c r="K10">
-        <v>5.0090702947845747E-2</v>
-      </c>
-      <c r="L10">
-        <v>42.622244897959185</v>
-      </c>
-      <c r="M10">
-        <v>11.559999999999993</v>
-      </c>
-      <c r="N10">
-        <v>0.24526077097505627</v>
-      </c>
-      <c r="O10">
-        <v>1.8677777777777773</v>
-      </c>
-      <c r="P10">
-        <v>8.99999999999999E-2</v>
       </c>
       <c r="Q10">
         <v>0.23131519274376425</v>
       </c>
       <c r="R10">
+        <v>0.23591836734693883</v>
+      </c>
+      <c r="S10">
         <v>3.4489795918367365</v>
       </c>
-      <c r="S10">
-        <v>0.23591836734693883</v>
-      </c>
       <c r="T10">
-        <v>0.48335600907029508</v>
+        <v>1.8367346938775379E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -15437,61 +15434,61 @@
         <v>2008</v>
       </c>
       <c r="B11">
+        <v>6.6613151927437624</v>
+      </c>
+      <c r="C11">
+        <v>1.4629478458049885</v>
+      </c>
+      <c r="D11">
+        <v>51.020408163265301</v>
+      </c>
+      <c r="E11">
+        <v>1.9334240362811814</v>
+      </c>
+      <c r="F11">
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="G11">
+        <v>3.9809750566893425</v>
+      </c>
+      <c r="H11">
+        <v>2.7936734693877545</v>
+      </c>
+      <c r="I11">
+        <v>2.9715192743764169</v>
+      </c>
+      <c r="J11">
+        <v>7.0857369614512491</v>
+      </c>
+      <c r="K11">
+        <v>137.55938775510205</v>
+      </c>
+      <c r="L11">
+        <v>77.439999999999984</v>
+      </c>
+      <c r="M11">
+        <v>3.5919274376417198</v>
+      </c>
+      <c r="N11">
+        <v>6.9344444444444466</v>
+      </c>
+      <c r="O11">
+        <v>9.0000000000000163E-2</v>
+      </c>
+      <c r="P11">
         <v>1.8808163265306124</v>
-      </c>
-      <c r="C11">
-        <v>6.6613151927437624</v>
-      </c>
-      <c r="D11">
-        <v>7.0857369614512491</v>
-      </c>
-      <c r="E11">
-        <v>51.020408163265301</v>
-      </c>
-      <c r="F11">
-        <v>5.0946938775510207</v>
-      </c>
-      <c r="G11">
-        <v>2.7936734693877545</v>
-      </c>
-      <c r="H11">
-        <v>1.4629478458049885</v>
-      </c>
-      <c r="I11">
-        <v>4.8400000000000007</v>
-      </c>
-      <c r="J11">
-        <v>1.9334240362811814</v>
-      </c>
-      <c r="K11">
-        <v>2.9715192743764169</v>
-      </c>
-      <c r="L11">
-        <v>137.55938775510205</v>
-      </c>
-      <c r="M11">
-        <v>77.439999999999984</v>
-      </c>
-      <c r="N11">
-        <v>3.5919274376417198</v>
-      </c>
-      <c r="O11">
-        <v>6.9344444444444466</v>
-      </c>
-      <c r="P11">
-        <v>9.0000000000000163E-2</v>
       </c>
       <c r="Q11">
         <v>0.60988662131519322</v>
       </c>
       <c r="R11">
+        <v>6.1787755102040816</v>
+      </c>
+      <c r="S11">
         <v>5.8979591836734492E-2</v>
       </c>
-      <c r="S11">
-        <v>6.1787755102040816</v>
-      </c>
       <c r="T11">
-        <v>3.9809750566893425</v>
+        <v>5.0946938775510207</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -15499,61 +15496,61 @@
         <v>2009</v>
       </c>
       <c r="B12">
+        <v>3.6827437641723368</v>
+      </c>
+      <c r="C12">
+        <v>1.6653287981859419</v>
+      </c>
+      <c r="D12">
+        <v>10.608979591836738</v>
+      </c>
+      <c r="E12">
+        <v>11.624852607709746</v>
+      </c>
+      <c r="F12">
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="G12">
+        <v>5.7828798185941013</v>
+      </c>
+      <c r="H12">
         <v>2.0408163265306132</v>
       </c>
-      <c r="C12">
-        <v>3.6827437641723368</v>
-      </c>
-      <c r="D12">
+      <c r="I12">
+        <v>0.95294784580498881</v>
+      </c>
+      <c r="J12">
         <v>2.365736961451248</v>
       </c>
-      <c r="E12">
-        <v>10.608979591836738</v>
-      </c>
-      <c r="F12">
-        <v>1.8367346938775379E-3</v>
-      </c>
-      <c r="G12">
+      <c r="K12">
+        <v>7.3673469387755305E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.2399999999999975</v>
+      </c>
+      <c r="M12">
+        <v>4.8609750566893455</v>
+      </c>
+      <c r="N12">
+        <v>7.1111111111110958E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="P12">
         <v>2.0408163265306132</v>
-      </c>
-      <c r="H12">
-        <v>1.6653287981859419</v>
-      </c>
-      <c r="I12">
-        <v>0.48999999999999994</v>
-      </c>
-      <c r="J12">
-        <v>11.624852607709746</v>
-      </c>
-      <c r="K12">
-        <v>0.95294784580498881</v>
-      </c>
-      <c r="L12">
-        <v>7.3673469387755305E-2</v>
-      </c>
-      <c r="M12">
-        <v>3.2399999999999975</v>
-      </c>
-      <c r="N12">
-        <v>4.8609750566893455</v>
-      </c>
-      <c r="O12">
-        <v>7.1111111111110958E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.80999999999999983</v>
       </c>
       <c r="Q12">
         <v>7.9470294784580489</v>
       </c>
       <c r="R12">
+        <v>5.8287755102040828</v>
+      </c>
+      <c r="S12">
         <v>8.1632653061224527</v>
       </c>
-      <c r="S12">
-        <v>5.8287755102040828</v>
-      </c>
       <c r="T12">
-        <v>5.7828798185941013</v>
+        <v>1.8367346938775379E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -15561,61 +15558,61 @@
         <v>2010</v>
       </c>
       <c r="B13">
+        <v>0.14512471655328762</v>
+      </c>
+      <c r="C13">
+        <v>0.15247165532879831</v>
+      </c>
+      <c r="D13">
+        <v>0.57326530612244964</v>
+      </c>
+      <c r="E13">
+        <v>10.952947845804985</v>
+      </c>
+      <c r="F13">
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="G13">
+        <v>9.287981859410406E-2</v>
+      </c>
+      <c r="H13">
+        <v>2.9387755102040683E-2</v>
+      </c>
+      <c r="I13">
+        <v>3.1043083900226771E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.74287981859410401</v>
+      </c>
+      <c r="K13">
+        <v>22.766530612244896</v>
+      </c>
+      <c r="L13">
+        <v>1.4400000000000019</v>
+      </c>
+      <c r="M13">
+        <v>0.35430839002267478</v>
+      </c>
+      <c r="N13">
+        <v>4.4444444444444132E-3</v>
+      </c>
+      <c r="O13">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="P13">
         <v>1.6530612244898012E-2</v>
-      </c>
-      <c r="C13">
-        <v>0.14512471655328762</v>
-      </c>
-      <c r="D13">
-        <v>0.74287981859410401</v>
-      </c>
-      <c r="E13">
-        <v>0.57326530612244964</v>
-      </c>
-      <c r="F13">
-        <v>3.2653061224489819E-3</v>
-      </c>
-      <c r="G13">
-        <v>2.9387755102040683E-2</v>
-      </c>
-      <c r="H13">
-        <v>0.15247165532879831</v>
-      </c>
-      <c r="I13">
-        <v>7.2900000000000009</v>
-      </c>
-      <c r="J13">
-        <v>10.952947845804985</v>
-      </c>
-      <c r="K13">
-        <v>3.1043083900226771E-2</v>
-      </c>
-      <c r="L13">
-        <v>22.766530612244896</v>
-      </c>
-      <c r="M13">
-        <v>1.4400000000000019</v>
-      </c>
-      <c r="N13">
-        <v>0.35430839002267478</v>
-      </c>
-      <c r="O13">
-        <v>4.4444444444444132E-3</v>
-      </c>
-      <c r="P13">
-        <v>0.99999999999999978</v>
       </c>
       <c r="Q13">
         <v>0.26941043083900218</v>
       </c>
       <c r="R13">
+        <v>2.0002040816326532</v>
+      </c>
+      <c r="S13">
         <v>9.346122448979596</v>
       </c>
-      <c r="S13">
-        <v>2.0002040816326532</v>
-      </c>
       <c r="T13">
-        <v>9.287981859410406E-2</v>
+        <v>3.2653061224489819E-3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -15623,61 +15620,61 @@
         <v>2011</v>
       </c>
       <c r="B14">
+        <v>2.1932199546485251</v>
+      </c>
+      <c r="C14">
+        <v>1.0191383219954644</v>
+      </c>
+      <c r="D14">
+        <v>2.6989795918367316</v>
+      </c>
+      <c r="E14">
+        <v>0.25961451247165462</v>
+      </c>
+      <c r="F14">
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="G14">
+        <v>1.1995464852607722</v>
+      </c>
+      <c r="H14">
+        <v>0.59510204081632567</v>
+      </c>
+      <c r="I14">
+        <v>1.2629478458049881</v>
+      </c>
+      <c r="J14">
+        <v>3.1043083900226747</v>
+      </c>
+      <c r="K14">
+        <v>0.39510204081632649</v>
+      </c>
+      <c r="L14">
+        <v>2.8899999999999961</v>
+      </c>
+      <c r="M14">
+        <v>2.2357369614512459</v>
+      </c>
+      <c r="N14">
+        <v>0.18777777777777799</v>
+      </c>
+      <c r="O14">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="P14">
         <v>2.7936734693877545</v>
-      </c>
-      <c r="C14">
-        <v>2.1932199546485251</v>
-      </c>
-      <c r="D14">
-        <v>3.1043083900226747</v>
-      </c>
-      <c r="E14">
-        <v>2.6989795918367316</v>
-      </c>
-      <c r="F14">
-        <v>2.7461224489795915</v>
-      </c>
-      <c r="G14">
-        <v>0.59510204081632567</v>
-      </c>
-      <c r="H14">
-        <v>1.0191383219954644</v>
-      </c>
-      <c r="I14">
-        <v>1.2100000000000002</v>
-      </c>
-      <c r="J14">
-        <v>0.25961451247165462</v>
-      </c>
-      <c r="K14">
-        <v>1.2629478458049881</v>
-      </c>
-      <c r="L14">
-        <v>0.39510204081632649</v>
-      </c>
-      <c r="M14">
-        <v>2.8899999999999961</v>
-      </c>
-      <c r="N14">
-        <v>2.2357369614512459</v>
-      </c>
-      <c r="O14">
-        <v>0.18777777777777799</v>
-      </c>
-      <c r="P14">
-        <v>0.3600000000000001</v>
       </c>
       <c r="Q14">
         <v>2.8256009070294792</v>
       </c>
       <c r="R14">
+        <v>2.0002040816326532</v>
+      </c>
+      <c r="S14">
         <v>0.11755102040816273</v>
       </c>
-      <c r="S14">
-        <v>2.0002040816326532</v>
-      </c>
       <c r="T14">
-        <v>1.1995464852607722</v>
+        <v>2.7461224489795915</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -15685,61 +15682,61 @@
         <v>2012</v>
       </c>
       <c r="B15">
+        <v>0.4636961451247163</v>
+      </c>
+      <c r="C15">
+        <v>0.37151927437641702</v>
+      </c>
+      <c r="D15">
+        <v>0.55183673469387695</v>
+      </c>
+      <c r="E15">
+        <v>3.6281179138322246E-2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.7165532879818763E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.45081632653061204</v>
+      </c>
+      <c r="I15">
+        <v>2.3219954648526069</v>
+      </c>
+      <c r="J15">
+        <v>1.8547845804988656</v>
+      </c>
+      <c r="K15">
+        <v>1.6165306122448988</v>
+      </c>
+      <c r="L15">
+        <v>0.63999999999999901</v>
+      </c>
+      <c r="M15">
+        <v>0.4833560090702938</v>
+      </c>
+      <c r="N15">
+        <v>1.2844444444444454</v>
+      </c>
+      <c r="O15">
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="P15">
         <v>0.59510204081632645</v>
-      </c>
-      <c r="C15">
-        <v>0.4636961451247163</v>
-      </c>
-      <c r="D15">
-        <v>1.8547845804988656</v>
-      </c>
-      <c r="E15">
-        <v>0.55183673469387695</v>
-      </c>
-      <c r="F15">
-        <v>2.4246938775510212</v>
-      </c>
-      <c r="G15">
-        <v>0.45081632653061204</v>
-      </c>
-      <c r="H15">
-        <v>0.37151927437641702</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>3.6281179138322246E-2</v>
-      </c>
-      <c r="K15">
-        <v>2.3219954648526069</v>
-      </c>
-      <c r="L15">
-        <v>1.6165306122448988</v>
-      </c>
-      <c r="M15">
-        <v>0.63999999999999901</v>
-      </c>
-      <c r="N15">
-        <v>0.4833560090702938</v>
-      </c>
-      <c r="O15">
-        <v>1.2844444444444454</v>
-      </c>
-      <c r="P15">
-        <v>0.80999999999999983</v>
       </c>
       <c r="Q15">
         <v>0.77607709750566889</v>
       </c>
       <c r="R15">
+        <v>0.37734693877551023</v>
+      </c>
+      <c r="S15">
         <v>3.265306122449007E-3</v>
       </c>
-      <c r="S15">
-        <v>0.37734693877551023</v>
-      </c>
       <c r="T15">
-        <v>8.7165532879818763E-2</v>
+        <v>2.4246938775510212</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -15747,61 +15744,61 @@
         <v>2013</v>
       </c>
       <c r="B16">
+        <v>0.51702947845805036</v>
+      </c>
+      <c r="C16">
+        <v>1.1995464852607673E-2</v>
+      </c>
+      <c r="D16">
+        <v>6.6122448979592047E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.4629478458049869</v>
+      </c>
+      <c r="F16">
+        <v>8.41</v>
+      </c>
+      <c r="G16">
+        <v>0.49668934240362772</v>
+      </c>
+      <c r="H16">
+        <v>0.27938775510204117</v>
+      </c>
+      <c r="I16">
+        <v>0.33199546485260789</v>
+      </c>
+      <c r="J16">
+        <v>1.7904988662131522</v>
+      </c>
+      <c r="K16">
+        <v>12.755102040816327</v>
+      </c>
+      <c r="L16">
+        <v>1.4400000000000019</v>
+      </c>
+      <c r="M16">
+        <v>0.25478458049886687</v>
+      </c>
+      <c r="N16">
+        <v>1.1377777777777773</v>
+      </c>
+      <c r="O16">
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="P16">
         <v>7.3673469387755056E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.51702947845805036</v>
-      </c>
-      <c r="D16">
-        <v>1.7904988662131522</v>
-      </c>
-      <c r="E16">
-        <v>6.6122448979592047E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.3104081632653064</v>
-      </c>
-      <c r="G16">
-        <v>0.27938775510204117</v>
-      </c>
-      <c r="H16">
-        <v>1.1995464852607673E-2</v>
-      </c>
-      <c r="I16">
-        <v>8.41</v>
-      </c>
-      <c r="J16">
-        <v>1.4629478458049869</v>
-      </c>
-      <c r="K16">
-        <v>0.33199546485260789</v>
-      </c>
-      <c r="L16">
-        <v>12.755102040816327</v>
-      </c>
-      <c r="M16">
-        <v>1.4400000000000019</v>
-      </c>
-      <c r="N16">
-        <v>0.25478458049886687</v>
-      </c>
-      <c r="O16">
-        <v>1.1377777777777773</v>
-      </c>
-      <c r="P16">
-        <v>0.49000000000000027</v>
       </c>
       <c r="Q16">
         <v>2.3075056689342404</v>
       </c>
       <c r="R16">
+        <v>2.0002040816326532</v>
+      </c>
+      <c r="S16">
         <v>5.0946938775510224</v>
       </c>
-      <c r="S16">
-        <v>2.0002040816326532</v>
-      </c>
       <c r="T16">
-        <v>0.49668934240362772</v>
+        <v>0.3104081632653064</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -15809,61 +15806,61 @@
         <v>2014</v>
       </c>
       <c r="B17">
+        <v>2.0136961451247175</v>
+      </c>
+      <c r="C17">
+        <v>0.47675736961451276</v>
+      </c>
+      <c r="D17">
+        <v>8.7446938775510237</v>
+      </c>
+      <c r="E17">
+        <v>1.9867573696145102</v>
+      </c>
+      <c r="F17">
+        <v>11.559999999999999</v>
+      </c>
+      <c r="G17">
+        <v>5.3119274376417227</v>
+      </c>
+      <c r="H17">
+        <v>0.86224489795918435</v>
+      </c>
+      <c r="I17">
+        <v>2.4843764172335607</v>
+      </c>
+      <c r="J17">
+        <v>4.1538321995464864</v>
+      </c>
+      <c r="K17">
+        <v>8.2451020408163291</v>
+      </c>
+      <c r="L17">
+        <v>4.8400000000000025</v>
+      </c>
+      <c r="M17">
+        <v>2.2643083900226775</v>
+      </c>
+      <c r="N17">
+        <v>1.6044444444444437</v>
+      </c>
+      <c r="O17">
+        <v>2.5599999999999996</v>
+      </c>
+      <c r="P17">
         <v>0.1079591836734695</v>
-      </c>
-      <c r="C17">
-        <v>2.0136961451247175</v>
-      </c>
-      <c r="D17">
-        <v>4.1538321995464864</v>
-      </c>
-      <c r="E17">
-        <v>8.7446938775510237</v>
-      </c>
-      <c r="F17">
-        <v>0.19612244897959183</v>
-      </c>
-      <c r="G17">
-        <v>0.86224489795918435</v>
-      </c>
-      <c r="H17">
-        <v>0.47675736961451276</v>
-      </c>
-      <c r="I17">
-        <v>11.559999999999999</v>
-      </c>
-      <c r="J17">
-        <v>1.9867573696145102</v>
-      </c>
-      <c r="K17">
-        <v>2.4843764172335607</v>
-      </c>
-      <c r="L17">
-        <v>8.2451020408163291</v>
-      </c>
-      <c r="M17">
-        <v>4.8400000000000025</v>
-      </c>
-      <c r="N17">
-        <v>2.2643083900226775</v>
-      </c>
-      <c r="O17">
-        <v>1.6044444444444437</v>
-      </c>
-      <c r="P17">
-        <v>2.5599999999999996</v>
       </c>
       <c r="Q17">
         <v>4.4903628117913836</v>
       </c>
       <c r="R17">
+        <v>9.0859183673469381</v>
+      </c>
+      <c r="S17">
         <v>14.877551020408168</v>
       </c>
-      <c r="S17">
-        <v>9.0859183673469381</v>
-      </c>
       <c r="T17">
-        <v>5.3119274376417227</v>
+        <v>0.19612244897959183</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -15871,61 +15868,61 @@
         <v>2015</v>
       </c>
       <c r="B18">
+        <v>1.7398866213151933</v>
+      </c>
+      <c r="C18">
+        <v>0.62485260770975104</v>
+      </c>
+      <c r="D18">
+        <v>11.27040816326531</v>
+      </c>
+      <c r="E18">
+        <v>2.9224716553287955</v>
+      </c>
+      <c r="F18">
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="G18">
+        <v>6.7847845804988642</v>
+      </c>
+      <c r="H18">
+        <v>2.0408163265306132</v>
+      </c>
+      <c r="I18">
+        <v>2.8096145124716556</v>
+      </c>
+      <c r="J18">
+        <v>10.485260770975056</v>
+      </c>
+      <c r="K18">
+        <v>11.366530612244897</v>
+      </c>
+      <c r="L18">
+        <v>9.610000000000003</v>
+      </c>
+      <c r="M18">
+        <v>4.4300226757369634</v>
+      </c>
+      <c r="N18">
+        <v>0.75111111111111073</v>
+      </c>
+      <c r="O18">
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="P18">
         <v>1.0579591836734696</v>
-      </c>
-      <c r="C18">
-        <v>1.7398866213151933</v>
-      </c>
-      <c r="D18">
-        <v>10.485260770975056</v>
-      </c>
-      <c r="E18">
-        <v>11.27040816326531</v>
-      </c>
-      <c r="F18">
-        <v>3.3961224489795914</v>
-      </c>
-      <c r="G18">
-        <v>2.0408163265306132</v>
-      </c>
-      <c r="H18">
-        <v>0.62485260770975104</v>
-      </c>
-      <c r="I18">
-        <v>9.6100000000000012</v>
-      </c>
-      <c r="J18">
-        <v>2.9224716553287955</v>
-      </c>
-      <c r="K18">
-        <v>2.8096145124716556</v>
-      </c>
-      <c r="L18">
-        <v>11.366530612244897</v>
-      </c>
-      <c r="M18">
-        <v>9.610000000000003</v>
-      </c>
-      <c r="N18">
-        <v>4.4300226757369634</v>
-      </c>
-      <c r="O18">
-        <v>0.75111111111111073</v>
-      </c>
-      <c r="P18">
-        <v>2.8899999999999997</v>
       </c>
       <c r="Q18">
         <v>2.0136961451247162</v>
       </c>
       <c r="R18">
+        <v>13.795918367346939</v>
+      </c>
+      <c r="S18">
         <v>16.460408163265313</v>
       </c>
-      <c r="S18">
-        <v>13.795918367346939</v>
-      </c>
       <c r="T18">
-        <v>6.7847845804988642</v>
+        <v>3.3961224489795914</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -15933,61 +15930,61 @@
         <v>2016</v>
       </c>
       <c r="B19">
+        <v>1.4172335600907087E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.1891383219954652</v>
+      </c>
+      <c r="D19">
+        <v>7.0604081632653077</v>
+      </c>
+      <c r="E19">
+        <v>3.646281179138319</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5.3119274376417227</v>
+      </c>
+      <c r="H19">
+        <v>1.5093877551020416</v>
+      </c>
+      <c r="I19">
+        <v>3.5200907029478468</v>
+      </c>
+      <c r="J19">
+        <v>8.6324036281179151</v>
+      </c>
+      <c r="K19">
+        <v>12.050816326530613</v>
+      </c>
+      <c r="L19">
+        <v>2.8900000000000028</v>
+      </c>
+      <c r="M19">
+        <v>4.8609750566893455</v>
+      </c>
+      <c r="N19">
+        <v>1.3611111111111107</v>
+      </c>
+      <c r="O19">
+        <v>3.2399999999999993</v>
+      </c>
+      <c r="P19">
         <v>0.6865306122448982</v>
-      </c>
-      <c r="C19">
-        <v>1.4172335600907087E-2</v>
-      </c>
-      <c r="D19">
-        <v>8.6324036281179151</v>
-      </c>
-      <c r="E19">
-        <v>7.0604081632653077</v>
-      </c>
-      <c r="F19">
-        <v>1.5446938775510204</v>
-      </c>
-      <c r="G19">
-        <v>1.5093877551020416</v>
-      </c>
-      <c r="H19">
-        <v>1.1891383219954652</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>3.646281179138319</v>
-      </c>
-      <c r="K19">
-        <v>3.5200907029478468</v>
-      </c>
-      <c r="L19">
-        <v>12.050816326530613</v>
-      </c>
-      <c r="M19">
-        <v>2.8900000000000028</v>
-      </c>
-      <c r="N19">
-        <v>4.8609750566893455</v>
-      </c>
-      <c r="O19">
-        <v>1.3611111111111107</v>
-      </c>
-      <c r="P19">
-        <v>3.2399999999999993</v>
       </c>
       <c r="Q19">
         <v>1.739886621315192</v>
       </c>
       <c r="R19">
+        <v>10.984489795918369</v>
+      </c>
+      <c r="S19">
         <v>18.123265306122455</v>
       </c>
-      <c r="S19">
-        <v>10.984489795918369</v>
-      </c>
       <c r="T19">
-        <v>5.3119274376417227</v>
+        <v>1.5446938775510204</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -15995,61 +15992,61 @@
         <v>2017</v>
       </c>
       <c r="B20">
+        <v>7.8934240362811728E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.3900226757369487E-2</v>
+      </c>
+      <c r="D20">
+        <v>5.8979591836734492E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.9867573696145102</v>
+      </c>
+      <c r="F20">
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="G20">
+        <v>1.0975056689342325E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.10795918367346964</v>
+      </c>
+      <c r="I20">
+        <v>0.22675736961451254</v>
+      </c>
+      <c r="J20">
+        <v>1.0776417233560096</v>
+      </c>
+      <c r="K20">
+        <v>0.4508163265306126</v>
+      </c>
+      <c r="L20">
+        <v>1.6899999999999984</v>
+      </c>
+      <c r="M20">
+        <v>1.0975056689342512E-2</v>
+      </c>
+      <c r="N20">
+        <v>0.5877777777777774</v>
+      </c>
+      <c r="O20">
+        <v>0.35999999999999982</v>
+      </c>
+      <c r="P20">
         <v>0.1379591836734694</v>
-      </c>
-      <c r="C20">
-        <v>7.8934240362811728E-2</v>
-      </c>
-      <c r="D20">
-        <v>1.0776417233560096</v>
-      </c>
-      <c r="E20">
-        <v>5.8979591836734492E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.71040816326530598</v>
-      </c>
-      <c r="G20">
-        <v>0.10795918367346964</v>
-      </c>
-      <c r="H20">
-        <v>4.3900226757369487E-2</v>
-      </c>
-      <c r="I20">
-        <v>0.80999999999999983</v>
-      </c>
-      <c r="J20">
-        <v>1.9867573696145102</v>
-      </c>
-      <c r="K20">
-        <v>0.22675736961451254</v>
-      </c>
-      <c r="L20">
-        <v>0.4508163265306126</v>
-      </c>
-      <c r="M20">
-        <v>1.6899999999999984</v>
-      </c>
-      <c r="N20">
-        <v>1.0975056689342512E-2</v>
-      </c>
-      <c r="O20">
-        <v>0.5877777777777774</v>
-      </c>
-      <c r="P20">
-        <v>0.35999999999999982</v>
       </c>
       <c r="Q20">
         <v>0.1017913832199545</v>
       </c>
       <c r="R20">
+        <v>3.2916326530612254</v>
+      </c>
+      <c r="S20">
         <v>5.5561224489795942</v>
       </c>
-      <c r="S20">
-        <v>3.2916326530612254</v>
-      </c>
       <c r="T20">
-        <v>1.0975056689342325E-2</v>
+        <v>0.71040816326530598</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -16057,61 +16054,61 @@
         <v>2018</v>
       </c>
       <c r="B21">
+        <v>0.14512471655328762</v>
+      </c>
+      <c r="C21">
+        <v>0.25961451247165507</v>
+      </c>
+      <c r="D21">
+        <v>3.2653061224490578E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.0191383219954635</v>
+      </c>
+      <c r="F21">
+        <v>1.44</v>
+      </c>
+      <c r="G21">
+        <v>0.16383219954648501</v>
+      </c>
+      <c r="H21">
+        <v>0.32653061224489766</v>
+      </c>
+      <c r="I21">
+        <v>0.33199546485260789</v>
+      </c>
+      <c r="J21">
+        <v>0.88002267573696191</v>
+      </c>
+      <c r="K21">
+        <v>0.94367346938775531</v>
+      </c>
+      <c r="L21">
+        <v>9.9999999999998406E-3</v>
+      </c>
+      <c r="M21">
+        <v>4.1927437641723603E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.13444444444444431</v>
+      </c>
+      <c r="O21">
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="P21">
         <v>7.3673469387755056E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.14512471655328762</v>
-      </c>
-      <c r="D21">
-        <v>0.88002267573696191</v>
-      </c>
-      <c r="E21">
-        <v>3.2653061224490578E-3</v>
-      </c>
-      <c r="F21">
-        <v>0.19612244897959183</v>
-      </c>
-      <c r="G21">
-        <v>0.32653061224489766</v>
-      </c>
-      <c r="H21">
-        <v>0.25961451247165507</v>
-      </c>
-      <c r="I21">
-        <v>1.44</v>
-      </c>
-      <c r="J21">
-        <v>1.0191383219954635</v>
-      </c>
-      <c r="K21">
-        <v>0.33199546485260789</v>
-      </c>
-      <c r="L21">
-        <v>0.94367346938775531</v>
-      </c>
-      <c r="M21">
-        <v>9.9999999999998406E-3</v>
-      </c>
-      <c r="N21">
-        <v>4.1927437641723603E-2</v>
-      </c>
-      <c r="O21">
-        <v>0.13444444444444431</v>
-      </c>
-      <c r="P21">
-        <v>8.99999999999999E-2</v>
       </c>
       <c r="Q21">
         <v>0.5170294784580497</v>
       </c>
       <c r="R21">
+        <v>2.2930612244897963</v>
+      </c>
+      <c r="S21">
         <v>1.5804081632653071</v>
       </c>
-      <c r="S21">
-        <v>2.2930612244897963</v>
-      </c>
       <c r="T21">
-        <v>0.16383219954648501</v>
+        <v>0.19612244897959183</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -16119,61 +16116,61 @@
         <v>2019</v>
       </c>
       <c r="B22">
+        <v>0.51702947845805036</v>
+      </c>
+      <c r="C22">
+        <v>3.6281179138322073E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.3389795918367364</v>
+      </c>
+      <c r="E22">
+        <v>0.65532879818593981</v>
+      </c>
+      <c r="F22">
+        <v>2.25</v>
+      </c>
+      <c r="G22">
+        <v>1.973356009070294</v>
+      </c>
+      <c r="H22">
+        <v>5.2244897959183807E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.3834240362811798</v>
+      </c>
+      <c r="J22">
+        <v>1.2952607709750577</v>
+      </c>
+      <c r="K22">
+        <v>0.75938775510204082</v>
+      </c>
+      <c r="L22">
+        <v>4.0000000000000251E-2</v>
+      </c>
+      <c r="M22">
+        <v>0.25478458049886687</v>
+      </c>
+      <c r="N22">
+        <v>0.32111111111111085</v>
+      </c>
+      <c r="O22">
+        <v>0.64000000000000046</v>
+      </c>
+      <c r="P22">
         <v>0.1079591836734695</v>
-      </c>
-      <c r="C22">
-        <v>0.51702947845805036</v>
-      </c>
-      <c r="D22">
-        <v>1.2952607709750577</v>
-      </c>
-      <c r="E22">
-        <v>1.3389795918367364</v>
-      </c>
-      <c r="F22">
-        <v>0.29469387755102022</v>
-      </c>
-      <c r="G22">
-        <v>5.2244897959183807E-2</v>
-      </c>
-      <c r="H22">
-        <v>3.6281179138322073E-2</v>
-      </c>
-      <c r="I22">
-        <v>2.25</v>
-      </c>
-      <c r="J22">
-        <v>0.65532879818593981</v>
-      </c>
-      <c r="K22">
-        <v>1.3834240362811798</v>
-      </c>
-      <c r="L22">
-        <v>0.75938775510204082</v>
-      </c>
-      <c r="M22">
-        <v>4.0000000000000251E-2</v>
-      </c>
-      <c r="N22">
-        <v>0.25478458049886687</v>
-      </c>
-      <c r="O22">
-        <v>0.32111111111111085</v>
-      </c>
-      <c r="P22">
-        <v>0.64000000000000046</v>
       </c>
       <c r="Q22">
         <v>2.6213151927437637</v>
       </c>
       <c r="R22">
+        <v>2.605918367346939</v>
+      </c>
+      <c r="S22">
         <v>0.91612244897959294</v>
       </c>
-      <c r="S22">
-        <v>2.605918367346939</v>
-      </c>
       <c r="T22">
-        <v>1.973356009070294</v>
+        <v>0.29469387755102022</v>
       </c>
     </row>
   </sheetData>
@@ -16188,8 +16185,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17570,7 +17567,7 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D868586-9780-4C93-A363-A9EDFAF98F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E56EC72-198D-416A-B815-1CCDF364934F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="9" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="gcf" sheetId="5" r:id="rId8"/>
     <sheet name="tb" sheetId="13" r:id="rId9"/>
     <sheet name="tot" sheetId="8" r:id="rId10"/>
-    <sheet name="debt" sheetId="10" r:id="rId11"/>
-    <sheet name="i_us" sheetId="14" r:id="rId12"/>
-    <sheet name="baa" sheetId="2" r:id="rId13"/>
+    <sheet name="pspp" sheetId="16" r:id="rId11"/>
+    <sheet name="debt" sheetId="10" r:id="rId12"/>
+    <sheet name="i_us" sheetId="14" r:id="rId13"/>
+    <sheet name="baa" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">gdp!$A$1:$T$22</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="21">
   <si>
     <t>Belgium</t>
   </si>
@@ -109,9 +110,6 @@
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
   </si>
   <si>
     <t>NA</t>
@@ -2364,8 +2362,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T22" sqref="A1:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,16 +2462,16 @@
         <v>86.8</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>98.49</v>
@@ -2532,10 +2530,10 @@
         <v>101.3</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3">
         <v>98</v>
@@ -2594,10 +2592,10 @@
         <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2656,10 +2654,10 @@
         <v>100.34</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5">
         <v>101.42</v>
@@ -2718,10 +2716,10 @@
         <v>104.48</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6">
         <v>102.14</v>
@@ -2780,10 +2778,10 @@
         <v>105.55</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7">
         <v>101.51</v>
@@ -2842,10 +2840,10 @@
         <v>101.83</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>101.86</v>
@@ -2904,10 +2902,10 @@
         <v>98.88</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9">
         <v>101.95</v>
@@ -2966,10 +2964,10 @@
         <v>100.07</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10">
         <v>101.76</v>
@@ -3028,10 +3026,10 @@
         <v>96.82</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11">
         <v>101.33</v>
@@ -3090,10 +3088,10 @@
         <v>97.89</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12">
         <v>102.51</v>
@@ -3152,10 +3150,10 @@
         <v>95.76</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O13">
         <v>99.93</v>
@@ -3214,10 +3212,10 @@
         <v>95.09</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O14">
         <v>98.28</v>
@@ -3276,10 +3274,10 @@
         <v>94.91</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15">
         <v>98.28</v>
@@ -3338,10 +3336,10 @@
         <v>95.58</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O16">
         <v>98.73</v>
@@ -3400,10 +3398,10 @@
         <v>97.63</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17">
         <v>98.75</v>
@@ -3462,10 +3460,10 @@
         <v>99.76</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18">
         <v>101.15</v>
@@ -3524,10 +3522,10 @@
         <v>100.57</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O19">
         <v>102.12</v>
@@ -3586,10 +3584,10 @@
         <v>99.92</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O20">
         <v>101.84</v>
@@ -3648,10 +3646,10 @@
         <v>99.37</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21">
         <v>101.65</v>
@@ -3710,10 +3708,10 @@
         <v>99.81</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O22">
         <v>102.52</v>
@@ -3740,14 +3738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,61 +3817,61 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>279.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1238.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.34799999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>132.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>362.2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>847.6</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1331.3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.3610000000000002</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>245.7</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>135.9</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>66.3</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>13.45</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>55.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3881,61 +3879,61 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1245.8</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>148.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>374.6</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>870.6</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1353.6</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.5190000000000001</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>235.3</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>141.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.8899999999999997</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>15.97</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>57.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3943,61 +3941,61 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>286.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1258.7</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>378.9</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>897.4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.54</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.7810000000000001</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>238.2</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>147.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>17.57</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>59.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -4005,61 +4003,61 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>288.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1312.4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.443</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>171.4</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>384.1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>956.8</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1436.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.8519999999999999</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>244.5</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>151.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>85.6</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>6.44</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>16.91</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>59.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -4067,61 +4065,61 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>285.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1400.1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>181.5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>382.8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1050.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1471.3</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.286</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>256.3</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>152.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>93.3</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>6.86</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>17.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>64.900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4129,61 +4127,61 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>288.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1470.4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>44.1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>199.3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>389.9</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1123.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1526.4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>266.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>102.2</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>7.43</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>19.260000000000002</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>67.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -4191,61 +4189,61 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1541.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.53300000000000003</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>393.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1189.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1591.6</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.6059999999999999</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>274.3</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>174.4</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>114.6</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>17.53</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>65.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -4253,61 +4251,61 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>297.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1591</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.628</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>225.7</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>392.1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1194.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1657.4</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>9.48</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3.4729999999999999</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>264.2</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>180.3</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>17.71</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>65.900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -4315,61 +4313,61 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>300.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1599.6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.61799999999999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>239.9</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>384.7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1252.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1677.7</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9.4600000000000009</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4.6100000000000003</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3.585</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>266.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>184.7</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>127.6</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>19.170000000000002</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>63.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4377,61 +4375,61 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>327.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1668.5</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.749</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>79.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>264.8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>440.6</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1370.3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1738.5</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.66</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3.8370000000000002</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>353.9</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>201.8</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>135.5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8.26</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>19.62</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>63.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -4439,61 +4437,61 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>347.2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1785.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1.0229999999999999</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>104.7</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>301.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>569.5</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1608</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1839.1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>10.14</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>6.98</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.53</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>5.97</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4.1529999999999996</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>354.7</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>12.52</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>23.31</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>75.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -4501,61 +4499,61 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>364.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2112.6</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.98199999999999998</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>144.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>330.6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>649.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1701.1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1920.7</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>10.95</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>8.64</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>4.452</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>378.7</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>244.7</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>13.92</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>27.91</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>88.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -4563,61 +4561,61 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>389.1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2149.5</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1.0269999999999999</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>189.7</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>356.2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1808</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1973.5</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>13.06</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.63</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4.7969999999999997</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>401.2</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>255.7</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>201.5</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>17.22</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>30.95</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>95.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -4625,61 +4623,61 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>404.8</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2227.4</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1.7629999999999999</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>305.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>889.9</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1892.5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2054.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>15.62</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>13.26</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>9.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4.8550000000000004</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>432.4</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>217.2</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>19.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>38.03</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>107.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -4687,61 +4685,61 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>414.4</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2213</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1.9339999999999999</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>215.4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>977.3</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1977.7</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2136.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>18.71</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>9.18</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>13.55</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.01</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5.2270000000000003</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>446.8</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>263.2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>224.1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>25.52</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>40.68</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>114.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -4749,371 +4747,86 @@
         <v>2014</v>
       </c>
       <c r="B17">
-        <v>431.2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2215.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>203.4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>319.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1039.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2039.9</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2203</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>9.83</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>14.83</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.33</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>5.39</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>455.6</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>230.1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>30.22</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>40.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>123.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18">
-        <v>438.2</v>
-      </c>
-      <c r="C18">
-        <v>2185.1</v>
-      </c>
-      <c r="D18">
-        <v>2.077</v>
-      </c>
-      <c r="E18">
-        <v>201.6</v>
-      </c>
-      <c r="F18">
-        <v>311.7</v>
-      </c>
-      <c r="G18">
-        <v>1070.0999999999999</v>
-      </c>
-      <c r="H18">
-        <v>2101.3000000000002</v>
-      </c>
-      <c r="I18">
-        <v>2239.4</v>
-      </c>
-      <c r="J18">
-        <v>19.16</v>
-      </c>
-      <c r="K18">
-        <v>9.11</v>
-      </c>
-      <c r="L18">
-        <v>15.88</v>
-      </c>
-      <c r="M18">
-        <v>11.45</v>
-      </c>
-      <c r="N18">
-        <v>5.5860000000000003</v>
-      </c>
-      <c r="O18">
-        <v>446</v>
-      </c>
-      <c r="P18">
-        <v>292.3</v>
-      </c>
-      <c r="Q18">
-        <v>235.7</v>
-      </c>
-      <c r="R18">
-        <v>32.090000000000003</v>
-      </c>
-      <c r="S18">
-        <v>41.38</v>
-      </c>
-      <c r="T18">
-        <v>134.5</v>
-      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19">
-        <v>451.3</v>
-      </c>
-      <c r="C19">
-        <v>2169</v>
-      </c>
-      <c r="D19">
-        <v>2.2160000000000002</v>
-      </c>
-      <c r="E19">
-        <v>200.6</v>
-      </c>
-      <c r="F19">
-        <v>315</v>
-      </c>
-      <c r="G19">
-        <v>1104.5999999999999</v>
-      </c>
-      <c r="H19">
-        <v>2188.5</v>
-      </c>
-      <c r="I19">
-        <v>2285.6</v>
-      </c>
-      <c r="J19">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="K19">
-        <v>10.25</v>
-      </c>
-      <c r="L19">
-        <v>15.45</v>
-      </c>
-      <c r="M19">
-        <v>11.02</v>
-      </c>
-      <c r="N19">
-        <v>5.74</v>
-      </c>
-      <c r="O19">
-        <v>438.4</v>
-      </c>
-      <c r="P19">
-        <v>296.3</v>
-      </c>
-      <c r="Q19">
-        <v>245.2</v>
-      </c>
-      <c r="R19">
-        <v>31.76</v>
-      </c>
-      <c r="S19">
-        <v>42.16</v>
-      </c>
-      <c r="T19">
-        <v>137.4</v>
-      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20">
-        <v>453.8</v>
-      </c>
-      <c r="C20">
-        <v>2118.6999999999998</v>
-      </c>
-      <c r="D20">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="E20">
-        <v>201.3</v>
-      </c>
-      <c r="F20">
-        <v>317.5</v>
-      </c>
-      <c r="G20">
-        <v>1145.0999999999999</v>
-      </c>
-      <c r="H20">
-        <v>2258.6</v>
-      </c>
-      <c r="I20">
-        <v>2329.6</v>
-      </c>
-      <c r="J20">
-        <v>18.809999999999999</v>
-      </c>
-      <c r="K20">
-        <v>10.52</v>
-      </c>
-      <c r="L20">
-        <v>16.54</v>
-      </c>
-      <c r="M20">
-        <v>12.7</v>
-      </c>
-      <c r="N20">
-        <v>5.6779999999999999</v>
-      </c>
-      <c r="O20">
-        <v>420.1</v>
-      </c>
-      <c r="P20">
-        <v>289.89999999999998</v>
-      </c>
-      <c r="Q20">
-        <v>247.2</v>
-      </c>
-      <c r="R20">
-        <v>31.86</v>
-      </c>
-      <c r="S20">
-        <v>43.37</v>
-      </c>
-      <c r="T20">
-        <v>138.4</v>
-      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21">
-        <v>459.1</v>
-      </c>
-      <c r="C21">
-        <v>2068.6</v>
-      </c>
-      <c r="D21">
-        <v>2.1739999999999999</v>
-      </c>
-      <c r="E21">
-        <v>205.9</v>
-      </c>
-      <c r="F21">
-        <v>334.7</v>
-      </c>
-      <c r="G21">
-        <v>1173.3</v>
-      </c>
-      <c r="H21">
-        <v>2314.9</v>
-      </c>
-      <c r="I21">
-        <v>2380.9</v>
-      </c>
-      <c r="J21">
-        <v>21.26</v>
-      </c>
-      <c r="K21">
-        <v>10.82</v>
-      </c>
-      <c r="L21">
-        <v>15.32</v>
-      </c>
-      <c r="M21">
-        <v>12.61</v>
-      </c>
-      <c r="N21">
-        <v>5.6440000000000001</v>
-      </c>
-      <c r="O21">
-        <v>405.5</v>
-      </c>
-      <c r="P21">
-        <v>285.3</v>
-      </c>
-      <c r="Q21">
-        <v>249.3</v>
-      </c>
-      <c r="R21">
-        <v>32.22</v>
-      </c>
-      <c r="S21">
-        <v>44.32</v>
-      </c>
-      <c r="T21">
-        <v>139.30000000000001</v>
-      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
-      </c>
-      <c r="B22">
-        <v>467.2</v>
-      </c>
-      <c r="C22">
-        <v>2053</v>
-      </c>
-      <c r="D22">
-        <v>2.36</v>
-      </c>
-      <c r="E22">
-        <v>204</v>
-      </c>
-      <c r="F22">
-        <v>331.1</v>
-      </c>
-      <c r="G22">
-        <v>1188.9000000000001</v>
-      </c>
-      <c r="H22">
-        <v>2380.1</v>
-      </c>
-      <c r="I22">
-        <v>2409.8000000000002</v>
-      </c>
-      <c r="J22">
-        <v>20.96</v>
-      </c>
-      <c r="K22">
-        <v>11.24</v>
-      </c>
-      <c r="L22">
-        <v>17.52</v>
-      </c>
-      <c r="M22">
-        <v>14.01</v>
-      </c>
-      <c r="N22">
-        <v>5.6959999999999997</v>
-      </c>
-      <c r="O22">
-        <v>394.6</v>
-      </c>
-      <c r="P22">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="Q22">
-        <v>250</v>
-      </c>
-      <c r="R22">
-        <v>31.74</v>
-      </c>
-      <c r="S22">
-        <v>45.2</v>
-      </c>
-      <c r="T22">
-        <v>142.5</v>
       </c>
     </row>
   </sheetData>
@@ -5122,6 +4835,1398 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>279.5</v>
+      </c>
+      <c r="C2">
+        <v>1238.5999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E2">
+        <v>43.2</v>
+      </c>
+      <c r="F2">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="G2">
+        <v>362.2</v>
+      </c>
+      <c r="H2">
+        <v>847.6</v>
+      </c>
+      <c r="I2">
+        <v>1331.3</v>
+      </c>
+      <c r="J2">
+        <v>5.43</v>
+      </c>
+      <c r="K2">
+        <v>0.76</v>
+      </c>
+      <c r="L2">
+        <v>2.89</v>
+      </c>
+      <c r="M2">
+        <v>1.66</v>
+      </c>
+      <c r="N2">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="O2">
+        <v>245.7</v>
+      </c>
+      <c r="P2">
+        <v>135.9</v>
+      </c>
+      <c r="Q2">
+        <v>66.3</v>
+      </c>
+      <c r="R2">
+        <v>4.08</v>
+      </c>
+      <c r="S2">
+        <v>13.45</v>
+      </c>
+      <c r="T2">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>281</v>
+      </c>
+      <c r="C3">
+        <v>1245.8</v>
+      </c>
+      <c r="D3">
+        <v>0.316</v>
+      </c>
+      <c r="E3">
+        <v>39.1</v>
+      </c>
+      <c r="F3">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="G3">
+        <v>374.6</v>
+      </c>
+      <c r="H3">
+        <v>870.6</v>
+      </c>
+      <c r="I3">
+        <v>1353.6</v>
+      </c>
+      <c r="J3">
+        <v>5.91</v>
+      </c>
+      <c r="K3">
+        <v>0.83</v>
+      </c>
+      <c r="L3">
+        <v>3.14</v>
+      </c>
+      <c r="M3">
+        <v>1.72</v>
+      </c>
+      <c r="N3">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="O3">
+        <v>235.3</v>
+      </c>
+      <c r="P3">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="R3">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="S3">
+        <v>15.97</v>
+      </c>
+      <c r="T3">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="C4">
+        <v>1258.7</v>
+      </c>
+      <c r="D4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E4">
+        <v>40.5</v>
+      </c>
+      <c r="F4">
+        <v>163</v>
+      </c>
+      <c r="G4">
+        <v>378.9</v>
+      </c>
+      <c r="H4">
+        <v>897.4</v>
+      </c>
+      <c r="I4">
+        <v>1420</v>
+      </c>
+      <c r="J4">
+        <v>6.54</v>
+      </c>
+      <c r="K4">
+        <v>1.03</v>
+      </c>
+      <c r="L4">
+        <v>3.25</v>
+      </c>
+      <c r="M4">
+        <v>1.82</v>
+      </c>
+      <c r="N4">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="O4">
+        <v>238.2</v>
+      </c>
+      <c r="P4">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="R4">
+        <v>5.51</v>
+      </c>
+      <c r="S4">
+        <v>17.57</v>
+      </c>
+      <c r="T4">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1312.4</v>
+      </c>
+      <c r="D5">
+        <v>0.443</v>
+      </c>
+      <c r="E5">
+        <v>41.5</v>
+      </c>
+      <c r="F5">
+        <v>171.4</v>
+      </c>
+      <c r="G5">
+        <v>384.1</v>
+      </c>
+      <c r="H5">
+        <v>956.8</v>
+      </c>
+      <c r="I5">
+        <v>1436.1</v>
+      </c>
+      <c r="J5">
+        <v>7.19</v>
+      </c>
+      <c r="K5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L5">
+        <v>3.37</v>
+      </c>
+      <c r="M5">
+        <v>1.86</v>
+      </c>
+      <c r="N5">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="O5">
+        <v>244.5</v>
+      </c>
+      <c r="P5">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>85.6</v>
+      </c>
+      <c r="R5">
+        <v>6.44</v>
+      </c>
+      <c r="S5">
+        <v>16.91</v>
+      </c>
+      <c r="T5">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="C6">
+        <v>1400.1</v>
+      </c>
+      <c r="D6">
+        <v>0.49</v>
+      </c>
+      <c r="E6">
+        <v>43.6</v>
+      </c>
+      <c r="F6">
+        <v>181.5</v>
+      </c>
+      <c r="G6">
+        <v>382.8</v>
+      </c>
+      <c r="H6">
+        <v>1050.4000000000001</v>
+      </c>
+      <c r="I6">
+        <v>1471.3</v>
+      </c>
+      <c r="J6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K6">
+        <v>1.35</v>
+      </c>
+      <c r="L6">
+        <v>3.39</v>
+      </c>
+      <c r="M6">
+        <v>1.95</v>
+      </c>
+      <c r="N6">
+        <v>3.286</v>
+      </c>
+      <c r="O6">
+        <v>256.3</v>
+      </c>
+      <c r="P6">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>93.3</v>
+      </c>
+      <c r="R6">
+        <v>6.86</v>
+      </c>
+      <c r="S6">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="T6">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>288.39999999999998</v>
+      </c>
+      <c r="C7">
+        <v>1470.4</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>44.1</v>
+      </c>
+      <c r="F7">
+        <v>199.3</v>
+      </c>
+      <c r="G7">
+        <v>389.9</v>
+      </c>
+      <c r="H7">
+        <v>1123.5999999999999</v>
+      </c>
+      <c r="I7">
+        <v>1526.4</v>
+      </c>
+      <c r="J7">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="K7">
+        <v>1.62</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>2.21</v>
+      </c>
+      <c r="N7">
+        <v>3.49</v>
+      </c>
+      <c r="O7">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="P7">
+        <v>158</v>
+      </c>
+      <c r="Q7">
+        <v>102.2</v>
+      </c>
+      <c r="R7">
+        <v>7.43</v>
+      </c>
+      <c r="S7">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="T7">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>295</v>
+      </c>
+      <c r="C8">
+        <v>1541.1</v>
+      </c>
+      <c r="D8">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E8">
+        <v>44.4</v>
+      </c>
+      <c r="F8">
+        <v>214</v>
+      </c>
+      <c r="G8">
+        <v>393.5</v>
+      </c>
+      <c r="H8">
+        <v>1189.9000000000001</v>
+      </c>
+      <c r="I8">
+        <v>1591.6</v>
+      </c>
+      <c r="J8">
+        <v>9.4</v>
+      </c>
+      <c r="K8">
+        <v>1.62</v>
+      </c>
+      <c r="L8">
+        <v>3.7</v>
+      </c>
+      <c r="M8">
+        <v>2.41</v>
+      </c>
+      <c r="N8">
+        <v>3.6059999999999999</v>
+      </c>
+      <c r="O8">
+        <v>274.3</v>
+      </c>
+      <c r="P8">
+        <v>174.4</v>
+      </c>
+      <c r="Q8">
+        <v>114.6</v>
+      </c>
+      <c r="R8">
+        <v>7.69</v>
+      </c>
+      <c r="S8">
+        <v>17.53</v>
+      </c>
+      <c r="T8">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>297.5</v>
+      </c>
+      <c r="C9">
+        <v>1591</v>
+      </c>
+      <c r="D9">
+        <v>0.628</v>
+      </c>
+      <c r="E9">
+        <v>43.7</v>
+      </c>
+      <c r="F9">
+        <v>225.7</v>
+      </c>
+      <c r="G9">
+        <v>392.1</v>
+      </c>
+      <c r="H9">
+        <v>1194.0999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1657.4</v>
+      </c>
+      <c r="J9">
+        <v>9.48</v>
+      </c>
+      <c r="K9">
+        <v>1.72</v>
+      </c>
+      <c r="L9">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M9">
+        <v>2.81</v>
+      </c>
+      <c r="N9">
+        <v>3.4729999999999999</v>
+      </c>
+      <c r="O9">
+        <v>264.2</v>
+      </c>
+      <c r="P9">
+        <v>180.3</v>
+      </c>
+      <c r="Q9">
+        <v>122.5</v>
+      </c>
+      <c r="R9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S9">
+        <v>17.71</v>
+      </c>
+      <c r="T9">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="C10">
+        <v>1599.6</v>
+      </c>
+      <c r="D10">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E10">
+        <v>47.1</v>
+      </c>
+      <c r="F10">
+        <v>239.9</v>
+      </c>
+      <c r="G10">
+        <v>384.7</v>
+      </c>
+      <c r="H10">
+        <v>1252.9000000000001</v>
+      </c>
+      <c r="I10">
+        <v>1677.7</v>
+      </c>
+      <c r="J10">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="K10">
+        <v>1.92</v>
+      </c>
+      <c r="L10">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="M10">
+        <v>3.05</v>
+      </c>
+      <c r="N10">
+        <v>3.585</v>
+      </c>
+      <c r="O10">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="P10">
+        <v>184.7</v>
+      </c>
+      <c r="Q10">
+        <v>127.6</v>
+      </c>
+      <c r="R10">
+        <v>8.01</v>
+      </c>
+      <c r="S10">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="T10">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>327.7</v>
+      </c>
+      <c r="C11">
+        <v>1668.5</v>
+      </c>
+      <c r="D11">
+        <v>0.749</v>
+      </c>
+      <c r="E11">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F11">
+        <v>264.8</v>
+      </c>
+      <c r="G11">
+        <v>440.6</v>
+      </c>
+      <c r="H11">
+        <v>1370.3</v>
+      </c>
+      <c r="I11">
+        <v>1738.5</v>
+      </c>
+      <c r="J11">
+        <v>8.66</v>
+      </c>
+      <c r="K11">
+        <v>4.55</v>
+      </c>
+      <c r="L11">
+        <v>4.76</v>
+      </c>
+      <c r="M11">
+        <v>5.86</v>
+      </c>
+      <c r="N11">
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="O11">
+        <v>353.9</v>
+      </c>
+      <c r="P11">
+        <v>201.8</v>
+      </c>
+      <c r="Q11">
+        <v>135.5</v>
+      </c>
+      <c r="R11">
+        <v>8.26</v>
+      </c>
+      <c r="S11">
+        <v>19.62</v>
+      </c>
+      <c r="T11">
+        <v>63.3</v>
+      </c>
+      <c r="U11">
+        <f>SUM(B11:T11)</f>
+        <v>6700.7960000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>347.2</v>
+      </c>
+      <c r="C12">
+        <v>1785.1</v>
+      </c>
+      <c r="D12">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E12">
+        <v>104.7</v>
+      </c>
+      <c r="F12">
+        <v>301.10000000000002</v>
+      </c>
+      <c r="G12">
+        <v>569.5</v>
+      </c>
+      <c r="H12">
+        <v>1608</v>
+      </c>
+      <c r="I12">
+        <v>1839.1</v>
+      </c>
+      <c r="J12">
+        <v>10.14</v>
+      </c>
+      <c r="K12">
+        <v>6.98</v>
+      </c>
+      <c r="L12">
+        <v>7.53</v>
+      </c>
+      <c r="M12">
+        <v>5.97</v>
+      </c>
+      <c r="N12">
+        <v>4.1529999999999996</v>
+      </c>
+      <c r="O12">
+        <v>354.7</v>
+      </c>
+      <c r="P12">
+        <v>230</v>
+      </c>
+      <c r="Q12">
+        <v>154</v>
+      </c>
+      <c r="R12">
+        <v>12.52</v>
+      </c>
+      <c r="S12">
+        <v>23.31</v>
+      </c>
+      <c r="T12">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>364.1</v>
+      </c>
+      <c r="C13">
+        <v>2112.6</v>
+      </c>
+      <c r="D13">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E13">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="F13">
+        <v>330.6</v>
+      </c>
+      <c r="G13">
+        <v>649.20000000000005</v>
+      </c>
+      <c r="H13">
+        <v>1701.1</v>
+      </c>
+      <c r="I13">
+        <v>1920.7</v>
+      </c>
+      <c r="J13">
+        <v>10.95</v>
+      </c>
+      <c r="K13">
+        <v>8.64</v>
+      </c>
+      <c r="L13">
+        <v>10.15</v>
+      </c>
+      <c r="M13">
+        <v>8.1</v>
+      </c>
+      <c r="N13">
+        <v>4.452</v>
+      </c>
+      <c r="O13">
+        <v>378.7</v>
+      </c>
+      <c r="P13">
+        <v>244.7</v>
+      </c>
+      <c r="Q13">
+        <v>180</v>
+      </c>
+      <c r="R13">
+        <v>13.92</v>
+      </c>
+      <c r="S13">
+        <v>27.91</v>
+      </c>
+      <c r="T13">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>389.1</v>
+      </c>
+      <c r="C14">
+        <v>2149.5</v>
+      </c>
+      <c r="D14">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="E14">
+        <v>189.7</v>
+      </c>
+      <c r="F14">
+        <v>356.2</v>
+      </c>
+      <c r="G14">
+        <v>743</v>
+      </c>
+      <c r="H14">
+        <v>1808</v>
+      </c>
+      <c r="I14">
+        <v>1973.5</v>
+      </c>
+      <c r="J14">
+        <v>13.06</v>
+      </c>
+      <c r="K14">
+        <v>8.91</v>
+      </c>
+      <c r="L14">
+        <v>11.63</v>
+      </c>
+      <c r="M14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N14">
+        <v>4.7969999999999997</v>
+      </c>
+      <c r="O14">
+        <v>401.2</v>
+      </c>
+      <c r="P14">
+        <v>255.7</v>
+      </c>
+      <c r="Q14">
+        <v>201.5</v>
+      </c>
+      <c r="R14">
+        <v>17.22</v>
+      </c>
+      <c r="S14">
+        <v>30.95</v>
+      </c>
+      <c r="T14">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>404.8</v>
+      </c>
+      <c r="C15">
+        <v>2227.4</v>
+      </c>
+      <c r="D15">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="E15">
+        <v>210</v>
+      </c>
+      <c r="F15">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="G15">
+        <v>889.9</v>
+      </c>
+      <c r="H15">
+        <v>1892.5</v>
+      </c>
+      <c r="I15">
+        <v>2054.8000000000002</v>
+      </c>
+      <c r="J15">
+        <v>15.62</v>
+      </c>
+      <c r="K15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L15">
+        <v>13.26</v>
+      </c>
+      <c r="M15">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N15">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="O15">
+        <v>432.4</v>
+      </c>
+      <c r="P15">
+        <v>261</v>
+      </c>
+      <c r="Q15">
+        <v>217.2</v>
+      </c>
+      <c r="R15">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="S15">
+        <v>38.03</v>
+      </c>
+      <c r="T15">
+        <v>107.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>414.4</v>
+      </c>
+      <c r="C16">
+        <v>2213</v>
+      </c>
+      <c r="D16">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="E16">
+        <v>215.4</v>
+      </c>
+      <c r="F16">
+        <v>320.5</v>
+      </c>
+      <c r="G16">
+        <v>977.3</v>
+      </c>
+      <c r="H16">
+        <v>1977.7</v>
+      </c>
+      <c r="I16">
+        <v>2136.1999999999998</v>
+      </c>
+      <c r="J16">
+        <v>18.71</v>
+      </c>
+      <c r="K16">
+        <v>9.18</v>
+      </c>
+      <c r="L16">
+        <v>13.55</v>
+      </c>
+      <c r="M16">
+        <v>11.01</v>
+      </c>
+      <c r="N16">
+        <v>5.2270000000000003</v>
+      </c>
+      <c r="O16">
+        <v>446.8</v>
+      </c>
+      <c r="P16">
+        <v>263.2</v>
+      </c>
+      <c r="Q16">
+        <v>224.1</v>
+      </c>
+      <c r="R16">
+        <v>25.52</v>
+      </c>
+      <c r="S16">
+        <v>40.68</v>
+      </c>
+      <c r="T16">
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>431.2</v>
+      </c>
+      <c r="C17">
+        <v>2215.1999999999998</v>
+      </c>
+      <c r="D17">
+        <v>2.13</v>
+      </c>
+      <c r="E17">
+        <v>203.4</v>
+      </c>
+      <c r="F17">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="G17">
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="H17">
+        <v>2039.9</v>
+      </c>
+      <c r="I17">
+        <v>2203</v>
+      </c>
+      <c r="J17">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="K17">
+        <v>9.83</v>
+      </c>
+      <c r="L17">
+        <v>14.83</v>
+      </c>
+      <c r="M17">
+        <v>11.33</v>
+      </c>
+      <c r="N17">
+        <v>5.39</v>
+      </c>
+      <c r="O17">
+        <v>455.6</v>
+      </c>
+      <c r="P17">
+        <v>280</v>
+      </c>
+      <c r="Q17">
+        <v>230.1</v>
+      </c>
+      <c r="R17">
+        <v>30.22</v>
+      </c>
+      <c r="S17">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="T17">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>438.2</v>
+      </c>
+      <c r="C18">
+        <v>2185.1</v>
+      </c>
+      <c r="D18">
+        <v>2.077</v>
+      </c>
+      <c r="E18">
+        <v>201.6</v>
+      </c>
+      <c r="F18">
+        <v>311.7</v>
+      </c>
+      <c r="G18">
+        <v>1070.0999999999999</v>
+      </c>
+      <c r="H18">
+        <v>2101.3000000000002</v>
+      </c>
+      <c r="I18">
+        <v>2239.4</v>
+      </c>
+      <c r="J18">
+        <v>19.16</v>
+      </c>
+      <c r="K18">
+        <v>9.11</v>
+      </c>
+      <c r="L18">
+        <v>15.88</v>
+      </c>
+      <c r="M18">
+        <v>11.45</v>
+      </c>
+      <c r="N18">
+        <v>5.5860000000000003</v>
+      </c>
+      <c r="O18">
+        <v>446</v>
+      </c>
+      <c r="P18">
+        <v>292.3</v>
+      </c>
+      <c r="Q18">
+        <v>235.7</v>
+      </c>
+      <c r="R18">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="S18">
+        <v>41.38</v>
+      </c>
+      <c r="T18">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>451.3</v>
+      </c>
+      <c r="C19">
+        <v>2169</v>
+      </c>
+      <c r="D19">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="E19">
+        <v>200.6</v>
+      </c>
+      <c r="F19">
+        <v>315</v>
+      </c>
+      <c r="G19">
+        <v>1104.5999999999999</v>
+      </c>
+      <c r="H19">
+        <v>2188.5</v>
+      </c>
+      <c r="I19">
+        <v>2285.6</v>
+      </c>
+      <c r="J19">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="K19">
+        <v>10.25</v>
+      </c>
+      <c r="L19">
+        <v>15.45</v>
+      </c>
+      <c r="M19">
+        <v>11.02</v>
+      </c>
+      <c r="N19">
+        <v>5.74</v>
+      </c>
+      <c r="O19">
+        <v>438.4</v>
+      </c>
+      <c r="P19">
+        <v>296.3</v>
+      </c>
+      <c r="Q19">
+        <v>245.2</v>
+      </c>
+      <c r="R19">
+        <v>31.76</v>
+      </c>
+      <c r="S19">
+        <v>42.16</v>
+      </c>
+      <c r="T19">
+        <v>137.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>453.8</v>
+      </c>
+      <c r="C20">
+        <v>2118.6999999999998</v>
+      </c>
+      <c r="D20">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="E20">
+        <v>201.3</v>
+      </c>
+      <c r="F20">
+        <v>317.5</v>
+      </c>
+      <c r="G20">
+        <v>1145.0999999999999</v>
+      </c>
+      <c r="H20">
+        <v>2258.6</v>
+      </c>
+      <c r="I20">
+        <v>2329.6</v>
+      </c>
+      <c r="J20">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="K20">
+        <v>10.52</v>
+      </c>
+      <c r="L20">
+        <v>16.54</v>
+      </c>
+      <c r="M20">
+        <v>12.7</v>
+      </c>
+      <c r="N20">
+        <v>5.6779999999999999</v>
+      </c>
+      <c r="O20">
+        <v>420.1</v>
+      </c>
+      <c r="P20">
+        <v>289.89999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>247.2</v>
+      </c>
+      <c r="R20">
+        <v>31.86</v>
+      </c>
+      <c r="S20">
+        <v>43.37</v>
+      </c>
+      <c r="T20">
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>459.1</v>
+      </c>
+      <c r="C21">
+        <v>2068.6</v>
+      </c>
+      <c r="D21">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="E21">
+        <v>205.9</v>
+      </c>
+      <c r="F21">
+        <v>334.7</v>
+      </c>
+      <c r="G21">
+        <v>1173.3</v>
+      </c>
+      <c r="H21">
+        <v>2314.9</v>
+      </c>
+      <c r="I21">
+        <v>2380.9</v>
+      </c>
+      <c r="J21">
+        <v>21.26</v>
+      </c>
+      <c r="K21">
+        <v>10.82</v>
+      </c>
+      <c r="L21">
+        <v>15.32</v>
+      </c>
+      <c r="M21">
+        <v>12.61</v>
+      </c>
+      <c r="N21">
+        <v>5.6440000000000001</v>
+      </c>
+      <c r="O21">
+        <v>405.5</v>
+      </c>
+      <c r="P21">
+        <v>285.3</v>
+      </c>
+      <c r="Q21">
+        <v>249.3</v>
+      </c>
+      <c r="R21">
+        <v>32.22</v>
+      </c>
+      <c r="S21">
+        <v>44.32</v>
+      </c>
+      <c r="T21">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>467.2</v>
+      </c>
+      <c r="C22">
+        <v>2053</v>
+      </c>
+      <c r="D22">
+        <v>2.36</v>
+      </c>
+      <c r="E22">
+        <v>204</v>
+      </c>
+      <c r="F22">
+        <v>331.1</v>
+      </c>
+      <c r="G22">
+        <v>1188.9000000000001</v>
+      </c>
+      <c r="H22">
+        <v>2380.1</v>
+      </c>
+      <c r="I22">
+        <v>2409.8000000000002</v>
+      </c>
+      <c r="J22">
+        <v>20.96</v>
+      </c>
+      <c r="K22">
+        <v>11.24</v>
+      </c>
+      <c r="L22">
+        <v>17.52</v>
+      </c>
+      <c r="M22">
+        <v>14.01</v>
+      </c>
+      <c r="N22">
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="O22">
+        <v>394.6</v>
+      </c>
+      <c r="P22">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="Q22">
+        <v>250</v>
+      </c>
+      <c r="R22">
+        <v>31.74</v>
+      </c>
+      <c r="S22">
+        <v>45.2</v>
+      </c>
+      <c r="T22">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f>P11/U11</f>
+        <v>3.0115825045263278E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6503,7 +7608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -10657,8 +11762,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10719,7 +11824,7 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
         <v>18</v>
@@ -10766,7 +11871,7 @@
         <v>8.5</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>5</v>
@@ -10828,7 +11933,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3">
         <v>4.2</v>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E56EC72-198D-416A-B815-1CCDF364934F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B151C-1280-4037-BCCC-63156A2649AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="11" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -257,11 +257,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4839,15 +4840,15 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -5528,12 +5529,8 @@
       <c r="T11">
         <v>63.3</v>
       </c>
-      <c r="U11">
-        <f>SUM(B11:T11)</f>
-        <v>6700.7960000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -5595,7 +5592,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -5719,7 +5716,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -5781,7 +5778,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -6213,12 +6210,6 @@
       </c>
       <c r="T22">
         <v>142.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P23">
-        <f>P11/U11</f>
-        <v>3.0115825045263278E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11762,7 +11753,7 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B151C-1280-4037-BCCC-63156A2649AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD603A89-23B1-48A3-B3E8-47C30ABFC306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="11" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="10" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -615,9 +615,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3745,8 +3746,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4809,25 +4810,310 @@
       <c r="A18">
         <v>2015</v>
       </c>
+      <c r="B18" s="2">
+        <v>12641</v>
+      </c>
+      <c r="C18" s="2">
+        <v>115625</v>
+      </c>
+      <c r="D18" s="2">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7583</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>56817</v>
+      </c>
+      <c r="H18" s="2">
+        <v>91767</v>
+      </c>
+      <c r="I18" s="2">
+        <v>79209</v>
+      </c>
+      <c r="J18" s="2">
+        <v>285</v>
+      </c>
+      <c r="K18" s="2">
+        <v>684</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1107</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1115</v>
+      </c>
+      <c r="N18" s="2">
+        <v>282</v>
+      </c>
+      <c r="O18" s="2">
+        <v>25612</v>
+      </c>
+      <c r="P18" s="2">
+        <v>12641</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>11220</v>
+      </c>
+      <c r="R18" s="2">
+        <v>2228</v>
+      </c>
+      <c r="S18" s="2">
+        <v>4622</v>
+      </c>
+      <c r="T18" s="2">
+        <v>8086</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
+      <c r="B19" s="2">
+        <v>20559</v>
+      </c>
+      <c r="C19" s="2">
+        <v>188321</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10982</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>93514</v>
+      </c>
+      <c r="H19" s="2">
+        <v>149100</v>
+      </c>
+      <c r="I19" s="2">
+        <v>130398</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-37</v>
+      </c>
+      <c r="K19" s="2">
+        <v>628</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1157</v>
+      </c>
+      <c r="M19" s="2">
+        <v>628</v>
+      </c>
+      <c r="N19" s="2">
+        <v>525</v>
+      </c>
+      <c r="O19" s="2">
+        <v>42212</v>
+      </c>
+      <c r="P19" s="2">
+        <v>20559</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>13390</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2705</v>
+      </c>
+      <c r="S19" s="2">
+        <v>3534</v>
+      </c>
+      <c r="T19" s="2">
+        <v>13205</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2017</v>
       </c>
+      <c r="B20" s="2">
+        <v>18761</v>
+      </c>
+      <c r="C20" s="2">
+        <v>155372</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6719</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>79919</v>
+      </c>
+      <c r="H20" s="2">
+        <v>134836</v>
+      </c>
+      <c r="I20" s="2">
+        <v>117120</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-35</v>
+      </c>
+      <c r="K20" s="2">
+        <v>430</v>
+      </c>
+      <c r="L20" s="2">
+        <v>640</v>
+      </c>
+      <c r="M20" s="2">
+        <v>642</v>
+      </c>
+      <c r="N20" s="2">
+        <v>220</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34959</v>
+      </c>
+      <c r="P20" s="2">
+        <v>18761</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>6464</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1974</v>
+      </c>
+      <c r="S20" s="2">
+        <v>2627</v>
+      </c>
+      <c r="T20" s="2">
+        <v>7872</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
+      <c r="B21" s="2">
+        <v>6228</v>
+      </c>
+      <c r="C21" s="2">
+        <v>59239</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-58</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4851</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30571</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44554</v>
+      </c>
+      <c r="I21" s="2">
+        <v>38627</v>
+      </c>
+      <c r="J21" s="2">
+        <v>464</v>
+      </c>
+      <c r="K21" s="2">
+        <v>333</v>
+      </c>
+      <c r="L21" s="2">
+        <v>260</v>
+      </c>
+      <c r="M21" s="2">
+        <v>228</v>
+      </c>
+      <c r="N21" s="2">
+        <v>127</v>
+      </c>
+      <c r="O21" s="2">
+        <v>12400</v>
+      </c>
+      <c r="P21" s="2">
+        <v>6228</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>5772</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1039</v>
+      </c>
+      <c r="S21" s="2">
+        <v>902</v>
+      </c>
+      <c r="T21" s="2">
+        <v>3970</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1387</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9276</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2591</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1819</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4904</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-1566</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1267</v>
+      </c>
+      <c r="K22" s="2">
+        <v>282</v>
+      </c>
+      <c r="L22" s="2">
+        <v>541</v>
+      </c>
+      <c r="M22" s="2">
+        <v>107</v>
+      </c>
+      <c r="N22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>-421</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1387</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>4343</v>
+      </c>
+      <c r="R22" s="2">
+        <v>263</v>
+      </c>
+      <c r="S22" s="2">
+        <v>837</v>
+      </c>
+      <c r="T22" s="2">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -4842,7 +5128,7 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD603A89-23B1-48A3-B3E8-47C30ABFC306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8700DA1-23AF-4EB4-99CB-139E0940F209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="10" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
@@ -17,19 +17,19 @@
     <sheet name="debt_ratio" sheetId="12" r:id="rId2"/>
     <sheet name="i_avg" sheetId="1" r:id="rId3"/>
     <sheet name="g" sheetId="7" r:id="rId4"/>
-    <sheet name="gdp" sheetId="4" r:id="rId5"/>
-    <sheet name="inf" sheetId="6" r:id="rId6"/>
-    <sheet name="inf_var" sheetId="15" r:id="rId7"/>
-    <sheet name="gcf" sheetId="5" r:id="rId8"/>
-    <sheet name="tb" sheetId="13" r:id="rId9"/>
-    <sheet name="tot" sheetId="8" r:id="rId10"/>
-    <sheet name="pspp" sheetId="16" r:id="rId11"/>
-    <sheet name="debt" sheetId="10" r:id="rId12"/>
-    <sheet name="i_us" sheetId="14" r:id="rId13"/>
-    <sheet name="baa" sheetId="2" r:id="rId14"/>
+    <sheet name="inf" sheetId="6" r:id="rId5"/>
+    <sheet name="inf_var" sheetId="15" r:id="rId6"/>
+    <sheet name="gcf" sheetId="5" r:id="rId7"/>
+    <sheet name="tb" sheetId="13" r:id="rId8"/>
+    <sheet name="tot" sheetId="8" r:id="rId9"/>
+    <sheet name="pspp" sheetId="16" r:id="rId10"/>
+    <sheet name="debt" sheetId="10" r:id="rId11"/>
+    <sheet name="i_us" sheetId="14" r:id="rId12"/>
+    <sheet name="baa" sheetId="2" r:id="rId13"/>
+    <sheet name="gdp" sheetId="4" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">gdp!$A$1:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">gdp!$A$1:$T$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">i_avg!$A$1:$T$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2358,1395 +2358,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6075AB-0FDC-47F7-88F9-F2B6467668E4}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:T22"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T22" sqref="A1:T22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2">
-        <v>103.9</v>
-      </c>
-      <c r="C2">
-        <v>103.14</v>
-      </c>
-      <c r="D2">
-        <v>47.17</v>
-      </c>
-      <c r="E2">
-        <v>96.66</v>
-      </c>
-      <c r="F2">
-        <v>95.61</v>
-      </c>
-      <c r="G2">
-        <v>104.56</v>
-      </c>
-      <c r="H2">
-        <v>95.43</v>
-      </c>
-      <c r="I2">
-        <v>107.58</v>
-      </c>
-      <c r="J2">
-        <v>86.8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>98.49</v>
-      </c>
-      <c r="P2">
-        <v>98.73</v>
-      </c>
-      <c r="Q2">
-        <v>104.7</v>
-      </c>
-      <c r="R2">
-        <v>104.3</v>
-      </c>
-      <c r="S2">
-        <v>97.1</v>
-      </c>
-      <c r="T2">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>101.13</v>
-      </c>
-      <c r="C3">
-        <v>96.51</v>
-      </c>
-      <c r="D3">
-        <v>50.99</v>
-      </c>
-      <c r="E3">
-        <v>101.67</v>
-      </c>
-      <c r="F3">
-        <v>103.71</v>
-      </c>
-      <c r="G3">
-        <v>98.14</v>
-      </c>
-      <c r="H3">
-        <v>94.28</v>
-      </c>
-      <c r="I3">
-        <v>99.58</v>
-      </c>
-      <c r="J3">
-        <v>93</v>
-      </c>
-      <c r="K3">
-        <v>98.84</v>
-      </c>
-      <c r="L3">
-        <v>101.3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>98</v>
-      </c>
-      <c r="P3">
-        <v>98.4</v>
-      </c>
-      <c r="Q3">
-        <v>101.9</v>
-      </c>
-      <c r="R3">
-        <v>100.76</v>
-      </c>
-      <c r="S3">
-        <v>100.66</v>
-      </c>
-      <c r="T3">
-        <v>91.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
-        <v>100.78</v>
-      </c>
-      <c r="C4">
-        <v>96.93</v>
-      </c>
-      <c r="D4">
-        <v>54.93</v>
-      </c>
-      <c r="E4">
-        <v>97.49</v>
-      </c>
-      <c r="F4">
-        <v>101.14</v>
-      </c>
-      <c r="G4">
-        <v>100.06</v>
-      </c>
-      <c r="H4">
-        <v>95.15</v>
-      </c>
-      <c r="I4">
-        <v>101.54</v>
-      </c>
-      <c r="J4">
-        <v>94.4</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="P4">
-        <v>97.07</v>
-      </c>
-      <c r="Q4">
-        <v>102.51</v>
-      </c>
-      <c r="R4">
-        <v>102.78</v>
-      </c>
-      <c r="S4">
-        <v>99.59</v>
-      </c>
-      <c r="T4">
-        <v>90.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5">
-        <v>102.02</v>
-      </c>
-      <c r="C5">
-        <v>98.83</v>
-      </c>
-      <c r="D5">
-        <v>49.62</v>
-      </c>
-      <c r="E5">
-        <v>100.34</v>
-      </c>
-      <c r="F5">
-        <v>102.08</v>
-      </c>
-      <c r="G5">
-        <v>102.96</v>
-      </c>
-      <c r="H5">
-        <v>98.35</v>
-      </c>
-      <c r="I5">
-        <v>102.05</v>
-      </c>
-      <c r="J5">
-        <v>95.3</v>
-      </c>
-      <c r="K5">
-        <v>103.38</v>
-      </c>
-      <c r="L5">
-        <v>100.34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <v>101.42</v>
-      </c>
-      <c r="P5">
-        <v>100.46</v>
-      </c>
-      <c r="Q5">
-        <v>104.1</v>
-      </c>
-      <c r="R5">
-        <v>104.59</v>
-      </c>
-      <c r="S5">
-        <v>99.33</v>
-      </c>
-      <c r="T5">
-        <v>87.74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6">
-        <v>101.34</v>
-      </c>
-      <c r="C6">
-        <v>100.94</v>
-      </c>
-      <c r="D6">
-        <v>40.92</v>
-      </c>
-      <c r="E6">
-        <v>102.98</v>
-      </c>
-      <c r="F6">
-        <v>85.98</v>
-      </c>
-      <c r="G6">
-        <v>103.76</v>
-      </c>
-      <c r="H6">
-        <v>97.57</v>
-      </c>
-      <c r="I6">
-        <v>102.2</v>
-      </c>
-      <c r="J6">
-        <v>95.3</v>
-      </c>
-      <c r="K6">
-        <v>102.78</v>
-      </c>
-      <c r="L6">
-        <v>104.48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6">
-        <v>102.14</v>
-      </c>
-      <c r="P6">
-        <v>99.46</v>
-      </c>
-      <c r="Q6">
-        <v>103.62</v>
-      </c>
-      <c r="R6">
-        <v>105.07</v>
-      </c>
-      <c r="S6">
-        <v>99.04</v>
-      </c>
-      <c r="T6">
-        <v>84.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7">
-        <v>99.74</v>
-      </c>
-      <c r="C7">
-        <v>100.39</v>
-      </c>
-      <c r="D7">
-        <v>37.119999999999997</v>
-      </c>
-      <c r="E7">
-        <v>94.1</v>
-      </c>
-      <c r="F7">
-        <v>87.67</v>
-      </c>
-      <c r="G7">
-        <v>102.45</v>
-      </c>
-      <c r="H7">
-        <v>96.91</v>
-      </c>
-      <c r="I7">
-        <v>102.16</v>
-      </c>
-      <c r="J7">
-        <v>96.2</v>
-      </c>
-      <c r="K7">
-        <v>105.31</v>
-      </c>
-      <c r="L7">
-        <v>105.55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7">
-        <v>101.51</v>
-      </c>
-      <c r="P7">
-        <v>98.21</v>
-      </c>
-      <c r="Q7">
-        <v>102.74</v>
-      </c>
-      <c r="R7">
-        <v>103.85</v>
-      </c>
-      <c r="S7">
-        <v>98.75</v>
-      </c>
-      <c r="T7">
-        <v>82.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8">
-        <v>99.51</v>
-      </c>
-      <c r="C8">
-        <v>97.95</v>
-      </c>
-      <c r="D8">
-        <v>36.4</v>
-      </c>
-      <c r="E8">
-        <v>99.01</v>
-      </c>
-      <c r="F8">
-        <v>83.47</v>
-      </c>
-      <c r="G8">
-        <v>102.26</v>
-      </c>
-      <c r="H8">
-        <v>94.73</v>
-      </c>
-      <c r="I8">
-        <v>99.9</v>
-      </c>
-      <c r="J8">
-        <v>94.4</v>
-      </c>
-      <c r="K8">
-        <v>102.34</v>
-      </c>
-      <c r="L8">
-        <v>101.83</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8">
-        <v>101.86</v>
-      </c>
-      <c r="P8">
-        <v>96.47</v>
-      </c>
-      <c r="Q8">
-        <v>101.59</v>
-      </c>
-      <c r="R8">
-        <v>100.9</v>
-      </c>
-      <c r="S8">
-        <v>98.76</v>
-      </c>
-      <c r="T8">
-        <v>78.489999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9">
-        <v>98.97</v>
-      </c>
-      <c r="C9">
-        <v>95.52</v>
-      </c>
-      <c r="D9">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="E9">
-        <v>97.73</v>
-      </c>
-      <c r="F9">
-        <v>83.96</v>
-      </c>
-      <c r="G9">
-        <v>102.7</v>
-      </c>
-      <c r="H9">
-        <v>91.71</v>
-      </c>
-      <c r="I9">
-        <v>100.4</v>
-      </c>
-      <c r="J9">
-        <v>95.5</v>
-      </c>
-      <c r="K9">
-        <v>101.27</v>
-      </c>
-      <c r="L9">
-        <v>98.88</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9">
-        <v>101.95</v>
-      </c>
-      <c r="P9">
-        <v>95.31</v>
-      </c>
-      <c r="Q9">
-        <v>102.38</v>
-      </c>
-      <c r="R9">
-        <v>101.09</v>
-      </c>
-      <c r="S9">
-        <v>97.37</v>
-      </c>
-      <c r="T9">
-        <v>75.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10">
-        <v>99.24</v>
-      </c>
-      <c r="C10">
-        <v>96.03</v>
-      </c>
-      <c r="D10">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="E10">
-        <v>101.59</v>
-      </c>
-      <c r="F10">
-        <v>84.37</v>
-      </c>
-      <c r="G10">
-        <v>103.04</v>
-      </c>
-      <c r="H10">
-        <v>92</v>
-      </c>
-      <c r="I10">
-        <v>101.3</v>
-      </c>
-      <c r="J10">
-        <v>94.3</v>
-      </c>
-      <c r="K10">
-        <v>106.7</v>
-      </c>
-      <c r="L10">
-        <v>100.07</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10">
-        <v>101.76</v>
-      </c>
-      <c r="P10">
-        <v>95.92</v>
-      </c>
-      <c r="Q10">
-        <v>102.85</v>
-      </c>
-      <c r="R10">
-        <v>102.33</v>
-      </c>
-      <c r="S10">
-        <v>96.27</v>
-      </c>
-      <c r="T10">
-        <v>74.23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11">
-        <v>96.28</v>
-      </c>
-      <c r="C11">
-        <v>93.46</v>
-      </c>
-      <c r="D11">
-        <v>30.29</v>
-      </c>
-      <c r="E11">
-        <v>107.94</v>
-      </c>
-      <c r="F11">
-        <v>83.77</v>
-      </c>
-      <c r="G11">
-        <v>100.26</v>
-      </c>
-      <c r="H11">
-        <v>90.11</v>
-      </c>
-      <c r="I11">
-        <v>99.3</v>
-      </c>
-      <c r="J11">
-        <v>98.7</v>
-      </c>
-      <c r="K11">
-        <v>102.39</v>
-      </c>
-      <c r="L11">
-        <v>96.82</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11">
-        <v>101.33</v>
-      </c>
-      <c r="P11">
-        <v>93.38</v>
-      </c>
-      <c r="Q11">
-        <v>99.67</v>
-      </c>
-      <c r="R11">
-        <v>97.63</v>
-      </c>
-      <c r="S11">
-        <v>94.69</v>
-      </c>
-      <c r="T11">
-        <v>72.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12">
-        <v>99.18</v>
-      </c>
-      <c r="C12">
-        <v>99.86</v>
-      </c>
-      <c r="D12">
-        <v>33.29</v>
-      </c>
-      <c r="E12">
-        <v>101.44</v>
-      </c>
-      <c r="F12">
-        <v>80.14</v>
-      </c>
-      <c r="G12">
-        <v>106.03</v>
-      </c>
-      <c r="H12">
-        <v>94.23</v>
-      </c>
-      <c r="I12">
-        <v>100.5</v>
-      </c>
-      <c r="J12">
-        <v>90.1</v>
-      </c>
-      <c r="K12">
-        <v>102.31</v>
-      </c>
-      <c r="L12">
-        <v>97.89</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12">
-        <v>102.51</v>
-      </c>
-      <c r="P12">
-        <v>95.21</v>
-      </c>
-      <c r="Q12">
-        <v>104.67</v>
-      </c>
-      <c r="R12">
-        <v>103.27</v>
-      </c>
-      <c r="S12">
-        <v>93.62</v>
-      </c>
-      <c r="T12">
-        <v>72.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13">
-        <v>97.02</v>
-      </c>
-      <c r="C13">
-        <v>96.13</v>
-      </c>
-      <c r="D13">
-        <v>34.71</v>
-      </c>
-      <c r="E13">
-        <v>99.99</v>
-      </c>
-      <c r="F13">
-        <v>81.8</v>
-      </c>
-      <c r="G13">
-        <v>103.14</v>
-      </c>
-      <c r="H13">
-        <v>90.16</v>
-      </c>
-      <c r="I13">
-        <v>99.7</v>
-      </c>
-      <c r="J13">
-        <v>91.2</v>
-      </c>
-      <c r="K13">
-        <v>104.84</v>
-      </c>
-      <c r="L13">
-        <v>95.76</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13">
-        <v>99.93</v>
-      </c>
-      <c r="P13">
-        <v>92.86</v>
-      </c>
-      <c r="Q13">
-        <v>104.72</v>
-      </c>
-      <c r="R13">
-        <v>98.5</v>
-      </c>
-      <c r="S13">
-        <v>92.9</v>
-      </c>
-      <c r="T13">
-        <v>71.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14">
-        <v>95.12</v>
-      </c>
-      <c r="C14">
-        <v>93.29</v>
-      </c>
-      <c r="D14">
-        <v>32.68</v>
-      </c>
-      <c r="E14">
-        <v>97.92</v>
-      </c>
-      <c r="F14">
-        <v>82.71</v>
-      </c>
-      <c r="G14">
-        <v>98.47</v>
-      </c>
-      <c r="H14">
-        <v>86.97</v>
-      </c>
-      <c r="I14">
-        <v>98.7</v>
-      </c>
-      <c r="J14">
-        <v>89.8</v>
-      </c>
-      <c r="K14">
-        <v>103.61</v>
-      </c>
-      <c r="L14">
-        <v>95.09</v>
-      </c>
-      <c r="M14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14">
-        <v>98.28</v>
-      </c>
-      <c r="P14">
-        <v>90.06</v>
-      </c>
-      <c r="Q14">
-        <v>103.59</v>
-      </c>
-      <c r="R14">
-        <v>97.5</v>
-      </c>
-      <c r="S14">
-        <v>91.66</v>
-      </c>
-      <c r="T14">
-        <v>68.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>92.79</v>
-      </c>
-      <c r="D15">
-        <v>34.57</v>
-      </c>
-      <c r="E15">
-        <v>106.54</v>
-      </c>
-      <c r="F15">
-        <v>82.38</v>
-      </c>
-      <c r="G15">
-        <v>98</v>
-      </c>
-      <c r="H15">
-        <v>85.77</v>
-      </c>
-      <c r="I15">
-        <v>96.7</v>
-      </c>
-      <c r="J15">
-        <v>87.2</v>
-      </c>
-      <c r="K15">
-        <v>100.74</v>
-      </c>
-      <c r="L15">
-        <v>94.91</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15">
-        <v>98.28</v>
-      </c>
-      <c r="P15">
-        <v>88.97</v>
-      </c>
-      <c r="Q15">
-        <v>103.92</v>
-      </c>
-      <c r="R15">
-        <v>95.88</v>
-      </c>
-      <c r="S15">
-        <v>90.53</v>
-      </c>
-      <c r="T15">
-        <v>67.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16">
-        <v>95.11</v>
-      </c>
-      <c r="C16">
-        <v>94.7</v>
-      </c>
-      <c r="D16">
-        <v>33.630000000000003</v>
-      </c>
-      <c r="E16">
-        <v>104.63</v>
-      </c>
-      <c r="F16">
-        <v>83.22</v>
-      </c>
-      <c r="G16">
-        <v>98.95</v>
-      </c>
-      <c r="H16">
-        <v>87.27</v>
-      </c>
-      <c r="I16">
-        <v>97.3</v>
-      </c>
-      <c r="J16">
-        <v>85.8</v>
-      </c>
-      <c r="K16">
-        <v>102.01</v>
-      </c>
-      <c r="L16">
-        <v>95.58</v>
-      </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16">
-        <v>98.73</v>
-      </c>
-      <c r="P16">
-        <v>89.32</v>
-      </c>
-      <c r="Q16">
-        <v>105.34</v>
-      </c>
-      <c r="R16">
-        <v>96.99</v>
-      </c>
-      <c r="S16">
-        <v>90.13</v>
-      </c>
-      <c r="T16">
-        <v>67.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17">
-        <v>95.48</v>
-      </c>
-      <c r="C17">
-        <v>96.54</v>
-      </c>
-      <c r="D17">
-        <v>33.369999999999997</v>
-      </c>
-      <c r="E17">
-        <v>100.78</v>
-      </c>
-      <c r="F17">
-        <v>84.13</v>
-      </c>
-      <c r="G17">
-        <v>98.33</v>
-      </c>
-      <c r="H17">
-        <v>100.79</v>
-      </c>
-      <c r="I17">
-        <v>97.2</v>
-      </c>
-      <c r="J17">
-        <v>85.9</v>
-      </c>
-      <c r="K17">
-        <v>102.42</v>
-      </c>
-      <c r="L17">
-        <v>97.63</v>
-      </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17">
-        <v>98.75</v>
-      </c>
-      <c r="P17">
-        <v>89.19</v>
-      </c>
-      <c r="Q17">
-        <v>106.43</v>
-      </c>
-      <c r="R17">
-        <v>99.36</v>
-      </c>
-      <c r="S17">
-        <v>90.17</v>
-      </c>
-      <c r="T17">
-        <v>68.38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18">
-        <v>97.27</v>
-      </c>
-      <c r="C18">
-        <v>99.9</v>
-      </c>
-      <c r="D18">
-        <v>39.97</v>
-      </c>
-      <c r="E18">
-        <v>106.52</v>
-      </c>
-      <c r="F18">
-        <v>83.36</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>106.07</v>
-      </c>
-      <c r="I18">
-        <v>99.4</v>
-      </c>
-      <c r="J18">
-        <v>86</v>
-      </c>
-      <c r="K18">
-        <v>103.89</v>
-      </c>
-      <c r="L18">
-        <v>99.76</v>
-      </c>
-      <c r="M18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18">
-        <v>101.15</v>
-      </c>
-      <c r="P18">
-        <v>89.83</v>
-      </c>
-      <c r="Q18">
-        <v>106.85</v>
-      </c>
-      <c r="R18">
-        <v>100.07</v>
-      </c>
-      <c r="S18">
-        <v>89.93</v>
-      </c>
-      <c r="T18">
-        <v>71.48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19">
-        <v>97.54</v>
-      </c>
-      <c r="C19">
-        <v>102.35</v>
-      </c>
-      <c r="D19">
-        <v>40.78</v>
-      </c>
-      <c r="E19">
-        <v>110.14</v>
-      </c>
-      <c r="F19">
-        <v>79.92</v>
-      </c>
-      <c r="G19">
-        <v>100.08</v>
-      </c>
-      <c r="H19">
-        <v>108.77</v>
-      </c>
-      <c r="I19">
-        <v>104.4</v>
-      </c>
-      <c r="J19">
-        <v>84.1</v>
-      </c>
-      <c r="K19">
-        <v>105.59</v>
-      </c>
-      <c r="L19">
-        <v>100.57</v>
-      </c>
-      <c r="M19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19">
-        <v>102.12</v>
-      </c>
-      <c r="P19">
-        <v>90.05</v>
-      </c>
-      <c r="Q19">
-        <v>109.55</v>
-      </c>
-      <c r="R19">
-        <v>100.99</v>
-      </c>
-      <c r="S19">
-        <v>89.59</v>
-      </c>
-      <c r="T19">
-        <v>71.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20">
-        <v>96.59</v>
-      </c>
-      <c r="C20">
-        <v>100.46</v>
-      </c>
-      <c r="D20">
-        <v>39.53</v>
-      </c>
-      <c r="E20">
-        <v>103.33</v>
-      </c>
-      <c r="F20">
-        <v>82.39</v>
-      </c>
-      <c r="G20">
-        <v>99.16</v>
-      </c>
-      <c r="H20">
-        <v>108.95</v>
-      </c>
-      <c r="I20">
-        <v>103.6</v>
-      </c>
-      <c r="J20">
-        <v>84.2</v>
-      </c>
-      <c r="K20">
-        <v>104.33</v>
-      </c>
-      <c r="L20">
-        <v>99.92</v>
-      </c>
-      <c r="M20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20">
-        <v>101.84</v>
-      </c>
-      <c r="P20">
-        <v>88.7</v>
-      </c>
-      <c r="Q20">
-        <v>107.37</v>
-      </c>
-      <c r="R20">
-        <v>99.47</v>
-      </c>
-      <c r="S20">
-        <v>89.09</v>
-      </c>
-      <c r="T20">
-        <v>69.739999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
-        <v>95.33</v>
-      </c>
-      <c r="C21">
-        <v>99.25</v>
-      </c>
-      <c r="D21">
-        <v>37.89</v>
-      </c>
-      <c r="E21">
-        <v>99.64</v>
-      </c>
-      <c r="F21">
-        <v>83.14</v>
-      </c>
-      <c r="G21">
-        <v>97.04</v>
-      </c>
-      <c r="H21">
-        <v>108.25</v>
-      </c>
-      <c r="I21">
-        <v>104.5</v>
-      </c>
-      <c r="J21">
-        <v>86.7</v>
-      </c>
-      <c r="K21">
-        <v>106.31</v>
-      </c>
-      <c r="L21">
-        <v>99.37</v>
-      </c>
-      <c r="M21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21">
-        <v>101.65</v>
-      </c>
-      <c r="P21">
-        <v>87.34</v>
-      </c>
-      <c r="Q21">
-        <v>106.61</v>
-      </c>
-      <c r="R21">
-        <v>98.1</v>
-      </c>
-      <c r="S21">
-        <v>88.56</v>
-      </c>
-      <c r="T21">
-        <v>69.84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22">
-        <v>95.76</v>
-      </c>
-      <c r="C22">
-        <v>100.64</v>
-      </c>
-      <c r="D22">
-        <v>39.99</v>
-      </c>
-      <c r="E22">
-        <v>103.3</v>
-      </c>
-      <c r="F22">
-        <v>80.260000000000005</v>
-      </c>
-      <c r="G22">
-        <v>96.38</v>
-      </c>
-      <c r="H22">
-        <v>108.98</v>
-      </c>
-      <c r="I22">
-        <v>103.7</v>
-      </c>
-      <c r="J22">
-        <v>84.6</v>
-      </c>
-      <c r="K22">
-        <v>106.75</v>
-      </c>
-      <c r="L22">
-        <v>99.81</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22">
-        <v>102.52</v>
-      </c>
-      <c r="P22">
-        <v>87.49</v>
-      </c>
-      <c r="Q22">
-        <v>105.57</v>
-      </c>
-      <c r="R22">
-        <v>95.92</v>
-      </c>
-      <c r="S22">
-        <v>88.4</v>
-      </c>
-      <c r="T22">
-        <v>70.16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5121,15 +3739,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6503,7 +5121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7885,7 +6503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -9260,6 +7878,1388 @@
       </c>
       <c r="T22" s="1">
         <v>2.2313999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C09EDD-5C5A-44F1-B10E-0DABEEA0E347}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>242.30760000000001</v>
+      </c>
+      <c r="C2">
+        <v>2059.48</v>
+      </c>
+      <c r="D2">
+        <v>5.4117199999999999</v>
+      </c>
+      <c r="E2">
+        <v>92.632400000000004</v>
+      </c>
+      <c r="F2">
+        <v>139.9434</v>
+      </c>
+      <c r="G2">
+        <v>595.72299999999996</v>
+      </c>
+      <c r="H2">
+        <v>1400.999</v>
+      </c>
+      <c r="I2">
+        <v>1175.1500000000001</v>
+      </c>
+      <c r="J2">
+        <v>9.8397299999999994</v>
+      </c>
+      <c r="K2">
+        <v>7.0316900000000002</v>
+      </c>
+      <c r="L2">
+        <v>10.293509999999999</v>
+      </c>
+      <c r="M2">
+        <v>20.870640000000002</v>
+      </c>
+      <c r="N2">
+        <v>3.8350900000000001</v>
+      </c>
+      <c r="O2">
+        <v>419.459</v>
+      </c>
+      <c r="P2">
+        <v>203.85059999999999</v>
+      </c>
+      <c r="Q2">
+        <v>119.6033</v>
+      </c>
+      <c r="R2">
+        <v>21.22749</v>
+      </c>
+      <c r="S2">
+        <v>19.516079999999999</v>
+      </c>
+      <c r="T2">
+        <v>126.916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>256.37639999999999</v>
+      </c>
+      <c r="C3">
+        <v>2109.09</v>
+      </c>
+      <c r="D3">
+        <v>6.1797700000000004</v>
+      </c>
+      <c r="E3">
+        <v>108.38039999999999</v>
+      </c>
+      <c r="F3">
+        <v>142.9759</v>
+      </c>
+      <c r="G3">
+        <v>647.851</v>
+      </c>
+      <c r="H3">
+        <v>1478.585</v>
+      </c>
+      <c r="I3">
+        <v>1241.5129999999999</v>
+      </c>
+      <c r="J3">
+        <v>10.80458</v>
+      </c>
+      <c r="K3">
+        <v>8.60501</v>
+      </c>
+      <c r="L3">
+        <v>12.49131</v>
+      </c>
+      <c r="M3">
+        <v>23.079419999999999</v>
+      </c>
+      <c r="N3">
+        <v>4.3948799999999997</v>
+      </c>
+      <c r="O3">
+        <v>452.00700000000001</v>
+      </c>
+      <c r="P3">
+        <v>213.60650000000001</v>
+      </c>
+      <c r="Q3">
+        <v>128.4145</v>
+      </c>
+      <c r="R3">
+        <v>21.866810000000001</v>
+      </c>
+      <c r="S3">
+        <v>22.389119999999998</v>
+      </c>
+      <c r="T3">
+        <v>136.44200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>264.3349</v>
+      </c>
+      <c r="C4">
+        <v>2172.54</v>
+      </c>
+      <c r="D4">
+        <v>6.9922199999999997</v>
+      </c>
+      <c r="E4">
+        <v>121.9586</v>
+      </c>
+      <c r="F4">
+        <v>152.19380000000001</v>
+      </c>
+      <c r="G4">
+        <v>700.99300000000005</v>
+      </c>
+      <c r="H4">
+        <v>1538.2</v>
+      </c>
+      <c r="I4">
+        <v>1304.1369999999999</v>
+      </c>
+      <c r="J4">
+        <v>11.602930000000001</v>
+      </c>
+      <c r="K4">
+        <v>9.3441100000000006</v>
+      </c>
+      <c r="L4">
+        <v>13.681430000000001</v>
+      </c>
+      <c r="M4">
+        <v>23.771930000000001</v>
+      </c>
+      <c r="N4">
+        <v>4.5411000000000001</v>
+      </c>
+      <c r="O4">
+        <v>481.88099999999997</v>
+      </c>
+      <c r="P4">
+        <v>220.52510000000001</v>
+      </c>
+      <c r="Q4">
+        <v>135.77500000000001</v>
+      </c>
+      <c r="R4">
+        <v>23.249110000000002</v>
+      </c>
+      <c r="S4">
+        <v>23.909839999999999</v>
+      </c>
+      <c r="T4">
+        <v>144.62799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>273.2559</v>
+      </c>
+      <c r="C5">
+        <v>2198.12</v>
+      </c>
+      <c r="D5">
+        <v>7.8273400000000004</v>
+      </c>
+      <c r="E5">
+        <v>135.95920000000001</v>
+      </c>
+      <c r="F5">
+        <v>163.46080000000001</v>
+      </c>
+      <c r="G5">
+        <v>749.55200000000002</v>
+      </c>
+      <c r="H5">
+        <v>1587.829</v>
+      </c>
+      <c r="I5">
+        <v>1350.259</v>
+      </c>
+      <c r="J5">
+        <v>12.08295</v>
+      </c>
+      <c r="K5">
+        <v>10.139060000000001</v>
+      </c>
+      <c r="L5">
+        <v>15.173019999999999</v>
+      </c>
+      <c r="M5">
+        <v>25.094709999999999</v>
+      </c>
+      <c r="N5">
+        <v>4.7372100000000001</v>
+      </c>
+      <c r="O5">
+        <v>501.137</v>
+      </c>
+      <c r="P5">
+        <v>226.73519999999999</v>
+      </c>
+      <c r="Q5">
+        <v>142.55430000000001</v>
+      </c>
+      <c r="R5">
+        <v>24.972380000000001</v>
+      </c>
+      <c r="S5">
+        <v>26.340669999999999</v>
+      </c>
+      <c r="T5">
+        <v>148.48599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>281.2002</v>
+      </c>
+      <c r="C6">
+        <v>2211.5700000000002</v>
+      </c>
+      <c r="D6">
+        <v>8.7476299999999991</v>
+      </c>
+      <c r="E6">
+        <v>145.5558</v>
+      </c>
+      <c r="F6">
+        <v>178.9049</v>
+      </c>
+      <c r="G6">
+        <v>802.26599999999996</v>
+      </c>
+      <c r="H6">
+        <v>1630.6659999999999</v>
+      </c>
+      <c r="I6">
+        <v>1394.693</v>
+      </c>
+      <c r="J6">
+        <v>12.87133</v>
+      </c>
+      <c r="K6">
+        <v>10.46442</v>
+      </c>
+      <c r="L6">
+        <v>16.66872</v>
+      </c>
+      <c r="M6">
+        <v>26.18779</v>
+      </c>
+      <c r="N6">
+        <v>4.7946499999999999</v>
+      </c>
+      <c r="O6">
+        <v>512.80999999999995</v>
+      </c>
+      <c r="P6">
+        <v>231.86250000000001</v>
+      </c>
+      <c r="Q6">
+        <v>146.06790000000001</v>
+      </c>
+      <c r="R6">
+        <v>26.247530000000001</v>
+      </c>
+      <c r="S6">
+        <v>30.1191</v>
+      </c>
+      <c r="T6">
+        <v>151.749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>296.81970000000001</v>
+      </c>
+      <c r="C7">
+        <v>2262.52</v>
+      </c>
+      <c r="D7">
+        <v>9.7762399999999996</v>
+      </c>
+      <c r="E7">
+        <v>156.1438</v>
+      </c>
+      <c r="F7">
+        <v>193.7158</v>
+      </c>
+      <c r="G7">
+        <v>859.43700000000001</v>
+      </c>
+      <c r="H7">
+        <v>1704.019</v>
+      </c>
+      <c r="I7">
+        <v>1452.319</v>
+      </c>
+      <c r="J7">
+        <v>13.93798</v>
+      </c>
+      <c r="K7">
+        <v>11.65821</v>
+      </c>
+      <c r="L7">
+        <v>18.237400000000001</v>
+      </c>
+      <c r="M7">
+        <v>27.93553</v>
+      </c>
+      <c r="N7">
+        <v>4.8671699999999998</v>
+      </c>
+      <c r="O7">
+        <v>529.28599999999994</v>
+      </c>
+      <c r="P7">
+        <v>242.34829999999999</v>
+      </c>
+      <c r="Q7">
+        <v>152.2484</v>
+      </c>
+      <c r="R7">
+        <v>27.692049999999998</v>
+      </c>
+      <c r="S7">
+        <v>34.757739999999998</v>
+      </c>
+      <c r="T7">
+        <v>158.75800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>310.0376</v>
+      </c>
+      <c r="C8">
+        <v>2288.31</v>
+      </c>
+      <c r="D8">
+        <v>11.336460000000001</v>
+      </c>
+      <c r="E8">
+        <v>170.18700000000001</v>
+      </c>
+      <c r="F8">
+        <v>199.2423</v>
+      </c>
+      <c r="G8">
+        <v>927.35699999999997</v>
+      </c>
+      <c r="H8">
+        <v>1765.905</v>
+      </c>
+      <c r="I8">
+        <v>1493.635</v>
+      </c>
+      <c r="J8">
+        <v>15.039289999999999</v>
+      </c>
+      <c r="K8">
+        <v>13.715780000000001</v>
+      </c>
+      <c r="L8">
+        <v>21.00235</v>
+      </c>
+      <c r="M8">
+        <v>30.031040000000001</v>
+      </c>
+      <c r="N8">
+        <v>5.1421400000000004</v>
+      </c>
+      <c r="O8">
+        <v>550.88300000000004</v>
+      </c>
+      <c r="P8">
+        <v>254.07499999999999</v>
+      </c>
+      <c r="Q8">
+        <v>158.55269999999999</v>
+      </c>
+      <c r="R8">
+        <v>29.122299999999999</v>
+      </c>
+      <c r="S8">
+        <v>39.403379999999999</v>
+      </c>
+      <c r="T8">
+        <v>164.68700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>325.1515</v>
+      </c>
+      <c r="C9">
+        <v>2385.08</v>
+      </c>
+      <c r="D9">
+        <v>13.56052</v>
+      </c>
+      <c r="E9">
+        <v>184.99369999999999</v>
+      </c>
+      <c r="F9">
+        <v>217.86160000000001</v>
+      </c>
+      <c r="G9">
+        <v>1003.823</v>
+      </c>
+      <c r="H9">
+        <v>1848.1510000000001</v>
+      </c>
+      <c r="I9">
+        <v>1552.6869999999999</v>
+      </c>
+      <c r="J9">
+        <v>16.263839999999998</v>
+      </c>
+      <c r="K9">
+        <v>17.254899999999999</v>
+      </c>
+      <c r="L9">
+        <v>24.079180000000001</v>
+      </c>
+      <c r="M9">
+        <v>33.808450000000001</v>
+      </c>
+      <c r="N9">
+        <v>5.3861400000000001</v>
+      </c>
+      <c r="O9">
+        <v>584.54600000000005</v>
+      </c>
+      <c r="P9">
+        <v>267.8245</v>
+      </c>
+      <c r="Q9">
+        <v>166.26050000000001</v>
+      </c>
+      <c r="R9">
+        <v>31.476109999999998</v>
+      </c>
+      <c r="S9">
+        <v>45.601990000000001</v>
+      </c>
+      <c r="T9">
+        <v>172.89699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>343.6189</v>
+      </c>
+      <c r="C10">
+        <v>2499.5500000000002</v>
+      </c>
+      <c r="D10">
+        <v>16.39874</v>
+      </c>
+      <c r="E10">
+        <v>197.202</v>
+      </c>
+      <c r="F10">
+        <v>232.69460000000001</v>
+      </c>
+      <c r="G10">
+        <v>1075.539</v>
+      </c>
+      <c r="H10">
+        <v>1941.36</v>
+      </c>
+      <c r="I10">
+        <v>1614.84</v>
+      </c>
+      <c r="J10">
+        <v>17.591049999999999</v>
+      </c>
+      <c r="K10">
+        <v>22.67803</v>
+      </c>
+      <c r="L10">
+        <v>29.040659999999999</v>
+      </c>
+      <c r="M10">
+        <v>37.178870000000003</v>
+      </c>
+      <c r="N10">
+        <v>5.7574800000000002</v>
+      </c>
+      <c r="O10">
+        <v>619.16999999999996</v>
+      </c>
+      <c r="P10">
+        <v>283.97800000000001</v>
+      </c>
+      <c r="Q10">
+        <v>175.48339999999999</v>
+      </c>
+      <c r="R10">
+        <v>35.073459999999997</v>
+      </c>
+      <c r="S10">
+        <v>56.339280000000002</v>
+      </c>
+      <c r="T10">
+        <v>187.072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>351.74310000000003</v>
+      </c>
+      <c r="C11">
+        <v>2546.4899999999998</v>
+      </c>
+      <c r="D11">
+        <v>16.638290000000001</v>
+      </c>
+      <c r="E11">
+        <v>187.76910000000001</v>
+      </c>
+      <c r="F11">
+        <v>241.99039999999999</v>
+      </c>
+      <c r="G11">
+        <v>1109.5409999999999</v>
+      </c>
+      <c r="H11">
+        <v>1992.38</v>
+      </c>
+      <c r="I11">
+        <v>1637.6990000000001</v>
+      </c>
+      <c r="J11">
+        <v>19.00958</v>
+      </c>
+      <c r="K11">
+        <v>24.398150000000001</v>
+      </c>
+      <c r="L11">
+        <v>32.696280000000002</v>
+      </c>
+      <c r="M11">
+        <v>38.128579999999999</v>
+      </c>
+      <c r="N11">
+        <v>6.1286800000000001</v>
+      </c>
+      <c r="O11">
+        <v>647.19799999999998</v>
+      </c>
+      <c r="P11">
+        <v>293.76190000000003</v>
+      </c>
+      <c r="Q11">
+        <v>179.1028</v>
+      </c>
+      <c r="R11">
+        <v>37.925699999999999</v>
+      </c>
+      <c r="S11">
+        <v>66.098079999999996</v>
+      </c>
+      <c r="T11">
+        <v>194.26499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>346.47280000000001</v>
+      </c>
+      <c r="C12">
+        <v>2445.73</v>
+      </c>
+      <c r="D12">
+        <v>14.21181</v>
+      </c>
+      <c r="E12">
+        <v>170.10059999999999</v>
+      </c>
+      <c r="F12">
+        <v>237.5342</v>
+      </c>
+      <c r="G12">
+        <v>1069.3230000000001</v>
+      </c>
+      <c r="H12">
+        <v>1936.422</v>
+      </c>
+      <c r="I12">
+        <v>1577.2560000000001</v>
+      </c>
+      <c r="J12">
+        <v>18.67549</v>
+      </c>
+      <c r="K12">
+        <v>18.806899999999999</v>
+      </c>
+      <c r="L12">
+        <v>26.934819999999998</v>
+      </c>
+      <c r="M12">
+        <v>36.976520000000001</v>
+      </c>
+      <c r="N12">
+        <v>6.1386200000000004</v>
+      </c>
+      <c r="O12">
+        <v>624.84199999999998</v>
+      </c>
+      <c r="P12">
+        <v>288.04399999999998</v>
+      </c>
+      <c r="Q12">
+        <v>175.41640000000001</v>
+      </c>
+      <c r="R12">
+        <v>36.254930000000002</v>
+      </c>
+      <c r="S12">
+        <v>64.095519999999993</v>
+      </c>
+      <c r="T12">
+        <v>181.74700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>363.14010000000002</v>
+      </c>
+      <c r="C13">
+        <v>2564.4</v>
+      </c>
+      <c r="D13">
+        <v>14.8607</v>
+      </c>
+      <c r="E13">
+        <v>167.73230000000001</v>
+      </c>
+      <c r="F13">
+        <v>226.03149999999999</v>
+      </c>
+      <c r="G13">
+        <v>1072.7090000000001</v>
+      </c>
+      <c r="H13">
+        <v>1995.289</v>
+      </c>
+      <c r="I13">
+        <v>1611.279</v>
+      </c>
+      <c r="J13">
+        <v>19.409970000000001</v>
+      </c>
+      <c r="K13">
+        <v>17.817160000000001</v>
+      </c>
+      <c r="L13">
+        <v>27.95533</v>
+      </c>
+      <c r="M13">
+        <v>40.177810000000001</v>
+      </c>
+      <c r="N13">
+        <v>6.5995100000000004</v>
+      </c>
+      <c r="O13">
+        <v>639.18700000000001</v>
+      </c>
+      <c r="P13">
+        <v>295.89659999999998</v>
+      </c>
+      <c r="Q13">
+        <v>179.61080000000001</v>
+      </c>
+      <c r="R13">
+        <v>36.363909999999997</v>
+      </c>
+      <c r="S13">
+        <v>68.092960000000005</v>
+      </c>
+      <c r="T13">
+        <v>188.143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>375.96780000000001</v>
+      </c>
+      <c r="C14">
+        <v>2693.56</v>
+      </c>
+      <c r="D14">
+        <v>16.826820000000001</v>
+      </c>
+      <c r="E14">
+        <v>170.827</v>
+      </c>
+      <c r="F14">
+        <v>207.02889999999999</v>
+      </c>
+      <c r="G14">
+        <v>1063.7629999999999</v>
+      </c>
+      <c r="H14">
+        <v>2058.3690000000001</v>
+      </c>
+      <c r="I14">
+        <v>1648.7560000000001</v>
+      </c>
+      <c r="J14">
+        <v>19.80303</v>
+      </c>
+      <c r="K14">
+        <v>20.219280000000001</v>
+      </c>
+      <c r="L14">
+        <v>31.233730000000001</v>
+      </c>
+      <c r="M14">
+        <v>43.164650000000002</v>
+      </c>
+      <c r="N14">
+        <v>6.8357900000000003</v>
+      </c>
+      <c r="O14">
+        <v>650.35900000000004</v>
+      </c>
+      <c r="P14">
+        <v>310.12869999999998</v>
+      </c>
+      <c r="Q14">
+        <v>176.09620000000001</v>
+      </c>
+      <c r="R14">
+        <v>37.058570000000003</v>
+      </c>
+      <c r="S14">
+        <v>71.214389999999995</v>
+      </c>
+      <c r="T14">
+        <v>197.99799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>386.17469999999997</v>
+      </c>
+      <c r="C15">
+        <v>2745.31</v>
+      </c>
+      <c r="D15">
+        <v>18.050740000000001</v>
+      </c>
+      <c r="E15">
+        <v>175.1157</v>
+      </c>
+      <c r="F15">
+        <v>191.2039</v>
+      </c>
+      <c r="G15">
+        <v>1031.0989999999999</v>
+      </c>
+      <c r="H15">
+        <v>2088.8040000000001</v>
+      </c>
+      <c r="I15">
+        <v>1624.3589999999999</v>
+      </c>
+      <c r="J15">
+        <v>19.44078</v>
+      </c>
+      <c r="K15">
+        <v>22.09919</v>
+      </c>
+      <c r="L15">
+        <v>33.331659999999999</v>
+      </c>
+      <c r="M15">
+        <v>44.112099999999998</v>
+      </c>
+      <c r="N15">
+        <v>7.16465</v>
+      </c>
+      <c r="O15">
+        <v>652.96600000000001</v>
+      </c>
+      <c r="P15">
+        <v>318.65300000000002</v>
+      </c>
+      <c r="Q15">
+        <v>168.29560000000001</v>
+      </c>
+      <c r="R15">
+        <v>36.253270000000001</v>
+      </c>
+      <c r="S15">
+        <v>73.483819999999994</v>
+      </c>
+      <c r="T15">
+        <v>201.03700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>392.88</v>
+      </c>
+      <c r="C16">
+        <v>2811.35</v>
+      </c>
+      <c r="D16">
+        <v>19.033390000000001</v>
+      </c>
+      <c r="E16">
+        <v>179.66130000000001</v>
+      </c>
+      <c r="F16">
+        <v>180.65430000000001</v>
+      </c>
+      <c r="G16">
+        <v>1020.348</v>
+      </c>
+      <c r="H16">
+        <v>2117.1889999999999</v>
+      </c>
+      <c r="I16">
+        <v>1612.751</v>
+      </c>
+      <c r="J16">
+        <v>17.994969999999999</v>
+      </c>
+      <c r="K16">
+        <v>22.846699999999998</v>
+      </c>
+      <c r="L16">
+        <v>34.984990000000003</v>
+      </c>
+      <c r="M16">
+        <v>46.499560000000002</v>
+      </c>
+      <c r="N16">
+        <v>7.6448700000000001</v>
+      </c>
+      <c r="O16">
+        <v>660.46299999999997</v>
+      </c>
+      <c r="P16">
+        <v>323.91019999999997</v>
+      </c>
+      <c r="Q16">
+        <v>170.4923</v>
+      </c>
+      <c r="R16">
+        <v>36.454329999999999</v>
+      </c>
+      <c r="S16">
+        <v>74.354849999999999</v>
+      </c>
+      <c r="T16">
+        <v>204.321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>403.00330000000002</v>
+      </c>
+      <c r="C17">
+        <v>2927.43</v>
+      </c>
+      <c r="D17">
+        <v>20.17999</v>
+      </c>
+      <c r="E17">
+        <v>194.81819999999999</v>
+      </c>
+      <c r="F17">
+        <v>178.65649999999999</v>
+      </c>
+      <c r="G17">
+        <v>1032.1579999999999</v>
+      </c>
+      <c r="H17">
+        <v>2149.7649999999999</v>
+      </c>
+      <c r="I17">
+        <v>1627.4059999999999</v>
+      </c>
+      <c r="J17">
+        <v>17.408529999999999</v>
+      </c>
+      <c r="K17">
+        <v>23.654170000000001</v>
+      </c>
+      <c r="L17">
+        <v>36.544759999999997</v>
+      </c>
+      <c r="M17">
+        <v>49.824509999999997</v>
+      </c>
+      <c r="N17">
+        <v>8.5072700000000001</v>
+      </c>
+      <c r="O17">
+        <v>671.56</v>
+      </c>
+      <c r="P17">
+        <v>333.14609999999999</v>
+      </c>
+      <c r="Q17">
+        <v>173.05369999999999</v>
+      </c>
+      <c r="R17">
+        <v>37.63429</v>
+      </c>
+      <c r="S17">
+        <v>76.255859999999998</v>
+      </c>
+      <c r="T17">
+        <v>206.89699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>416.70139999999998</v>
+      </c>
+      <c r="C18">
+        <v>3030.07</v>
+      </c>
+      <c r="D18">
+        <v>20.782219999999999</v>
+      </c>
+      <c r="E18">
+        <v>262.83339999999998</v>
+      </c>
+      <c r="F18">
+        <v>177.25839999999999</v>
+      </c>
+      <c r="G18">
+        <v>1077.5899999999999</v>
+      </c>
+      <c r="H18">
+        <v>2198.4319999999998</v>
+      </c>
+      <c r="I18">
+        <v>1655.355</v>
+      </c>
+      <c r="J18">
+        <v>17.82695</v>
+      </c>
+      <c r="K18">
+        <v>24.42596</v>
+      </c>
+      <c r="L18">
+        <v>37.321829999999999</v>
+      </c>
+      <c r="M18">
+        <v>52.065809999999999</v>
+      </c>
+      <c r="N18">
+        <v>9.6280400000000004</v>
+      </c>
+      <c r="O18">
+        <v>690.00800000000004</v>
+      </c>
+      <c r="P18">
+        <v>344.26920000000001</v>
+      </c>
+      <c r="Q18">
+        <v>179.7132</v>
+      </c>
+      <c r="R18">
+        <v>38.852640000000001</v>
+      </c>
+      <c r="S18">
+        <v>79.758200000000002</v>
+      </c>
+      <c r="T18">
+        <v>211.38499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>430.37209999999999</v>
+      </c>
+      <c r="C19">
+        <v>3134.1</v>
+      </c>
+      <c r="D19">
+        <v>21.693639999999998</v>
+      </c>
+      <c r="E19">
+        <v>271.68360000000001</v>
+      </c>
+      <c r="F19">
+        <v>176.488</v>
+      </c>
+      <c r="G19">
+        <v>1113.8399999999999</v>
+      </c>
+      <c r="H19">
+        <v>2234.1289999999999</v>
+      </c>
+      <c r="I19">
+        <v>1695.787</v>
+      </c>
+      <c r="J19">
+        <v>18.872869999999999</v>
+      </c>
+      <c r="K19">
+        <v>25.07264</v>
+      </c>
+      <c r="L19">
+        <v>38.893369999999997</v>
+      </c>
+      <c r="M19">
+        <v>54.867229999999999</v>
+      </c>
+      <c r="N19">
+        <v>10.338950000000001</v>
+      </c>
+      <c r="O19">
+        <v>708.33699999999999</v>
+      </c>
+      <c r="P19">
+        <v>357.29969999999997</v>
+      </c>
+      <c r="Q19">
+        <v>186.4898</v>
+      </c>
+      <c r="R19">
+        <v>40.36656</v>
+      </c>
+      <c r="S19">
+        <v>81.038380000000004</v>
+      </c>
+      <c r="T19">
+        <v>217.518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>446.36489999999998</v>
+      </c>
+      <c r="C20">
+        <v>3244.99</v>
+      </c>
+      <c r="D20">
+        <v>23.77582</v>
+      </c>
+      <c r="E20">
+        <v>297.13080000000002</v>
+      </c>
+      <c r="F20">
+        <v>180.2176</v>
+      </c>
+      <c r="G20">
+        <v>1161.8779999999999</v>
+      </c>
+      <c r="H20">
+        <v>2295.0630000000001</v>
+      </c>
+      <c r="I20">
+        <v>1736.5930000000001</v>
+      </c>
+      <c r="J20">
+        <v>20.0397</v>
+      </c>
+      <c r="K20">
+        <v>26.797830000000001</v>
+      </c>
+      <c r="L20">
+        <v>42.269370000000002</v>
+      </c>
+      <c r="M20">
+        <v>56.814210000000003</v>
+      </c>
+      <c r="N20">
+        <v>11.2844</v>
+      </c>
+      <c r="O20">
+        <v>738.14599999999996</v>
+      </c>
+      <c r="P20">
+        <v>370.29579999999999</v>
+      </c>
+      <c r="Q20">
+        <v>195.94720000000001</v>
+      </c>
+      <c r="R20">
+        <v>42.98706</v>
+      </c>
+      <c r="S20">
+        <v>84.517009999999999</v>
+      </c>
+      <c r="T20">
+        <v>225.83590000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>459.81979999999999</v>
+      </c>
+      <c r="C21">
+        <v>3344.37</v>
+      </c>
+      <c r="D21">
+        <v>26.03585</v>
+      </c>
+      <c r="E21">
+        <v>324.03820000000002</v>
+      </c>
+      <c r="F21">
+        <v>184.71360000000001</v>
+      </c>
+      <c r="G21">
+        <v>1202.193</v>
+      </c>
+      <c r="H21">
+        <v>2353.09</v>
+      </c>
+      <c r="I21">
+        <v>1766.1679999999999</v>
+      </c>
+      <c r="J21">
+        <v>21.137799999999999</v>
+      </c>
+      <c r="K21">
+        <v>29.056049999999999</v>
+      </c>
+      <c r="L21">
+        <v>45.264380000000003</v>
+      </c>
+      <c r="M21">
+        <v>60.053080000000001</v>
+      </c>
+      <c r="N21">
+        <v>12.36631</v>
+      </c>
+      <c r="O21">
+        <v>774.03899999999999</v>
+      </c>
+      <c r="P21">
+        <v>385.71190000000001</v>
+      </c>
+      <c r="Q21">
+        <v>204.3048</v>
+      </c>
+      <c r="R21">
+        <v>45.754820000000002</v>
+      </c>
+      <c r="S21">
+        <v>89.720960000000005</v>
+      </c>
+      <c r="T21">
+        <v>233.61920000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>473.63889999999998</v>
+      </c>
+      <c r="C22">
+        <v>3435.76</v>
+      </c>
+      <c r="D22">
+        <v>28.037220000000001</v>
+      </c>
+      <c r="E22">
+        <v>347.21530000000001</v>
+      </c>
+      <c r="F22">
+        <v>187.45650000000001</v>
+      </c>
+      <c r="G22">
+        <v>1245.3309999999999</v>
+      </c>
+      <c r="H22">
+        <v>2418.9969999999998</v>
+      </c>
+      <c r="I22">
+        <v>1787.664</v>
+      </c>
+      <c r="J22">
+        <v>21.9436</v>
+      </c>
+      <c r="K22">
+        <v>30.476089999999999</v>
+      </c>
+      <c r="L22">
+        <v>48.339219999999997</v>
+      </c>
+      <c r="M22">
+        <v>63.51634</v>
+      </c>
+      <c r="N22">
+        <v>13.20847</v>
+      </c>
+      <c r="O22">
+        <v>812.05100000000004</v>
+      </c>
+      <c r="P22">
+        <v>398.52190000000002</v>
+      </c>
+      <c r="Q22">
+        <v>212.30279999999999</v>
+      </c>
+      <c r="R22">
+        <v>48.006599999999999</v>
+      </c>
+      <c r="S22">
+        <v>94.177049999999994</v>
+      </c>
+      <c r="T22">
+        <v>240.078</v>
       </c>
     </row>
   </sheetData>
@@ -13415,1388 +13415,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C09EDD-5C5A-44F1-B10E-0DABEEA0E347}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:T22"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2">
-        <v>242.30760000000001</v>
-      </c>
-      <c r="C2">
-        <v>2059.48</v>
-      </c>
-      <c r="D2">
-        <v>5.4117199999999999</v>
-      </c>
-      <c r="E2">
-        <v>92.632400000000004</v>
-      </c>
-      <c r="F2">
-        <v>139.9434</v>
-      </c>
-      <c r="G2">
-        <v>595.72299999999996</v>
-      </c>
-      <c r="H2">
-        <v>1400.999</v>
-      </c>
-      <c r="I2">
-        <v>1175.1500000000001</v>
-      </c>
-      <c r="J2">
-        <v>9.8397299999999994</v>
-      </c>
-      <c r="K2">
-        <v>7.0316900000000002</v>
-      </c>
-      <c r="L2">
-        <v>10.293509999999999</v>
-      </c>
-      <c r="M2">
-        <v>20.870640000000002</v>
-      </c>
-      <c r="N2">
-        <v>3.8350900000000001</v>
-      </c>
-      <c r="O2">
-        <v>419.459</v>
-      </c>
-      <c r="P2">
-        <v>203.85059999999999</v>
-      </c>
-      <c r="Q2">
-        <v>119.6033</v>
-      </c>
-      <c r="R2">
-        <v>21.22749</v>
-      </c>
-      <c r="S2">
-        <v>19.516079999999999</v>
-      </c>
-      <c r="T2">
-        <v>126.916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>256.37639999999999</v>
-      </c>
-      <c r="C3">
-        <v>2109.09</v>
-      </c>
-      <c r="D3">
-        <v>6.1797700000000004</v>
-      </c>
-      <c r="E3">
-        <v>108.38039999999999</v>
-      </c>
-      <c r="F3">
-        <v>142.9759</v>
-      </c>
-      <c r="G3">
-        <v>647.851</v>
-      </c>
-      <c r="H3">
-        <v>1478.585</v>
-      </c>
-      <c r="I3">
-        <v>1241.5129999999999</v>
-      </c>
-      <c r="J3">
-        <v>10.80458</v>
-      </c>
-      <c r="K3">
-        <v>8.60501</v>
-      </c>
-      <c r="L3">
-        <v>12.49131</v>
-      </c>
-      <c r="M3">
-        <v>23.079419999999999</v>
-      </c>
-      <c r="N3">
-        <v>4.3948799999999997</v>
-      </c>
-      <c r="O3">
-        <v>452.00700000000001</v>
-      </c>
-      <c r="P3">
-        <v>213.60650000000001</v>
-      </c>
-      <c r="Q3">
-        <v>128.4145</v>
-      </c>
-      <c r="R3">
-        <v>21.866810000000001</v>
-      </c>
-      <c r="S3">
-        <v>22.389119999999998</v>
-      </c>
-      <c r="T3">
-        <v>136.44200000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
-        <v>264.3349</v>
-      </c>
-      <c r="C4">
-        <v>2172.54</v>
-      </c>
-      <c r="D4">
-        <v>6.9922199999999997</v>
-      </c>
-      <c r="E4">
-        <v>121.9586</v>
-      </c>
-      <c r="F4">
-        <v>152.19380000000001</v>
-      </c>
-      <c r="G4">
-        <v>700.99300000000005</v>
-      </c>
-      <c r="H4">
-        <v>1538.2</v>
-      </c>
-      <c r="I4">
-        <v>1304.1369999999999</v>
-      </c>
-      <c r="J4">
-        <v>11.602930000000001</v>
-      </c>
-      <c r="K4">
-        <v>9.3441100000000006</v>
-      </c>
-      <c r="L4">
-        <v>13.681430000000001</v>
-      </c>
-      <c r="M4">
-        <v>23.771930000000001</v>
-      </c>
-      <c r="N4">
-        <v>4.5411000000000001</v>
-      </c>
-      <c r="O4">
-        <v>481.88099999999997</v>
-      </c>
-      <c r="P4">
-        <v>220.52510000000001</v>
-      </c>
-      <c r="Q4">
-        <v>135.77500000000001</v>
-      </c>
-      <c r="R4">
-        <v>23.249110000000002</v>
-      </c>
-      <c r="S4">
-        <v>23.909839999999999</v>
-      </c>
-      <c r="T4">
-        <v>144.62799999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5">
-        <v>273.2559</v>
-      </c>
-      <c r="C5">
-        <v>2198.12</v>
-      </c>
-      <c r="D5">
-        <v>7.8273400000000004</v>
-      </c>
-      <c r="E5">
-        <v>135.95920000000001</v>
-      </c>
-      <c r="F5">
-        <v>163.46080000000001</v>
-      </c>
-      <c r="G5">
-        <v>749.55200000000002</v>
-      </c>
-      <c r="H5">
-        <v>1587.829</v>
-      </c>
-      <c r="I5">
-        <v>1350.259</v>
-      </c>
-      <c r="J5">
-        <v>12.08295</v>
-      </c>
-      <c r="K5">
-        <v>10.139060000000001</v>
-      </c>
-      <c r="L5">
-        <v>15.173019999999999</v>
-      </c>
-      <c r="M5">
-        <v>25.094709999999999</v>
-      </c>
-      <c r="N5">
-        <v>4.7372100000000001</v>
-      </c>
-      <c r="O5">
-        <v>501.137</v>
-      </c>
-      <c r="P5">
-        <v>226.73519999999999</v>
-      </c>
-      <c r="Q5">
-        <v>142.55430000000001</v>
-      </c>
-      <c r="R5">
-        <v>24.972380000000001</v>
-      </c>
-      <c r="S5">
-        <v>26.340669999999999</v>
-      </c>
-      <c r="T5">
-        <v>148.48599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6">
-        <v>281.2002</v>
-      </c>
-      <c r="C6">
-        <v>2211.5700000000002</v>
-      </c>
-      <c r="D6">
-        <v>8.7476299999999991</v>
-      </c>
-      <c r="E6">
-        <v>145.5558</v>
-      </c>
-      <c r="F6">
-        <v>178.9049</v>
-      </c>
-      <c r="G6">
-        <v>802.26599999999996</v>
-      </c>
-      <c r="H6">
-        <v>1630.6659999999999</v>
-      </c>
-      <c r="I6">
-        <v>1394.693</v>
-      </c>
-      <c r="J6">
-        <v>12.87133</v>
-      </c>
-      <c r="K6">
-        <v>10.46442</v>
-      </c>
-      <c r="L6">
-        <v>16.66872</v>
-      </c>
-      <c r="M6">
-        <v>26.18779</v>
-      </c>
-      <c r="N6">
-        <v>4.7946499999999999</v>
-      </c>
-      <c r="O6">
-        <v>512.80999999999995</v>
-      </c>
-      <c r="P6">
-        <v>231.86250000000001</v>
-      </c>
-      <c r="Q6">
-        <v>146.06790000000001</v>
-      </c>
-      <c r="R6">
-        <v>26.247530000000001</v>
-      </c>
-      <c r="S6">
-        <v>30.1191</v>
-      </c>
-      <c r="T6">
-        <v>151.749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7">
-        <v>296.81970000000001</v>
-      </c>
-      <c r="C7">
-        <v>2262.52</v>
-      </c>
-      <c r="D7">
-        <v>9.7762399999999996</v>
-      </c>
-      <c r="E7">
-        <v>156.1438</v>
-      </c>
-      <c r="F7">
-        <v>193.7158</v>
-      </c>
-      <c r="G7">
-        <v>859.43700000000001</v>
-      </c>
-      <c r="H7">
-        <v>1704.019</v>
-      </c>
-      <c r="I7">
-        <v>1452.319</v>
-      </c>
-      <c r="J7">
-        <v>13.93798</v>
-      </c>
-      <c r="K7">
-        <v>11.65821</v>
-      </c>
-      <c r="L7">
-        <v>18.237400000000001</v>
-      </c>
-      <c r="M7">
-        <v>27.93553</v>
-      </c>
-      <c r="N7">
-        <v>4.8671699999999998</v>
-      </c>
-      <c r="O7">
-        <v>529.28599999999994</v>
-      </c>
-      <c r="P7">
-        <v>242.34829999999999</v>
-      </c>
-      <c r="Q7">
-        <v>152.2484</v>
-      </c>
-      <c r="R7">
-        <v>27.692049999999998</v>
-      </c>
-      <c r="S7">
-        <v>34.757739999999998</v>
-      </c>
-      <c r="T7">
-        <v>158.75800000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8">
-        <v>310.0376</v>
-      </c>
-      <c r="C8">
-        <v>2288.31</v>
-      </c>
-      <c r="D8">
-        <v>11.336460000000001</v>
-      </c>
-      <c r="E8">
-        <v>170.18700000000001</v>
-      </c>
-      <c r="F8">
-        <v>199.2423</v>
-      </c>
-      <c r="G8">
-        <v>927.35699999999997</v>
-      </c>
-      <c r="H8">
-        <v>1765.905</v>
-      </c>
-      <c r="I8">
-        <v>1493.635</v>
-      </c>
-      <c r="J8">
-        <v>15.039289999999999</v>
-      </c>
-      <c r="K8">
-        <v>13.715780000000001</v>
-      </c>
-      <c r="L8">
-        <v>21.00235</v>
-      </c>
-      <c r="M8">
-        <v>30.031040000000001</v>
-      </c>
-      <c r="N8">
-        <v>5.1421400000000004</v>
-      </c>
-      <c r="O8">
-        <v>550.88300000000004</v>
-      </c>
-      <c r="P8">
-        <v>254.07499999999999</v>
-      </c>
-      <c r="Q8">
-        <v>158.55269999999999</v>
-      </c>
-      <c r="R8">
-        <v>29.122299999999999</v>
-      </c>
-      <c r="S8">
-        <v>39.403379999999999</v>
-      </c>
-      <c r="T8">
-        <v>164.68700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9">
-        <v>325.1515</v>
-      </c>
-      <c r="C9">
-        <v>2385.08</v>
-      </c>
-      <c r="D9">
-        <v>13.56052</v>
-      </c>
-      <c r="E9">
-        <v>184.99369999999999</v>
-      </c>
-      <c r="F9">
-        <v>217.86160000000001</v>
-      </c>
-      <c r="G9">
-        <v>1003.823</v>
-      </c>
-      <c r="H9">
-        <v>1848.1510000000001</v>
-      </c>
-      <c r="I9">
-        <v>1552.6869999999999</v>
-      </c>
-      <c r="J9">
-        <v>16.263839999999998</v>
-      </c>
-      <c r="K9">
-        <v>17.254899999999999</v>
-      </c>
-      <c r="L9">
-        <v>24.079180000000001</v>
-      </c>
-      <c r="M9">
-        <v>33.808450000000001</v>
-      </c>
-      <c r="N9">
-        <v>5.3861400000000001</v>
-      </c>
-      <c r="O9">
-        <v>584.54600000000005</v>
-      </c>
-      <c r="P9">
-        <v>267.8245</v>
-      </c>
-      <c r="Q9">
-        <v>166.26050000000001</v>
-      </c>
-      <c r="R9">
-        <v>31.476109999999998</v>
-      </c>
-      <c r="S9">
-        <v>45.601990000000001</v>
-      </c>
-      <c r="T9">
-        <v>172.89699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10">
-        <v>343.6189</v>
-      </c>
-      <c r="C10">
-        <v>2499.5500000000002</v>
-      </c>
-      <c r="D10">
-        <v>16.39874</v>
-      </c>
-      <c r="E10">
-        <v>197.202</v>
-      </c>
-      <c r="F10">
-        <v>232.69460000000001</v>
-      </c>
-      <c r="G10">
-        <v>1075.539</v>
-      </c>
-      <c r="H10">
-        <v>1941.36</v>
-      </c>
-      <c r="I10">
-        <v>1614.84</v>
-      </c>
-      <c r="J10">
-        <v>17.591049999999999</v>
-      </c>
-      <c r="K10">
-        <v>22.67803</v>
-      </c>
-      <c r="L10">
-        <v>29.040659999999999</v>
-      </c>
-      <c r="M10">
-        <v>37.178870000000003</v>
-      </c>
-      <c r="N10">
-        <v>5.7574800000000002</v>
-      </c>
-      <c r="O10">
-        <v>619.16999999999996</v>
-      </c>
-      <c r="P10">
-        <v>283.97800000000001</v>
-      </c>
-      <c r="Q10">
-        <v>175.48339999999999</v>
-      </c>
-      <c r="R10">
-        <v>35.073459999999997</v>
-      </c>
-      <c r="S10">
-        <v>56.339280000000002</v>
-      </c>
-      <c r="T10">
-        <v>187.072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11">
-        <v>351.74310000000003</v>
-      </c>
-      <c r="C11">
-        <v>2546.4899999999998</v>
-      </c>
-      <c r="D11">
-        <v>16.638290000000001</v>
-      </c>
-      <c r="E11">
-        <v>187.76910000000001</v>
-      </c>
-      <c r="F11">
-        <v>241.99039999999999</v>
-      </c>
-      <c r="G11">
-        <v>1109.5409999999999</v>
-      </c>
-      <c r="H11">
-        <v>1992.38</v>
-      </c>
-      <c r="I11">
-        <v>1637.6990000000001</v>
-      </c>
-      <c r="J11">
-        <v>19.00958</v>
-      </c>
-      <c r="K11">
-        <v>24.398150000000001</v>
-      </c>
-      <c r="L11">
-        <v>32.696280000000002</v>
-      </c>
-      <c r="M11">
-        <v>38.128579999999999</v>
-      </c>
-      <c r="N11">
-        <v>6.1286800000000001</v>
-      </c>
-      <c r="O11">
-        <v>647.19799999999998</v>
-      </c>
-      <c r="P11">
-        <v>293.76190000000003</v>
-      </c>
-      <c r="Q11">
-        <v>179.1028</v>
-      </c>
-      <c r="R11">
-        <v>37.925699999999999</v>
-      </c>
-      <c r="S11">
-        <v>66.098079999999996</v>
-      </c>
-      <c r="T11">
-        <v>194.26499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12">
-        <v>346.47280000000001</v>
-      </c>
-      <c r="C12">
-        <v>2445.73</v>
-      </c>
-      <c r="D12">
-        <v>14.21181</v>
-      </c>
-      <c r="E12">
-        <v>170.10059999999999</v>
-      </c>
-      <c r="F12">
-        <v>237.5342</v>
-      </c>
-      <c r="G12">
-        <v>1069.3230000000001</v>
-      </c>
-      <c r="H12">
-        <v>1936.422</v>
-      </c>
-      <c r="I12">
-        <v>1577.2560000000001</v>
-      </c>
-      <c r="J12">
-        <v>18.67549</v>
-      </c>
-      <c r="K12">
-        <v>18.806899999999999</v>
-      </c>
-      <c r="L12">
-        <v>26.934819999999998</v>
-      </c>
-      <c r="M12">
-        <v>36.976520000000001</v>
-      </c>
-      <c r="N12">
-        <v>6.1386200000000004</v>
-      </c>
-      <c r="O12">
-        <v>624.84199999999998</v>
-      </c>
-      <c r="P12">
-        <v>288.04399999999998</v>
-      </c>
-      <c r="Q12">
-        <v>175.41640000000001</v>
-      </c>
-      <c r="R12">
-        <v>36.254930000000002</v>
-      </c>
-      <c r="S12">
-        <v>64.095519999999993</v>
-      </c>
-      <c r="T12">
-        <v>181.74700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13">
-        <v>363.14010000000002</v>
-      </c>
-      <c r="C13">
-        <v>2564.4</v>
-      </c>
-      <c r="D13">
-        <v>14.8607</v>
-      </c>
-      <c r="E13">
-        <v>167.73230000000001</v>
-      </c>
-      <c r="F13">
-        <v>226.03149999999999</v>
-      </c>
-      <c r="G13">
-        <v>1072.7090000000001</v>
-      </c>
-      <c r="H13">
-        <v>1995.289</v>
-      </c>
-      <c r="I13">
-        <v>1611.279</v>
-      </c>
-      <c r="J13">
-        <v>19.409970000000001</v>
-      </c>
-      <c r="K13">
-        <v>17.817160000000001</v>
-      </c>
-      <c r="L13">
-        <v>27.95533</v>
-      </c>
-      <c r="M13">
-        <v>40.177810000000001</v>
-      </c>
-      <c r="N13">
-        <v>6.5995100000000004</v>
-      </c>
-      <c r="O13">
-        <v>639.18700000000001</v>
-      </c>
-      <c r="P13">
-        <v>295.89659999999998</v>
-      </c>
-      <c r="Q13">
-        <v>179.61080000000001</v>
-      </c>
-      <c r="R13">
-        <v>36.363909999999997</v>
-      </c>
-      <c r="S13">
-        <v>68.092960000000005</v>
-      </c>
-      <c r="T13">
-        <v>188.143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14">
-        <v>375.96780000000001</v>
-      </c>
-      <c r="C14">
-        <v>2693.56</v>
-      </c>
-      <c r="D14">
-        <v>16.826820000000001</v>
-      </c>
-      <c r="E14">
-        <v>170.827</v>
-      </c>
-      <c r="F14">
-        <v>207.02889999999999</v>
-      </c>
-      <c r="G14">
-        <v>1063.7629999999999</v>
-      </c>
-      <c r="H14">
-        <v>2058.3690000000001</v>
-      </c>
-      <c r="I14">
-        <v>1648.7560000000001</v>
-      </c>
-      <c r="J14">
-        <v>19.80303</v>
-      </c>
-      <c r="K14">
-        <v>20.219280000000001</v>
-      </c>
-      <c r="L14">
-        <v>31.233730000000001</v>
-      </c>
-      <c r="M14">
-        <v>43.164650000000002</v>
-      </c>
-      <c r="N14">
-        <v>6.8357900000000003</v>
-      </c>
-      <c r="O14">
-        <v>650.35900000000004</v>
-      </c>
-      <c r="P14">
-        <v>310.12869999999998</v>
-      </c>
-      <c r="Q14">
-        <v>176.09620000000001</v>
-      </c>
-      <c r="R14">
-        <v>37.058570000000003</v>
-      </c>
-      <c r="S14">
-        <v>71.214389999999995</v>
-      </c>
-      <c r="T14">
-        <v>197.99799999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15">
-        <v>386.17469999999997</v>
-      </c>
-      <c r="C15">
-        <v>2745.31</v>
-      </c>
-      <c r="D15">
-        <v>18.050740000000001</v>
-      </c>
-      <c r="E15">
-        <v>175.1157</v>
-      </c>
-      <c r="F15">
-        <v>191.2039</v>
-      </c>
-      <c r="G15">
-        <v>1031.0989999999999</v>
-      </c>
-      <c r="H15">
-        <v>2088.8040000000001</v>
-      </c>
-      <c r="I15">
-        <v>1624.3589999999999</v>
-      </c>
-      <c r="J15">
-        <v>19.44078</v>
-      </c>
-      <c r="K15">
-        <v>22.09919</v>
-      </c>
-      <c r="L15">
-        <v>33.331659999999999</v>
-      </c>
-      <c r="M15">
-        <v>44.112099999999998</v>
-      </c>
-      <c r="N15">
-        <v>7.16465</v>
-      </c>
-      <c r="O15">
-        <v>652.96600000000001</v>
-      </c>
-      <c r="P15">
-        <v>318.65300000000002</v>
-      </c>
-      <c r="Q15">
-        <v>168.29560000000001</v>
-      </c>
-      <c r="R15">
-        <v>36.253270000000001</v>
-      </c>
-      <c r="S15">
-        <v>73.483819999999994</v>
-      </c>
-      <c r="T15">
-        <v>201.03700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16">
-        <v>392.88</v>
-      </c>
-      <c r="C16">
-        <v>2811.35</v>
-      </c>
-      <c r="D16">
-        <v>19.033390000000001</v>
-      </c>
-      <c r="E16">
-        <v>179.66130000000001</v>
-      </c>
-      <c r="F16">
-        <v>180.65430000000001</v>
-      </c>
-      <c r="G16">
-        <v>1020.348</v>
-      </c>
-      <c r="H16">
-        <v>2117.1889999999999</v>
-      </c>
-      <c r="I16">
-        <v>1612.751</v>
-      </c>
-      <c r="J16">
-        <v>17.994969999999999</v>
-      </c>
-      <c r="K16">
-        <v>22.846699999999998</v>
-      </c>
-      <c r="L16">
-        <v>34.984990000000003</v>
-      </c>
-      <c r="M16">
-        <v>46.499560000000002</v>
-      </c>
-      <c r="N16">
-        <v>7.6448700000000001</v>
-      </c>
-      <c r="O16">
-        <v>660.46299999999997</v>
-      </c>
-      <c r="P16">
-        <v>323.91019999999997</v>
-      </c>
-      <c r="Q16">
-        <v>170.4923</v>
-      </c>
-      <c r="R16">
-        <v>36.454329999999999</v>
-      </c>
-      <c r="S16">
-        <v>74.354849999999999</v>
-      </c>
-      <c r="T16">
-        <v>204.321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17">
-        <v>403.00330000000002</v>
-      </c>
-      <c r="C17">
-        <v>2927.43</v>
-      </c>
-      <c r="D17">
-        <v>20.17999</v>
-      </c>
-      <c r="E17">
-        <v>194.81819999999999</v>
-      </c>
-      <c r="F17">
-        <v>178.65649999999999</v>
-      </c>
-      <c r="G17">
-        <v>1032.1579999999999</v>
-      </c>
-      <c r="H17">
-        <v>2149.7649999999999</v>
-      </c>
-      <c r="I17">
-        <v>1627.4059999999999</v>
-      </c>
-      <c r="J17">
-        <v>17.408529999999999</v>
-      </c>
-      <c r="K17">
-        <v>23.654170000000001</v>
-      </c>
-      <c r="L17">
-        <v>36.544759999999997</v>
-      </c>
-      <c r="M17">
-        <v>49.824509999999997</v>
-      </c>
-      <c r="N17">
-        <v>8.5072700000000001</v>
-      </c>
-      <c r="O17">
-        <v>671.56</v>
-      </c>
-      <c r="P17">
-        <v>333.14609999999999</v>
-      </c>
-      <c r="Q17">
-        <v>173.05369999999999</v>
-      </c>
-      <c r="R17">
-        <v>37.63429</v>
-      </c>
-      <c r="S17">
-        <v>76.255859999999998</v>
-      </c>
-      <c r="T17">
-        <v>206.89699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18">
-        <v>416.70139999999998</v>
-      </c>
-      <c r="C18">
-        <v>3030.07</v>
-      </c>
-      <c r="D18">
-        <v>20.782219999999999</v>
-      </c>
-      <c r="E18">
-        <v>262.83339999999998</v>
-      </c>
-      <c r="F18">
-        <v>177.25839999999999</v>
-      </c>
-      <c r="G18">
-        <v>1077.5899999999999</v>
-      </c>
-      <c r="H18">
-        <v>2198.4319999999998</v>
-      </c>
-      <c r="I18">
-        <v>1655.355</v>
-      </c>
-      <c r="J18">
-        <v>17.82695</v>
-      </c>
-      <c r="K18">
-        <v>24.42596</v>
-      </c>
-      <c r="L18">
-        <v>37.321829999999999</v>
-      </c>
-      <c r="M18">
-        <v>52.065809999999999</v>
-      </c>
-      <c r="N18">
-        <v>9.6280400000000004</v>
-      </c>
-      <c r="O18">
-        <v>690.00800000000004</v>
-      </c>
-      <c r="P18">
-        <v>344.26920000000001</v>
-      </c>
-      <c r="Q18">
-        <v>179.7132</v>
-      </c>
-      <c r="R18">
-        <v>38.852640000000001</v>
-      </c>
-      <c r="S18">
-        <v>79.758200000000002</v>
-      </c>
-      <c r="T18">
-        <v>211.38499999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19">
-        <v>430.37209999999999</v>
-      </c>
-      <c r="C19">
-        <v>3134.1</v>
-      </c>
-      <c r="D19">
-        <v>21.693639999999998</v>
-      </c>
-      <c r="E19">
-        <v>271.68360000000001</v>
-      </c>
-      <c r="F19">
-        <v>176.488</v>
-      </c>
-      <c r="G19">
-        <v>1113.8399999999999</v>
-      </c>
-      <c r="H19">
-        <v>2234.1289999999999</v>
-      </c>
-      <c r="I19">
-        <v>1695.787</v>
-      </c>
-      <c r="J19">
-        <v>18.872869999999999</v>
-      </c>
-      <c r="K19">
-        <v>25.07264</v>
-      </c>
-      <c r="L19">
-        <v>38.893369999999997</v>
-      </c>
-      <c r="M19">
-        <v>54.867229999999999</v>
-      </c>
-      <c r="N19">
-        <v>10.338950000000001</v>
-      </c>
-      <c r="O19">
-        <v>708.33699999999999</v>
-      </c>
-      <c r="P19">
-        <v>357.29969999999997</v>
-      </c>
-      <c r="Q19">
-        <v>186.4898</v>
-      </c>
-      <c r="R19">
-        <v>40.36656</v>
-      </c>
-      <c r="S19">
-        <v>81.038380000000004</v>
-      </c>
-      <c r="T19">
-        <v>217.518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20">
-        <v>446.36489999999998</v>
-      </c>
-      <c r="C20">
-        <v>3244.99</v>
-      </c>
-      <c r="D20">
-        <v>23.77582</v>
-      </c>
-      <c r="E20">
-        <v>297.13080000000002</v>
-      </c>
-      <c r="F20">
-        <v>180.2176</v>
-      </c>
-      <c r="G20">
-        <v>1161.8779999999999</v>
-      </c>
-      <c r="H20">
-        <v>2295.0630000000001</v>
-      </c>
-      <c r="I20">
-        <v>1736.5930000000001</v>
-      </c>
-      <c r="J20">
-        <v>20.0397</v>
-      </c>
-      <c r="K20">
-        <v>26.797830000000001</v>
-      </c>
-      <c r="L20">
-        <v>42.269370000000002</v>
-      </c>
-      <c r="M20">
-        <v>56.814210000000003</v>
-      </c>
-      <c r="N20">
-        <v>11.2844</v>
-      </c>
-      <c r="O20">
-        <v>738.14599999999996</v>
-      </c>
-      <c r="P20">
-        <v>370.29579999999999</v>
-      </c>
-      <c r="Q20">
-        <v>195.94720000000001</v>
-      </c>
-      <c r="R20">
-        <v>42.98706</v>
-      </c>
-      <c r="S20">
-        <v>84.517009999999999</v>
-      </c>
-      <c r="T20">
-        <v>225.83590000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
-        <v>459.81979999999999</v>
-      </c>
-      <c r="C21">
-        <v>3344.37</v>
-      </c>
-      <c r="D21">
-        <v>26.03585</v>
-      </c>
-      <c r="E21">
-        <v>324.03820000000002</v>
-      </c>
-      <c r="F21">
-        <v>184.71360000000001</v>
-      </c>
-      <c r="G21">
-        <v>1202.193</v>
-      </c>
-      <c r="H21">
-        <v>2353.09</v>
-      </c>
-      <c r="I21">
-        <v>1766.1679999999999</v>
-      </c>
-      <c r="J21">
-        <v>21.137799999999999</v>
-      </c>
-      <c r="K21">
-        <v>29.056049999999999</v>
-      </c>
-      <c r="L21">
-        <v>45.264380000000003</v>
-      </c>
-      <c r="M21">
-        <v>60.053080000000001</v>
-      </c>
-      <c r="N21">
-        <v>12.36631</v>
-      </c>
-      <c r="O21">
-        <v>774.03899999999999</v>
-      </c>
-      <c r="P21">
-        <v>385.71190000000001</v>
-      </c>
-      <c r="Q21">
-        <v>204.3048</v>
-      </c>
-      <c r="R21">
-        <v>45.754820000000002</v>
-      </c>
-      <c r="S21">
-        <v>89.720960000000005</v>
-      </c>
-      <c r="T21">
-        <v>233.61920000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22">
-        <v>473.63889999999998</v>
-      </c>
-      <c r="C22">
-        <v>3435.76</v>
-      </c>
-      <c r="D22">
-        <v>28.037220000000001</v>
-      </c>
-      <c r="E22">
-        <v>347.21530000000001</v>
-      </c>
-      <c r="F22">
-        <v>187.45650000000001</v>
-      </c>
-      <c r="G22">
-        <v>1245.3309999999999</v>
-      </c>
-      <c r="H22">
-        <v>2418.9969999999998</v>
-      </c>
-      <c r="I22">
-        <v>1787.664</v>
-      </c>
-      <c r="J22">
-        <v>21.9436</v>
-      </c>
-      <c r="K22">
-        <v>30.476089999999999</v>
-      </c>
-      <c r="L22">
-        <v>48.339219999999997</v>
-      </c>
-      <c r="M22">
-        <v>63.51634</v>
-      </c>
-      <c r="N22">
-        <v>13.20847</v>
-      </c>
-      <c r="O22">
-        <v>812.05100000000004</v>
-      </c>
-      <c r="P22">
-        <v>398.52190000000002</v>
-      </c>
-      <c r="Q22">
-        <v>212.30279999999999</v>
-      </c>
-      <c r="R22">
-        <v>48.006599999999999</v>
-      </c>
-      <c r="S22">
-        <v>94.177049999999994</v>
-      </c>
-      <c r="T22">
-        <v>240.078</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489D1CBE-7875-4378-9177-AEEB4A582CE7}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16178,7 +14796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6AD260-D441-4718-B344-6A1AFC130A16}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -17560,7 +16178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0733A27C-0DCC-470C-B4A6-DC5202F7AE8F}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -18942,7 +17560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0AB8EC-917C-4CB2-A65F-75AC077DD9E3}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -20322,4 +18940,1386 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6075AB-0FDC-47F7-88F9-F2B6467668E4}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>103.9</v>
+      </c>
+      <c r="C2">
+        <v>103.14</v>
+      </c>
+      <c r="D2">
+        <v>47.17</v>
+      </c>
+      <c r="E2">
+        <v>96.66</v>
+      </c>
+      <c r="F2">
+        <v>95.61</v>
+      </c>
+      <c r="G2">
+        <v>104.56</v>
+      </c>
+      <c r="H2">
+        <v>95.43</v>
+      </c>
+      <c r="I2">
+        <v>107.58</v>
+      </c>
+      <c r="J2">
+        <v>86.8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>98.49</v>
+      </c>
+      <c r="P2">
+        <v>98.73</v>
+      </c>
+      <c r="Q2">
+        <v>104.7</v>
+      </c>
+      <c r="R2">
+        <v>104.3</v>
+      </c>
+      <c r="S2">
+        <v>97.1</v>
+      </c>
+      <c r="T2">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>101.13</v>
+      </c>
+      <c r="C3">
+        <v>96.51</v>
+      </c>
+      <c r="D3">
+        <v>50.99</v>
+      </c>
+      <c r="E3">
+        <v>101.67</v>
+      </c>
+      <c r="F3">
+        <v>103.71</v>
+      </c>
+      <c r="G3">
+        <v>98.14</v>
+      </c>
+      <c r="H3">
+        <v>94.28</v>
+      </c>
+      <c r="I3">
+        <v>99.58</v>
+      </c>
+      <c r="J3">
+        <v>93</v>
+      </c>
+      <c r="K3">
+        <v>98.84</v>
+      </c>
+      <c r="L3">
+        <v>101.3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>98</v>
+      </c>
+      <c r="P3">
+        <v>98.4</v>
+      </c>
+      <c r="Q3">
+        <v>101.9</v>
+      </c>
+      <c r="R3">
+        <v>100.76</v>
+      </c>
+      <c r="S3">
+        <v>100.66</v>
+      </c>
+      <c r="T3">
+        <v>91.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>100.78</v>
+      </c>
+      <c r="C4">
+        <v>96.93</v>
+      </c>
+      <c r="D4">
+        <v>54.93</v>
+      </c>
+      <c r="E4">
+        <v>97.49</v>
+      </c>
+      <c r="F4">
+        <v>101.14</v>
+      </c>
+      <c r="G4">
+        <v>100.06</v>
+      </c>
+      <c r="H4">
+        <v>95.15</v>
+      </c>
+      <c r="I4">
+        <v>101.54</v>
+      </c>
+      <c r="J4">
+        <v>94.4</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>97.07</v>
+      </c>
+      <c r="Q4">
+        <v>102.51</v>
+      </c>
+      <c r="R4">
+        <v>102.78</v>
+      </c>
+      <c r="S4">
+        <v>99.59</v>
+      </c>
+      <c r="T4">
+        <v>90.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>102.02</v>
+      </c>
+      <c r="C5">
+        <v>98.83</v>
+      </c>
+      <c r="D5">
+        <v>49.62</v>
+      </c>
+      <c r="E5">
+        <v>100.34</v>
+      </c>
+      <c r="F5">
+        <v>102.08</v>
+      </c>
+      <c r="G5">
+        <v>102.96</v>
+      </c>
+      <c r="H5">
+        <v>98.35</v>
+      </c>
+      <c r="I5">
+        <v>102.05</v>
+      </c>
+      <c r="J5">
+        <v>95.3</v>
+      </c>
+      <c r="K5">
+        <v>103.38</v>
+      </c>
+      <c r="L5">
+        <v>100.34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>101.42</v>
+      </c>
+      <c r="P5">
+        <v>100.46</v>
+      </c>
+      <c r="Q5">
+        <v>104.1</v>
+      </c>
+      <c r="R5">
+        <v>104.59</v>
+      </c>
+      <c r="S5">
+        <v>99.33</v>
+      </c>
+      <c r="T5">
+        <v>87.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>101.34</v>
+      </c>
+      <c r="C6">
+        <v>100.94</v>
+      </c>
+      <c r="D6">
+        <v>40.92</v>
+      </c>
+      <c r="E6">
+        <v>102.98</v>
+      </c>
+      <c r="F6">
+        <v>85.98</v>
+      </c>
+      <c r="G6">
+        <v>103.76</v>
+      </c>
+      <c r="H6">
+        <v>97.57</v>
+      </c>
+      <c r="I6">
+        <v>102.2</v>
+      </c>
+      <c r="J6">
+        <v>95.3</v>
+      </c>
+      <c r="K6">
+        <v>102.78</v>
+      </c>
+      <c r="L6">
+        <v>104.48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>102.14</v>
+      </c>
+      <c r="P6">
+        <v>99.46</v>
+      </c>
+      <c r="Q6">
+        <v>103.62</v>
+      </c>
+      <c r="R6">
+        <v>105.07</v>
+      </c>
+      <c r="S6">
+        <v>99.04</v>
+      </c>
+      <c r="T6">
+        <v>84.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>99.74</v>
+      </c>
+      <c r="C7">
+        <v>100.39</v>
+      </c>
+      <c r="D7">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="E7">
+        <v>94.1</v>
+      </c>
+      <c r="F7">
+        <v>87.67</v>
+      </c>
+      <c r="G7">
+        <v>102.45</v>
+      </c>
+      <c r="H7">
+        <v>96.91</v>
+      </c>
+      <c r="I7">
+        <v>102.16</v>
+      </c>
+      <c r="J7">
+        <v>96.2</v>
+      </c>
+      <c r="K7">
+        <v>105.31</v>
+      </c>
+      <c r="L7">
+        <v>105.55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>101.51</v>
+      </c>
+      <c r="P7">
+        <v>98.21</v>
+      </c>
+      <c r="Q7">
+        <v>102.74</v>
+      </c>
+      <c r="R7">
+        <v>103.85</v>
+      </c>
+      <c r="S7">
+        <v>98.75</v>
+      </c>
+      <c r="T7">
+        <v>82.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>99.51</v>
+      </c>
+      <c r="C8">
+        <v>97.95</v>
+      </c>
+      <c r="D8">
+        <v>36.4</v>
+      </c>
+      <c r="E8">
+        <v>99.01</v>
+      </c>
+      <c r="F8">
+        <v>83.47</v>
+      </c>
+      <c r="G8">
+        <v>102.26</v>
+      </c>
+      <c r="H8">
+        <v>94.73</v>
+      </c>
+      <c r="I8">
+        <v>99.9</v>
+      </c>
+      <c r="J8">
+        <v>94.4</v>
+      </c>
+      <c r="K8">
+        <v>102.34</v>
+      </c>
+      <c r="L8">
+        <v>101.83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>101.86</v>
+      </c>
+      <c r="P8">
+        <v>96.47</v>
+      </c>
+      <c r="Q8">
+        <v>101.59</v>
+      </c>
+      <c r="R8">
+        <v>100.9</v>
+      </c>
+      <c r="S8">
+        <v>98.76</v>
+      </c>
+      <c r="T8">
+        <v>78.489999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>98.97</v>
+      </c>
+      <c r="C9">
+        <v>95.52</v>
+      </c>
+      <c r="D9">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="E9">
+        <v>97.73</v>
+      </c>
+      <c r="F9">
+        <v>83.96</v>
+      </c>
+      <c r="G9">
+        <v>102.7</v>
+      </c>
+      <c r="H9">
+        <v>91.71</v>
+      </c>
+      <c r="I9">
+        <v>100.4</v>
+      </c>
+      <c r="J9">
+        <v>95.5</v>
+      </c>
+      <c r="K9">
+        <v>101.27</v>
+      </c>
+      <c r="L9">
+        <v>98.88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>101.95</v>
+      </c>
+      <c r="P9">
+        <v>95.31</v>
+      </c>
+      <c r="Q9">
+        <v>102.38</v>
+      </c>
+      <c r="R9">
+        <v>101.09</v>
+      </c>
+      <c r="S9">
+        <v>97.37</v>
+      </c>
+      <c r="T9">
+        <v>75.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>99.24</v>
+      </c>
+      <c r="C10">
+        <v>96.03</v>
+      </c>
+      <c r="D10">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="E10">
+        <v>101.59</v>
+      </c>
+      <c r="F10">
+        <v>84.37</v>
+      </c>
+      <c r="G10">
+        <v>103.04</v>
+      </c>
+      <c r="H10">
+        <v>92</v>
+      </c>
+      <c r="I10">
+        <v>101.3</v>
+      </c>
+      <c r="J10">
+        <v>94.3</v>
+      </c>
+      <c r="K10">
+        <v>106.7</v>
+      </c>
+      <c r="L10">
+        <v>100.07</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>101.76</v>
+      </c>
+      <c r="P10">
+        <v>95.92</v>
+      </c>
+      <c r="Q10">
+        <v>102.85</v>
+      </c>
+      <c r="R10">
+        <v>102.33</v>
+      </c>
+      <c r="S10">
+        <v>96.27</v>
+      </c>
+      <c r="T10">
+        <v>74.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>96.28</v>
+      </c>
+      <c r="C11">
+        <v>93.46</v>
+      </c>
+      <c r="D11">
+        <v>30.29</v>
+      </c>
+      <c r="E11">
+        <v>107.94</v>
+      </c>
+      <c r="F11">
+        <v>83.77</v>
+      </c>
+      <c r="G11">
+        <v>100.26</v>
+      </c>
+      <c r="H11">
+        <v>90.11</v>
+      </c>
+      <c r="I11">
+        <v>99.3</v>
+      </c>
+      <c r="J11">
+        <v>98.7</v>
+      </c>
+      <c r="K11">
+        <v>102.39</v>
+      </c>
+      <c r="L11">
+        <v>96.82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>101.33</v>
+      </c>
+      <c r="P11">
+        <v>93.38</v>
+      </c>
+      <c r="Q11">
+        <v>99.67</v>
+      </c>
+      <c r="R11">
+        <v>97.63</v>
+      </c>
+      <c r="S11">
+        <v>94.69</v>
+      </c>
+      <c r="T11">
+        <v>72.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>99.18</v>
+      </c>
+      <c r="C12">
+        <v>99.86</v>
+      </c>
+      <c r="D12">
+        <v>33.29</v>
+      </c>
+      <c r="E12">
+        <v>101.44</v>
+      </c>
+      <c r="F12">
+        <v>80.14</v>
+      </c>
+      <c r="G12">
+        <v>106.03</v>
+      </c>
+      <c r="H12">
+        <v>94.23</v>
+      </c>
+      <c r="I12">
+        <v>100.5</v>
+      </c>
+      <c r="J12">
+        <v>90.1</v>
+      </c>
+      <c r="K12">
+        <v>102.31</v>
+      </c>
+      <c r="L12">
+        <v>97.89</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>102.51</v>
+      </c>
+      <c r="P12">
+        <v>95.21</v>
+      </c>
+      <c r="Q12">
+        <v>104.67</v>
+      </c>
+      <c r="R12">
+        <v>103.27</v>
+      </c>
+      <c r="S12">
+        <v>93.62</v>
+      </c>
+      <c r="T12">
+        <v>72.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>97.02</v>
+      </c>
+      <c r="C13">
+        <v>96.13</v>
+      </c>
+      <c r="D13">
+        <v>34.71</v>
+      </c>
+      <c r="E13">
+        <v>99.99</v>
+      </c>
+      <c r="F13">
+        <v>81.8</v>
+      </c>
+      <c r="G13">
+        <v>103.14</v>
+      </c>
+      <c r="H13">
+        <v>90.16</v>
+      </c>
+      <c r="I13">
+        <v>99.7</v>
+      </c>
+      <c r="J13">
+        <v>91.2</v>
+      </c>
+      <c r="K13">
+        <v>104.84</v>
+      </c>
+      <c r="L13">
+        <v>95.76</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>99.93</v>
+      </c>
+      <c r="P13">
+        <v>92.86</v>
+      </c>
+      <c r="Q13">
+        <v>104.72</v>
+      </c>
+      <c r="R13">
+        <v>98.5</v>
+      </c>
+      <c r="S13">
+        <v>92.9</v>
+      </c>
+      <c r="T13">
+        <v>71.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>95.12</v>
+      </c>
+      <c r="C14">
+        <v>93.29</v>
+      </c>
+      <c r="D14">
+        <v>32.68</v>
+      </c>
+      <c r="E14">
+        <v>97.92</v>
+      </c>
+      <c r="F14">
+        <v>82.71</v>
+      </c>
+      <c r="G14">
+        <v>98.47</v>
+      </c>
+      <c r="H14">
+        <v>86.97</v>
+      </c>
+      <c r="I14">
+        <v>98.7</v>
+      </c>
+      <c r="J14">
+        <v>89.8</v>
+      </c>
+      <c r="K14">
+        <v>103.61</v>
+      </c>
+      <c r="L14">
+        <v>95.09</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>98.28</v>
+      </c>
+      <c r="P14">
+        <v>90.06</v>
+      </c>
+      <c r="Q14">
+        <v>103.59</v>
+      </c>
+      <c r="R14">
+        <v>97.5</v>
+      </c>
+      <c r="S14">
+        <v>91.66</v>
+      </c>
+      <c r="T14">
+        <v>68.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>92.79</v>
+      </c>
+      <c r="D15">
+        <v>34.57</v>
+      </c>
+      <c r="E15">
+        <v>106.54</v>
+      </c>
+      <c r="F15">
+        <v>82.38</v>
+      </c>
+      <c r="G15">
+        <v>98</v>
+      </c>
+      <c r="H15">
+        <v>85.77</v>
+      </c>
+      <c r="I15">
+        <v>96.7</v>
+      </c>
+      <c r="J15">
+        <v>87.2</v>
+      </c>
+      <c r="K15">
+        <v>100.74</v>
+      </c>
+      <c r="L15">
+        <v>94.91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>98.28</v>
+      </c>
+      <c r="P15">
+        <v>88.97</v>
+      </c>
+      <c r="Q15">
+        <v>103.92</v>
+      </c>
+      <c r="R15">
+        <v>95.88</v>
+      </c>
+      <c r="S15">
+        <v>90.53</v>
+      </c>
+      <c r="T15">
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>95.11</v>
+      </c>
+      <c r="C16">
+        <v>94.7</v>
+      </c>
+      <c r="D16">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="E16">
+        <v>104.63</v>
+      </c>
+      <c r="F16">
+        <v>83.22</v>
+      </c>
+      <c r="G16">
+        <v>98.95</v>
+      </c>
+      <c r="H16">
+        <v>87.27</v>
+      </c>
+      <c r="I16">
+        <v>97.3</v>
+      </c>
+      <c r="J16">
+        <v>85.8</v>
+      </c>
+      <c r="K16">
+        <v>102.01</v>
+      </c>
+      <c r="L16">
+        <v>95.58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>98.73</v>
+      </c>
+      <c r="P16">
+        <v>89.32</v>
+      </c>
+      <c r="Q16">
+        <v>105.34</v>
+      </c>
+      <c r="R16">
+        <v>96.99</v>
+      </c>
+      <c r="S16">
+        <v>90.13</v>
+      </c>
+      <c r="T16">
+        <v>67.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>95.48</v>
+      </c>
+      <c r="C17">
+        <v>96.54</v>
+      </c>
+      <c r="D17">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="E17">
+        <v>100.78</v>
+      </c>
+      <c r="F17">
+        <v>84.13</v>
+      </c>
+      <c r="G17">
+        <v>98.33</v>
+      </c>
+      <c r="H17">
+        <v>100.79</v>
+      </c>
+      <c r="I17">
+        <v>97.2</v>
+      </c>
+      <c r="J17">
+        <v>85.9</v>
+      </c>
+      <c r="K17">
+        <v>102.42</v>
+      </c>
+      <c r="L17">
+        <v>97.63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>98.75</v>
+      </c>
+      <c r="P17">
+        <v>89.19</v>
+      </c>
+      <c r="Q17">
+        <v>106.43</v>
+      </c>
+      <c r="R17">
+        <v>99.36</v>
+      </c>
+      <c r="S17">
+        <v>90.17</v>
+      </c>
+      <c r="T17">
+        <v>68.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>97.27</v>
+      </c>
+      <c r="C18">
+        <v>99.9</v>
+      </c>
+      <c r="D18">
+        <v>39.97</v>
+      </c>
+      <c r="E18">
+        <v>106.52</v>
+      </c>
+      <c r="F18">
+        <v>83.36</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>106.07</v>
+      </c>
+      <c r="I18">
+        <v>99.4</v>
+      </c>
+      <c r="J18">
+        <v>86</v>
+      </c>
+      <c r="K18">
+        <v>103.89</v>
+      </c>
+      <c r="L18">
+        <v>99.76</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>101.15</v>
+      </c>
+      <c r="P18">
+        <v>89.83</v>
+      </c>
+      <c r="Q18">
+        <v>106.85</v>
+      </c>
+      <c r="R18">
+        <v>100.07</v>
+      </c>
+      <c r="S18">
+        <v>89.93</v>
+      </c>
+      <c r="T18">
+        <v>71.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>97.54</v>
+      </c>
+      <c r="C19">
+        <v>102.35</v>
+      </c>
+      <c r="D19">
+        <v>40.78</v>
+      </c>
+      <c r="E19">
+        <v>110.14</v>
+      </c>
+      <c r="F19">
+        <v>79.92</v>
+      </c>
+      <c r="G19">
+        <v>100.08</v>
+      </c>
+      <c r="H19">
+        <v>108.77</v>
+      </c>
+      <c r="I19">
+        <v>104.4</v>
+      </c>
+      <c r="J19">
+        <v>84.1</v>
+      </c>
+      <c r="K19">
+        <v>105.59</v>
+      </c>
+      <c r="L19">
+        <v>100.57</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>102.12</v>
+      </c>
+      <c r="P19">
+        <v>90.05</v>
+      </c>
+      <c r="Q19">
+        <v>109.55</v>
+      </c>
+      <c r="R19">
+        <v>100.99</v>
+      </c>
+      <c r="S19">
+        <v>89.59</v>
+      </c>
+      <c r="T19">
+        <v>71.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>96.59</v>
+      </c>
+      <c r="C20">
+        <v>100.46</v>
+      </c>
+      <c r="D20">
+        <v>39.53</v>
+      </c>
+      <c r="E20">
+        <v>103.33</v>
+      </c>
+      <c r="F20">
+        <v>82.39</v>
+      </c>
+      <c r="G20">
+        <v>99.16</v>
+      </c>
+      <c r="H20">
+        <v>108.95</v>
+      </c>
+      <c r="I20">
+        <v>103.6</v>
+      </c>
+      <c r="J20">
+        <v>84.2</v>
+      </c>
+      <c r="K20">
+        <v>104.33</v>
+      </c>
+      <c r="L20">
+        <v>99.92</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>101.84</v>
+      </c>
+      <c r="P20">
+        <v>88.7</v>
+      </c>
+      <c r="Q20">
+        <v>107.37</v>
+      </c>
+      <c r="R20">
+        <v>99.47</v>
+      </c>
+      <c r="S20">
+        <v>89.09</v>
+      </c>
+      <c r="T20">
+        <v>69.739999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>95.33</v>
+      </c>
+      <c r="C21">
+        <v>99.25</v>
+      </c>
+      <c r="D21">
+        <v>37.89</v>
+      </c>
+      <c r="E21">
+        <v>99.64</v>
+      </c>
+      <c r="F21">
+        <v>83.14</v>
+      </c>
+      <c r="G21">
+        <v>97.04</v>
+      </c>
+      <c r="H21">
+        <v>108.25</v>
+      </c>
+      <c r="I21">
+        <v>104.5</v>
+      </c>
+      <c r="J21">
+        <v>86.7</v>
+      </c>
+      <c r="K21">
+        <v>106.31</v>
+      </c>
+      <c r="L21">
+        <v>99.37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>101.65</v>
+      </c>
+      <c r="P21">
+        <v>87.34</v>
+      </c>
+      <c r="Q21">
+        <v>106.61</v>
+      </c>
+      <c r="R21">
+        <v>98.1</v>
+      </c>
+      <c r="S21">
+        <v>88.56</v>
+      </c>
+      <c r="T21">
+        <v>69.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>95.76</v>
+      </c>
+      <c r="C22">
+        <v>100.64</v>
+      </c>
+      <c r="D22">
+        <v>39.99</v>
+      </c>
+      <c r="E22">
+        <v>103.3</v>
+      </c>
+      <c r="F22">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="G22">
+        <v>96.38</v>
+      </c>
+      <c r="H22">
+        <v>108.98</v>
+      </c>
+      <c r="I22">
+        <v>103.7</v>
+      </c>
+      <c r="J22">
+        <v>84.6</v>
+      </c>
+      <c r="K22">
+        <v>106.75</v>
+      </c>
+      <c r="L22">
+        <v>99.81</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>102.52</v>
+      </c>
+      <c r="P22">
+        <v>87.49</v>
+      </c>
+      <c r="Q22">
+        <v>105.57</v>
+      </c>
+      <c r="R22">
+        <v>95.92</v>
+      </c>
+      <c r="S22">
+        <v>88.4</v>
+      </c>
+      <c r="T22">
+        <v>70.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8700DA1-23AF-4EB4-99CB-139E0940F209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C901E41C-5025-40E3-A903-5CB359BF99D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="10" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
@@ -22,8 +22,8 @@
     <sheet name="gcf" sheetId="5" r:id="rId7"/>
     <sheet name="tb" sheetId="13" r:id="rId8"/>
     <sheet name="tot" sheetId="8" r:id="rId9"/>
-    <sheet name="pspp" sheetId="16" r:id="rId10"/>
-    <sheet name="debt" sheetId="10" r:id="rId11"/>
+    <sheet name="debt" sheetId="10" r:id="rId10"/>
+    <sheet name="pspp" sheetId="16" r:id="rId11"/>
     <sheet name="i_us" sheetId="14" r:id="rId12"/>
     <sheet name="baa" sheetId="2" r:id="rId13"/>
     <sheet name="gdp" sheetId="4" r:id="rId14"/>
@@ -2358,14 +2358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
   <sheetPr>
-    <tabColor theme="7"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,61 +2437,61 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>279.5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1238.5999999999999</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>362.2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>847.6</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1331.3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>245.7</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>135.9</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>66.3</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>13.45</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2499,61 +2499,61 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1245.8</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>39.1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>374.6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>870.6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1353.6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.91</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.5190000000000001</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>235.3</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>15.97</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -2561,61 +2561,61 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>286.10000000000002</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1258.7</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>378.9</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>897.4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.7810000000000001</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>238.2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>17.57</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2623,61 +2623,61 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1312.4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.443</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>171.4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>384.1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>956.8</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1436.1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.8519999999999999</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>244.5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>85.6</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>6.44</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>16.91</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2685,61 +2685,61 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1400.1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>181.5</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>382.8</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1050.4000000000001</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1471.3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3.286</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>256.3</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>93.3</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2747,61 +2747,61 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>288.39999999999998</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1470.4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>199.3</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>389.9</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1123.5999999999999</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1526.4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>102.2</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>7.43</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2809,61 +2809,61 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1541.1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>393.5</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1189.9000000000001</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1591.6</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>3.6059999999999999</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>274.3</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>174.4</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>114.6</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>7.69</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>17.53</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2871,61 +2871,61 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>297.5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1591</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.628</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>43.7</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>225.7</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>392.1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1194.0999999999999</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1657.4</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.48</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3.4729999999999999</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>264.2</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>180.3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>17.71</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2933,61 +2933,61 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1599.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>239.9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>384.7</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1252.9000000000001</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1677.7</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>3.585</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>184.7</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>127.6</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2995,61 +2995,61 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>327.7</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1668.5</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.749</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>264.8</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>440.6</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1370.3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1738.5</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.66</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3.8370000000000002</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>353.9</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>201.8</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>135.5</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>8.26</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>19.62</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -3057,61 +3057,61 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>347.2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1785.1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>104.7</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>301.10000000000002</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>569.5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1839.1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.14</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.53</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.97</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4.1529999999999996</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>354.7</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>12.52</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>23.31</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -3119,61 +3119,61 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>364.1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2112.6</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>330.6</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>649.20000000000005</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1701.1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1920.7</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.64</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.15</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.452</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>378.7</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>244.7</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>13.92</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>27.91</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3181,61 +3181,61 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>389.1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2149.5</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>189.7</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>356.2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>743</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1808</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1973.5</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.63</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.7969999999999997</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>401.2</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>255.7</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>201.5</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>17.22</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>30.95</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3243,61 +3243,61 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>404.8</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2227.4</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>305.10000000000002</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>889.9</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1892.5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2054.8000000000002</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>15.62</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.26</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.8550000000000004</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>432.4</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>217.2</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>38.03</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -3305,61 +3305,61 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>414.4</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2213</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.9339999999999999</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>215.4</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>977.3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1977.7</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2136.1999999999998</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>18.71</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.18</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.55</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.01</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.2270000000000003</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>446.8</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>263.2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>224.1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>25.52</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>40.68</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -3367,371 +3367,371 @@
         <v>2014</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>431.2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2215.1999999999998</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>203.4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1039.4000000000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2039.9</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.83</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.83</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.33</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>455.6</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>230.1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>30.22</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18" s="2">
-        <v>12641</v>
-      </c>
-      <c r="C18" s="2">
-        <v>115625</v>
-      </c>
-      <c r="D18" s="2">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2">
-        <v>7583</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>56817</v>
-      </c>
-      <c r="H18" s="2">
-        <v>91767</v>
-      </c>
-      <c r="I18" s="2">
-        <v>79209</v>
-      </c>
-      <c r="J18" s="2">
-        <v>285</v>
-      </c>
-      <c r="K18" s="2">
-        <v>684</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1107</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1115</v>
-      </c>
-      <c r="N18" s="2">
-        <v>282</v>
-      </c>
-      <c r="O18" s="2">
-        <v>25612</v>
-      </c>
-      <c r="P18" s="2">
-        <v>12641</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>11220</v>
-      </c>
-      <c r="R18" s="2">
-        <v>2228</v>
-      </c>
-      <c r="S18" s="2">
-        <v>4622</v>
-      </c>
-      <c r="T18" s="2">
-        <v>8086</v>
+      <c r="B18">
+        <v>438.2</v>
+      </c>
+      <c r="C18">
+        <v>2185.1</v>
+      </c>
+      <c r="D18">
+        <v>2.077</v>
+      </c>
+      <c r="E18">
+        <v>201.6</v>
+      </c>
+      <c r="F18">
+        <v>311.7</v>
+      </c>
+      <c r="G18">
+        <v>1070.0999999999999</v>
+      </c>
+      <c r="H18">
+        <v>2101.3000000000002</v>
+      </c>
+      <c r="I18">
+        <v>2239.4</v>
+      </c>
+      <c r="J18">
+        <v>19.16</v>
+      </c>
+      <c r="K18">
+        <v>9.11</v>
+      </c>
+      <c r="L18">
+        <v>15.88</v>
+      </c>
+      <c r="M18">
+        <v>11.45</v>
+      </c>
+      <c r="N18">
+        <v>5.5860000000000003</v>
+      </c>
+      <c r="O18">
+        <v>446</v>
+      </c>
+      <c r="P18">
+        <v>292.3</v>
+      </c>
+      <c r="Q18">
+        <v>235.7</v>
+      </c>
+      <c r="R18">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="S18">
+        <v>41.38</v>
+      </c>
+      <c r="T18">
+        <v>134.5</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19" s="2">
-        <v>20559</v>
-      </c>
-      <c r="C19" s="2">
-        <v>188321</v>
-      </c>
-      <c r="D19" s="2">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10982</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>93514</v>
-      </c>
-      <c r="H19" s="2">
-        <v>149100</v>
-      </c>
-      <c r="I19" s="2">
-        <v>130398</v>
-      </c>
-      <c r="J19" s="2">
-        <v>-37</v>
-      </c>
-      <c r="K19" s="2">
-        <v>628</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1157</v>
-      </c>
-      <c r="M19" s="2">
-        <v>628</v>
-      </c>
-      <c r="N19" s="2">
-        <v>525</v>
-      </c>
-      <c r="O19" s="2">
-        <v>42212</v>
-      </c>
-      <c r="P19" s="2">
-        <v>20559</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>13390</v>
-      </c>
-      <c r="R19" s="2">
-        <v>2705</v>
-      </c>
-      <c r="S19" s="2">
-        <v>3534</v>
-      </c>
-      <c r="T19" s="2">
-        <v>13205</v>
+      <c r="B19">
+        <v>451.3</v>
+      </c>
+      <c r="C19">
+        <v>2169</v>
+      </c>
+      <c r="D19">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="E19">
+        <v>200.6</v>
+      </c>
+      <c r="F19">
+        <v>315</v>
+      </c>
+      <c r="G19">
+        <v>1104.5999999999999</v>
+      </c>
+      <c r="H19">
+        <v>2188.5</v>
+      </c>
+      <c r="I19">
+        <v>2285.6</v>
+      </c>
+      <c r="J19">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="K19">
+        <v>10.25</v>
+      </c>
+      <c r="L19">
+        <v>15.45</v>
+      </c>
+      <c r="M19">
+        <v>11.02</v>
+      </c>
+      <c r="N19">
+        <v>5.74</v>
+      </c>
+      <c r="O19">
+        <v>438.4</v>
+      </c>
+      <c r="P19">
+        <v>296.3</v>
+      </c>
+      <c r="Q19">
+        <v>245.2</v>
+      </c>
+      <c r="R19">
+        <v>31.76</v>
+      </c>
+      <c r="S19">
+        <v>42.16</v>
+      </c>
+      <c r="T19">
+        <v>137.4</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20" s="2">
-        <v>18761</v>
-      </c>
-      <c r="C20" s="2">
-        <v>155372</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6719</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>79919</v>
-      </c>
-      <c r="H20" s="2">
-        <v>134836</v>
-      </c>
-      <c r="I20" s="2">
-        <v>117120</v>
-      </c>
-      <c r="J20" s="2">
-        <v>-35</v>
-      </c>
-      <c r="K20" s="2">
-        <v>430</v>
-      </c>
-      <c r="L20" s="2">
-        <v>640</v>
-      </c>
-      <c r="M20" s="2">
-        <v>642</v>
-      </c>
-      <c r="N20" s="2">
-        <v>220</v>
-      </c>
-      <c r="O20" s="2">
-        <v>34959</v>
-      </c>
-      <c r="P20" s="2">
-        <v>18761</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>6464</v>
-      </c>
-      <c r="R20" s="2">
-        <v>1974</v>
-      </c>
-      <c r="S20" s="2">
-        <v>2627</v>
-      </c>
-      <c r="T20" s="2">
-        <v>7872</v>
+      <c r="B20">
+        <v>453.8</v>
+      </c>
+      <c r="C20">
+        <v>2118.6999999999998</v>
+      </c>
+      <c r="D20">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="E20">
+        <v>201.3</v>
+      </c>
+      <c r="F20">
+        <v>317.5</v>
+      </c>
+      <c r="G20">
+        <v>1145.0999999999999</v>
+      </c>
+      <c r="H20">
+        <v>2258.6</v>
+      </c>
+      <c r="I20">
+        <v>2329.6</v>
+      </c>
+      <c r="J20">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="K20">
+        <v>10.52</v>
+      </c>
+      <c r="L20">
+        <v>16.54</v>
+      </c>
+      <c r="M20">
+        <v>12.7</v>
+      </c>
+      <c r="N20">
+        <v>5.6779999999999999</v>
+      </c>
+      <c r="O20">
+        <v>420.1</v>
+      </c>
+      <c r="P20">
+        <v>289.89999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>247.2</v>
+      </c>
+      <c r="R20">
+        <v>31.86</v>
+      </c>
+      <c r="S20">
+        <v>43.37</v>
+      </c>
+      <c r="T20">
+        <v>138.4</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21" s="2">
-        <v>6228</v>
-      </c>
-      <c r="C21" s="2">
-        <v>59239</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-58</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4851</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>30571</v>
-      </c>
-      <c r="H21" s="2">
-        <v>44554</v>
-      </c>
-      <c r="I21" s="2">
-        <v>38627</v>
-      </c>
-      <c r="J21" s="2">
-        <v>464</v>
-      </c>
-      <c r="K21" s="2">
-        <v>333</v>
-      </c>
-      <c r="L21" s="2">
-        <v>260</v>
-      </c>
-      <c r="M21" s="2">
-        <v>228</v>
-      </c>
-      <c r="N21" s="2">
-        <v>127</v>
-      </c>
-      <c r="O21" s="2">
-        <v>12400</v>
-      </c>
-      <c r="P21" s="2">
-        <v>6228</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>5772</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1039</v>
-      </c>
-      <c r="S21" s="2">
-        <v>902</v>
-      </c>
-      <c r="T21" s="2">
-        <v>3970</v>
+      <c r="B21">
+        <v>459.1</v>
+      </c>
+      <c r="C21">
+        <v>2068.6</v>
+      </c>
+      <c r="D21">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="E21">
+        <v>205.9</v>
+      </c>
+      <c r="F21">
+        <v>334.7</v>
+      </c>
+      <c r="G21">
+        <v>1173.3</v>
+      </c>
+      <c r="H21">
+        <v>2314.9</v>
+      </c>
+      <c r="I21">
+        <v>2380.9</v>
+      </c>
+      <c r="J21">
+        <v>21.26</v>
+      </c>
+      <c r="K21">
+        <v>10.82</v>
+      </c>
+      <c r="L21">
+        <v>15.32</v>
+      </c>
+      <c r="M21">
+        <v>12.61</v>
+      </c>
+      <c r="N21">
+        <v>5.6440000000000001</v>
+      </c>
+      <c r="O21">
+        <v>405.5</v>
+      </c>
+      <c r="P21">
+        <v>285.3</v>
+      </c>
+      <c r="Q21">
+        <v>249.3</v>
+      </c>
+      <c r="R21">
+        <v>32.22</v>
+      </c>
+      <c r="S21">
+        <v>44.32</v>
+      </c>
+      <c r="T21">
+        <v>139.30000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
       </c>
-      <c r="B22" s="2">
-        <v>1387</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9276</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2591</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-1819</v>
-      </c>
-      <c r="H22" s="2">
-        <v>4904</v>
-      </c>
-      <c r="I22" s="2">
-        <v>-1566</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1267</v>
-      </c>
-      <c r="K22" s="2">
-        <v>282</v>
-      </c>
-      <c r="L22" s="2">
-        <v>541</v>
-      </c>
-      <c r="M22" s="2">
-        <v>107</v>
-      </c>
-      <c r="N22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O22" s="2">
-        <v>-421</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1387</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>4343</v>
-      </c>
-      <c r="R22" s="2">
-        <v>263</v>
-      </c>
-      <c r="S22" s="2">
-        <v>837</v>
-      </c>
-      <c r="T22" s="2">
-        <v>751</v>
+      <c r="B22">
+        <v>467.2</v>
+      </c>
+      <c r="C22">
+        <v>2053</v>
+      </c>
+      <c r="D22">
+        <v>2.36</v>
+      </c>
+      <c r="E22">
+        <v>204</v>
+      </c>
+      <c r="F22">
+        <v>331.1</v>
+      </c>
+      <c r="G22">
+        <v>1188.9000000000001</v>
+      </c>
+      <c r="H22">
+        <v>2380.1</v>
+      </c>
+      <c r="I22">
+        <v>2409.8000000000002</v>
+      </c>
+      <c r="J22">
+        <v>20.96</v>
+      </c>
+      <c r="K22">
+        <v>11.24</v>
+      </c>
+      <c r="L22">
+        <v>17.52</v>
+      </c>
+      <c r="M22">
+        <v>14.01</v>
+      </c>
+      <c r="N22">
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="O22">
+        <v>394.6</v>
+      </c>
+      <c r="P22">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="Q22">
+        <v>250</v>
+      </c>
+      <c r="R22">
+        <v>31.74</v>
+      </c>
+      <c r="S22">
+        <v>45.2</v>
+      </c>
+      <c r="T22">
+        <v>142.5</v>
       </c>
     </row>
   </sheetData>
@@ -3740,14 +3740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,61 +3819,61 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>279.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1238.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.34799999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>132.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>362.2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>847.6</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1331.3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.89</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.3610000000000002</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>245.7</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>135.9</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>66.3</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>13.45</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>55.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3881,61 +3881,61 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1245.8</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>148.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>374.6</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>870.6</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1353.6</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.91</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.5190000000000001</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>235.3</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>141.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.8899999999999997</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>15.97</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>57.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3943,61 +3943,61 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>286.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1258.7</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>378.9</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>897.4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.54</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.7810000000000001</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>238.2</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>147.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>17.57</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>59.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -4005,61 +4005,61 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>288.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1312.4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.443</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>171.4</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>384.1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>956.8</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1436.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.8519999999999999</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>244.5</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>151.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>85.6</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>6.44</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>16.91</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>59.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -4067,61 +4067,61 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>285.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1400.1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>181.5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>382.8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1050.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1471.3</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.286</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>256.3</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>152.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>93.3</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>6.86</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>17.940000000000001</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>64.900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4129,61 +4129,61 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>288.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1470.4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>44.1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>199.3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>389.9</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1123.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1526.4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>266.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>102.2</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>7.43</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>19.260000000000002</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>67.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -4191,61 +4191,61 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1541.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.53300000000000003</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>393.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1189.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1591.6</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.6059999999999999</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>274.3</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>174.4</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>114.6</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>17.53</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>65.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -4253,61 +4253,61 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>297.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1591</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.628</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>225.7</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>392.1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1194.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1657.4</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>9.48</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3.4729999999999999</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>264.2</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>180.3</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>17.71</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>65.900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -4315,61 +4315,61 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>300.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1599.6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.61799999999999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>239.9</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>384.7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1252.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1677.7</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9.4600000000000009</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4.6100000000000003</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3.585</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>266.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>184.7</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>127.6</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>19.170000000000002</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>63.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4377,61 +4377,61 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>327.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1668.5</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.749</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>79.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>264.8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>440.6</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1370.3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1738.5</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.66</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3.8370000000000002</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>353.9</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>201.8</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>135.5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8.26</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>19.62</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>63.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -4439,61 +4439,61 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>347.2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1785.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1.0229999999999999</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>104.7</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>301.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>569.5</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1608</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1839.1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>10.14</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>6.98</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.53</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>5.97</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4.1529999999999996</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>354.7</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>12.52</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>23.31</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>75.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -4501,61 +4501,61 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>364.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2112.6</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.98199999999999998</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>144.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>330.6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>649.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1701.1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1920.7</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>10.95</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>8.64</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>4.452</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>378.7</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>244.7</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>13.92</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>27.91</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>88.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -4563,61 +4563,61 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>389.1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2149.5</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1.0269999999999999</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>189.7</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>356.2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1808</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1973.5</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>13.06</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.63</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4.7969999999999997</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>401.2</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>255.7</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>201.5</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>17.22</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>30.95</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>95.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -4625,61 +4625,61 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>404.8</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2227.4</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1.7629999999999999</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>305.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>889.9</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1892.5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2054.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>15.62</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>13.26</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>9.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4.8550000000000004</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>432.4</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>217.2</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>19.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>38.03</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>107.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -4687,61 +4687,61 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>414.4</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2213</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1.9339999999999999</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>215.4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>977.3</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1977.7</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2136.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>18.71</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>9.18</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>13.55</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.01</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5.2270000000000003</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>446.8</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>263.2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>224.1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>25.52</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>40.68</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>114.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -4749,371 +4749,371 @@
         <v>2014</v>
       </c>
       <c r="B17">
-        <v>431.2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2215.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>203.4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>319.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1039.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2039.9</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2203</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>9.83</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>14.83</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.33</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>5.39</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>455.6</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>230.1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>30.22</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>40.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>123.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18">
-        <v>438.2</v>
-      </c>
-      <c r="C18">
-        <v>2185.1</v>
-      </c>
-      <c r="D18">
-        <v>2.077</v>
-      </c>
-      <c r="E18">
-        <v>201.6</v>
-      </c>
-      <c r="F18">
-        <v>311.7</v>
-      </c>
-      <c r="G18">
-        <v>1070.0999999999999</v>
-      </c>
-      <c r="H18">
-        <v>2101.3000000000002</v>
-      </c>
-      <c r="I18">
-        <v>2239.4</v>
-      </c>
-      <c r="J18">
-        <v>19.16</v>
-      </c>
-      <c r="K18">
-        <v>9.11</v>
-      </c>
-      <c r="L18">
-        <v>15.88</v>
-      </c>
-      <c r="M18">
-        <v>11.45</v>
-      </c>
-      <c r="N18">
-        <v>5.5860000000000003</v>
-      </c>
-      <c r="O18">
-        <v>446</v>
-      </c>
-      <c r="P18">
-        <v>292.3</v>
-      </c>
-      <c r="Q18">
-        <v>235.7</v>
-      </c>
-      <c r="R18">
-        <v>32.090000000000003</v>
-      </c>
-      <c r="S18">
-        <v>41.38</v>
-      </c>
-      <c r="T18">
-        <v>134.5</v>
+      <c r="B18" s="2">
+        <v>12641</v>
+      </c>
+      <c r="C18" s="2">
+        <v>115625</v>
+      </c>
+      <c r="D18" s="2">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7583</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>56817</v>
+      </c>
+      <c r="H18" s="2">
+        <v>91767</v>
+      </c>
+      <c r="I18" s="2">
+        <v>79209</v>
+      </c>
+      <c r="J18" s="2">
+        <v>285</v>
+      </c>
+      <c r="K18" s="2">
+        <v>684</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1107</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1115</v>
+      </c>
+      <c r="N18" s="2">
+        <v>282</v>
+      </c>
+      <c r="O18" s="2">
+        <v>25612</v>
+      </c>
+      <c r="P18" s="2">
+        <v>12641</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>11220</v>
+      </c>
+      <c r="R18" s="2">
+        <v>2228</v>
+      </c>
+      <c r="S18" s="2">
+        <v>4622</v>
+      </c>
+      <c r="T18" s="2">
+        <v>8086</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19">
-        <v>451.3</v>
-      </c>
-      <c r="C19">
-        <v>2169</v>
-      </c>
-      <c r="D19">
-        <v>2.2160000000000002</v>
-      </c>
-      <c r="E19">
-        <v>200.6</v>
-      </c>
-      <c r="F19">
-        <v>315</v>
-      </c>
-      <c r="G19">
-        <v>1104.5999999999999</v>
-      </c>
-      <c r="H19">
-        <v>2188.5</v>
-      </c>
-      <c r="I19">
-        <v>2285.6</v>
-      </c>
-      <c r="J19">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="K19">
-        <v>10.25</v>
-      </c>
-      <c r="L19">
-        <v>15.45</v>
-      </c>
-      <c r="M19">
-        <v>11.02</v>
-      </c>
-      <c r="N19">
-        <v>5.74</v>
-      </c>
-      <c r="O19">
-        <v>438.4</v>
-      </c>
-      <c r="P19">
-        <v>296.3</v>
-      </c>
-      <c r="Q19">
-        <v>245.2</v>
-      </c>
-      <c r="R19">
-        <v>31.76</v>
-      </c>
-      <c r="S19">
-        <v>42.16</v>
-      </c>
-      <c r="T19">
-        <v>137.4</v>
+      <c r="B19" s="2">
+        <v>20559</v>
+      </c>
+      <c r="C19" s="2">
+        <v>188321</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10982</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>93514</v>
+      </c>
+      <c r="H19" s="2">
+        <v>149100</v>
+      </c>
+      <c r="I19" s="2">
+        <v>130398</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-37</v>
+      </c>
+      <c r="K19" s="2">
+        <v>628</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1157</v>
+      </c>
+      <c r="M19" s="2">
+        <v>628</v>
+      </c>
+      <c r="N19" s="2">
+        <v>525</v>
+      </c>
+      <c r="O19" s="2">
+        <v>42212</v>
+      </c>
+      <c r="P19" s="2">
+        <v>20559</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>13390</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2705</v>
+      </c>
+      <c r="S19" s="2">
+        <v>3534</v>
+      </c>
+      <c r="T19" s="2">
+        <v>13205</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20">
-        <v>453.8</v>
-      </c>
-      <c r="C20">
-        <v>2118.6999999999998</v>
-      </c>
-      <c r="D20">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="E20">
-        <v>201.3</v>
-      </c>
-      <c r="F20">
-        <v>317.5</v>
-      </c>
-      <c r="G20">
-        <v>1145.0999999999999</v>
-      </c>
-      <c r="H20">
-        <v>2258.6</v>
-      </c>
-      <c r="I20">
-        <v>2329.6</v>
-      </c>
-      <c r="J20">
-        <v>18.809999999999999</v>
-      </c>
-      <c r="K20">
-        <v>10.52</v>
-      </c>
-      <c r="L20">
-        <v>16.54</v>
-      </c>
-      <c r="M20">
-        <v>12.7</v>
-      </c>
-      <c r="N20">
-        <v>5.6779999999999999</v>
-      </c>
-      <c r="O20">
-        <v>420.1</v>
-      </c>
-      <c r="P20">
-        <v>289.89999999999998</v>
-      </c>
-      <c r="Q20">
-        <v>247.2</v>
-      </c>
-      <c r="R20">
-        <v>31.86</v>
-      </c>
-      <c r="S20">
-        <v>43.37</v>
-      </c>
-      <c r="T20">
-        <v>138.4</v>
+      <c r="B20" s="2">
+        <v>18761</v>
+      </c>
+      <c r="C20" s="2">
+        <v>155372</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6719</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>79919</v>
+      </c>
+      <c r="H20" s="2">
+        <v>134836</v>
+      </c>
+      <c r="I20" s="2">
+        <v>117120</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-35</v>
+      </c>
+      <c r="K20" s="2">
+        <v>430</v>
+      </c>
+      <c r="L20" s="2">
+        <v>640</v>
+      </c>
+      <c r="M20" s="2">
+        <v>642</v>
+      </c>
+      <c r="N20" s="2">
+        <v>220</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34959</v>
+      </c>
+      <c r="P20" s="2">
+        <v>18761</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>6464</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1974</v>
+      </c>
+      <c r="S20" s="2">
+        <v>2627</v>
+      </c>
+      <c r="T20" s="2">
+        <v>7872</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B21">
-        <v>459.1</v>
-      </c>
-      <c r="C21">
-        <v>2068.6</v>
-      </c>
-      <c r="D21">
-        <v>2.1739999999999999</v>
-      </c>
-      <c r="E21">
-        <v>205.9</v>
-      </c>
-      <c r="F21">
-        <v>334.7</v>
-      </c>
-      <c r="G21">
-        <v>1173.3</v>
-      </c>
-      <c r="H21">
-        <v>2314.9</v>
-      </c>
-      <c r="I21">
-        <v>2380.9</v>
-      </c>
-      <c r="J21">
-        <v>21.26</v>
-      </c>
-      <c r="K21">
-        <v>10.82</v>
-      </c>
-      <c r="L21">
-        <v>15.32</v>
-      </c>
-      <c r="M21">
-        <v>12.61</v>
-      </c>
-      <c r="N21">
-        <v>5.6440000000000001</v>
-      </c>
-      <c r="O21">
-        <v>405.5</v>
-      </c>
-      <c r="P21">
-        <v>285.3</v>
-      </c>
-      <c r="Q21">
-        <v>249.3</v>
-      </c>
-      <c r="R21">
-        <v>32.22</v>
-      </c>
-      <c r="S21">
-        <v>44.32</v>
-      </c>
-      <c r="T21">
-        <v>139.30000000000001</v>
+      <c r="B21" s="2">
+        <v>6228</v>
+      </c>
+      <c r="C21" s="2">
+        <v>59239</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-58</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4851</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30571</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44554</v>
+      </c>
+      <c r="I21" s="2">
+        <v>38627</v>
+      </c>
+      <c r="J21" s="2">
+        <v>464</v>
+      </c>
+      <c r="K21" s="2">
+        <v>333</v>
+      </c>
+      <c r="L21" s="2">
+        <v>260</v>
+      </c>
+      <c r="M21" s="2">
+        <v>228</v>
+      </c>
+      <c r="N21" s="2">
+        <v>127</v>
+      </c>
+      <c r="O21" s="2">
+        <v>12400</v>
+      </c>
+      <c r="P21" s="2">
+        <v>6228</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>5772</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1039</v>
+      </c>
+      <c r="S21" s="2">
+        <v>902</v>
+      </c>
+      <c r="T21" s="2">
+        <v>3970</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
       </c>
-      <c r="B22">
-        <v>467.2</v>
-      </c>
-      <c r="C22">
-        <v>2053</v>
-      </c>
-      <c r="D22">
-        <v>2.36</v>
-      </c>
-      <c r="E22">
-        <v>204</v>
-      </c>
-      <c r="F22">
-        <v>331.1</v>
-      </c>
-      <c r="G22">
-        <v>1188.9000000000001</v>
-      </c>
-      <c r="H22">
-        <v>2380.1</v>
-      </c>
-      <c r="I22">
-        <v>2409.8000000000002</v>
-      </c>
-      <c r="J22">
-        <v>20.96</v>
-      </c>
-      <c r="K22">
-        <v>11.24</v>
-      </c>
-      <c r="L22">
-        <v>17.52</v>
-      </c>
-      <c r="M22">
-        <v>14.01</v>
-      </c>
-      <c r="N22">
-        <v>5.6959999999999997</v>
-      </c>
-      <c r="O22">
-        <v>394.6</v>
-      </c>
-      <c r="P22">
-        <v>280.39999999999998</v>
-      </c>
-      <c r="Q22">
-        <v>250</v>
-      </c>
-      <c r="R22">
-        <v>31.74</v>
-      </c>
-      <c r="S22">
-        <v>45.2</v>
-      </c>
-      <c r="T22">
-        <v>142.5</v>
+      <c r="B22" s="2">
+        <v>1387</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9276</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2591</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1819</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4904</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-1566</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1267</v>
+      </c>
+      <c r="K22" s="2">
+        <v>282</v>
+      </c>
+      <c r="L22" s="2">
+        <v>541</v>
+      </c>
+      <c r="M22" s="2">
+        <v>107</v>
+      </c>
+      <c r="N22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>-421</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1387</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>4343</v>
+      </c>
+      <c r="R22" s="2">
+        <v>263</v>
+      </c>
+      <c r="S22" s="2">
+        <v>837</v>
+      </c>
+      <c r="T22" s="2">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C901E41C-5025-40E3-A903-5CB359BF99D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9173D5EA-F89D-4FB7-8F4E-D3407C5AEBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="10" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="13" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -3746,8 +3746,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7892,8 +7892,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9173D5EA-F89D-4FB7-8F4E-D3407C5AEBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782913F-5241-4655-AEC6-446063230DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="13" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="10" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -21,15 +21,17 @@
     <sheet name="inf_var" sheetId="15" r:id="rId6"/>
     <sheet name="gcf" sheetId="5" r:id="rId7"/>
     <sheet name="tb" sheetId="13" r:id="rId8"/>
-    <sheet name="tot" sheetId="8" r:id="rId9"/>
-    <sheet name="debt" sheetId="10" r:id="rId10"/>
-    <sheet name="pspp" sheetId="16" r:id="rId11"/>
-    <sheet name="i_us" sheetId="14" r:id="rId12"/>
-    <sheet name="baa" sheetId="2" r:id="rId13"/>
-    <sheet name="gdp" sheetId="4" r:id="rId14"/>
+    <sheet name="tot_eiu" sheetId="8" r:id="rId9"/>
+    <sheet name="tot_oecd" sheetId="17" r:id="rId10"/>
+    <sheet name="tot_imf" sheetId="18" r:id="rId11"/>
+    <sheet name="gdp" sheetId="4" r:id="rId12"/>
+    <sheet name="debt" sheetId="10" r:id="rId13"/>
+    <sheet name="pspp" sheetId="16" r:id="rId14"/>
+    <sheet name="i_us" sheetId="14" r:id="rId15"/>
+    <sheet name="baa" sheetId="2" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">gdp!$A$1:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">gdp!$A$1:$T$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">i_avg!$A$1:$T$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="22">
   <si>
     <t>Belgium</t>
   </si>
@@ -113,6 +115,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -2358,6 +2363,4152 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013FD78-CD5C-4843-9EA5-955A21902600}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S34" sqref="R34:S34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>104.677665184804</v>
+      </c>
+      <c r="C2">
+        <v>100.875958583792</v>
+      </c>
+      <c r="D2">
+        <v>81.018155022168102</v>
+      </c>
+      <c r="E2">
+        <v>103.488219020126</v>
+      </c>
+      <c r="F2">
+        <v>94.242292151519706</v>
+      </c>
+      <c r="G2">
+        <v>99.396038824815506</v>
+      </c>
+      <c r="H2">
+        <v>99.995860668238194</v>
+      </c>
+      <c r="I2">
+        <v>105.793976627397</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>100.46689535086</v>
+      </c>
+      <c r="L2">
+        <v>86.844981023998997</v>
+      </c>
+      <c r="M2">
+        <v>96.446015582383097</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>99.289866094551996</v>
+      </c>
+      <c r="P2">
+        <v>102.793507677363</v>
+      </c>
+      <c r="Q2">
+        <v>95.513162451293795</v>
+      </c>
+      <c r="R2">
+        <v>103.273258430848</v>
+      </c>
+      <c r="S2">
+        <v>107.96720438211401</v>
+      </c>
+      <c r="T2">
+        <v>114.88593138125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>102.866121789312</v>
+      </c>
+      <c r="C3">
+        <v>96.700925746489204</v>
+      </c>
+      <c r="D3">
+        <v>83.205250437499998</v>
+      </c>
+      <c r="E3">
+        <v>103.370380141282</v>
+      </c>
+      <c r="F3">
+        <v>92.539560796768299</v>
+      </c>
+      <c r="G3">
+        <v>95.925060355556397</v>
+      </c>
+      <c r="H3">
+        <v>97.330870451220704</v>
+      </c>
+      <c r="I3">
+        <v>100.038434601185</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>94.855980073544799</v>
+      </c>
+      <c r="L3">
+        <v>91.436749710548099</v>
+      </c>
+      <c r="M3">
+        <v>94.655778281984098</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>99.218669637130503</v>
+      </c>
+      <c r="P3">
+        <v>101.74674348398</v>
+      </c>
+      <c r="Q3">
+        <v>92.835785922262104</v>
+      </c>
+      <c r="R3">
+        <v>100.055686138059</v>
+      </c>
+      <c r="S3">
+        <v>111.924661372324</v>
+      </c>
+      <c r="T3">
+        <v>110.68990711036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>102.928433347919</v>
+      </c>
+      <c r="C4">
+        <v>96.726958793394999</v>
+      </c>
+      <c r="D4">
+        <v>86.938713444047394</v>
+      </c>
+      <c r="E4">
+        <v>104.68806433877501</v>
+      </c>
+      <c r="F4">
+        <v>93.305985259714404</v>
+      </c>
+      <c r="G4">
+        <v>97.593752132907397</v>
+      </c>
+      <c r="H4">
+        <v>97.617006596741703</v>
+      </c>
+      <c r="I4">
+        <v>101.592184557585</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>96.154125551129795</v>
+      </c>
+      <c r="L4">
+        <v>91.078310733835707</v>
+      </c>
+      <c r="M4">
+        <v>94.343421955949694</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>100.699517018669</v>
+      </c>
+      <c r="P4">
+        <v>101.96182040853</v>
+      </c>
+      <c r="Q4">
+        <v>92.946835021609999</v>
+      </c>
+      <c r="R4">
+        <v>101.781130379751</v>
+      </c>
+      <c r="S4">
+        <v>110.73565494388799</v>
+      </c>
+      <c r="T4">
+        <v>112.30237483467999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>103.583782407718</v>
+      </c>
+      <c r="C5">
+        <v>98.638838149323007</v>
+      </c>
+      <c r="D5">
+        <v>90.414977665378103</v>
+      </c>
+      <c r="E5">
+        <v>106.89753091516801</v>
+      </c>
+      <c r="F5">
+        <v>94.649032061888406</v>
+      </c>
+      <c r="G5">
+        <v>100.378657969629</v>
+      </c>
+      <c r="H5">
+        <v>99.318959024132496</v>
+      </c>
+      <c r="I5">
+        <v>103.133862430042</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>93.710488342729704</v>
+      </c>
+      <c r="L5">
+        <v>91.372710124401294</v>
+      </c>
+      <c r="M5">
+        <v>94.860212017363807</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>101.477269705701</v>
+      </c>
+      <c r="P5">
+        <v>102.68502192851101</v>
+      </c>
+      <c r="Q5">
+        <v>94.601776676931095</v>
+      </c>
+      <c r="R5">
+        <v>103.715123653261</v>
+      </c>
+      <c r="S5">
+        <v>110.44562769802801</v>
+      </c>
+      <c r="T5">
+        <v>112.133657264371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>103.297146693489</v>
+      </c>
+      <c r="C6">
+        <v>100.482602602271</v>
+      </c>
+      <c r="D6">
+        <v>91.922517840225098</v>
+      </c>
+      <c r="E6">
+        <v>105.784041056253</v>
+      </c>
+      <c r="F6">
+        <v>96.295403551952305</v>
+      </c>
+      <c r="G6">
+        <v>101.71835640168401</v>
+      </c>
+      <c r="H6">
+        <v>99.285613525274499</v>
+      </c>
+      <c r="I6">
+        <v>104.03251895713601</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>95.569426853121499</v>
+      </c>
+      <c r="L6">
+        <v>91.367291097309803</v>
+      </c>
+      <c r="M6">
+        <v>95.877972902378602</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>101.494416687794</v>
+      </c>
+      <c r="P6">
+        <v>103.50950719107399</v>
+      </c>
+      <c r="Q6">
+        <v>94.8594716098183</v>
+      </c>
+      <c r="R6">
+        <v>104.35980922860401</v>
+      </c>
+      <c r="S6">
+        <v>110.126594201823</v>
+      </c>
+      <c r="T6">
+        <v>110.374013552866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>102.454267182677</v>
+      </c>
+      <c r="C7">
+        <v>100.628628924381</v>
+      </c>
+      <c r="D7">
+        <v>92.617155331503696</v>
+      </c>
+      <c r="E7">
+        <v>100.101015950045</v>
+      </c>
+      <c r="F7">
+        <v>96.187436134705393</v>
+      </c>
+      <c r="G7">
+        <v>101.390563578032</v>
+      </c>
+      <c r="H7">
+        <v>98.380542934555805</v>
+      </c>
+      <c r="I7">
+        <v>103.031787473219</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>98.019332332920698</v>
+      </c>
+      <c r="L7">
+        <v>99.207647420007703</v>
+      </c>
+      <c r="M7">
+        <v>95.680368836911896</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>101.054536773639</v>
+      </c>
+      <c r="P7">
+        <v>102.965562715383</v>
+      </c>
+      <c r="Q7">
+        <v>94.537251684864401</v>
+      </c>
+      <c r="R7">
+        <v>103.158010210627</v>
+      </c>
+      <c r="S7">
+        <v>109.801996825822</v>
+      </c>
+      <c r="T7">
+        <v>107.901087387654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>101.738785593825</v>
+      </c>
+      <c r="C8">
+        <v>98.908226300730604</v>
+      </c>
+      <c r="D8">
+        <v>94.357214150850297</v>
+      </c>
+      <c r="E8">
+        <v>101.809659410253</v>
+      </c>
+      <c r="F8">
+        <v>95.312107018655396</v>
+      </c>
+      <c r="G8">
+        <v>102.266171501779</v>
+      </c>
+      <c r="H8">
+        <v>97.056838295538299</v>
+      </c>
+      <c r="I8">
+        <v>100.317712468137</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>97.084618596679505</v>
+      </c>
+      <c r="L8">
+        <v>100.29217871813999</v>
+      </c>
+      <c r="M8">
+        <v>95.396571292028497</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>101.35752268746801</v>
+      </c>
+      <c r="P8">
+        <v>102.141765106736</v>
+      </c>
+      <c r="Q8">
+        <v>93.475561491068802</v>
+      </c>
+      <c r="R8">
+        <v>100.960479392373</v>
+      </c>
+      <c r="S8">
+        <v>109.81547682351</v>
+      </c>
+      <c r="T8">
+        <v>104.22530070694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>101.018508230328</v>
+      </c>
+      <c r="C9">
+        <v>97.238882455076194</v>
+      </c>
+      <c r="D9">
+        <v>96.601206348147002</v>
+      </c>
+      <c r="E9">
+        <v>100.84336333030301</v>
+      </c>
+      <c r="F9">
+        <v>95.260475183698304</v>
+      </c>
+      <c r="G9">
+        <v>102.797587930646</v>
+      </c>
+      <c r="H9">
+        <v>95.589377134575003</v>
+      </c>
+      <c r="I9">
+        <v>97.339508114467193</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>96.509064044812106</v>
+      </c>
+      <c r="L9">
+        <v>97.4177577950163</v>
+      </c>
+      <c r="M9">
+        <v>97.400746442324404</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>101.47411027109401</v>
+      </c>
+      <c r="P9">
+        <v>101.023683887506</v>
+      </c>
+      <c r="Q9">
+        <v>94.106395576895096</v>
+      </c>
+      <c r="R9">
+        <v>100.41625822604099</v>
+      </c>
+      <c r="S9">
+        <v>108.268299056331</v>
+      </c>
+      <c r="T9">
+        <v>100.96133642658999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>101.174744927663</v>
+      </c>
+      <c r="C10">
+        <v>97.719672211693407</v>
+      </c>
+      <c r="D10">
+        <v>98.561608435535007</v>
+      </c>
+      <c r="E10">
+        <v>101.323642983345</v>
+      </c>
+      <c r="F10">
+        <v>95.730508766871907</v>
+      </c>
+      <c r="G10">
+        <v>103.68574638384599</v>
+      </c>
+      <c r="H10">
+        <v>96.688200426975598</v>
+      </c>
+      <c r="I10">
+        <v>98.469694123777899</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>101.052610366484</v>
+      </c>
+      <c r="L10">
+        <v>98.310260164292401</v>
+      </c>
+      <c r="M10">
+        <v>96.279299843519894</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>101.195457092927</v>
+      </c>
+      <c r="P10">
+        <v>100.588436226939</v>
+      </c>
+      <c r="Q10">
+        <v>94.540588447423204</v>
+      </c>
+      <c r="R10">
+        <v>101.330963409459</v>
+      </c>
+      <c r="S10">
+        <v>107.042722154231</v>
+      </c>
+      <c r="T10">
+        <v>100.89293925214299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>98.531404013006195</v>
+      </c>
+      <c r="C11">
+        <v>96.058963364461505</v>
+      </c>
+      <c r="D11">
+        <v>98.7353547098908</v>
+      </c>
+      <c r="E11">
+        <v>102.385045413802</v>
+      </c>
+      <c r="F11">
+        <v>94.634986344123107</v>
+      </c>
+      <c r="G11">
+        <v>102.00549740086799</v>
+      </c>
+      <c r="H11">
+        <v>96.054328389582096</v>
+      </c>
+      <c r="I11">
+        <v>96.066498727742797</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>99.2787281195465</v>
+      </c>
+      <c r="L11">
+        <v>101.863219361765</v>
+      </c>
+      <c r="M11">
+        <v>97.562295136893894</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>101.033189458943</v>
+      </c>
+      <c r="P11">
+        <v>99.346304038850505</v>
+      </c>
+      <c r="Q11">
+        <v>92.347296238519306</v>
+      </c>
+      <c r="R11">
+        <v>100.04614025593401</v>
+      </c>
+      <c r="S11">
+        <v>105.291047221216</v>
+      </c>
+      <c r="T11">
+        <v>98.975304101003999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>101.505977455688</v>
+      </c>
+      <c r="C12">
+        <v>100.358300017631</v>
+      </c>
+      <c r="D12">
+        <v>99.117923892212602</v>
+      </c>
+      <c r="E12">
+        <v>100.917910902778</v>
+      </c>
+      <c r="F12">
+        <v>93.996124124094095</v>
+      </c>
+      <c r="G12">
+        <v>106.70614961502601</v>
+      </c>
+      <c r="H12">
+        <v>98.601688405551698</v>
+      </c>
+      <c r="I12">
+        <v>101.643930039046</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>99.457707593762393</v>
+      </c>
+      <c r="L12">
+        <v>97.962373256176704</v>
+      </c>
+      <c r="M12">
+        <v>99.130147404500207</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>101.920222476454</v>
+      </c>
+      <c r="P12">
+        <v>101.22564655623199</v>
+      </c>
+      <c r="Q12">
+        <v>96.813360122679995</v>
+      </c>
+      <c r="R12">
+        <v>103.50706866433499</v>
+      </c>
+      <c r="S12">
+        <v>104.09503296240401</v>
+      </c>
+      <c r="T12">
+        <v>100.217946131877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>99.741395198876802</v>
+      </c>
+      <c r="C13">
+        <v>98.123255301832799</v>
+      </c>
+      <c r="D13">
+        <v>97.178048831796502</v>
+      </c>
+      <c r="E13">
+        <v>97.536992038794097</v>
+      </c>
+      <c r="F13">
+        <v>94.3450897072711</v>
+      </c>
+      <c r="G13">
+        <v>103.733354324171</v>
+      </c>
+      <c r="H13">
+        <v>97.241235843477298</v>
+      </c>
+      <c r="I13">
+        <v>97.605252552542098</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>99.567470267749897</v>
+      </c>
+      <c r="L13">
+        <v>98.577763922464399</v>
+      </c>
+      <c r="M13">
+        <v>99.799995074051196</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>100.112042086846</v>
+      </c>
+      <c r="P13">
+        <v>99.563067379926196</v>
+      </c>
+      <c r="Q13">
+        <v>95.470868731172004</v>
+      </c>
+      <c r="R13">
+        <v>99.366967499722904</v>
+      </c>
+      <c r="S13">
+        <v>103.29910468379801</v>
+      </c>
+      <c r="T13">
+        <v>98.150529056929102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>98.308140025726402</v>
+      </c>
+      <c r="C14">
+        <v>95.592524155121396</v>
+      </c>
+      <c r="D14">
+        <v>97.574769972763207</v>
+      </c>
+      <c r="E14">
+        <v>99.445091582309701</v>
+      </c>
+      <c r="F14">
+        <v>93.841644164232605</v>
+      </c>
+      <c r="G14">
+        <v>100.030947593915</v>
+      </c>
+      <c r="H14">
+        <v>94.918305732721606</v>
+      </c>
+      <c r="I14">
+        <v>95.054123482903705</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>102.588038774228</v>
+      </c>
+      <c r="L14">
+        <v>97.770595157892501</v>
+      </c>
+      <c r="M14">
+        <v>100.336018217605</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>98.574536772684993</v>
+      </c>
+      <c r="P14">
+        <v>97.841218015289002</v>
+      </c>
+      <c r="Q14">
+        <v>93.711744112770205</v>
+      </c>
+      <c r="R14">
+        <v>98.006287773888303</v>
+      </c>
+      <c r="S14">
+        <v>101.921678380722</v>
+      </c>
+      <c r="T14">
+        <v>96.607741853674099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>98.319813532378802</v>
+      </c>
+      <c r="C15">
+        <v>95.429739290094105</v>
+      </c>
+      <c r="D15">
+        <v>97.109122979281807</v>
+      </c>
+      <c r="E15">
+        <v>97.6947883582977</v>
+      </c>
+      <c r="F15">
+        <v>92.352437229673598</v>
+      </c>
+      <c r="G15">
+        <v>98.942810248778301</v>
+      </c>
+      <c r="H15">
+        <v>94.619096489035101</v>
+      </c>
+      <c r="I15">
+        <v>93.702327923379499</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>99.723805399986702</v>
+      </c>
+      <c r="L15">
+        <v>96.936318647144006</v>
+      </c>
+      <c r="M15">
+        <v>100.290936700674</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>98.6003401943737</v>
+      </c>
+      <c r="P15">
+        <v>97.344096236675398</v>
+      </c>
+      <c r="Q15">
+        <v>94.330862570406296</v>
+      </c>
+      <c r="R15">
+        <v>96.967264181746103</v>
+      </c>
+      <c r="S15">
+        <v>100.660999194799</v>
+      </c>
+      <c r="T15">
+        <v>95.589819141301604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>98.680773726343602</v>
+      </c>
+      <c r="C16">
+        <v>96.459051784415294</v>
+      </c>
+      <c r="D16">
+        <v>98.0266463962015</v>
+      </c>
+      <c r="E16">
+        <v>97.565348947763198</v>
+      </c>
+      <c r="F16">
+        <v>93.879091907449407</v>
+      </c>
+      <c r="G16">
+        <v>100.33849204632</v>
+      </c>
+      <c r="H16">
+        <v>95.714719177916805</v>
+      </c>
+      <c r="I16">
+        <v>95.280426799973895</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>100.299739363195</v>
+      </c>
+      <c r="L16">
+        <v>96.654650479310007</v>
+      </c>
+      <c r="M16">
+        <v>100.317241319717</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>98.968910726891394</v>
+      </c>
+      <c r="P16">
+        <v>97.489184859161497</v>
+      </c>
+      <c r="Q16">
+        <v>95.980626733560996</v>
+      </c>
+      <c r="R16">
+        <v>97.752905042468598</v>
+      </c>
+      <c r="S16">
+        <v>100.21319431670101</v>
+      </c>
+      <c r="T16">
+        <v>96.294380681669907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>99.011997929672503</v>
+      </c>
+      <c r="C17">
+        <v>97.704788272621698</v>
+      </c>
+      <c r="D17">
+        <v>99.534399863689003</v>
+      </c>
+      <c r="E17">
+        <v>95.577404832137304</v>
+      </c>
+      <c r="F17">
+        <v>95.424671021257197</v>
+      </c>
+      <c r="G17">
+        <v>99.511702456425994</v>
+      </c>
+      <c r="H17">
+        <v>96.905776559101596</v>
+      </c>
+      <c r="I17">
+        <v>97.731548119504495</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>99.414747769217001</v>
+      </c>
+      <c r="L17">
+        <v>97.471867038216701</v>
+      </c>
+      <c r="M17">
+        <v>101.090816087109</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>98.884867994024802</v>
+      </c>
+      <c r="P17">
+        <v>98.442852455046307</v>
+      </c>
+      <c r="Q17">
+        <v>96.915241970376201</v>
+      </c>
+      <c r="R17">
+        <v>98.749566963362795</v>
+      </c>
+      <c r="S17">
+        <v>100.267099255537</v>
+      </c>
+      <c r="T17">
+        <v>96.984427389211305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>100.617009230207</v>
+      </c>
+      <c r="C19">
+        <v>101.75736446846599</v>
+      </c>
+      <c r="D19">
+        <v>101.17455603090001</v>
+      </c>
+      <c r="E19">
+        <v>99.740833810982906</v>
+      </c>
+      <c r="F19">
+        <v>99.582975619625799</v>
+      </c>
+      <c r="G19">
+        <v>100.42941956456499</v>
+      </c>
+      <c r="H19">
+        <v>100.98525154300999</v>
+      </c>
+      <c r="I19">
+        <v>103.25309355940099</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>103.02685609257099</v>
+      </c>
+      <c r="L19">
+        <v>101.68114174367</v>
+      </c>
+      <c r="M19">
+        <v>100.50813579484</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>100.5781969263</v>
+      </c>
+      <c r="P19">
+        <v>100.82586389482501</v>
+      </c>
+      <c r="Q19">
+        <v>101.626311080759</v>
+      </c>
+      <c r="R19">
+        <v>100.830388731262</v>
+      </c>
+      <c r="S19">
+        <v>99.612175933132804</v>
+      </c>
+      <c r="T19">
+        <v>99.733448273820102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>99.970544274553504</v>
+      </c>
+      <c r="C20">
+        <v>100.881559779787</v>
+      </c>
+      <c r="D20">
+        <v>100.634449667547</v>
+      </c>
+      <c r="E20">
+        <v>98.347390816524893</v>
+      </c>
+      <c r="F20">
+        <v>99.183594694250104</v>
+      </c>
+      <c r="G20">
+        <v>99.610639139481194</v>
+      </c>
+      <c r="H20">
+        <v>99.676266621477893</v>
+      </c>
+      <c r="I20">
+        <v>101.72300885760001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>103.491974455335</v>
+      </c>
+      <c r="L20">
+        <v>101.96518655546799</v>
+      </c>
+      <c r="M20">
+        <v>99.850858658600103</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>100.352532415005</v>
+      </c>
+      <c r="P20">
+        <v>99.558208296433605</v>
+      </c>
+      <c r="Q20">
+        <v>100.832311894862</v>
+      </c>
+      <c r="R20">
+        <v>100.329569597432</v>
+      </c>
+      <c r="S20">
+        <v>99.059345968887598</v>
+      </c>
+      <c r="T20">
+        <v>99.336438861558307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>98.939766274405898</v>
+      </c>
+      <c r="C21">
+        <v>100.059809363917</v>
+      </c>
+      <c r="D21">
+        <v>100.412337259823</v>
+      </c>
+      <c r="E21">
+        <v>97.030186501127105</v>
+      </c>
+      <c r="F21">
+        <v>97.276929520688</v>
+      </c>
+      <c r="G21">
+        <v>98.001989573979301</v>
+      </c>
+      <c r="H21">
+        <v>98.558075446685905</v>
+      </c>
+      <c r="I21">
+        <v>100.948808079839</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>105.347392692526</v>
+      </c>
+      <c r="L21">
+        <v>100.994431959506</v>
+      </c>
+      <c r="M21">
+        <v>100.08384440217201</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>100.216486003816</v>
+      </c>
+      <c r="P21">
+        <v>98.912938286352798</v>
+      </c>
+      <c r="Q21">
+        <v>100.560556057036</v>
+      </c>
+      <c r="R21">
+        <v>100.16848559559</v>
+      </c>
+      <c r="S21">
+        <v>98.477302908807999</v>
+      </c>
+      <c r="T21">
+        <v>100.107828801887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>99.273320484519502</v>
+      </c>
+      <c r="C22">
+        <v>100.932679724254</v>
+      </c>
+      <c r="D22">
+        <v>100.142559636955</v>
+      </c>
+      <c r="E22">
+        <v>97.426768820360195</v>
+      </c>
+      <c r="F22">
+        <v>95.788779105323798</v>
+      </c>
+      <c r="G22">
+        <v>97.116521218492394</v>
+      </c>
+      <c r="H22">
+        <v>99.364689314200703</v>
+      </c>
+      <c r="I22">
+        <v>101.71734231009501</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>106.15638069101099</v>
+      </c>
+      <c r="L22">
+        <v>102.58486169117501</v>
+      </c>
+      <c r="M22">
+        <v>100.42139316080799</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>100.810731491825</v>
+      </c>
+      <c r="P22">
+        <v>98.692799637693099</v>
+      </c>
+      <c r="Q22">
+        <v>101.21541794325201</v>
+      </c>
+      <c r="R22">
+        <v>100.58422660838499</v>
+      </c>
+      <c r="S22">
+        <v>98.296062615113698</v>
+      </c>
+      <c r="T22">
+        <v>99.461050476036604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFE8547-1AE0-4346-9869-CFEBBD8D8AB7}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>105.92340868282595</v>
+      </c>
+      <c r="C2">
+        <v>103.56647160139003</v>
+      </c>
+      <c r="D2">
+        <v>105.39044759378223</v>
+      </c>
+      <c r="E2">
+        <v>103.63508179093334</v>
+      </c>
+      <c r="F2">
+        <v>104.21400839925039</v>
+      </c>
+      <c r="G2">
+        <v>105.12510248398218</v>
+      </c>
+      <c r="H2">
+        <v>102.98679561628387</v>
+      </c>
+      <c r="I2">
+        <v>104.2993894265321</v>
+      </c>
+      <c r="J2">
+        <v>109.71333957408952</v>
+      </c>
+      <c r="K2">
+        <v>108.42538607894426</v>
+      </c>
+      <c r="L2">
+        <v>104.72460417690476</v>
+      </c>
+      <c r="M2">
+        <v>108.79144861190609</v>
+      </c>
+      <c r="N2">
+        <v>111.29071211395306</v>
+      </c>
+      <c r="O2">
+        <v>101.7153181749338</v>
+      </c>
+      <c r="P2">
+        <v>104.16415687795552</v>
+      </c>
+      <c r="Q2">
+        <v>106.87583875831132</v>
+      </c>
+      <c r="R2">
+        <v>107.6841820961474</v>
+      </c>
+      <c r="S2">
+        <v>108.52100964689132</v>
+      </c>
+      <c r="T2">
+        <v>105.01695196963787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>104.18885142566486</v>
+      </c>
+      <c r="C3">
+        <v>102.44928235722301</v>
+      </c>
+      <c r="D3">
+        <v>103.14452393319402</v>
+      </c>
+      <c r="E3">
+        <v>102.49224201031429</v>
+      </c>
+      <c r="F3">
+        <v>103.11626436382056</v>
+      </c>
+      <c r="G3">
+        <v>103.71574597329118</v>
+      </c>
+      <c r="H3">
+        <v>101.95009943210938</v>
+      </c>
+      <c r="I3">
+        <v>103.15909153871972</v>
+      </c>
+      <c r="J3">
+        <v>106.94344722726699</v>
+      </c>
+      <c r="K3">
+        <v>105.41940608242868</v>
+      </c>
+      <c r="L3">
+        <v>102.57277894615582</v>
+      </c>
+      <c r="M3">
+        <v>107.08108173702202</v>
+      </c>
+      <c r="N3">
+        <v>108.23862786081106</v>
+      </c>
+      <c r="O3">
+        <v>101.6336888442336</v>
+      </c>
+      <c r="P3">
+        <v>103.03101558655722</v>
+      </c>
+      <c r="Q3">
+        <v>105.15026179207915</v>
+      </c>
+      <c r="R3">
+        <v>105.59007415741831</v>
+      </c>
+      <c r="S3">
+        <v>106.05673331885387</v>
+      </c>
+      <c r="T3">
+        <v>103.95237448374007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>104.41145692244473</v>
+      </c>
+      <c r="C4">
+        <v>102.69801831096319</v>
+      </c>
+      <c r="D4">
+        <v>103.46433089994113</v>
+      </c>
+      <c r="E4">
+        <v>102.95263025554002</v>
+      </c>
+      <c r="F4">
+        <v>103.29909274104266</v>
+      </c>
+      <c r="G4">
+        <v>104.00918307600746</v>
+      </c>
+      <c r="H4">
+        <v>102.23562682265083</v>
+      </c>
+      <c r="I4">
+        <v>103.36605442931165</v>
+      </c>
+      <c r="J4">
+        <v>107.49206305583756</v>
+      </c>
+      <c r="K4">
+        <v>105.70856240062558</v>
+      </c>
+      <c r="L4">
+        <v>102.95761115220454</v>
+      </c>
+      <c r="M4">
+        <v>107.46422737678272</v>
+      </c>
+      <c r="N4">
+        <v>108.79450279036733</v>
+      </c>
+      <c r="O4">
+        <v>101.82445940946053</v>
+      </c>
+      <c r="P4">
+        <v>103.28163679229132</v>
+      </c>
+      <c r="Q4">
+        <v>105.50372155983045</v>
+      </c>
+      <c r="R4">
+        <v>106.03570122203162</v>
+      </c>
+      <c r="S4">
+        <v>106.02348696511092</v>
+      </c>
+      <c r="T4">
+        <v>104.12345560146234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>104.39316515786662</v>
+      </c>
+      <c r="C5">
+        <v>102.67714156528604</v>
+      </c>
+      <c r="D5">
+        <v>103.46300190556056</v>
+      </c>
+      <c r="E5">
+        <v>102.84831786983851</v>
+      </c>
+      <c r="F5">
+        <v>103.19863071489698</v>
+      </c>
+      <c r="G5">
+        <v>103.99410851095428</v>
+      </c>
+      <c r="H5">
+        <v>102.28112917814987</v>
+      </c>
+      <c r="I5">
+        <v>103.31061052558243</v>
+      </c>
+      <c r="J5">
+        <v>107.19077049651982</v>
+      </c>
+      <c r="K5">
+        <v>105.84964791649399</v>
+      </c>
+      <c r="L5">
+        <v>103.2121649978754</v>
+      </c>
+      <c r="M5">
+        <v>107.24319211294322</v>
+      </c>
+      <c r="N5">
+        <v>108.39580651580914</v>
+      </c>
+      <c r="O5">
+        <v>101.57332494980565</v>
+      </c>
+      <c r="P5">
+        <v>103.28421546676554</v>
+      </c>
+      <c r="Q5">
+        <v>105.2940943805945</v>
+      </c>
+      <c r="R5">
+        <v>105.89534624973631</v>
+      </c>
+      <c r="S5">
+        <v>106.4464761071188</v>
+      </c>
+      <c r="T5">
+        <v>104.00808933151703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>103.67712398182002</v>
+      </c>
+      <c r="C6">
+        <v>102.24482710170398</v>
+      </c>
+      <c r="D6">
+        <v>102.64964272788438</v>
+      </c>
+      <c r="E6">
+        <v>102.27867585086457</v>
+      </c>
+      <c r="F6">
+        <v>102.88713799573581</v>
+      </c>
+      <c r="G6">
+        <v>103.39740014726918</v>
+      </c>
+      <c r="H6">
+        <v>101.88840526529617</v>
+      </c>
+      <c r="I6">
+        <v>102.90325054252989</v>
+      </c>
+      <c r="J6">
+        <v>106.33337488377322</v>
+      </c>
+      <c r="K6">
+        <v>104.81946495106367</v>
+      </c>
+      <c r="L6">
+        <v>102.25248985922295</v>
+      </c>
+      <c r="M6">
+        <v>106.65538431569644</v>
+      </c>
+      <c r="N6">
+        <v>107.56324742059259</v>
+      </c>
+      <c r="O6">
+        <v>101.62737323547694</v>
+      </c>
+      <c r="P6">
+        <v>102.84908516190455</v>
+      </c>
+      <c r="Q6">
+        <v>104.58435778179933</v>
+      </c>
+      <c r="R6">
+        <v>105.06321199485149</v>
+      </c>
+      <c r="S6">
+        <v>105.21423266420935</v>
+      </c>
+      <c r="T6">
+        <v>103.61034699144049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>103.06701271154684</v>
+      </c>
+      <c r="C7">
+        <v>101.79629646163457</v>
+      </c>
+      <c r="D7">
+        <v>102.45677833928853</v>
+      </c>
+      <c r="E7">
+        <v>101.89426399192077</v>
+      </c>
+      <c r="F7">
+        <v>102.26463645562883</v>
+      </c>
+      <c r="G7">
+        <v>102.6652778357512</v>
+      </c>
+      <c r="H7">
+        <v>101.3997389602084</v>
+      </c>
+      <c r="I7">
+        <v>102.26874569858312</v>
+      </c>
+      <c r="J7">
+        <v>105.02023091509959</v>
+      </c>
+      <c r="K7">
+        <v>104.40414520328568</v>
+      </c>
+      <c r="L7">
+        <v>101.8107280118613</v>
+      </c>
+      <c r="M7">
+        <v>105.7439692254754</v>
+      </c>
+      <c r="N7">
+        <v>106.02265501492072</v>
+      </c>
+      <c r="O7">
+        <v>101.25199887534386</v>
+      </c>
+      <c r="P7">
+        <v>102.21780918083543</v>
+      </c>
+      <c r="Q7">
+        <v>103.81885686137819</v>
+      </c>
+      <c r="R7">
+        <v>104.09739355059929</v>
+      </c>
+      <c r="S7">
+        <v>103.98051980973321</v>
+      </c>
+      <c r="T7">
+        <v>103.05916855080777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>101.80069532191234</v>
+      </c>
+      <c r="C8">
+        <v>101.02844131720367</v>
+      </c>
+      <c r="D8">
+        <v>101.31575838838162</v>
+      </c>
+      <c r="E8">
+        <v>101.21230914541063</v>
+      </c>
+      <c r="F8">
+        <v>101.49725076833946</v>
+      </c>
+      <c r="G8">
+        <v>101.8390876976259</v>
+      </c>
+      <c r="H8">
+        <v>100.67209153023154</v>
+      </c>
+      <c r="I8">
+        <v>101.5039423213663</v>
+      </c>
+      <c r="J8">
+        <v>103.56543589203875</v>
+      </c>
+      <c r="K8">
+        <v>102.45185847221825</v>
+      </c>
+      <c r="L8">
+        <v>100.5553143991322</v>
+      </c>
+      <c r="M8">
+        <v>103.83202877418969</v>
+      </c>
+      <c r="N8">
+        <v>104.14194328711879</v>
+      </c>
+      <c r="O8">
+        <v>101.2190236546782</v>
+      </c>
+      <c r="P8">
+        <v>101.39929572199664</v>
+      </c>
+      <c r="Q8">
+        <v>102.81525190128673</v>
+      </c>
+      <c r="R8">
+        <v>102.60709534472861</v>
+      </c>
+      <c r="S8">
+        <v>102.3431501183674</v>
+      </c>
+      <c r="T8">
+        <v>102.15752112256246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>101.23552531343516</v>
+      </c>
+      <c r="C9">
+        <v>100.66051660374592</v>
+      </c>
+      <c r="D9">
+        <v>101.05435693609314</v>
+      </c>
+      <c r="E9">
+        <v>100.77336099013576</v>
+      </c>
+      <c r="F9">
+        <v>101.16220599873155</v>
+      </c>
+      <c r="G9">
+        <v>101.44852953138519</v>
+      </c>
+      <c r="H9">
+        <v>100.39495468015069</v>
+      </c>
+      <c r="I9">
+        <v>100.96012102341199</v>
+      </c>
+      <c r="J9">
+        <v>102.57148697769608</v>
+      </c>
+      <c r="K9">
+        <v>102.27275915220963</v>
+      </c>
+      <c r="L9">
+        <v>100.38786106346205</v>
+      </c>
+      <c r="M9">
+        <v>102.98101622675902</v>
+      </c>
+      <c r="N9">
+        <v>102.58333252986412</v>
+      </c>
+      <c r="O9">
+        <v>100.84508539895782</v>
+      </c>
+      <c r="P9">
+        <v>100.938435342538</v>
+      </c>
+      <c r="Q9">
+        <v>101.95499538492849</v>
+      </c>
+      <c r="R9">
+        <v>101.74938098326014</v>
+      </c>
+      <c r="S9">
+        <v>101.95508987301703</v>
+      </c>
+      <c r="T9">
+        <v>101.78791590959207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>100.90820643705247</v>
+      </c>
+      <c r="C10">
+        <v>100.48376465400403</v>
+      </c>
+      <c r="D10">
+        <v>100.65763183605847</v>
+      </c>
+      <c r="E10">
+        <v>100.38604463018007</v>
+      </c>
+      <c r="F10">
+        <v>100.96146302681827</v>
+      </c>
+      <c r="G10">
+        <v>101.10741015644628</v>
+      </c>
+      <c r="H10">
+        <v>100.30283816262876</v>
+      </c>
+      <c r="I10">
+        <v>100.72589115648455</v>
+      </c>
+      <c r="J10">
+        <v>101.83392387545943</v>
+      </c>
+      <c r="K10">
+        <v>101.80881765796161</v>
+      </c>
+      <c r="L10">
+        <v>100.26473479462868</v>
+      </c>
+      <c r="M10">
+        <v>102.63272525395388</v>
+      </c>
+      <c r="N10">
+        <v>101.91646018686968</v>
+      </c>
+      <c r="O10">
+        <v>100.50336222887296</v>
+      </c>
+      <c r="P10">
+        <v>100.68352671080305</v>
+      </c>
+      <c r="Q10">
+        <v>101.37384829291669</v>
+      </c>
+      <c r="R10">
+        <v>101.37884268154257</v>
+      </c>
+      <c r="S10">
+        <v>101.45319216061571</v>
+      </c>
+      <c r="T10">
+        <v>101.29265225070419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>99.740359734635618</v>
+      </c>
+      <c r="C11">
+        <v>99.859074663921973</v>
+      </c>
+      <c r="D11">
+        <v>99.748417034714805</v>
+      </c>
+      <c r="E11">
+        <v>99.308099236748504</v>
+      </c>
+      <c r="F11">
+        <v>100.23511358640066</v>
+      </c>
+      <c r="G11">
+        <v>100.01099726411583</v>
+      </c>
+      <c r="H11">
+        <v>99.76106755009441</v>
+      </c>
+      <c r="I11">
+        <v>100.06472967138353</v>
+      </c>
+      <c r="J11">
+        <v>100.00213861804187</v>
+      </c>
+      <c r="K11">
+        <v>100.03939350589238</v>
+      </c>
+      <c r="L11">
+        <v>99.29887422330188</v>
+      </c>
+      <c r="M11">
+        <v>101.04207917172964</v>
+      </c>
+      <c r="N11">
+        <v>100.24502006827035</v>
+      </c>
+      <c r="O11">
+        <v>100.18615149981997</v>
+      </c>
+      <c r="P11">
+        <v>99.861730981349837</v>
+      </c>
+      <c r="Q11">
+        <v>100.13400525013574</v>
+      </c>
+      <c r="R11">
+        <v>100.09370998112158</v>
+      </c>
+      <c r="S11">
+        <v>99.370684836112559</v>
+      </c>
+      <c r="T11">
+        <v>100.15437325427359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>101.46896570334144</v>
+      </c>
+      <c r="C12">
+        <v>100.99211705923982</v>
+      </c>
+      <c r="D12">
+        <v>101.92190895032932</v>
+      </c>
+      <c r="E12">
+        <v>100.71601464870527</v>
+      </c>
+      <c r="F12">
+        <v>101.23277244329419</v>
+      </c>
+      <c r="G12">
+        <v>101.36554291094865</v>
+      </c>
+      <c r="H12">
+        <v>100.77225805558774</v>
+      </c>
+      <c r="I12">
+        <v>101.28165784100304</v>
+      </c>
+      <c r="J12">
+        <v>102.86174219404838</v>
+      </c>
+      <c r="K12">
+        <v>102.35865542880352</v>
+      </c>
+      <c r="L12">
+        <v>101.30452003776917</v>
+      </c>
+      <c r="M12">
+        <v>102.215779722921</v>
+      </c>
+      <c r="N12">
+        <v>103.55477224709061</v>
+      </c>
+      <c r="O12">
+        <v>100.6025893367859</v>
+      </c>
+      <c r="P12">
+        <v>101.10543099722385</v>
+      </c>
+      <c r="Q12">
+        <v>102.12487234324415</v>
+      </c>
+      <c r="R12">
+        <v>102.16951990134032</v>
+      </c>
+      <c r="S12">
+        <v>102.02286235896466</v>
+      </c>
+      <c r="T12">
+        <v>101.23269967736653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>100.55086786868438</v>
+      </c>
+      <c r="C13">
+        <v>100.42533572126362</v>
+      </c>
+      <c r="D13">
+        <v>101.27143261027209</v>
+      </c>
+      <c r="E13">
+        <v>100.5117889103753</v>
+      </c>
+      <c r="F13">
+        <v>100.61768421768478</v>
+      </c>
+      <c r="G13">
+        <v>100.61142061923135</v>
+      </c>
+      <c r="H13">
+        <v>100.26576430343513</v>
+      </c>
+      <c r="I13">
+        <v>100.42927914448482</v>
+      </c>
+      <c r="J13">
+        <v>101.53133775944301</v>
+      </c>
+      <c r="K13">
+        <v>101.38041860261411</v>
+      </c>
+      <c r="L13">
+        <v>100.80267336868124</v>
+      </c>
+      <c r="M13">
+        <v>100.47550886374275</v>
+      </c>
+      <c r="N13">
+        <v>101.46677309685316</v>
+      </c>
+      <c r="O13">
+        <v>100.31634762581626</v>
+      </c>
+      <c r="P13">
+        <v>100.36074497961768</v>
+      </c>
+      <c r="Q13">
+        <v>100.75904245035417</v>
+      </c>
+      <c r="R13">
+        <v>100.80801706133141</v>
+      </c>
+      <c r="S13">
+        <v>100.5670861206445</v>
+      </c>
+      <c r="T13">
+        <v>100.45551774253538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>99.692676720515252</v>
+      </c>
+      <c r="C14">
+        <v>99.860445723522488</v>
+      </c>
+      <c r="D14">
+        <v>100.16202342217483</v>
+      </c>
+      <c r="E14">
+        <v>99.949591706512507</v>
+      </c>
+      <c r="F14">
+        <v>99.992187180844596</v>
+      </c>
+      <c r="G14">
+        <v>99.843998420144644</v>
+      </c>
+      <c r="H14">
+        <v>99.863902438208029</v>
+      </c>
+      <c r="I14">
+        <v>99.714896303260801</v>
+      </c>
+      <c r="J14">
+        <v>99.971857984290281</v>
+      </c>
+      <c r="K14">
+        <v>100.06520553554246</v>
+      </c>
+      <c r="L14">
+        <v>99.990896048642568</v>
+      </c>
+      <c r="M14">
+        <v>99.445465146774225</v>
+      </c>
+      <c r="N14">
+        <v>99.585153647793476</v>
+      </c>
+      <c r="O14">
+        <v>99.951589482453826</v>
+      </c>
+      <c r="P14">
+        <v>99.707129789905451</v>
+      </c>
+      <c r="Q14">
+        <v>99.526243516046051</v>
+      </c>
+      <c r="R14">
+        <v>99.605772168210024</v>
+      </c>
+      <c r="S14">
+        <v>99.41894127752758</v>
+      </c>
+      <c r="T14">
+        <v>99.696815316207648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>100</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+      <c r="T15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>99.868816088605058</v>
+      </c>
+      <c r="C16">
+        <v>99.91747153835415</v>
+      </c>
+      <c r="D16">
+        <v>100.4026771926621</v>
+      </c>
+      <c r="E16">
+        <v>100.12969107212922</v>
+      </c>
+      <c r="F16">
+        <v>99.950607566561118</v>
+      </c>
+      <c r="G16">
+        <v>99.902445987120345</v>
+      </c>
+      <c r="H16">
+        <v>99.891644962249387</v>
+      </c>
+      <c r="I16">
+        <v>99.908868198650921</v>
+      </c>
+      <c r="J16">
+        <v>99.924058500337026</v>
+      </c>
+      <c r="K16">
+        <v>100.30566959225506</v>
+      </c>
+      <c r="L16">
+        <v>99.985243400767359</v>
+      </c>
+      <c r="M16">
+        <v>99.800093083110653</v>
+      </c>
+      <c r="N16">
+        <v>99.966957699617026</v>
+      </c>
+      <c r="O16">
+        <v>100.11006549609358</v>
+      </c>
+      <c r="P16">
+        <v>99.968924402357388</v>
+      </c>
+      <c r="Q16">
+        <v>99.917297199101952</v>
+      </c>
+      <c r="R16">
+        <v>99.903401220470386</v>
+      </c>
+      <c r="S16">
+        <v>99.896655020516036</v>
+      </c>
+      <c r="T16">
+        <v>100.16901285554846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>100.16798027796196</v>
+      </c>
+      <c r="C17">
+        <v>100.04992223328979</v>
+      </c>
+      <c r="D17">
+        <v>100.32683054570715</v>
+      </c>
+      <c r="E17">
+        <v>100.81746116619938</v>
+      </c>
+      <c r="F17">
+        <v>100.05381416384203</v>
+      </c>
+      <c r="G17">
+        <v>100.21345601208354</v>
+      </c>
+      <c r="H17">
+        <v>99.945673526519414</v>
+      </c>
+      <c r="I17">
+        <v>100.06273201034784</v>
+      </c>
+      <c r="J17">
+        <v>100.53332014050359</v>
+      </c>
+      <c r="K17">
+        <v>100.53960026247447</v>
+      </c>
+      <c r="L17">
+        <v>100.00971903717556</v>
+      </c>
+      <c r="M17">
+        <v>100.50697502520696</v>
+      </c>
+      <c r="N17">
+        <v>100.39218215661195</v>
+      </c>
+      <c r="O17">
+        <v>100.35400433524387</v>
+      </c>
+      <c r="P17">
+        <v>100.18299435981361</v>
+      </c>
+      <c r="Q17">
+        <v>100.32152268544546</v>
+      </c>
+      <c r="R17">
+        <v>100.34391560116967</v>
+      </c>
+      <c r="S17">
+        <v>100.39638353008921</v>
+      </c>
+      <c r="T17">
+        <v>100.4964605871083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>102.33912585993012</v>
+      </c>
+      <c r="C18">
+        <v>101.41018151959302</v>
+      </c>
+      <c r="D18">
+        <v>102.37888345899029</v>
+      </c>
+      <c r="E18">
+        <v>102.18247136000279</v>
+      </c>
+      <c r="F18">
+        <v>101.56190605123045</v>
+      </c>
+      <c r="G18">
+        <v>102.05805763340948</v>
+      </c>
+      <c r="H18">
+        <v>101.1867721292209</v>
+      </c>
+      <c r="I18">
+        <v>101.5768517490621</v>
+      </c>
+      <c r="J18">
+        <v>104.19271885011082</v>
+      </c>
+      <c r="K18">
+        <v>103.37034334478624</v>
+      </c>
+      <c r="L18">
+        <v>101.87439852532788</v>
+      </c>
+      <c r="M18">
+        <v>103.48436027438538</v>
+      </c>
+      <c r="N18">
+        <v>104.49073160610799</v>
+      </c>
+      <c r="O18">
+        <v>100.97217676123877</v>
+      </c>
+      <c r="P18">
+        <v>101.62365247563029</v>
+      </c>
+      <c r="Q18">
+        <v>102.78633748101907</v>
+      </c>
+      <c r="R18">
+        <v>103.01661785699197</v>
+      </c>
+      <c r="S18">
+        <v>103.07347079495081</v>
+      </c>
+      <c r="T18">
+        <v>102.05085405939019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>102.79753480781858</v>
+      </c>
+      <c r="C19">
+        <v>101.69508850209363</v>
+      </c>
+      <c r="D19">
+        <v>103.64659585124006</v>
+      </c>
+      <c r="E19">
+        <v>102.43177640171565</v>
+      </c>
+      <c r="F19">
+        <v>101.87526136087961</v>
+      </c>
+      <c r="G19">
+        <v>102.44156678545964</v>
+      </c>
+      <c r="H19">
+        <v>101.4047339320154</v>
+      </c>
+      <c r="I19">
+        <v>101.79325626708216</v>
+      </c>
+      <c r="J19">
+        <v>104.95009165528377</v>
+      </c>
+      <c r="K19">
+        <v>104.68759398502267</v>
+      </c>
+      <c r="L19">
+        <v>102.58810207195729</v>
+      </c>
+      <c r="M19">
+        <v>103.66730362248123</v>
+      </c>
+      <c r="N19">
+        <v>105.15007352560585</v>
+      </c>
+      <c r="O19">
+        <v>100.87151260375425</v>
+      </c>
+      <c r="P19">
+        <v>101.83921625746164</v>
+      </c>
+      <c r="Q19">
+        <v>103.06179954624785</v>
+      </c>
+      <c r="R19">
+        <v>103.4743856898223</v>
+      </c>
+      <c r="S19">
+        <v>103.68778156615473</v>
+      </c>
+      <c r="T19">
+        <v>102.31546334584016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>102.0674307770764</v>
+      </c>
+      <c r="C20">
+        <v>101.2022148880782</v>
+      </c>
+      <c r="D20">
+        <v>102.93100071597179</v>
+      </c>
+      <c r="E20">
+        <v>101.98318242817473</v>
+      </c>
+      <c r="F20">
+        <v>101.36687956637452</v>
+      </c>
+      <c r="G20">
+        <v>101.75695463479403</v>
+      </c>
+      <c r="H20">
+        <v>100.9122129959336</v>
+      </c>
+      <c r="I20">
+        <v>101.18138984780192</v>
+      </c>
+      <c r="J20">
+        <v>103.70976802339298</v>
+      </c>
+      <c r="K20">
+        <v>103.62541418808702</v>
+      </c>
+      <c r="L20">
+        <v>101.86166361073502</v>
+      </c>
+      <c r="M20">
+        <v>102.62015169913805</v>
+      </c>
+      <c r="N20">
+        <v>103.77738156293357</v>
+      </c>
+      <c r="O20">
+        <v>100.69737594536576</v>
+      </c>
+      <c r="P20">
+        <v>101.22873230424997</v>
+      </c>
+      <c r="Q20">
+        <v>102.23708683242153</v>
+      </c>
+      <c r="R20">
+        <v>102.5175147350046</v>
+      </c>
+      <c r="S20">
+        <v>102.47448164903393</v>
+      </c>
+      <c r="T20">
+        <v>101.71492696498373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>101.22179936291307</v>
+      </c>
+      <c r="C21">
+        <v>100.66919877151305</v>
+      </c>
+      <c r="D21">
+        <v>102.13838481770055</v>
+      </c>
+      <c r="E21">
+        <v>101.14626535183019</v>
+      </c>
+      <c r="F21">
+        <v>100.86791379685569</v>
+      </c>
+      <c r="G21">
+        <v>101.12379603349116</v>
+      </c>
+      <c r="H21">
+        <v>100.41929283605381</v>
+      </c>
+      <c r="I21">
+        <v>100.64426178962115</v>
+      </c>
+      <c r="J21">
+        <v>102.37536724764793</v>
+      </c>
+      <c r="K21">
+        <v>102.68692263060251</v>
+      </c>
+      <c r="L21">
+        <v>101.02502648027433</v>
+      </c>
+      <c r="M21">
+        <v>101.89450807743663</v>
+      </c>
+      <c r="N21">
+        <v>102.46224410911675</v>
+      </c>
+      <c r="O21">
+        <v>100.47241560291587</v>
+      </c>
+      <c r="P21">
+        <v>100.68970064506753</v>
+      </c>
+      <c r="Q21">
+        <v>101.52009249612176</v>
+      </c>
+      <c r="R21">
+        <v>101.63729847188679</v>
+      </c>
+      <c r="S21">
+        <v>101.49597238204836</v>
+      </c>
+      <c r="T21">
+        <v>101.24220239034646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>102.02914861544841</v>
+      </c>
+      <c r="C22">
+        <v>101.1752646327278</v>
+      </c>
+      <c r="D22">
+        <v>103.2093623029468</v>
+      </c>
+      <c r="E22">
+        <v>101.85420531385653</v>
+      </c>
+      <c r="F22">
+        <v>101.08179656319315</v>
+      </c>
+      <c r="G22">
+        <v>101.52478162809975</v>
+      </c>
+      <c r="H22">
+        <v>100.8926325141807</v>
+      </c>
+      <c r="I22">
+        <v>101.09405301070096</v>
+      </c>
+      <c r="J22">
+        <v>103.05623142978625</v>
+      </c>
+      <c r="K22">
+        <v>103.81923522412252</v>
+      </c>
+      <c r="L22">
+        <v>102.29688662733902</v>
+      </c>
+      <c r="M22">
+        <v>101.91951638239659</v>
+      </c>
+      <c r="N22">
+        <v>103.51725575982556</v>
+      </c>
+      <c r="O22">
+        <v>100.36106070002552</v>
+      </c>
+      <c r="P22">
+        <v>101.2496987299546</v>
+      </c>
+      <c r="Q22">
+        <v>102.29310942126249</v>
+      </c>
+      <c r="R22">
+        <v>102.46073396405571</v>
+      </c>
+      <c r="S22">
+        <v>103.1556891759988</v>
+      </c>
+      <c r="T22">
+        <v>101.54475512088702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C09EDD-5C5A-44F1-B10E-0DABEEA0E347}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>242.30760000000001</v>
+      </c>
+      <c r="C2">
+        <v>2059.48</v>
+      </c>
+      <c r="D2">
+        <v>5.4117199999999999</v>
+      </c>
+      <c r="E2">
+        <v>92.632400000000004</v>
+      </c>
+      <c r="F2">
+        <v>139.9434</v>
+      </c>
+      <c r="G2">
+        <v>595.72299999999996</v>
+      </c>
+      <c r="H2">
+        <v>1400.999</v>
+      </c>
+      <c r="I2">
+        <v>1175.1500000000001</v>
+      </c>
+      <c r="J2">
+        <v>9.8397299999999994</v>
+      </c>
+      <c r="K2">
+        <v>7.0316900000000002</v>
+      </c>
+      <c r="L2">
+        <v>10.293509999999999</v>
+      </c>
+      <c r="M2">
+        <v>20.870640000000002</v>
+      </c>
+      <c r="N2">
+        <v>3.8350900000000001</v>
+      </c>
+      <c r="O2">
+        <v>419.459</v>
+      </c>
+      <c r="P2">
+        <v>203.85059999999999</v>
+      </c>
+      <c r="Q2">
+        <v>119.6033</v>
+      </c>
+      <c r="R2">
+        <v>21.22749</v>
+      </c>
+      <c r="S2">
+        <v>19.516079999999999</v>
+      </c>
+      <c r="T2">
+        <v>126.916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>256.37639999999999</v>
+      </c>
+      <c r="C3">
+        <v>2109.09</v>
+      </c>
+      <c r="D3">
+        <v>6.1797700000000004</v>
+      </c>
+      <c r="E3">
+        <v>108.38039999999999</v>
+      </c>
+      <c r="F3">
+        <v>142.9759</v>
+      </c>
+      <c r="G3">
+        <v>647.851</v>
+      </c>
+      <c r="H3">
+        <v>1478.585</v>
+      </c>
+      <c r="I3">
+        <v>1241.5129999999999</v>
+      </c>
+      <c r="J3">
+        <v>10.80458</v>
+      </c>
+      <c r="K3">
+        <v>8.60501</v>
+      </c>
+      <c r="L3">
+        <v>12.49131</v>
+      </c>
+      <c r="M3">
+        <v>23.079419999999999</v>
+      </c>
+      <c r="N3">
+        <v>4.3948799999999997</v>
+      </c>
+      <c r="O3">
+        <v>452.00700000000001</v>
+      </c>
+      <c r="P3">
+        <v>213.60650000000001</v>
+      </c>
+      <c r="Q3">
+        <v>128.4145</v>
+      </c>
+      <c r="R3">
+        <v>21.866810000000001</v>
+      </c>
+      <c r="S3">
+        <v>22.389119999999998</v>
+      </c>
+      <c r="T3">
+        <v>136.44200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>264.3349</v>
+      </c>
+      <c r="C4">
+        <v>2172.54</v>
+      </c>
+      <c r="D4">
+        <v>6.9922199999999997</v>
+      </c>
+      <c r="E4">
+        <v>121.9586</v>
+      </c>
+      <c r="F4">
+        <v>152.19380000000001</v>
+      </c>
+      <c r="G4">
+        <v>700.99300000000005</v>
+      </c>
+      <c r="H4">
+        <v>1538.2</v>
+      </c>
+      <c r="I4">
+        <v>1304.1369999999999</v>
+      </c>
+      <c r="J4">
+        <v>11.602930000000001</v>
+      </c>
+      <c r="K4">
+        <v>9.3441100000000006</v>
+      </c>
+      <c r="L4">
+        <v>13.681430000000001</v>
+      </c>
+      <c r="M4">
+        <v>23.771930000000001</v>
+      </c>
+      <c r="N4">
+        <v>4.5411000000000001</v>
+      </c>
+      <c r="O4">
+        <v>481.88099999999997</v>
+      </c>
+      <c r="P4">
+        <v>220.52510000000001</v>
+      </c>
+      <c r="Q4">
+        <v>135.77500000000001</v>
+      </c>
+      <c r="R4">
+        <v>23.249110000000002</v>
+      </c>
+      <c r="S4">
+        <v>23.909839999999999</v>
+      </c>
+      <c r="T4">
+        <v>144.62799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>273.2559</v>
+      </c>
+      <c r="C5">
+        <v>2198.12</v>
+      </c>
+      <c r="D5">
+        <v>7.8273400000000004</v>
+      </c>
+      <c r="E5">
+        <v>135.95920000000001</v>
+      </c>
+      <c r="F5">
+        <v>163.46080000000001</v>
+      </c>
+      <c r="G5">
+        <v>749.55200000000002</v>
+      </c>
+      <c r="H5">
+        <v>1587.829</v>
+      </c>
+      <c r="I5">
+        <v>1350.259</v>
+      </c>
+      <c r="J5">
+        <v>12.08295</v>
+      </c>
+      <c r="K5">
+        <v>10.139060000000001</v>
+      </c>
+      <c r="L5">
+        <v>15.173019999999999</v>
+      </c>
+      <c r="M5">
+        <v>25.094709999999999</v>
+      </c>
+      <c r="N5">
+        <v>4.7372100000000001</v>
+      </c>
+      <c r="O5">
+        <v>501.137</v>
+      </c>
+      <c r="P5">
+        <v>226.73519999999999</v>
+      </c>
+      <c r="Q5">
+        <v>142.55430000000001</v>
+      </c>
+      <c r="R5">
+        <v>24.972380000000001</v>
+      </c>
+      <c r="S5">
+        <v>26.340669999999999</v>
+      </c>
+      <c r="T5">
+        <v>148.48599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>281.2002</v>
+      </c>
+      <c r="C6">
+        <v>2211.5700000000002</v>
+      </c>
+      <c r="D6">
+        <v>8.7476299999999991</v>
+      </c>
+      <c r="E6">
+        <v>145.5558</v>
+      </c>
+      <c r="F6">
+        <v>178.9049</v>
+      </c>
+      <c r="G6">
+        <v>802.26599999999996</v>
+      </c>
+      <c r="H6">
+        <v>1630.6659999999999</v>
+      </c>
+      <c r="I6">
+        <v>1394.693</v>
+      </c>
+      <c r="J6">
+        <v>12.87133</v>
+      </c>
+      <c r="K6">
+        <v>10.46442</v>
+      </c>
+      <c r="L6">
+        <v>16.66872</v>
+      </c>
+      <c r="M6">
+        <v>26.18779</v>
+      </c>
+      <c r="N6">
+        <v>4.7946499999999999</v>
+      </c>
+      <c r="O6">
+        <v>512.80999999999995</v>
+      </c>
+      <c r="P6">
+        <v>231.86250000000001</v>
+      </c>
+      <c r="Q6">
+        <v>146.06790000000001</v>
+      </c>
+      <c r="R6">
+        <v>26.247530000000001</v>
+      </c>
+      <c r="S6">
+        <v>30.1191</v>
+      </c>
+      <c r="T6">
+        <v>151.749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>296.81970000000001</v>
+      </c>
+      <c r="C7">
+        <v>2262.52</v>
+      </c>
+      <c r="D7">
+        <v>9.7762399999999996</v>
+      </c>
+      <c r="E7">
+        <v>156.1438</v>
+      </c>
+      <c r="F7">
+        <v>193.7158</v>
+      </c>
+      <c r="G7">
+        <v>859.43700000000001</v>
+      </c>
+      <c r="H7">
+        <v>1704.019</v>
+      </c>
+      <c r="I7">
+        <v>1452.319</v>
+      </c>
+      <c r="J7">
+        <v>13.93798</v>
+      </c>
+      <c r="K7">
+        <v>11.65821</v>
+      </c>
+      <c r="L7">
+        <v>18.237400000000001</v>
+      </c>
+      <c r="M7">
+        <v>27.93553</v>
+      </c>
+      <c r="N7">
+        <v>4.8671699999999998</v>
+      </c>
+      <c r="O7">
+        <v>529.28599999999994</v>
+      </c>
+      <c r="P7">
+        <v>242.34829999999999</v>
+      </c>
+      <c r="Q7">
+        <v>152.2484</v>
+      </c>
+      <c r="R7">
+        <v>27.692049999999998</v>
+      </c>
+      <c r="S7">
+        <v>34.757739999999998</v>
+      </c>
+      <c r="T7">
+        <v>158.75800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>310.0376</v>
+      </c>
+      <c r="C8">
+        <v>2288.31</v>
+      </c>
+      <c r="D8">
+        <v>11.336460000000001</v>
+      </c>
+      <c r="E8">
+        <v>170.18700000000001</v>
+      </c>
+      <c r="F8">
+        <v>199.2423</v>
+      </c>
+      <c r="G8">
+        <v>927.35699999999997</v>
+      </c>
+      <c r="H8">
+        <v>1765.905</v>
+      </c>
+      <c r="I8">
+        <v>1493.635</v>
+      </c>
+      <c r="J8">
+        <v>15.039289999999999</v>
+      </c>
+      <c r="K8">
+        <v>13.715780000000001</v>
+      </c>
+      <c r="L8">
+        <v>21.00235</v>
+      </c>
+      <c r="M8">
+        <v>30.031040000000001</v>
+      </c>
+      <c r="N8">
+        <v>5.1421400000000004</v>
+      </c>
+      <c r="O8">
+        <v>550.88300000000004</v>
+      </c>
+      <c r="P8">
+        <v>254.07499999999999</v>
+      </c>
+      <c r="Q8">
+        <v>158.55269999999999</v>
+      </c>
+      <c r="R8">
+        <v>29.122299999999999</v>
+      </c>
+      <c r="S8">
+        <v>39.403379999999999</v>
+      </c>
+      <c r="T8">
+        <v>164.68700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>325.1515</v>
+      </c>
+      <c r="C9">
+        <v>2385.08</v>
+      </c>
+      <c r="D9">
+        <v>13.56052</v>
+      </c>
+      <c r="E9">
+        <v>184.99369999999999</v>
+      </c>
+      <c r="F9">
+        <v>217.86160000000001</v>
+      </c>
+      <c r="G9">
+        <v>1003.823</v>
+      </c>
+      <c r="H9">
+        <v>1848.1510000000001</v>
+      </c>
+      <c r="I9">
+        <v>1552.6869999999999</v>
+      </c>
+      <c r="J9">
+        <v>16.263839999999998</v>
+      </c>
+      <c r="K9">
+        <v>17.254899999999999</v>
+      </c>
+      <c r="L9">
+        <v>24.079180000000001</v>
+      </c>
+      <c r="M9">
+        <v>33.808450000000001</v>
+      </c>
+      <c r="N9">
+        <v>5.3861400000000001</v>
+      </c>
+      <c r="O9">
+        <v>584.54600000000005</v>
+      </c>
+      <c r="P9">
+        <v>267.8245</v>
+      </c>
+      <c r="Q9">
+        <v>166.26050000000001</v>
+      </c>
+      <c r="R9">
+        <v>31.476109999999998</v>
+      </c>
+      <c r="S9">
+        <v>45.601990000000001</v>
+      </c>
+      <c r="T9">
+        <v>172.89699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>343.6189</v>
+      </c>
+      <c r="C10">
+        <v>2499.5500000000002</v>
+      </c>
+      <c r="D10">
+        <v>16.39874</v>
+      </c>
+      <c r="E10">
+        <v>197.202</v>
+      </c>
+      <c r="F10">
+        <v>232.69460000000001</v>
+      </c>
+      <c r="G10">
+        <v>1075.539</v>
+      </c>
+      <c r="H10">
+        <v>1941.36</v>
+      </c>
+      <c r="I10">
+        <v>1614.84</v>
+      </c>
+      <c r="J10">
+        <v>17.591049999999999</v>
+      </c>
+      <c r="K10">
+        <v>22.67803</v>
+      </c>
+      <c r="L10">
+        <v>29.040659999999999</v>
+      </c>
+      <c r="M10">
+        <v>37.178870000000003</v>
+      </c>
+      <c r="N10">
+        <v>5.7574800000000002</v>
+      </c>
+      <c r="O10">
+        <v>619.16999999999996</v>
+      </c>
+      <c r="P10">
+        <v>283.97800000000001</v>
+      </c>
+      <c r="Q10">
+        <v>175.48339999999999</v>
+      </c>
+      <c r="R10">
+        <v>35.073459999999997</v>
+      </c>
+      <c r="S10">
+        <v>56.339280000000002</v>
+      </c>
+      <c r="T10">
+        <v>187.072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>351.74310000000003</v>
+      </c>
+      <c r="C11">
+        <v>2546.4899999999998</v>
+      </c>
+      <c r="D11">
+        <v>16.638290000000001</v>
+      </c>
+      <c r="E11">
+        <v>187.76910000000001</v>
+      </c>
+      <c r="F11">
+        <v>241.99039999999999</v>
+      </c>
+      <c r="G11">
+        <v>1109.5409999999999</v>
+      </c>
+      <c r="H11">
+        <v>1992.38</v>
+      </c>
+      <c r="I11">
+        <v>1637.6990000000001</v>
+      </c>
+      <c r="J11">
+        <v>19.00958</v>
+      </c>
+      <c r="K11">
+        <v>24.398150000000001</v>
+      </c>
+      <c r="L11">
+        <v>32.696280000000002</v>
+      </c>
+      <c r="M11">
+        <v>38.128579999999999</v>
+      </c>
+      <c r="N11">
+        <v>6.1286800000000001</v>
+      </c>
+      <c r="O11">
+        <v>647.19799999999998</v>
+      </c>
+      <c r="P11">
+        <v>293.76190000000003</v>
+      </c>
+      <c r="Q11">
+        <v>179.1028</v>
+      </c>
+      <c r="R11">
+        <v>37.925699999999999</v>
+      </c>
+      <c r="S11">
+        <v>66.098079999999996</v>
+      </c>
+      <c r="T11">
+        <v>194.26499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>346.47280000000001</v>
+      </c>
+      <c r="C12">
+        <v>2445.73</v>
+      </c>
+      <c r="D12">
+        <v>14.21181</v>
+      </c>
+      <c r="E12">
+        <v>170.10059999999999</v>
+      </c>
+      <c r="F12">
+        <v>237.5342</v>
+      </c>
+      <c r="G12">
+        <v>1069.3230000000001</v>
+      </c>
+      <c r="H12">
+        <v>1936.422</v>
+      </c>
+      <c r="I12">
+        <v>1577.2560000000001</v>
+      </c>
+      <c r="J12">
+        <v>18.67549</v>
+      </c>
+      <c r="K12">
+        <v>18.806899999999999</v>
+      </c>
+      <c r="L12">
+        <v>26.934819999999998</v>
+      </c>
+      <c r="M12">
+        <v>36.976520000000001</v>
+      </c>
+      <c r="N12">
+        <v>6.1386200000000004</v>
+      </c>
+      <c r="O12">
+        <v>624.84199999999998</v>
+      </c>
+      <c r="P12">
+        <v>288.04399999999998</v>
+      </c>
+      <c r="Q12">
+        <v>175.41640000000001</v>
+      </c>
+      <c r="R12">
+        <v>36.254930000000002</v>
+      </c>
+      <c r="S12">
+        <v>64.095519999999993</v>
+      </c>
+      <c r="T12">
+        <v>181.74700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>363.14010000000002</v>
+      </c>
+      <c r="C13">
+        <v>2564.4</v>
+      </c>
+      <c r="D13">
+        <v>14.8607</v>
+      </c>
+      <c r="E13">
+        <v>167.73230000000001</v>
+      </c>
+      <c r="F13">
+        <v>226.03149999999999</v>
+      </c>
+      <c r="G13">
+        <v>1072.7090000000001</v>
+      </c>
+      <c r="H13">
+        <v>1995.289</v>
+      </c>
+      <c r="I13">
+        <v>1611.279</v>
+      </c>
+      <c r="J13">
+        <v>19.409970000000001</v>
+      </c>
+      <c r="K13">
+        <v>17.817160000000001</v>
+      </c>
+      <c r="L13">
+        <v>27.95533</v>
+      </c>
+      <c r="M13">
+        <v>40.177810000000001</v>
+      </c>
+      <c r="N13">
+        <v>6.5995100000000004</v>
+      </c>
+      <c r="O13">
+        <v>639.18700000000001</v>
+      </c>
+      <c r="P13">
+        <v>295.89659999999998</v>
+      </c>
+      <c r="Q13">
+        <v>179.61080000000001</v>
+      </c>
+      <c r="R13">
+        <v>36.363909999999997</v>
+      </c>
+      <c r="S13">
+        <v>68.092960000000005</v>
+      </c>
+      <c r="T13">
+        <v>188.143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>375.96780000000001</v>
+      </c>
+      <c r="C14">
+        <v>2693.56</v>
+      </c>
+      <c r="D14">
+        <v>16.826820000000001</v>
+      </c>
+      <c r="E14">
+        <v>170.827</v>
+      </c>
+      <c r="F14">
+        <v>207.02889999999999</v>
+      </c>
+      <c r="G14">
+        <v>1063.7629999999999</v>
+      </c>
+      <c r="H14">
+        <v>2058.3690000000001</v>
+      </c>
+      <c r="I14">
+        <v>1648.7560000000001</v>
+      </c>
+      <c r="J14">
+        <v>19.80303</v>
+      </c>
+      <c r="K14">
+        <v>20.219280000000001</v>
+      </c>
+      <c r="L14">
+        <v>31.233730000000001</v>
+      </c>
+      <c r="M14">
+        <v>43.164650000000002</v>
+      </c>
+      <c r="N14">
+        <v>6.8357900000000003</v>
+      </c>
+      <c r="O14">
+        <v>650.35900000000004</v>
+      </c>
+      <c r="P14">
+        <v>310.12869999999998</v>
+      </c>
+      <c r="Q14">
+        <v>176.09620000000001</v>
+      </c>
+      <c r="R14">
+        <v>37.058570000000003</v>
+      </c>
+      <c r="S14">
+        <v>71.214389999999995</v>
+      </c>
+      <c r="T14">
+        <v>197.99799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>386.17469999999997</v>
+      </c>
+      <c r="C15">
+        <v>2745.31</v>
+      </c>
+      <c r="D15">
+        <v>18.050740000000001</v>
+      </c>
+      <c r="E15">
+        <v>175.1157</v>
+      </c>
+      <c r="F15">
+        <v>191.2039</v>
+      </c>
+      <c r="G15">
+        <v>1031.0989999999999</v>
+      </c>
+      <c r="H15">
+        <v>2088.8040000000001</v>
+      </c>
+      <c r="I15">
+        <v>1624.3589999999999</v>
+      </c>
+      <c r="J15">
+        <v>19.44078</v>
+      </c>
+      <c r="K15">
+        <v>22.09919</v>
+      </c>
+      <c r="L15">
+        <v>33.331659999999999</v>
+      </c>
+      <c r="M15">
+        <v>44.112099999999998</v>
+      </c>
+      <c r="N15">
+        <v>7.16465</v>
+      </c>
+      <c r="O15">
+        <v>652.96600000000001</v>
+      </c>
+      <c r="P15">
+        <v>318.65300000000002</v>
+      </c>
+      <c r="Q15">
+        <v>168.29560000000001</v>
+      </c>
+      <c r="R15">
+        <v>36.253270000000001</v>
+      </c>
+      <c r="S15">
+        <v>73.483819999999994</v>
+      </c>
+      <c r="T15">
+        <v>201.03700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>392.88</v>
+      </c>
+      <c r="C16">
+        <v>2811.35</v>
+      </c>
+      <c r="D16">
+        <v>19.033390000000001</v>
+      </c>
+      <c r="E16">
+        <v>179.66130000000001</v>
+      </c>
+      <c r="F16">
+        <v>180.65430000000001</v>
+      </c>
+      <c r="G16">
+        <v>1020.348</v>
+      </c>
+      <c r="H16">
+        <v>2117.1889999999999</v>
+      </c>
+      <c r="I16">
+        <v>1612.751</v>
+      </c>
+      <c r="J16">
+        <v>17.994969999999999</v>
+      </c>
+      <c r="K16">
+        <v>22.846699999999998</v>
+      </c>
+      <c r="L16">
+        <v>34.984990000000003</v>
+      </c>
+      <c r="M16">
+        <v>46.499560000000002</v>
+      </c>
+      <c r="N16">
+        <v>7.6448700000000001</v>
+      </c>
+      <c r="O16">
+        <v>660.46299999999997</v>
+      </c>
+      <c r="P16">
+        <v>323.91019999999997</v>
+      </c>
+      <c r="Q16">
+        <v>170.4923</v>
+      </c>
+      <c r="R16">
+        <v>36.454329999999999</v>
+      </c>
+      <c r="S16">
+        <v>74.354849999999999</v>
+      </c>
+      <c r="T16">
+        <v>204.321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>403.00330000000002</v>
+      </c>
+      <c r="C17">
+        <v>2927.43</v>
+      </c>
+      <c r="D17">
+        <v>20.17999</v>
+      </c>
+      <c r="E17">
+        <v>194.81819999999999</v>
+      </c>
+      <c r="F17">
+        <v>178.65649999999999</v>
+      </c>
+      <c r="G17">
+        <v>1032.1579999999999</v>
+      </c>
+      <c r="H17">
+        <v>2149.7649999999999</v>
+      </c>
+      <c r="I17">
+        <v>1627.4059999999999</v>
+      </c>
+      <c r="J17">
+        <v>17.408529999999999</v>
+      </c>
+      <c r="K17">
+        <v>23.654170000000001</v>
+      </c>
+      <c r="L17">
+        <v>36.544759999999997</v>
+      </c>
+      <c r="M17">
+        <v>49.824509999999997</v>
+      </c>
+      <c r="N17">
+        <v>8.5072700000000001</v>
+      </c>
+      <c r="O17">
+        <v>671.56</v>
+      </c>
+      <c r="P17">
+        <v>333.14609999999999</v>
+      </c>
+      <c r="Q17">
+        <v>173.05369999999999</v>
+      </c>
+      <c r="R17">
+        <v>37.63429</v>
+      </c>
+      <c r="S17">
+        <v>76.255859999999998</v>
+      </c>
+      <c r="T17">
+        <v>206.89699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>416.70139999999998</v>
+      </c>
+      <c r="C18">
+        <v>3030.07</v>
+      </c>
+      <c r="D18">
+        <v>20.782219999999999</v>
+      </c>
+      <c r="E18">
+        <v>262.83339999999998</v>
+      </c>
+      <c r="F18">
+        <v>177.25839999999999</v>
+      </c>
+      <c r="G18">
+        <v>1077.5899999999999</v>
+      </c>
+      <c r="H18">
+        <v>2198.4319999999998</v>
+      </c>
+      <c r="I18">
+        <v>1655.355</v>
+      </c>
+      <c r="J18">
+        <v>17.82695</v>
+      </c>
+      <c r="K18">
+        <v>24.42596</v>
+      </c>
+      <c r="L18">
+        <v>37.321829999999999</v>
+      </c>
+      <c r="M18">
+        <v>52.065809999999999</v>
+      </c>
+      <c r="N18">
+        <v>9.6280400000000004</v>
+      </c>
+      <c r="O18">
+        <v>690.00800000000004</v>
+      </c>
+      <c r="P18">
+        <v>344.26920000000001</v>
+      </c>
+      <c r="Q18">
+        <v>179.7132</v>
+      </c>
+      <c r="R18">
+        <v>38.852640000000001</v>
+      </c>
+      <c r="S18">
+        <v>79.758200000000002</v>
+      </c>
+      <c r="T18">
+        <v>211.38499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>430.37209999999999</v>
+      </c>
+      <c r="C19">
+        <v>3134.1</v>
+      </c>
+      <c r="D19">
+        <v>21.693639999999998</v>
+      </c>
+      <c r="E19">
+        <v>271.68360000000001</v>
+      </c>
+      <c r="F19">
+        <v>176.488</v>
+      </c>
+      <c r="G19">
+        <v>1113.8399999999999</v>
+      </c>
+      <c r="H19">
+        <v>2234.1289999999999</v>
+      </c>
+      <c r="I19">
+        <v>1695.787</v>
+      </c>
+      <c r="J19">
+        <v>18.872869999999999</v>
+      </c>
+      <c r="K19">
+        <v>25.07264</v>
+      </c>
+      <c r="L19">
+        <v>38.893369999999997</v>
+      </c>
+      <c r="M19">
+        <v>54.867229999999999</v>
+      </c>
+      <c r="N19">
+        <v>10.338950000000001</v>
+      </c>
+      <c r="O19">
+        <v>708.33699999999999</v>
+      </c>
+      <c r="P19">
+        <v>357.29969999999997</v>
+      </c>
+      <c r="Q19">
+        <v>186.4898</v>
+      </c>
+      <c r="R19">
+        <v>40.36656</v>
+      </c>
+      <c r="S19">
+        <v>81.038380000000004</v>
+      </c>
+      <c r="T19">
+        <v>217.518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>446.36489999999998</v>
+      </c>
+      <c r="C20">
+        <v>3244.99</v>
+      </c>
+      <c r="D20">
+        <v>23.77582</v>
+      </c>
+      <c r="E20">
+        <v>297.13080000000002</v>
+      </c>
+      <c r="F20">
+        <v>180.2176</v>
+      </c>
+      <c r="G20">
+        <v>1161.8779999999999</v>
+      </c>
+      <c r="H20">
+        <v>2295.0630000000001</v>
+      </c>
+      <c r="I20">
+        <v>1736.5930000000001</v>
+      </c>
+      <c r="J20">
+        <v>20.0397</v>
+      </c>
+      <c r="K20">
+        <v>26.797830000000001</v>
+      </c>
+      <c r="L20">
+        <v>42.269370000000002</v>
+      </c>
+      <c r="M20">
+        <v>56.814210000000003</v>
+      </c>
+      <c r="N20">
+        <v>11.2844</v>
+      </c>
+      <c r="O20">
+        <v>738.14599999999996</v>
+      </c>
+      <c r="P20">
+        <v>370.29579999999999</v>
+      </c>
+      <c r="Q20">
+        <v>195.94720000000001</v>
+      </c>
+      <c r="R20">
+        <v>42.98706</v>
+      </c>
+      <c r="S20">
+        <v>84.517009999999999</v>
+      </c>
+      <c r="T20">
+        <v>225.83590000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>459.81979999999999</v>
+      </c>
+      <c r="C21">
+        <v>3344.37</v>
+      </c>
+      <c r="D21">
+        <v>26.03585</v>
+      </c>
+      <c r="E21">
+        <v>324.03820000000002</v>
+      </c>
+      <c r="F21">
+        <v>184.71360000000001</v>
+      </c>
+      <c r="G21">
+        <v>1202.193</v>
+      </c>
+      <c r="H21">
+        <v>2353.09</v>
+      </c>
+      <c r="I21">
+        <v>1766.1679999999999</v>
+      </c>
+      <c r="J21">
+        <v>21.137799999999999</v>
+      </c>
+      <c r="K21">
+        <v>29.056049999999999</v>
+      </c>
+      <c r="L21">
+        <v>45.264380000000003</v>
+      </c>
+      <c r="M21">
+        <v>60.053080000000001</v>
+      </c>
+      <c r="N21">
+        <v>12.36631</v>
+      </c>
+      <c r="O21">
+        <v>774.03899999999999</v>
+      </c>
+      <c r="P21">
+        <v>385.71190000000001</v>
+      </c>
+      <c r="Q21">
+        <v>204.3048</v>
+      </c>
+      <c r="R21">
+        <v>45.754820000000002</v>
+      </c>
+      <c r="S21">
+        <v>89.720960000000005</v>
+      </c>
+      <c r="T21">
+        <v>233.61920000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>473.63889999999998</v>
+      </c>
+      <c r="C22">
+        <v>3435.76</v>
+      </c>
+      <c r="D22">
+        <v>28.037220000000001</v>
+      </c>
+      <c r="E22">
+        <v>347.21530000000001</v>
+      </c>
+      <c r="F22">
+        <v>187.45650000000001</v>
+      </c>
+      <c r="G22">
+        <v>1245.3309999999999</v>
+      </c>
+      <c r="H22">
+        <v>2418.9969999999998</v>
+      </c>
+      <c r="I22">
+        <v>1787.664</v>
+      </c>
+      <c r="J22">
+        <v>21.9436</v>
+      </c>
+      <c r="K22">
+        <v>30.476089999999999</v>
+      </c>
+      <c r="L22">
+        <v>48.339219999999997</v>
+      </c>
+      <c r="M22">
+        <v>63.51634</v>
+      </c>
+      <c r="N22">
+        <v>13.20847</v>
+      </c>
+      <c r="O22">
+        <v>812.05100000000004</v>
+      </c>
+      <c r="P22">
+        <v>398.52190000000002</v>
+      </c>
+      <c r="Q22">
+        <v>212.30279999999999</v>
+      </c>
+      <c r="R22">
+        <v>48.006599999999999</v>
+      </c>
+      <c r="S22">
+        <v>94.177049999999994</v>
+      </c>
+      <c r="T22">
+        <v>240.078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3739,7 +7890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3747,7 +7898,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5121,7 +9272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6503,7 +10654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7878,1388 +12029,6 @@
       </c>
       <c r="T22" s="1">
         <v>2.2313999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C09EDD-5C5A-44F1-B10E-0DABEEA0E347}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:T22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2">
-        <v>242.30760000000001</v>
-      </c>
-      <c r="C2">
-        <v>2059.48</v>
-      </c>
-      <c r="D2">
-        <v>5.4117199999999999</v>
-      </c>
-      <c r="E2">
-        <v>92.632400000000004</v>
-      </c>
-      <c r="F2">
-        <v>139.9434</v>
-      </c>
-      <c r="G2">
-        <v>595.72299999999996</v>
-      </c>
-      <c r="H2">
-        <v>1400.999</v>
-      </c>
-      <c r="I2">
-        <v>1175.1500000000001</v>
-      </c>
-      <c r="J2">
-        <v>9.8397299999999994</v>
-      </c>
-      <c r="K2">
-        <v>7.0316900000000002</v>
-      </c>
-      <c r="L2">
-        <v>10.293509999999999</v>
-      </c>
-      <c r="M2">
-        <v>20.870640000000002</v>
-      </c>
-      <c r="N2">
-        <v>3.8350900000000001</v>
-      </c>
-      <c r="O2">
-        <v>419.459</v>
-      </c>
-      <c r="P2">
-        <v>203.85059999999999</v>
-      </c>
-      <c r="Q2">
-        <v>119.6033</v>
-      </c>
-      <c r="R2">
-        <v>21.22749</v>
-      </c>
-      <c r="S2">
-        <v>19.516079999999999</v>
-      </c>
-      <c r="T2">
-        <v>126.916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>256.37639999999999</v>
-      </c>
-      <c r="C3">
-        <v>2109.09</v>
-      </c>
-      <c r="D3">
-        <v>6.1797700000000004</v>
-      </c>
-      <c r="E3">
-        <v>108.38039999999999</v>
-      </c>
-      <c r="F3">
-        <v>142.9759</v>
-      </c>
-      <c r="G3">
-        <v>647.851</v>
-      </c>
-      <c r="H3">
-        <v>1478.585</v>
-      </c>
-      <c r="I3">
-        <v>1241.5129999999999</v>
-      </c>
-      <c r="J3">
-        <v>10.80458</v>
-      </c>
-      <c r="K3">
-        <v>8.60501</v>
-      </c>
-      <c r="L3">
-        <v>12.49131</v>
-      </c>
-      <c r="M3">
-        <v>23.079419999999999</v>
-      </c>
-      <c r="N3">
-        <v>4.3948799999999997</v>
-      </c>
-      <c r="O3">
-        <v>452.00700000000001</v>
-      </c>
-      <c r="P3">
-        <v>213.60650000000001</v>
-      </c>
-      <c r="Q3">
-        <v>128.4145</v>
-      </c>
-      <c r="R3">
-        <v>21.866810000000001</v>
-      </c>
-      <c r="S3">
-        <v>22.389119999999998</v>
-      </c>
-      <c r="T3">
-        <v>136.44200000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
-        <v>264.3349</v>
-      </c>
-      <c r="C4">
-        <v>2172.54</v>
-      </c>
-      <c r="D4">
-        <v>6.9922199999999997</v>
-      </c>
-      <c r="E4">
-        <v>121.9586</v>
-      </c>
-      <c r="F4">
-        <v>152.19380000000001</v>
-      </c>
-      <c r="G4">
-        <v>700.99300000000005</v>
-      </c>
-      <c r="H4">
-        <v>1538.2</v>
-      </c>
-      <c r="I4">
-        <v>1304.1369999999999</v>
-      </c>
-      <c r="J4">
-        <v>11.602930000000001</v>
-      </c>
-      <c r="K4">
-        <v>9.3441100000000006</v>
-      </c>
-      <c r="L4">
-        <v>13.681430000000001</v>
-      </c>
-      <c r="M4">
-        <v>23.771930000000001</v>
-      </c>
-      <c r="N4">
-        <v>4.5411000000000001</v>
-      </c>
-      <c r="O4">
-        <v>481.88099999999997</v>
-      </c>
-      <c r="P4">
-        <v>220.52510000000001</v>
-      </c>
-      <c r="Q4">
-        <v>135.77500000000001</v>
-      </c>
-      <c r="R4">
-        <v>23.249110000000002</v>
-      </c>
-      <c r="S4">
-        <v>23.909839999999999</v>
-      </c>
-      <c r="T4">
-        <v>144.62799999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5">
-        <v>273.2559</v>
-      </c>
-      <c r="C5">
-        <v>2198.12</v>
-      </c>
-      <c r="D5">
-        <v>7.8273400000000004</v>
-      </c>
-      <c r="E5">
-        <v>135.95920000000001</v>
-      </c>
-      <c r="F5">
-        <v>163.46080000000001</v>
-      </c>
-      <c r="G5">
-        <v>749.55200000000002</v>
-      </c>
-      <c r="H5">
-        <v>1587.829</v>
-      </c>
-      <c r="I5">
-        <v>1350.259</v>
-      </c>
-      <c r="J5">
-        <v>12.08295</v>
-      </c>
-      <c r="K5">
-        <v>10.139060000000001</v>
-      </c>
-      <c r="L5">
-        <v>15.173019999999999</v>
-      </c>
-      <c r="M5">
-        <v>25.094709999999999</v>
-      </c>
-      <c r="N5">
-        <v>4.7372100000000001</v>
-      </c>
-      <c r="O5">
-        <v>501.137</v>
-      </c>
-      <c r="P5">
-        <v>226.73519999999999</v>
-      </c>
-      <c r="Q5">
-        <v>142.55430000000001</v>
-      </c>
-      <c r="R5">
-        <v>24.972380000000001</v>
-      </c>
-      <c r="S5">
-        <v>26.340669999999999</v>
-      </c>
-      <c r="T5">
-        <v>148.48599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6">
-        <v>281.2002</v>
-      </c>
-      <c r="C6">
-        <v>2211.5700000000002</v>
-      </c>
-      <c r="D6">
-        <v>8.7476299999999991</v>
-      </c>
-      <c r="E6">
-        <v>145.5558</v>
-      </c>
-      <c r="F6">
-        <v>178.9049</v>
-      </c>
-      <c r="G6">
-        <v>802.26599999999996</v>
-      </c>
-      <c r="H6">
-        <v>1630.6659999999999</v>
-      </c>
-      <c r="I6">
-        <v>1394.693</v>
-      </c>
-      <c r="J6">
-        <v>12.87133</v>
-      </c>
-      <c r="K6">
-        <v>10.46442</v>
-      </c>
-      <c r="L6">
-        <v>16.66872</v>
-      </c>
-      <c r="M6">
-        <v>26.18779</v>
-      </c>
-      <c r="N6">
-        <v>4.7946499999999999</v>
-      </c>
-      <c r="O6">
-        <v>512.80999999999995</v>
-      </c>
-      <c r="P6">
-        <v>231.86250000000001</v>
-      </c>
-      <c r="Q6">
-        <v>146.06790000000001</v>
-      </c>
-      <c r="R6">
-        <v>26.247530000000001</v>
-      </c>
-      <c r="S6">
-        <v>30.1191</v>
-      </c>
-      <c r="T6">
-        <v>151.749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7">
-        <v>296.81970000000001</v>
-      </c>
-      <c r="C7">
-        <v>2262.52</v>
-      </c>
-      <c r="D7">
-        <v>9.7762399999999996</v>
-      </c>
-      <c r="E7">
-        <v>156.1438</v>
-      </c>
-      <c r="F7">
-        <v>193.7158</v>
-      </c>
-      <c r="G7">
-        <v>859.43700000000001</v>
-      </c>
-      <c r="H7">
-        <v>1704.019</v>
-      </c>
-      <c r="I7">
-        <v>1452.319</v>
-      </c>
-      <c r="J7">
-        <v>13.93798</v>
-      </c>
-      <c r="K7">
-        <v>11.65821</v>
-      </c>
-      <c r="L7">
-        <v>18.237400000000001</v>
-      </c>
-      <c r="M7">
-        <v>27.93553</v>
-      </c>
-      <c r="N7">
-        <v>4.8671699999999998</v>
-      </c>
-      <c r="O7">
-        <v>529.28599999999994</v>
-      </c>
-      <c r="P7">
-        <v>242.34829999999999</v>
-      </c>
-      <c r="Q7">
-        <v>152.2484</v>
-      </c>
-      <c r="R7">
-        <v>27.692049999999998</v>
-      </c>
-      <c r="S7">
-        <v>34.757739999999998</v>
-      </c>
-      <c r="T7">
-        <v>158.75800000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8">
-        <v>310.0376</v>
-      </c>
-      <c r="C8">
-        <v>2288.31</v>
-      </c>
-      <c r="D8">
-        <v>11.336460000000001</v>
-      </c>
-      <c r="E8">
-        <v>170.18700000000001</v>
-      </c>
-      <c r="F8">
-        <v>199.2423</v>
-      </c>
-      <c r="G8">
-        <v>927.35699999999997</v>
-      </c>
-      <c r="H8">
-        <v>1765.905</v>
-      </c>
-      <c r="I8">
-        <v>1493.635</v>
-      </c>
-      <c r="J8">
-        <v>15.039289999999999</v>
-      </c>
-      <c r="K8">
-        <v>13.715780000000001</v>
-      </c>
-      <c r="L8">
-        <v>21.00235</v>
-      </c>
-      <c r="M8">
-        <v>30.031040000000001</v>
-      </c>
-      <c r="N8">
-        <v>5.1421400000000004</v>
-      </c>
-      <c r="O8">
-        <v>550.88300000000004</v>
-      </c>
-      <c r="P8">
-        <v>254.07499999999999</v>
-      </c>
-      <c r="Q8">
-        <v>158.55269999999999</v>
-      </c>
-      <c r="R8">
-        <v>29.122299999999999</v>
-      </c>
-      <c r="S8">
-        <v>39.403379999999999</v>
-      </c>
-      <c r="T8">
-        <v>164.68700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9">
-        <v>325.1515</v>
-      </c>
-      <c r="C9">
-        <v>2385.08</v>
-      </c>
-      <c r="D9">
-        <v>13.56052</v>
-      </c>
-      <c r="E9">
-        <v>184.99369999999999</v>
-      </c>
-      <c r="F9">
-        <v>217.86160000000001</v>
-      </c>
-      <c r="G9">
-        <v>1003.823</v>
-      </c>
-      <c r="H9">
-        <v>1848.1510000000001</v>
-      </c>
-      <c r="I9">
-        <v>1552.6869999999999</v>
-      </c>
-      <c r="J9">
-        <v>16.263839999999998</v>
-      </c>
-      <c r="K9">
-        <v>17.254899999999999</v>
-      </c>
-      <c r="L9">
-        <v>24.079180000000001</v>
-      </c>
-      <c r="M9">
-        <v>33.808450000000001</v>
-      </c>
-      <c r="N9">
-        <v>5.3861400000000001</v>
-      </c>
-      <c r="O9">
-        <v>584.54600000000005</v>
-      </c>
-      <c r="P9">
-        <v>267.8245</v>
-      </c>
-      <c r="Q9">
-        <v>166.26050000000001</v>
-      </c>
-      <c r="R9">
-        <v>31.476109999999998</v>
-      </c>
-      <c r="S9">
-        <v>45.601990000000001</v>
-      </c>
-      <c r="T9">
-        <v>172.89699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10">
-        <v>343.6189</v>
-      </c>
-      <c r="C10">
-        <v>2499.5500000000002</v>
-      </c>
-      <c r="D10">
-        <v>16.39874</v>
-      </c>
-      <c r="E10">
-        <v>197.202</v>
-      </c>
-      <c r="F10">
-        <v>232.69460000000001</v>
-      </c>
-      <c r="G10">
-        <v>1075.539</v>
-      </c>
-      <c r="H10">
-        <v>1941.36</v>
-      </c>
-      <c r="I10">
-        <v>1614.84</v>
-      </c>
-      <c r="J10">
-        <v>17.591049999999999</v>
-      </c>
-      <c r="K10">
-        <v>22.67803</v>
-      </c>
-      <c r="L10">
-        <v>29.040659999999999</v>
-      </c>
-      <c r="M10">
-        <v>37.178870000000003</v>
-      </c>
-      <c r="N10">
-        <v>5.7574800000000002</v>
-      </c>
-      <c r="O10">
-        <v>619.16999999999996</v>
-      </c>
-      <c r="P10">
-        <v>283.97800000000001</v>
-      </c>
-      <c r="Q10">
-        <v>175.48339999999999</v>
-      </c>
-      <c r="R10">
-        <v>35.073459999999997</v>
-      </c>
-      <c r="S10">
-        <v>56.339280000000002</v>
-      </c>
-      <c r="T10">
-        <v>187.072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11">
-        <v>351.74310000000003</v>
-      </c>
-      <c r="C11">
-        <v>2546.4899999999998</v>
-      </c>
-      <c r="D11">
-        <v>16.638290000000001</v>
-      </c>
-      <c r="E11">
-        <v>187.76910000000001</v>
-      </c>
-      <c r="F11">
-        <v>241.99039999999999</v>
-      </c>
-      <c r="G11">
-        <v>1109.5409999999999</v>
-      </c>
-      <c r="H11">
-        <v>1992.38</v>
-      </c>
-      <c r="I11">
-        <v>1637.6990000000001</v>
-      </c>
-      <c r="J11">
-        <v>19.00958</v>
-      </c>
-      <c r="K11">
-        <v>24.398150000000001</v>
-      </c>
-      <c r="L11">
-        <v>32.696280000000002</v>
-      </c>
-      <c r="M11">
-        <v>38.128579999999999</v>
-      </c>
-      <c r="N11">
-        <v>6.1286800000000001</v>
-      </c>
-      <c r="O11">
-        <v>647.19799999999998</v>
-      </c>
-      <c r="P11">
-        <v>293.76190000000003</v>
-      </c>
-      <c r="Q11">
-        <v>179.1028</v>
-      </c>
-      <c r="R11">
-        <v>37.925699999999999</v>
-      </c>
-      <c r="S11">
-        <v>66.098079999999996</v>
-      </c>
-      <c r="T11">
-        <v>194.26499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12">
-        <v>346.47280000000001</v>
-      </c>
-      <c r="C12">
-        <v>2445.73</v>
-      </c>
-      <c r="D12">
-        <v>14.21181</v>
-      </c>
-      <c r="E12">
-        <v>170.10059999999999</v>
-      </c>
-      <c r="F12">
-        <v>237.5342</v>
-      </c>
-      <c r="G12">
-        <v>1069.3230000000001</v>
-      </c>
-      <c r="H12">
-        <v>1936.422</v>
-      </c>
-      <c r="I12">
-        <v>1577.2560000000001</v>
-      </c>
-      <c r="J12">
-        <v>18.67549</v>
-      </c>
-      <c r="K12">
-        <v>18.806899999999999</v>
-      </c>
-      <c r="L12">
-        <v>26.934819999999998</v>
-      </c>
-      <c r="M12">
-        <v>36.976520000000001</v>
-      </c>
-      <c r="N12">
-        <v>6.1386200000000004</v>
-      </c>
-      <c r="O12">
-        <v>624.84199999999998</v>
-      </c>
-      <c r="P12">
-        <v>288.04399999999998</v>
-      </c>
-      <c r="Q12">
-        <v>175.41640000000001</v>
-      </c>
-      <c r="R12">
-        <v>36.254930000000002</v>
-      </c>
-      <c r="S12">
-        <v>64.095519999999993</v>
-      </c>
-      <c r="T12">
-        <v>181.74700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13">
-        <v>363.14010000000002</v>
-      </c>
-      <c r="C13">
-        <v>2564.4</v>
-      </c>
-      <c r="D13">
-        <v>14.8607</v>
-      </c>
-      <c r="E13">
-        <v>167.73230000000001</v>
-      </c>
-      <c r="F13">
-        <v>226.03149999999999</v>
-      </c>
-      <c r="G13">
-        <v>1072.7090000000001</v>
-      </c>
-      <c r="H13">
-        <v>1995.289</v>
-      </c>
-      <c r="I13">
-        <v>1611.279</v>
-      </c>
-      <c r="J13">
-        <v>19.409970000000001</v>
-      </c>
-      <c r="K13">
-        <v>17.817160000000001</v>
-      </c>
-      <c r="L13">
-        <v>27.95533</v>
-      </c>
-      <c r="M13">
-        <v>40.177810000000001</v>
-      </c>
-      <c r="N13">
-        <v>6.5995100000000004</v>
-      </c>
-      <c r="O13">
-        <v>639.18700000000001</v>
-      </c>
-      <c r="P13">
-        <v>295.89659999999998</v>
-      </c>
-      <c r="Q13">
-        <v>179.61080000000001</v>
-      </c>
-      <c r="R13">
-        <v>36.363909999999997</v>
-      </c>
-      <c r="S13">
-        <v>68.092960000000005</v>
-      </c>
-      <c r="T13">
-        <v>188.143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14">
-        <v>375.96780000000001</v>
-      </c>
-      <c r="C14">
-        <v>2693.56</v>
-      </c>
-      <c r="D14">
-        <v>16.826820000000001</v>
-      </c>
-      <c r="E14">
-        <v>170.827</v>
-      </c>
-      <c r="F14">
-        <v>207.02889999999999</v>
-      </c>
-      <c r="G14">
-        <v>1063.7629999999999</v>
-      </c>
-      <c r="H14">
-        <v>2058.3690000000001</v>
-      </c>
-      <c r="I14">
-        <v>1648.7560000000001</v>
-      </c>
-      <c r="J14">
-        <v>19.80303</v>
-      </c>
-      <c r="K14">
-        <v>20.219280000000001</v>
-      </c>
-      <c r="L14">
-        <v>31.233730000000001</v>
-      </c>
-      <c r="M14">
-        <v>43.164650000000002</v>
-      </c>
-      <c r="N14">
-        <v>6.8357900000000003</v>
-      </c>
-      <c r="O14">
-        <v>650.35900000000004</v>
-      </c>
-      <c r="P14">
-        <v>310.12869999999998</v>
-      </c>
-      <c r="Q14">
-        <v>176.09620000000001</v>
-      </c>
-      <c r="R14">
-        <v>37.058570000000003</v>
-      </c>
-      <c r="S14">
-        <v>71.214389999999995</v>
-      </c>
-      <c r="T14">
-        <v>197.99799999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15">
-        <v>386.17469999999997</v>
-      </c>
-      <c r="C15">
-        <v>2745.31</v>
-      </c>
-      <c r="D15">
-        <v>18.050740000000001</v>
-      </c>
-      <c r="E15">
-        <v>175.1157</v>
-      </c>
-      <c r="F15">
-        <v>191.2039</v>
-      </c>
-      <c r="G15">
-        <v>1031.0989999999999</v>
-      </c>
-      <c r="H15">
-        <v>2088.8040000000001</v>
-      </c>
-      <c r="I15">
-        <v>1624.3589999999999</v>
-      </c>
-      <c r="J15">
-        <v>19.44078</v>
-      </c>
-      <c r="K15">
-        <v>22.09919</v>
-      </c>
-      <c r="L15">
-        <v>33.331659999999999</v>
-      </c>
-      <c r="M15">
-        <v>44.112099999999998</v>
-      </c>
-      <c r="N15">
-        <v>7.16465</v>
-      </c>
-      <c r="O15">
-        <v>652.96600000000001</v>
-      </c>
-      <c r="P15">
-        <v>318.65300000000002</v>
-      </c>
-      <c r="Q15">
-        <v>168.29560000000001</v>
-      </c>
-      <c r="R15">
-        <v>36.253270000000001</v>
-      </c>
-      <c r="S15">
-        <v>73.483819999999994</v>
-      </c>
-      <c r="T15">
-        <v>201.03700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16">
-        <v>392.88</v>
-      </c>
-      <c r="C16">
-        <v>2811.35</v>
-      </c>
-      <c r="D16">
-        <v>19.033390000000001</v>
-      </c>
-      <c r="E16">
-        <v>179.66130000000001</v>
-      </c>
-      <c r="F16">
-        <v>180.65430000000001</v>
-      </c>
-      <c r="G16">
-        <v>1020.348</v>
-      </c>
-      <c r="H16">
-        <v>2117.1889999999999</v>
-      </c>
-      <c r="I16">
-        <v>1612.751</v>
-      </c>
-      <c r="J16">
-        <v>17.994969999999999</v>
-      </c>
-      <c r="K16">
-        <v>22.846699999999998</v>
-      </c>
-      <c r="L16">
-        <v>34.984990000000003</v>
-      </c>
-      <c r="M16">
-        <v>46.499560000000002</v>
-      </c>
-      <c r="N16">
-        <v>7.6448700000000001</v>
-      </c>
-      <c r="O16">
-        <v>660.46299999999997</v>
-      </c>
-      <c r="P16">
-        <v>323.91019999999997</v>
-      </c>
-      <c r="Q16">
-        <v>170.4923</v>
-      </c>
-      <c r="R16">
-        <v>36.454329999999999</v>
-      </c>
-      <c r="S16">
-        <v>74.354849999999999</v>
-      </c>
-      <c r="T16">
-        <v>204.321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17">
-        <v>403.00330000000002</v>
-      </c>
-      <c r="C17">
-        <v>2927.43</v>
-      </c>
-      <c r="D17">
-        <v>20.17999</v>
-      </c>
-      <c r="E17">
-        <v>194.81819999999999</v>
-      </c>
-      <c r="F17">
-        <v>178.65649999999999</v>
-      </c>
-      <c r="G17">
-        <v>1032.1579999999999</v>
-      </c>
-      <c r="H17">
-        <v>2149.7649999999999</v>
-      </c>
-      <c r="I17">
-        <v>1627.4059999999999</v>
-      </c>
-      <c r="J17">
-        <v>17.408529999999999</v>
-      </c>
-      <c r="K17">
-        <v>23.654170000000001</v>
-      </c>
-      <c r="L17">
-        <v>36.544759999999997</v>
-      </c>
-      <c r="M17">
-        <v>49.824509999999997</v>
-      </c>
-      <c r="N17">
-        <v>8.5072700000000001</v>
-      </c>
-      <c r="O17">
-        <v>671.56</v>
-      </c>
-      <c r="P17">
-        <v>333.14609999999999</v>
-      </c>
-      <c r="Q17">
-        <v>173.05369999999999</v>
-      </c>
-      <c r="R17">
-        <v>37.63429</v>
-      </c>
-      <c r="S17">
-        <v>76.255859999999998</v>
-      </c>
-      <c r="T17">
-        <v>206.89699999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18">
-        <v>416.70139999999998</v>
-      </c>
-      <c r="C18">
-        <v>3030.07</v>
-      </c>
-      <c r="D18">
-        <v>20.782219999999999</v>
-      </c>
-      <c r="E18">
-        <v>262.83339999999998</v>
-      </c>
-      <c r="F18">
-        <v>177.25839999999999</v>
-      </c>
-      <c r="G18">
-        <v>1077.5899999999999</v>
-      </c>
-      <c r="H18">
-        <v>2198.4319999999998</v>
-      </c>
-      <c r="I18">
-        <v>1655.355</v>
-      </c>
-      <c r="J18">
-        <v>17.82695</v>
-      </c>
-      <c r="K18">
-        <v>24.42596</v>
-      </c>
-      <c r="L18">
-        <v>37.321829999999999</v>
-      </c>
-      <c r="M18">
-        <v>52.065809999999999</v>
-      </c>
-      <c r="N18">
-        <v>9.6280400000000004</v>
-      </c>
-      <c r="O18">
-        <v>690.00800000000004</v>
-      </c>
-      <c r="P18">
-        <v>344.26920000000001</v>
-      </c>
-      <c r="Q18">
-        <v>179.7132</v>
-      </c>
-      <c r="R18">
-        <v>38.852640000000001</v>
-      </c>
-      <c r="S18">
-        <v>79.758200000000002</v>
-      </c>
-      <c r="T18">
-        <v>211.38499999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19">
-        <v>430.37209999999999</v>
-      </c>
-      <c r="C19">
-        <v>3134.1</v>
-      </c>
-      <c r="D19">
-        <v>21.693639999999998</v>
-      </c>
-      <c r="E19">
-        <v>271.68360000000001</v>
-      </c>
-      <c r="F19">
-        <v>176.488</v>
-      </c>
-      <c r="G19">
-        <v>1113.8399999999999</v>
-      </c>
-      <c r="H19">
-        <v>2234.1289999999999</v>
-      </c>
-      <c r="I19">
-        <v>1695.787</v>
-      </c>
-      <c r="J19">
-        <v>18.872869999999999</v>
-      </c>
-      <c r="K19">
-        <v>25.07264</v>
-      </c>
-      <c r="L19">
-        <v>38.893369999999997</v>
-      </c>
-      <c r="M19">
-        <v>54.867229999999999</v>
-      </c>
-      <c r="N19">
-        <v>10.338950000000001</v>
-      </c>
-      <c r="O19">
-        <v>708.33699999999999</v>
-      </c>
-      <c r="P19">
-        <v>357.29969999999997</v>
-      </c>
-      <c r="Q19">
-        <v>186.4898</v>
-      </c>
-      <c r="R19">
-        <v>40.36656</v>
-      </c>
-      <c r="S19">
-        <v>81.038380000000004</v>
-      </c>
-      <c r="T19">
-        <v>217.518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20">
-        <v>446.36489999999998</v>
-      </c>
-      <c r="C20">
-        <v>3244.99</v>
-      </c>
-      <c r="D20">
-        <v>23.77582</v>
-      </c>
-      <c r="E20">
-        <v>297.13080000000002</v>
-      </c>
-      <c r="F20">
-        <v>180.2176</v>
-      </c>
-      <c r="G20">
-        <v>1161.8779999999999</v>
-      </c>
-      <c r="H20">
-        <v>2295.0630000000001</v>
-      </c>
-      <c r="I20">
-        <v>1736.5930000000001</v>
-      </c>
-      <c r="J20">
-        <v>20.0397</v>
-      </c>
-      <c r="K20">
-        <v>26.797830000000001</v>
-      </c>
-      <c r="L20">
-        <v>42.269370000000002</v>
-      </c>
-      <c r="M20">
-        <v>56.814210000000003</v>
-      </c>
-      <c r="N20">
-        <v>11.2844</v>
-      </c>
-      <c r="O20">
-        <v>738.14599999999996</v>
-      </c>
-      <c r="P20">
-        <v>370.29579999999999</v>
-      </c>
-      <c r="Q20">
-        <v>195.94720000000001</v>
-      </c>
-      <c r="R20">
-        <v>42.98706</v>
-      </c>
-      <c r="S20">
-        <v>84.517009999999999</v>
-      </c>
-      <c r="T20">
-        <v>225.83590000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
-        <v>459.81979999999999</v>
-      </c>
-      <c r="C21">
-        <v>3344.37</v>
-      </c>
-      <c r="D21">
-        <v>26.03585</v>
-      </c>
-      <c r="E21">
-        <v>324.03820000000002</v>
-      </c>
-      <c r="F21">
-        <v>184.71360000000001</v>
-      </c>
-      <c r="G21">
-        <v>1202.193</v>
-      </c>
-      <c r="H21">
-        <v>2353.09</v>
-      </c>
-      <c r="I21">
-        <v>1766.1679999999999</v>
-      </c>
-      <c r="J21">
-        <v>21.137799999999999</v>
-      </c>
-      <c r="K21">
-        <v>29.056049999999999</v>
-      </c>
-      <c r="L21">
-        <v>45.264380000000003</v>
-      </c>
-      <c r="M21">
-        <v>60.053080000000001</v>
-      </c>
-      <c r="N21">
-        <v>12.36631</v>
-      </c>
-      <c r="O21">
-        <v>774.03899999999999</v>
-      </c>
-      <c r="P21">
-        <v>385.71190000000001</v>
-      </c>
-      <c r="Q21">
-        <v>204.3048</v>
-      </c>
-      <c r="R21">
-        <v>45.754820000000002</v>
-      </c>
-      <c r="S21">
-        <v>89.720960000000005</v>
-      </c>
-      <c r="T21">
-        <v>233.61920000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22">
-        <v>473.63889999999998</v>
-      </c>
-      <c r="C22">
-        <v>3435.76</v>
-      </c>
-      <c r="D22">
-        <v>28.037220000000001</v>
-      </c>
-      <c r="E22">
-        <v>347.21530000000001</v>
-      </c>
-      <c r="F22">
-        <v>187.45650000000001</v>
-      </c>
-      <c r="G22">
-        <v>1245.3309999999999</v>
-      </c>
-      <c r="H22">
-        <v>2418.9969999999998</v>
-      </c>
-      <c r="I22">
-        <v>1787.664</v>
-      </c>
-      <c r="J22">
-        <v>21.9436</v>
-      </c>
-      <c r="K22">
-        <v>30.476089999999999</v>
-      </c>
-      <c r="L22">
-        <v>48.339219999999997</v>
-      </c>
-      <c r="M22">
-        <v>63.51634</v>
-      </c>
-      <c r="N22">
-        <v>13.20847</v>
-      </c>
-      <c r="O22">
-        <v>812.05100000000004</v>
-      </c>
-      <c r="P22">
-        <v>398.52190000000002</v>
-      </c>
-      <c r="Q22">
-        <v>212.30279999999999</v>
-      </c>
-      <c r="R22">
-        <v>48.006599999999999</v>
-      </c>
-      <c r="S22">
-        <v>94.177049999999994</v>
-      </c>
-      <c r="T22">
-        <v>240.078</v>
       </c>
     </row>
   </sheetData>
@@ -18947,10 +21716,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20319,6 +23088,11 @@
         <v>70.16</v>
       </c>
     </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782913F-5241-4655-AEC6-446063230DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DAD49-B046-47C2-85CB-C925249201F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="10" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="11" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="tot_eiu" sheetId="8" r:id="rId9"/>
     <sheet name="tot_oecd" sheetId="17" r:id="rId10"/>
     <sheet name="tot_imf" sheetId="18" r:id="rId11"/>
-    <sheet name="gdp" sheetId="4" r:id="rId12"/>
-    <sheet name="debt" sheetId="10" r:id="rId13"/>
-    <sheet name="pspp" sheetId="16" r:id="rId14"/>
-    <sheet name="i_us" sheetId="14" r:id="rId15"/>
-    <sheet name="baa" sheetId="2" r:id="rId16"/>
+    <sheet name="cds" sheetId="19" r:id="rId12"/>
+    <sheet name="gdp" sheetId="4" r:id="rId13"/>
+    <sheet name="debt" sheetId="10" r:id="rId14"/>
+    <sheet name="pspp" sheetId="16" r:id="rId15"/>
+    <sheet name="i_us" sheetId="14" r:id="rId16"/>
+    <sheet name="baa" sheetId="2" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">gdp!$A$1:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">gdp!$A$1:$T$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">i_avg!$A$1:$T$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="22">
   <si>
     <t>Belgium</t>
   </si>
@@ -3751,8 +3752,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5127,6 +5128,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75B0808-EC1A-4587-9A1A-DEA6AEC6022B}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>37.363461538461536</v>
+      </c>
+      <c r="G2">
+        <v>23.876923076923077</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>8.7211538461538467</v>
+      </c>
+      <c r="J2">
+        <v>72.417307692307688</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>23.876923076923077</v>
+      </c>
+      <c r="S2">
+        <v>97.592307692307699</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>8.9096153846153854</v>
+      </c>
+      <c r="F3">
+        <v>14.669230769230769</v>
+      </c>
+      <c r="G3">
+        <v>25.824999999999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>5.5980769230769232</v>
+      </c>
+      <c r="J3">
+        <v>32.394230769230766</v>
+      </c>
+      <c r="K3">
+        <v>60.037500000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>29.713461538461537</v>
+      </c>
+      <c r="S3">
+        <v>206.39807692307693</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>10.638888888888889</v>
+      </c>
+      <c r="C4">
+        <v>2.6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>13.473180076628353</v>
+      </c>
+      <c r="F4">
+        <v>14.674329501915709</v>
+      </c>
+      <c r="G4">
+        <v>17.469348659003831</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>7.9195402298850572</v>
+      </c>
+      <c r="J4">
+        <v>48.871647509578544</v>
+      </c>
+      <c r="K4">
+        <v>57.772030651340998</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>25.372596153846153</v>
+      </c>
+      <c r="R4">
+        <v>45.490421455938694</v>
+      </c>
+      <c r="S4">
+        <v>197.16475095785441</v>
+      </c>
+      <c r="T4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>8.1398467432950188</v>
+      </c>
+      <c r="C5">
+        <v>5.0613026819923368</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20.111111111111111</v>
+      </c>
+      <c r="F5">
+        <v>18.448275862068964</v>
+      </c>
+      <c r="G5">
+        <v>7.5172413793103452</v>
+      </c>
+      <c r="H5">
+        <v>7.0445544554455441</v>
+      </c>
+      <c r="I5">
+        <v>11.791187739463602</v>
+      </c>
+      <c r="J5">
+        <v>72.632183908045974</v>
+      </c>
+      <c r="K5">
+        <v>70.85249042145594</v>
+      </c>
+      <c r="L5">
+        <v>72.197530864197532</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>8.1627906976744189</v>
+      </c>
+      <c r="Q5">
+        <v>16.860153256704979</v>
+      </c>
+      <c r="R5">
+        <v>49.588122605363985</v>
+      </c>
+      <c r="S5">
+        <v>106.80459770114942</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>6.3639846743295019</v>
+      </c>
+      <c r="C6">
+        <v>8.4406130268199231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>6.3026819923371651</v>
+      </c>
+      <c r="F6">
+        <v>12.618773946360154</v>
+      </c>
+      <c r="G6">
+        <v>6.5613026819923368</v>
+      </c>
+      <c r="H6">
+        <v>6.6513409961685825</v>
+      </c>
+      <c r="I6">
+        <v>9.4214559386973171</v>
+      </c>
+      <c r="J6">
+        <v>36.837164750957854</v>
+      </c>
+      <c r="K6">
+        <v>41.854406130268202</v>
+      </c>
+      <c r="L6">
+        <v>40.829501915708811</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>4.7337164750957852</v>
+      </c>
+      <c r="Q6">
+        <v>8.7394636015325666</v>
+      </c>
+      <c r="R6">
+        <v>37.519157088122604</v>
+      </c>
+      <c r="S6">
+        <v>34.38697318007663</v>
+      </c>
+      <c r="T6">
+        <v>2.6272727272727274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>3.1278625954198471</v>
+      </c>
+      <c r="C7">
+        <v>4.4456106870229011</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3.7843511450381677</v>
+      </c>
+      <c r="F7">
+        <v>8.6598282442748094</v>
+      </c>
+      <c r="G7">
+        <v>3.5763358778625953</v>
+      </c>
+      <c r="H7">
+        <v>3.7089694656488548</v>
+      </c>
+      <c r="I7">
+        <v>7.6622137404580153</v>
+      </c>
+      <c r="J7">
+        <v>25.711832061068701</v>
+      </c>
+      <c r="K7">
+        <v>29.814885496183205</v>
+      </c>
+      <c r="L7">
+        <v>26.942748091603054</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <v>3.0515267175572518</v>
+      </c>
+      <c r="Q7">
+        <v>5.4236641221374047</v>
+      </c>
+      <c r="R7">
+        <v>23.337786259541986</v>
+      </c>
+      <c r="S7">
+        <v>21.356870229007633</v>
+      </c>
+      <c r="T7">
+        <v>1.7977099236641221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>2.5884615384615386</v>
+      </c>
+      <c r="C8">
+        <v>3.7463942307692308</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2.4596153846153848</v>
+      </c>
+      <c r="F8">
+        <v>9.761057692307693</v>
+      </c>
+      <c r="G8">
+        <v>3.0076923076923077</v>
+      </c>
+      <c r="H8">
+        <v>2.1822115384615386</v>
+      </c>
+      <c r="I8">
+        <v>8.0389423076923077</v>
+      </c>
+      <c r="J8">
+        <v>21.95</v>
+      </c>
+      <c r="K8">
+        <v>24.475000000000001</v>
+      </c>
+      <c r="L8">
+        <v>22.992307692307691</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>1.9980769230769231</v>
+      </c>
+      <c r="Q8">
+        <v>4.1764423076923078</v>
+      </c>
+      <c r="R8">
+        <v>20.188461538461539</v>
+      </c>
+      <c r="S8">
+        <v>18.238461538461539</v>
+      </c>
+      <c r="T8">
+        <v>1.5423076923076924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>2.273076923076923</v>
+      </c>
+      <c r="C9">
+        <v>3.0379807692307694</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2.2673076923076922</v>
+      </c>
+      <c r="F9">
+        <v>11.313701923076923</v>
+      </c>
+      <c r="G9">
+        <v>2.8865384615384615</v>
+      </c>
+      <c r="H9">
+        <v>1.7942307692307693</v>
+      </c>
+      <c r="I9">
+        <v>10.235096153846154</v>
+      </c>
+      <c r="J9">
+        <v>18.434615384615384</v>
+      </c>
+      <c r="K9">
+        <v>15.407692307692308</v>
+      </c>
+      <c r="L9">
+        <v>19.351923076923075</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="P9">
+        <v>1.7961538461538462</v>
+      </c>
+      <c r="Q9">
+        <v>6.6423076923076927</v>
+      </c>
+      <c r="R9">
+        <v>18.261538461538461</v>
+      </c>
+      <c r="S9">
+        <v>21.925000000000001</v>
+      </c>
+      <c r="T9">
+        <v>1.4019230769230768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="C10">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D10">
+        <v>6.1096491228070171</v>
+      </c>
+      <c r="E10">
+        <v>4.8486590038314175</v>
+      </c>
+      <c r="F10">
+        <v>9.6839080459770113</v>
+      </c>
+      <c r="G10">
+        <v>7.0977011494252871</v>
+      </c>
+      <c r="H10">
+        <v>4.1704980842911876</v>
+      </c>
+      <c r="I10">
+        <v>11.750957854406129</v>
+      </c>
+      <c r="J10">
+        <v>20.994252873563219</v>
+      </c>
+      <c r="K10">
+        <v>4.6340996168582373</v>
+      </c>
+      <c r="L10">
+        <v>21.984674329501917</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>1.7203065134099618</v>
+      </c>
+      <c r="P10">
+        <v>3.8754789272030652</v>
+      </c>
+      <c r="Q10">
+        <v>14.118773946360154</v>
+      </c>
+      <c r="R10">
+        <v>39.978927203065133</v>
+      </c>
+      <c r="S10">
+        <v>34.521072796934867</v>
+      </c>
+      <c r="T10">
+        <v>3.0708812260536398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>26.990458015267176</v>
+      </c>
+      <c r="C11">
+        <v>10.969942748091603</v>
+      </c>
+      <c r="D11">
+        <v>122.25190839694656</v>
+      </c>
+      <c r="E11">
+        <v>43.204198473282446</v>
+      </c>
+      <c r="F11">
+        <v>58.152862595419847</v>
+      </c>
+      <c r="G11">
+        <v>44.804150763358777</v>
+      </c>
+      <c r="H11">
+        <v>19.019083969465647</v>
+      </c>
+      <c r="I11">
+        <v>54.133110687022899</v>
+      </c>
+      <c r="J11">
+        <v>64.786259541984734</v>
+      </c>
+      <c r="K11">
+        <v>299.21564885496184</v>
+      </c>
+      <c r="L11">
+        <v>121.7557251908397</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>13.25267175572519</v>
+      </c>
+      <c r="P11">
+        <v>28.603053435114504</v>
+      </c>
+      <c r="Q11">
+        <v>47.843988549618324</v>
+      </c>
+      <c r="R11">
+        <v>66.020992366412216</v>
+      </c>
+      <c r="S11">
+        <v>53.190839694656489</v>
+      </c>
+      <c r="T11">
+        <v>16.624045801526716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>65.268199233716473</v>
+      </c>
+      <c r="C12">
+        <v>37.747605363984675</v>
+      </c>
+      <c r="D12">
+        <v>191.40229885057471</v>
+      </c>
+      <c r="E12">
+        <v>187.53831417624522</v>
+      </c>
+      <c r="F12">
+        <v>165.90421455938699</v>
+      </c>
+      <c r="G12">
+        <v>92.05747126436782</v>
+      </c>
+      <c r="H12">
+        <v>42.015325670498086</v>
+      </c>
+      <c r="I12">
+        <v>106.97701149425288</v>
+      </c>
+      <c r="J12">
+        <v>68.97892720306514</v>
+      </c>
+      <c r="K12">
+        <v>427.4750957854406</v>
+      </c>
+      <c r="L12">
+        <v>144.07662835249042</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>52.674329501915707</v>
+      </c>
+      <c r="P12">
+        <v>110.60009578544062</v>
+      </c>
+      <c r="Q12">
+        <v>79.90996168582376</v>
+      </c>
+      <c r="R12">
+        <v>55.835249042145591</v>
+      </c>
+      <c r="S12">
+        <v>80.107279693486589</v>
+      </c>
+      <c r="T12">
+        <v>40.982758620689658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>107.16714559386973</v>
+      </c>
+      <c r="C13">
+        <v>38.24449233716475</v>
+      </c>
+      <c r="D13">
+        <v>157.09386973180077</v>
+      </c>
+      <c r="E13">
+        <v>267.06776819923374</v>
+      </c>
+      <c r="F13">
+        <v>659.21192528735628</v>
+      </c>
+      <c r="G13">
+        <v>200.38170498084293</v>
+      </c>
+      <c r="H13">
+        <v>65.455459770114942</v>
+      </c>
+      <c r="I13">
+        <v>161.29789272030652</v>
+      </c>
+      <c r="J13">
+        <v>100.75670498084291</v>
+      </c>
+      <c r="K13">
+        <v>343.20498084291188</v>
+      </c>
+      <c r="L13">
+        <v>171.83333333333334</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>43.904214559386972</v>
+      </c>
+      <c r="P13">
+        <v>76.906609195402297</v>
+      </c>
+      <c r="Q13">
+        <v>262.82255747126436</v>
+      </c>
+      <c r="R13">
+        <v>85.178160919540232</v>
+      </c>
+      <c r="S13">
+        <v>74.296934865900383</v>
+      </c>
+      <c r="T13">
+        <v>29.232040229885058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>208.13149038461538</v>
+      </c>
+      <c r="C14">
+        <v>65.946875000000006</v>
+      </c>
+      <c r="D14">
+        <v>284.52307692307693</v>
+      </c>
+      <c r="E14">
+        <v>696.17499999999995</v>
+      </c>
+      <c r="F14">
+        <v>1354.4</v>
+      </c>
+      <c r="G14">
+        <v>327.23461538461538</v>
+      </c>
+      <c r="H14">
+        <v>127.94879807692308</v>
+      </c>
+      <c r="I14">
+        <v>305.26730769230767</v>
+      </c>
+      <c r="J14">
+        <v>539.78076923076924</v>
+      </c>
+      <c r="K14">
+        <v>359.60384615384618</v>
+      </c>
+      <c r="L14">
+        <v>319.72884615384618</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>65.233413461538461</v>
+      </c>
+      <c r="P14">
+        <v>106.8420673076923</v>
+      </c>
+      <c r="Q14">
+        <v>830.56538461538457</v>
+      </c>
+      <c r="R14">
+        <v>121.91346153846153</v>
+      </c>
+      <c r="S14">
+        <v>47.3</v>
+      </c>
+      <c r="T14">
+        <v>47.555528846153848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>188.90229885057471</v>
+      </c>
+      <c r="C15">
+        <v>70.207854406130267</v>
+      </c>
+      <c r="D15">
+        <v>324.02298850574715</v>
+      </c>
+      <c r="E15">
+        <v>504.5191570881226</v>
+      </c>
+      <c r="F15">
+        <v>1562.5</v>
+      </c>
+      <c r="G15">
+        <v>425.55555555555554</v>
+      </c>
+      <c r="H15">
+        <v>153.66762452107281</v>
+      </c>
+      <c r="I15">
+        <v>400.90038314176246</v>
+      </c>
+      <c r="J15">
+        <v>997.38505747126442</v>
+      </c>
+      <c r="K15">
+        <v>308.78927203065132</v>
+      </c>
+      <c r="L15">
+        <v>306.08620689655174</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>89.125478927203062</v>
+      </c>
+      <c r="P15">
+        <v>126.81800766283524</v>
+      </c>
+      <c r="Q15">
+        <v>1002.7183908045977</v>
+      </c>
+      <c r="R15">
+        <v>464.61302681992339</v>
+      </c>
+      <c r="S15">
+        <v>32.47126436781609</v>
+      </c>
+      <c r="T15">
+        <v>57.275862068965516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>64.335249042145591</v>
+      </c>
+      <c r="C16">
+        <v>30.865900383141764</v>
+      </c>
+      <c r="D16">
+        <v>243.56896551724137</v>
+      </c>
+      <c r="E16">
+        <v>154.2624521072797</v>
+      </c>
+      <c r="F16">
+        <v>1457.0957854406131</v>
+      </c>
+      <c r="G16">
+        <v>235.32375478927204</v>
+      </c>
+      <c r="H16">
+        <v>70.988505747126439</v>
+      </c>
+      <c r="I16">
+        <v>243.24521072796935</v>
+      </c>
+      <c r="J16">
+        <v>861.99425287356325</v>
+      </c>
+      <c r="K16">
+        <v>167.15325670498083</v>
+      </c>
+      <c r="L16">
+        <v>171.10344827586206</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>50.695402298850574</v>
+      </c>
+      <c r="P16">
+        <v>36.457854406130267</v>
+      </c>
+      <c r="Q16">
+        <v>398.25287356321837</v>
+      </c>
+      <c r="R16">
+        <v>312.65708812260539</v>
+      </c>
+      <c r="S16">
+        <v>24.396551724137932</v>
+      </c>
+      <c r="T16">
+        <v>26.172413793103448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>43.657088122605366</v>
+      </c>
+      <c r="C17">
+        <v>21.618773946360154</v>
+      </c>
+      <c r="D17">
+        <v>193.92528735632183</v>
+      </c>
+      <c r="E17">
+        <v>66.561302681992331</v>
+      </c>
+      <c r="F17">
+        <v>283.57088122605364</v>
+      </c>
+      <c r="G17">
+        <v>86.438697318007669</v>
+      </c>
+      <c r="H17">
+        <v>45.547892720306514</v>
+      </c>
+      <c r="I17">
+        <v>115.53448275862068</v>
+      </c>
+      <c r="J17">
+        <v>465.16858237547893</v>
+      </c>
+      <c r="K17">
+        <v>117.46934865900383</v>
+      </c>
+      <c r="L17">
+        <v>104.24137931034483</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>32.664750957854409</v>
+      </c>
+      <c r="P17">
+        <v>34.720306513409959</v>
+      </c>
+      <c r="Q17">
+        <v>189.32375478927204</v>
+      </c>
+      <c r="R17">
+        <v>202.68582375478928</v>
+      </c>
+      <c r="S17">
+        <v>19.413793103448278</v>
+      </c>
+      <c r="T17">
+        <v>25.026819923371647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>56.199233716475099</v>
+      </c>
+      <c r="C18">
+        <v>24.067049808429118</v>
+      </c>
+      <c r="D18">
+        <v>180.50574712643677</v>
+      </c>
+      <c r="E18">
+        <v>53.128352490421456</v>
+      </c>
+      <c r="F18">
+        <v>315.55172413793105</v>
+      </c>
+      <c r="G18">
+        <v>65.630268199233711</v>
+      </c>
+      <c r="H18">
+        <v>51.494252873563219</v>
+      </c>
+      <c r="I18">
+        <v>98.174329501915707</v>
+      </c>
+      <c r="J18">
+        <v>315.21264367816093</v>
+      </c>
+      <c r="K18">
+        <v>89.745210727969351</v>
+      </c>
+      <c r="L18">
+        <v>86.247126436781613</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>38.81800766283525</v>
+      </c>
+      <c r="P18">
+        <v>39.477011494252871</v>
+      </c>
+      <c r="Q18">
+        <v>165.58620689655172</v>
+      </c>
+      <c r="R18">
+        <v>126.12452107279694</v>
+      </c>
+      <c r="S18">
+        <v>18.084291187739463</v>
+      </c>
+      <c r="T18">
+        <v>33.454022988505749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>67.484674329501914</v>
+      </c>
+      <c r="C19">
+        <v>28.911877394636015</v>
+      </c>
+      <c r="D19">
+        <v>43.871647509578544</v>
+      </c>
+      <c r="E19">
+        <v>58.726053639846747</v>
+      </c>
+      <c r="F19">
+        <v>404.9597701149425</v>
+      </c>
+      <c r="G19">
+        <v>72.116858237547888</v>
+      </c>
+      <c r="H19">
+        <v>61.842911877394634</v>
+      </c>
+      <c r="I19">
+        <v>107.88888888888889</v>
+      </c>
+      <c r="J19">
+        <v>406.09770114942529</v>
+      </c>
+      <c r="K19">
+        <v>68.015325670498086</v>
+      </c>
+      <c r="L19">
+        <v>70.093869731800766</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>46.597701149425291</v>
+      </c>
+      <c r="P19">
+        <v>47.362068965517238</v>
+      </c>
+      <c r="Q19">
+        <v>168.11494252873564</v>
+      </c>
+      <c r="R19">
+        <v>112.23371647509579</v>
+      </c>
+      <c r="S19">
+        <v>19.971264367816094</v>
+      </c>
+      <c r="T19">
+        <v>40.203065134099617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>47.815384615384616</v>
+      </c>
+      <c r="C20">
+        <v>20.523076923076925</v>
+      </c>
+      <c r="D20">
+        <v>31.548076923076923</v>
+      </c>
+      <c r="E20">
+        <v>54.434615384615384</v>
+      </c>
+      <c r="F20">
+        <v>324.14230769230767</v>
+      </c>
+      <c r="G20">
+        <v>57.305769230769229</v>
+      </c>
+      <c r="H20">
+        <v>43.834615384615383</v>
+      </c>
+      <c r="I20">
+        <v>85.724999999999994</v>
+      </c>
+      <c r="J20">
+        <v>252.74615384615385</v>
+      </c>
+      <c r="K20">
+        <v>53.263461538461542</v>
+      </c>
+      <c r="L20">
+        <v>54.29807692307692</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>33.003846153846155</v>
+      </c>
+      <c r="P20">
+        <v>33.571153846153848</v>
+      </c>
+      <c r="Q20">
+        <v>117.075</v>
+      </c>
+      <c r="R20">
+        <v>77.017307692307696</v>
+      </c>
+      <c r="S20">
+        <v>18.511538461538461</v>
+      </c>
+      <c r="T20">
+        <v>28.498076923076923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>40.764367816091955</v>
+      </c>
+      <c r="C21">
+        <v>17.477011494252874</v>
+      </c>
+      <c r="D21">
+        <v>35.81800766283525</v>
+      </c>
+      <c r="E21">
+        <v>55.143678160919542</v>
+      </c>
+      <c r="F21">
+        <v>321.26628352490422</v>
+      </c>
+      <c r="G21">
+        <v>63.400383141762454</v>
+      </c>
+      <c r="H21">
+        <v>38.555555555555557</v>
+      </c>
+      <c r="I21">
+        <v>136.27586206896552</v>
+      </c>
+      <c r="J21">
+        <v>146.28927203065135</v>
+      </c>
+      <c r="K21">
+        <v>51.425287356321839</v>
+      </c>
+      <c r="L21">
+        <v>52.78927203065134</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>32.741379310344826</v>
+      </c>
+      <c r="P21">
+        <v>33.319923371647512</v>
+      </c>
+      <c r="Q21">
+        <v>107.91570881226053</v>
+      </c>
+      <c r="R21">
+        <v>60.898467432950191</v>
+      </c>
+      <c r="S21">
+        <v>21.007662835249043</v>
+      </c>
+      <c r="T21">
+        <v>28.212643678160919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>22.161538461538463</v>
+      </c>
+      <c r="C22">
+        <v>11.14423076923077</v>
+      </c>
+      <c r="D22">
+        <v>31.013461538461538</v>
+      </c>
+      <c r="E22">
+        <v>33.801923076923075</v>
+      </c>
+      <c r="F22">
+        <v>282.4173076923077</v>
+      </c>
+      <c r="G22">
+        <v>52.771153846153844</v>
+      </c>
+      <c r="H22">
+        <v>22.978846153846153</v>
+      </c>
+      <c r="I22">
+        <v>176.56442307692308</v>
+      </c>
+      <c r="J22">
+        <v>131.46153846153845</v>
+      </c>
+      <c r="K22">
+        <v>44.54807692307692</v>
+      </c>
+      <c r="L22">
+        <v>45.634615384615387</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>25.209615384615386</v>
+      </c>
+      <c r="P22">
+        <v>25.648076923076925</v>
+      </c>
+      <c r="Q22">
+        <v>57.634615384615387</v>
+      </c>
+      <c r="R22">
+        <v>52.040384615384617</v>
+      </c>
+      <c r="S22">
+        <v>18.175000000000001</v>
+      </c>
+      <c r="T22">
+        <v>21.713461538461537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C09EDD-5C5A-44F1-B10E-0DABEEA0E347}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -6508,7 +7891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -7890,7 +9273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -9272,7 +10655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -10654,7 +12037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DAD49-B046-47C2-85CB-C925249201F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33037F3-BCAD-49B0-999B-C2AB30E7268F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="11" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="3" activeTab="13" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -25,14 +25,16 @@
     <sheet name="tot_oecd" sheetId="17" r:id="rId10"/>
     <sheet name="tot_imf" sheetId="18" r:id="rId11"/>
     <sheet name="cds" sheetId="19" r:id="rId12"/>
-    <sheet name="gdp" sheetId="4" r:id="rId13"/>
-    <sheet name="debt" sheetId="10" r:id="rId14"/>
-    <sheet name="pspp" sheetId="16" r:id="rId15"/>
-    <sheet name="i_us" sheetId="14" r:id="rId16"/>
-    <sheet name="baa" sheetId="2" r:id="rId17"/>
+    <sheet name="emu" sheetId="20" r:id="rId13"/>
+    <sheet name="reer" sheetId="21" r:id="rId14"/>
+    <sheet name="gdp" sheetId="4" r:id="rId15"/>
+    <sheet name="debt" sheetId="10" r:id="rId16"/>
+    <sheet name="pspp" sheetId="16" r:id="rId17"/>
+    <sheet name="i_us" sheetId="14" r:id="rId18"/>
+    <sheet name="baa" sheetId="2" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">gdp!$A$1:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">gdp!$A$1:$T$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">i_avg!$A$1:$T$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="22">
   <si>
     <t>Belgium</t>
   </si>
@@ -621,10 +623,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5134,8 +5137,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6510,6 +6513,2770 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2809D843-2CF4-4031-9046-A4D761BECED7}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF1C20-346F-4379-8CA6-DDF223F6F245}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="3">
+        <v>93.633350398524897</v>
+      </c>
+      <c r="C2" s="3">
+        <v>95.46357849163671</v>
+      </c>
+      <c r="D2" s="3">
+        <v>80.447286839672188</v>
+      </c>
+      <c r="E2" s="3">
+        <v>80.761551296581672</v>
+      </c>
+      <c r="F2" s="3">
+        <v>89.495087129020717</v>
+      </c>
+      <c r="G2" s="3">
+        <v>86.202776101561639</v>
+      </c>
+      <c r="H2" s="3">
+        <v>94.85627924410953</v>
+      </c>
+      <c r="I2" s="3">
+        <v>90.903727955132396</v>
+      </c>
+      <c r="J2" s="3">
+        <v>88.998725566923142</v>
+      </c>
+      <c r="K2" s="3">
+        <v>85.107031790809728</v>
+      </c>
+      <c r="L2" s="3">
+        <v>78.453203354068151</v>
+      </c>
+      <c r="M2" s="3">
+        <v>89.24433665713147</v>
+      </c>
+      <c r="N2" s="3">
+        <v>88.434755320732464</v>
+      </c>
+      <c r="O2" s="3">
+        <v>90.062821860614307</v>
+      </c>
+      <c r="P2" s="3">
+        <v>95.461112042815856</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>89.860635173078336</v>
+      </c>
+      <c r="R2" s="3">
+        <v>92.531985954493777</v>
+      </c>
+      <c r="S2" s="3">
+        <v>54.553609778442038</v>
+      </c>
+      <c r="T2" s="3">
+        <v>96.307481147933061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>89.498072500364472</v>
+      </c>
+      <c r="C3" s="3">
+        <v>88.913550737218159</v>
+      </c>
+      <c r="D3" s="3">
+        <v>78.75161394895504</v>
+      </c>
+      <c r="E3" s="3">
+        <v>77.279995801403416</v>
+      </c>
+      <c r="F3" s="3">
+        <v>82.92246777811765</v>
+      </c>
+      <c r="G3" s="3">
+        <v>83.755988313381593</v>
+      </c>
+      <c r="H3" s="3">
+        <v>89.583200208210954</v>
+      </c>
+      <c r="I3" s="3">
+        <v>86.612768643763133</v>
+      </c>
+      <c r="J3" s="3">
+        <v>87.269472699408738</v>
+      </c>
+      <c r="K3" s="3">
+        <v>91.376064543348306</v>
+      </c>
+      <c r="L3" s="3">
+        <v>86.503540527144452</v>
+      </c>
+      <c r="M3" s="3">
+        <v>87.633005095734433</v>
+      </c>
+      <c r="N3" s="3">
+        <v>86.757388775884763</v>
+      </c>
+      <c r="O3" s="3">
+        <v>85.476843228557868</v>
+      </c>
+      <c r="P3" s="3">
+        <v>91.811577188941669</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>87.213560124324033</v>
+      </c>
+      <c r="R3" s="3">
+        <v>90.484796309238391</v>
+      </c>
+      <c r="S3" s="3">
+        <v>60.552290452550153</v>
+      </c>
+      <c r="T3" s="3">
+        <v>91.742128333569084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="3">
+        <v>90.538162219128964</v>
+      </c>
+      <c r="C4" s="3">
+        <v>89.666769759603824</v>
+      </c>
+      <c r="D4" s="3">
+        <v>82.636481354731899</v>
+      </c>
+      <c r="E4" s="3">
+        <v>79.544874566418471</v>
+      </c>
+      <c r="F4" s="3">
+        <v>84.432858380481733</v>
+      </c>
+      <c r="G4" s="3">
+        <v>85.720323601615732</v>
+      </c>
+      <c r="H4" s="3">
+        <v>89.997611813247246</v>
+      </c>
+      <c r="I4" s="3">
+        <v>87.648313390359704</v>
+      </c>
+      <c r="J4" s="3">
+        <v>88.778869355219683</v>
+      </c>
+      <c r="K4" s="3">
+        <v>92.212928437888863</v>
+      </c>
+      <c r="L4" s="3">
+        <v>89.574643138211485</v>
+      </c>
+      <c r="M4" s="3">
+        <v>88.398826414067656</v>
+      </c>
+      <c r="N4" s="3">
+        <v>88.054082229845804</v>
+      </c>
+      <c r="O4" s="3">
+        <v>89.163823645641429</v>
+      </c>
+      <c r="P4" s="3">
+        <v>92.596810015172352</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>89.672902869260199</v>
+      </c>
+      <c r="R4" s="3">
+        <v>91.274917345424328</v>
+      </c>
+      <c r="S4" s="3">
+        <v>62.674599590143053</v>
+      </c>
+      <c r="T4" s="3">
+        <v>93.850641802330671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="3">
+        <v>92.274733499619401</v>
+      </c>
+      <c r="C5" s="3">
+        <v>91.27524735862211</v>
+      </c>
+      <c r="D5" s="3">
+        <v>84.918358645150093</v>
+      </c>
+      <c r="E5" s="3">
+        <v>84.032292573809926</v>
+      </c>
+      <c r="F5" s="3">
+        <v>87.718653189870395</v>
+      </c>
+      <c r="G5" s="3">
+        <v>88.580572172143448</v>
+      </c>
+      <c r="H5" s="3">
+        <v>92.03494970409551</v>
+      </c>
+      <c r="I5" s="3">
+        <v>90.529816540622747</v>
+      </c>
+      <c r="J5" s="3">
+        <v>91.741764847598461</v>
+      </c>
+      <c r="K5" s="3">
+        <v>90.60101105652015</v>
+      </c>
+      <c r="L5" s="3">
+        <v>92.417487940107222</v>
+      </c>
+      <c r="M5" s="3">
+        <v>89.7926314190656</v>
+      </c>
+      <c r="N5" s="3">
+        <v>90.13950877684006</v>
+      </c>
+      <c r="O5" s="3">
+        <v>92.993615239311893</v>
+      </c>
+      <c r="P5" s="3">
+        <v>94.064438077527399</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>92.362537241726216</v>
+      </c>
+      <c r="R5" s="3">
+        <v>93.782948090672363</v>
+      </c>
+      <c r="S5" s="3">
+        <v>65.393497044928267</v>
+      </c>
+      <c r="T5" s="3">
+        <v>95.923117468923891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="3">
+        <v>96.802986946769309</v>
+      </c>
+      <c r="C6" s="3">
+        <v>96.225037378297941</v>
+      </c>
+      <c r="D6" s="3">
+        <v>87.416652512790606</v>
+      </c>
+      <c r="E6" s="3">
+        <v>93.115740156427748</v>
+      </c>
+      <c r="F6" s="3">
+        <v>94.051601907285757</v>
+      </c>
+      <c r="G6" s="3">
+        <v>93.469703457707354</v>
+      </c>
+      <c r="H6" s="3">
+        <v>97.379778127430029</v>
+      </c>
+      <c r="I6" s="3">
+        <v>96.380342383295599</v>
+      </c>
+      <c r="J6" s="3">
+        <v>98.185599598234887</v>
+      </c>
+      <c r="K6" s="3">
+        <v>86.097152459370236</v>
+      </c>
+      <c r="L6" s="3">
+        <v>93.157476181939614</v>
+      </c>
+      <c r="M6" s="3">
+        <v>93.580351410253371</v>
+      </c>
+      <c r="N6" s="3">
+        <v>94.228619348014433</v>
+      </c>
+      <c r="O6" s="3">
+        <v>98.739323519844376</v>
+      </c>
+      <c r="P6" s="3">
+        <v>97.356900306751257</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>96.777860011078729</v>
+      </c>
+      <c r="R6" s="3">
+        <v>96.872010686991331</v>
+      </c>
+      <c r="S6" s="3">
+        <v>73.754305251516016</v>
+      </c>
+      <c r="T6" s="3">
+        <v>100.65662580174801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="3">
+        <v>98.439129912915206</v>
+      </c>
+      <c r="C7" s="3">
+        <v>98.225592099832369</v>
+      </c>
+      <c r="D7" s="3">
+        <v>89.961241278031125</v>
+      </c>
+      <c r="E7" s="3">
+        <v>95.921133485105713</v>
+      </c>
+      <c r="F7" s="3">
+        <v>96.521279204211424</v>
+      </c>
+      <c r="G7" s="3">
+        <v>95.767172860965658</v>
+      </c>
+      <c r="H7" s="3">
+        <v>99.591355983992031</v>
+      </c>
+      <c r="I7" s="3">
+        <v>98.500409677272586</v>
+      </c>
+      <c r="J7" s="3">
+        <v>99.935036447066821</v>
+      </c>
+      <c r="K7" s="3">
+        <v>87.744615771128323</v>
+      </c>
+      <c r="L7" s="3">
+        <v>93.742449353268199</v>
+      </c>
+      <c r="M7" s="3">
+        <v>95.852942057590141</v>
+      </c>
+      <c r="N7" s="3">
+        <v>97.780707988256168</v>
+      </c>
+      <c r="O7" s="3">
+        <v>100.06382614903586</v>
+      </c>
+      <c r="P7" s="3">
+        <v>98.826061562566935</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>98.231701136451704</v>
+      </c>
+      <c r="R7" s="3">
+        <v>97.337032658370646</v>
+      </c>
+      <c r="S7" s="3">
+        <v>81.419416311511497</v>
+      </c>
+      <c r="T7" s="3">
+        <v>100.90583819148848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="3">
+        <v>98.401806695276662</v>
+      </c>
+      <c r="C8" s="3">
+        <v>97.468264569149568</v>
+      </c>
+      <c r="D8" s="3">
+        <v>91.935039263167511</v>
+      </c>
+      <c r="E8" s="3">
+        <v>95.702309451502401</v>
+      </c>
+      <c r="F8" s="3">
+        <v>96.553878493813897</v>
+      </c>
+      <c r="G8" s="3">
+        <v>96.484531857598853</v>
+      </c>
+      <c r="H8" s="3">
+        <v>98.796948594994873</v>
+      </c>
+      <c r="I8" s="3">
+        <v>97.944944088815987</v>
+      </c>
+      <c r="J8" s="3">
+        <v>99.539000834832137</v>
+      </c>
+      <c r="K8" s="3">
+        <v>87.542117046366542</v>
+      </c>
+      <c r="L8" s="3">
+        <v>94.000299340326677</v>
+      </c>
+      <c r="M8" s="3">
+        <v>97.201897127111479</v>
+      </c>
+      <c r="N8" s="3">
+        <v>97.114181681990246</v>
+      </c>
+      <c r="O8" s="3">
+        <v>98.964532694001335</v>
+      </c>
+      <c r="P8" s="3">
+        <v>98.529569991057556</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>97.767052866386933</v>
+      </c>
+      <c r="R8" s="3">
+        <v>97.004278401107783</v>
+      </c>
+      <c r="S8" s="3">
+        <v>84.894040866322896</v>
+      </c>
+      <c r="T8" s="3">
+        <v>99.167570890116906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="3">
+        <v>98.611222353659571</v>
+      </c>
+      <c r="C9" s="3">
+        <v>97.265124513964338</v>
+      </c>
+      <c r="D9" s="3">
+        <v>94.350148830354343</v>
+      </c>
+      <c r="E9" s="3">
+        <v>96.317402139782288</v>
+      </c>
+      <c r="F9" s="3">
+        <v>97.598883818674508</v>
+      </c>
+      <c r="G9" s="3">
+        <v>97.808424985910278</v>
+      </c>
+      <c r="H9" s="3">
+        <v>98.520648596162459</v>
+      </c>
+      <c r="I9" s="3">
+        <v>98.097232281788905</v>
+      </c>
+      <c r="J9" s="3">
+        <v>99.748260161541921</v>
+      </c>
+      <c r="K9" s="3">
+        <v>91.325548079591854</v>
+      </c>
+      <c r="L9" s="3">
+        <v>95.467561973663564</v>
+      </c>
+      <c r="M9" s="3">
+        <v>98.101056545853595</v>
+      </c>
+      <c r="N9" s="3">
+        <v>97.867297059020743</v>
+      </c>
+      <c r="O9" s="3">
+        <v>98.508954606240195</v>
+      </c>
+      <c r="P9" s="3">
+        <v>98.305043310352829</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>98.495135285143704</v>
+      </c>
+      <c r="R9" s="3">
+        <v>97.414469851834824</v>
+      </c>
+      <c r="S9" s="3">
+        <v>89.890645628184657</v>
+      </c>
+      <c r="T9" s="3">
+        <v>98.409487037297538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="3">
+        <v>103.91469745699989</v>
+      </c>
+      <c r="C11" s="3">
+        <v>102.1656248528422</v>
+      </c>
+      <c r="D11" s="3">
+        <v>109.142379529563</v>
+      </c>
+      <c r="E11" s="3">
+        <v>104.60498659714253</v>
+      </c>
+      <c r="F11" s="3">
+        <v>103.34318949269507</v>
+      </c>
+      <c r="G11" s="3">
+        <v>103.07291453039366</v>
+      </c>
+      <c r="H11" s="3">
+        <v>102.46216751213304</v>
+      </c>
+      <c r="I11" s="3">
+        <v>102.61496902879156</v>
+      </c>
+      <c r="J11" s="3">
+        <v>103.81356285297063</v>
+      </c>
+      <c r="K11" s="3">
+        <v>114.00921187980157</v>
+      </c>
+      <c r="L11" s="3">
+        <v>110.15191066149931</v>
+      </c>
+      <c r="M11" s="3">
+        <v>102.74176314256032</v>
+      </c>
+      <c r="N11" s="3">
+        <v>103.81587986781491</v>
+      </c>
+      <c r="O11" s="3">
+        <v>101.75872363247581</v>
+      </c>
+      <c r="P11" s="3">
+        <v>101.70486111185799</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>101.41796334553064</v>
+      </c>
+      <c r="R11" s="3">
+        <v>103.75427792112055</v>
+      </c>
+      <c r="S11" s="3">
+        <v>110.30396594407902</v>
+      </c>
+      <c r="T11" s="3">
+        <v>103.71639008074244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="3">
+        <v>103.52838691961253</v>
+      </c>
+      <c r="C12" s="3">
+        <v>101.54658086720218</v>
+      </c>
+      <c r="D12" s="3">
+        <v>109.73384469961435</v>
+      </c>
+      <c r="E12" s="3">
+        <v>102.68968876167601</v>
+      </c>
+      <c r="F12" s="3">
+        <v>104.16859589271512</v>
+      </c>
+      <c r="G12" s="3">
+        <v>102.58333144663816</v>
+      </c>
+      <c r="H12" s="3">
+        <v>102.01122557208325</v>
+      </c>
+      <c r="I12" s="3">
+        <v>102.7202276751761</v>
+      </c>
+      <c r="J12" s="3">
+        <v>103.86154413020236</v>
+      </c>
+      <c r="K12" s="3">
+        <v>118.01681183590482</v>
+      </c>
+      <c r="L12" s="3">
+        <v>115.0369988274407</v>
+      </c>
+      <c r="M12" s="3">
+        <v>102.4807492243752</v>
+      </c>
+      <c r="N12" s="3">
+        <v>104.3625744528744</v>
+      </c>
+      <c r="O12" s="3">
+        <v>102.49633482407756</v>
+      </c>
+      <c r="P12" s="3">
+        <v>101.36528714780451</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100.44467182256052</v>
+      </c>
+      <c r="R12" s="3">
+        <v>104.08684499697026</v>
+      </c>
+      <c r="S12" s="3">
+        <v>115.07491876029104</v>
+      </c>
+      <c r="T12" s="3">
+        <v>105.40218611038745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="3">
+        <v>100.30001410810459</v>
+      </c>
+      <c r="C13" s="3">
+        <v>96.46214771417705</v>
+      </c>
+      <c r="D13" s="3">
+        <v>106.70976698698691</v>
+      </c>
+      <c r="E13" s="3">
+        <v>94.728506008677158</v>
+      </c>
+      <c r="F13" s="3">
+        <v>103.19972320411415</v>
+      </c>
+      <c r="G13" s="3">
+        <v>99.546135746295832</v>
+      </c>
+      <c r="H13" s="3">
+        <v>98.381440077543118</v>
+      </c>
+      <c r="I13" s="3">
+        <v>98.761058341758996</v>
+      </c>
+      <c r="J13" s="3">
+        <v>99.630951498541265</v>
+      </c>
+      <c r="K13" s="3">
+        <v>110.37965723003626</v>
+      </c>
+      <c r="L13" s="3">
+        <v>110.82218904233034</v>
+      </c>
+      <c r="M13" s="3">
+        <v>101.10847028884029</v>
+      </c>
+      <c r="N13" s="3">
+        <v>99.463630427502295</v>
+      </c>
+      <c r="O13" s="3">
+        <v>97.659531049028985</v>
+      </c>
+      <c r="P13" s="3">
+        <v>98.591192828924349</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>97.581552913990066</v>
+      </c>
+      <c r="R13" s="3">
+        <v>101.92755072145742</v>
+      </c>
+      <c r="S13" s="3">
+        <v>111.56907305194403</v>
+      </c>
+      <c r="T13" s="3">
+        <v>100.39692426210188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="3">
+        <v>101.09688888117579</v>
+      </c>
+      <c r="C14" s="3">
+        <v>96.233345021612791</v>
+      </c>
+      <c r="D14" s="3">
+        <v>108.44398693853935</v>
+      </c>
+      <c r="E14" s="3">
+        <v>93.676517276392104</v>
+      </c>
+      <c r="F14" s="3">
+        <v>103.66415053100431</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100.13961974753462</v>
+      </c>
+      <c r="H14" s="3">
+        <v>98.046522762046223</v>
+      </c>
+      <c r="I14" s="3">
+        <v>99.113903535368735</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100.28162533539708</v>
+      </c>
+      <c r="K14" s="3">
+        <v>112.70338869392104</v>
+      </c>
+      <c r="L14" s="3">
+        <v>112.47094508771298</v>
+      </c>
+      <c r="M14" s="3">
+        <v>102.17130234188812</v>
+      </c>
+      <c r="N14" s="3">
+        <v>99.488620408958312</v>
+      </c>
+      <c r="O14" s="3">
+        <v>97.429897424334428</v>
+      </c>
+      <c r="P14" s="3">
+        <v>99.2882934051717</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>98.376918483750501</v>
+      </c>
+      <c r="R14" s="3">
+        <v>101.01207111355168</v>
+      </c>
+      <c r="S14" s="3">
+        <v>112.987548820792</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100.80548194524903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="3">
+        <v>98.790035773100286</v>
+      </c>
+      <c r="C15" s="3">
+        <v>93.051421399367456</v>
+      </c>
+      <c r="D15" s="3">
+        <v>108.02342045695997</v>
+      </c>
+      <c r="E15" s="3">
+        <v>89.441632381241874</v>
+      </c>
+      <c r="F15" s="3">
+        <v>99.629203332940776</v>
+      </c>
+      <c r="G15" s="3">
+        <v>97.992449267543506</v>
+      </c>
+      <c r="H15" s="3">
+        <v>95.212555151769664</v>
+      </c>
+      <c r="I15" s="3">
+        <v>97.476830900203211</v>
+      </c>
+      <c r="J15" s="3">
+        <v>98.052732519140022</v>
+      </c>
+      <c r="K15" s="3">
+        <v>109.06051416577492</v>
+      </c>
+      <c r="L15" s="3">
+        <v>110.91443186353327</v>
+      </c>
+      <c r="M15" s="3">
+        <v>100.80316813898679</v>
+      </c>
+      <c r="N15" s="3">
+        <v>96.251363615806383</v>
+      </c>
+      <c r="O15" s="3">
+        <v>95.068608323321939</v>
+      </c>
+      <c r="P15" s="3">
+        <v>97.613967246097559</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>96.915159664128225</v>
+      </c>
+      <c r="R15" s="3">
+        <v>99.623671402083772</v>
+      </c>
+      <c r="S15" s="3">
+        <v>112.79728431953934</v>
+      </c>
+      <c r="T15" s="3">
+        <v>98.623977361940462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="3">
+        <v>100.91965383884775</v>
+      </c>
+      <c r="C16" s="3">
+        <v>96.174082420519454</v>
+      </c>
+      <c r="D16" s="3">
+        <v>111.7614648979422</v>
+      </c>
+      <c r="E16" s="3">
+        <v>91.742084363782354</v>
+      </c>
+      <c r="F16" s="3">
+        <v>99.775396177618418</v>
+      </c>
+      <c r="G16" s="3">
+        <v>100.09944509028492</v>
+      </c>
+      <c r="H16" s="3">
+        <v>97.198510198289327</v>
+      </c>
+      <c r="I16" s="3">
+        <v>99.87031179961663</v>
+      </c>
+      <c r="J16" s="3">
+        <v>100.42649253592253</v>
+      </c>
+      <c r="K16" s="3">
+        <v>109.61333460921348</v>
+      </c>
+      <c r="L16" s="3">
+        <v>112.40748447535476</v>
+      </c>
+      <c r="M16" s="3">
+        <v>102.8051371219897</v>
+      </c>
+      <c r="N16" s="3">
+        <v>98.948564791784889</v>
+      </c>
+      <c r="O16" s="3">
+        <v>98.7961523782092</v>
+      </c>
+      <c r="P16" s="3">
+        <v>100.23437111917595</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>97.662585337640778</v>
+      </c>
+      <c r="R16" s="3">
+        <v>101.38875290711854</v>
+      </c>
+      <c r="S16" s="3">
+        <v>114.48988171964507</v>
+      </c>
+      <c r="T16" s="3">
+        <v>102.27663500680842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="3">
+        <v>100.8010695114563</v>
+      </c>
+      <c r="C17" s="3">
+        <v>96.589017407591896</v>
+      </c>
+      <c r="D17" s="3">
+        <v>112.43621566793982</v>
+      </c>
+      <c r="E17" s="3">
+        <v>90.845857553245892</v>
+      </c>
+      <c r="F17" s="3">
+        <v>97.779030901519718</v>
+      </c>
+      <c r="G17" s="3">
+        <v>99.517722486054282</v>
+      </c>
+      <c r="H17" s="3">
+        <v>97.329618752575769</v>
+      </c>
+      <c r="I17" s="3">
+        <v>99.72711364931574</v>
+      </c>
+      <c r="J17" s="3">
+        <v>99.419388638442342</v>
+      </c>
+      <c r="K17" s="3">
+        <v>110.30355063979071</v>
+      </c>
+      <c r="L17" s="3">
+        <v>112.47162371672042</v>
+      </c>
+      <c r="M17" s="3">
+        <v>102.90239289845439</v>
+      </c>
+      <c r="N17" s="3">
+        <v>99.103596409115795</v>
+      </c>
+      <c r="O17" s="3">
+        <v>98.57262489169068</v>
+      </c>
+      <c r="P17" s="3">
+        <v>101.28777327932038</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>97.021630387191166</v>
+      </c>
+      <c r="R17" s="3">
+        <v>101.14290467116298</v>
+      </c>
+      <c r="S17" s="3">
+        <v>113.82251688782925</v>
+      </c>
+      <c r="T17" s="3">
+        <v>103.57401851771336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="3">
+        <v>96.520031302457568</v>
+      </c>
+      <c r="C18" s="3">
+        <v>91.797213127262665</v>
+      </c>
+      <c r="D18" s="3">
+        <v>109.66120018149117</v>
+      </c>
+      <c r="E18" s="3">
+        <v>84.208531738939314</v>
+      </c>
+      <c r="F18" s="3">
+        <v>92.494761169189061</v>
+      </c>
+      <c r="G18" s="3">
+        <v>95.134545383756461</v>
+      </c>
+      <c r="H18" s="3">
+        <v>92.548454747755272</v>
+      </c>
+      <c r="I18" s="3">
+        <v>94.927701066533842</v>
+      </c>
+      <c r="J18" s="3">
+        <v>92.979302862141552</v>
+      </c>
+      <c r="K18" s="3">
+        <v>106.61672082210238</v>
+      </c>
+      <c r="L18" s="3">
+        <v>107.9437697826371</v>
+      </c>
+      <c r="M18" s="3">
+        <v>99.401395713515186</v>
+      </c>
+      <c r="N18" s="3">
+        <v>93.349448396953449</v>
+      </c>
+      <c r="O18" s="3">
+        <v>93.852074002673689</v>
+      </c>
+      <c r="P18" s="3">
+        <v>98.11391618018952</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>94.33235488667637</v>
+      </c>
+      <c r="R18" s="3">
+        <v>97.662525200242939</v>
+      </c>
+      <c r="S18" s="3">
+        <v>110.09663447898772</v>
+      </c>
+      <c r="T18" s="3">
+        <v>98.653285062412778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="3">
+        <v>98.928616263724308</v>
+      </c>
+      <c r="C19" s="3">
+        <v>92.548918507358039</v>
+      </c>
+      <c r="D19" s="3">
+        <v>110.62080858415418</v>
+      </c>
+      <c r="E19" s="3">
+        <v>85.236786481907757</v>
+      </c>
+      <c r="F19" s="3">
+        <v>93.294660829704753</v>
+      </c>
+      <c r="G19" s="3">
+        <v>95.481457219383287</v>
+      </c>
+      <c r="H19" s="3">
+        <v>93.325521106126089</v>
+      </c>
+      <c r="I19" s="3">
+        <v>95.262123336285981</v>
+      </c>
+      <c r="J19" s="3">
+        <v>93.303048011003398</v>
+      </c>
+      <c r="K19" s="3">
+        <v>107.02330718628967</v>
+      </c>
+      <c r="L19" s="3">
+        <v>109.24098738740935</v>
+      </c>
+      <c r="M19" s="3">
+        <v>99.793038523426802</v>
+      </c>
+      <c r="N19" s="3">
+        <v>94.441114125541304</v>
+      </c>
+      <c r="O19" s="3">
+        <v>94.559738299088821</v>
+      </c>
+      <c r="P19" s="3">
+        <v>99.241609299081574</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>95.443374857836616</v>
+      </c>
+      <c r="R19" s="3">
+        <v>97.70087668814584</v>
+      </c>
+      <c r="S19" s="3">
+        <v>109.66320289043965</v>
+      </c>
+      <c r="T19" s="3">
+        <v>99.44012011383532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="3">
+        <v>100.65507632865078</v>
+      </c>
+      <c r="C20" s="3">
+        <v>93.974483961080253</v>
+      </c>
+      <c r="D20" s="3">
+        <v>114.04052184901892</v>
+      </c>
+      <c r="E20" s="3">
+        <v>85.722836147677882</v>
+      </c>
+      <c r="F20" s="3">
+        <v>94.768677303338293</v>
+      </c>
+      <c r="G20" s="3">
+        <v>96.824733475952684</v>
+      </c>
+      <c r="H20" s="3">
+        <v>94.025953166231929</v>
+      </c>
+      <c r="I20" s="3">
+        <v>96.18061078249255</v>
+      </c>
+      <c r="J20" s="3">
+        <v>94.814674244499855</v>
+      </c>
+      <c r="K20" s="3">
+        <v>109.47176307366628</v>
+      </c>
+      <c r="L20" s="3">
+        <v>112.63162961376591</v>
+      </c>
+      <c r="M20" s="3">
+        <v>101.1967400863727</v>
+      </c>
+      <c r="N20" s="3">
+        <v>95.563532194520732</v>
+      </c>
+      <c r="O20" s="3">
+        <v>95.482016098359466</v>
+      </c>
+      <c r="P20" s="3">
+        <v>100.77310534516641</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>96.178075551108705</v>
+      </c>
+      <c r="R20" s="3">
+        <v>98.260856300501487</v>
+      </c>
+      <c r="S20" s="3">
+        <v>110.18296638922745</v>
+      </c>
+      <c r="T20" s="3">
+        <v>99.920069980047515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="3">
+        <v>102.94749123197091</v>
+      </c>
+      <c r="C21" s="3">
+        <v>96.149313122069799</v>
+      </c>
+      <c r="D21" s="3">
+        <v>118.15842790660524</v>
+      </c>
+      <c r="E21" s="3">
+        <v>86.489833644877521</v>
+      </c>
+      <c r="F21" s="3">
+        <v>95.180665982466394</v>
+      </c>
+      <c r="G21" s="3">
+        <v>98.179959887462104</v>
+      </c>
+      <c r="H21" s="3">
+        <v>96.019316837526304</v>
+      </c>
+      <c r="I21" s="3">
+        <v>97.40355338546884</v>
+      </c>
+      <c r="J21" s="3">
+        <v>95.484549470174557</v>
+      </c>
+      <c r="K21" s="3">
+        <v>112.30303451479887</v>
+      </c>
+      <c r="L21" s="3">
+        <v>115.45310652763628</v>
+      </c>
+      <c r="M21" s="3">
+        <v>102.55520227941808</v>
+      </c>
+      <c r="N21" s="3">
+        <v>97.543169119546292</v>
+      </c>
+      <c r="O21" s="3">
+        <v>96.993191167659063</v>
+      </c>
+      <c r="P21" s="3">
+        <v>102.51401462433</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>96.708839622846511</v>
+      </c>
+      <c r="R21" s="3">
+        <v>99.262647712626531</v>
+      </c>
+      <c r="S21" s="3">
+        <v>112.17111542138507</v>
+      </c>
+      <c r="T21" s="3">
+        <v>101.49622672201212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="3">
+        <v>101.52388276416626</v>
+      </c>
+      <c r="C22" s="3">
+        <v>94.488718312749327</v>
+      </c>
+      <c r="D22" s="3">
+        <v>118.84667625506209</v>
+      </c>
+      <c r="E22" s="3">
+        <v>84.446502676814177</v>
+      </c>
+      <c r="F22" s="3">
+        <v>93.031914683040071</v>
+      </c>
+      <c r="G22" s="3">
+        <v>96.4159834514887</v>
+      </c>
+      <c r="H22" s="3">
+        <v>94.354539820393029</v>
+      </c>
+      <c r="I22" s="3">
+        <v>95.204604787402886</v>
+      </c>
+      <c r="J22" s="3">
+        <v>93.211122762215624</v>
+      </c>
+      <c r="K22" s="3">
+        <v>112.94493039889997</v>
+      </c>
+      <c r="L22" s="3">
+        <v>115.58821548865772</v>
+      </c>
+      <c r="M22" s="3">
+        <v>101.88866627019544</v>
+      </c>
+      <c r="N22" s="3">
+        <v>95.493771571858218</v>
+      </c>
+      <c r="O22" s="3">
+        <v>96.624306248584503</v>
+      </c>
+      <c r="P22" s="3">
+        <v>101.40777018423024</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>95.488142963125426</v>
+      </c>
+      <c r="R22" s="3">
+        <v>98.850494659588435</v>
+      </c>
+      <c r="S22" s="3">
+        <v>112.57102426025834</v>
+      </c>
+      <c r="T22" s="3">
+        <v>99.961222004672493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C09EDD-5C5A-44F1-B10E-0DABEEA0E347}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -7891,7 +10658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -9273,7 +12040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10655,7 +13422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -12037,7 +14804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33037F3-BCAD-49B0-999B-C2AB30E7268F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41ACC4-BED8-4006-ADDF-A9F4ACE969D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="3" activeTab="13" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="3" activeTab="14" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -27,14 +27,16 @@
     <sheet name="cds" sheetId="19" r:id="rId12"/>
     <sheet name="emu" sheetId="20" r:id="rId13"/>
     <sheet name="reer" sheetId="21" r:id="rId14"/>
-    <sheet name="gdp" sheetId="4" r:id="rId15"/>
-    <sheet name="debt" sheetId="10" r:id="rId16"/>
-    <sheet name="pspp" sheetId="16" r:id="rId17"/>
-    <sheet name="i_us" sheetId="14" r:id="rId18"/>
-    <sheet name="baa" sheetId="2" r:id="rId19"/>
+    <sheet name="pensions" sheetId="23" r:id="rId15"/>
+    <sheet name="pensions_index" sheetId="22" r:id="rId16"/>
+    <sheet name="gdp" sheetId="4" r:id="rId17"/>
+    <sheet name="debt" sheetId="10" r:id="rId18"/>
+    <sheet name="pspp" sheetId="16" r:id="rId19"/>
+    <sheet name="i_us" sheetId="14" r:id="rId20"/>
+    <sheet name="baa" sheetId="2" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">gdp!$A$1:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">gdp!$A$1:$T$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">i_avg!$A$1:$T$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="22">
   <si>
     <t>Belgium</t>
   </si>
@@ -7901,8 +7903,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="A1:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9277,6 +9279,2771 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9973994D-6882-4965-B9EC-2EC7492C398A}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>6.6</v>
+      </c>
+      <c r="E2">
+        <v>5.7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>6.4</v>
+      </c>
+      <c r="H2">
+        <v>10.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>3.3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>5.3</v>
+      </c>
+      <c r="P2">
+        <v>12.2</v>
+      </c>
+      <c r="Q2">
+        <v>5.9</v>
+      </c>
+      <c r="R2">
+        <v>10.7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>6.3</v>
+      </c>
+      <c r="H3">
+        <v>10.3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>3.3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>7.7</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>5.2</v>
+      </c>
+      <c r="P3">
+        <v>12.1</v>
+      </c>
+      <c r="Q3">
+        <v>6.1</v>
+      </c>
+      <c r="R3">
+        <v>10.9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>6.8</v>
+      </c>
+      <c r="C4">
+        <v>9.4</v>
+      </c>
+      <c r="D4">
+        <v>5.6</v>
+      </c>
+      <c r="E4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G4">
+        <v>6.1</v>
+      </c>
+      <c r="H4">
+        <v>10.3</v>
+      </c>
+      <c r="I4">
+        <v>11.4</v>
+      </c>
+      <c r="J4">
+        <v>3.3</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>7.1</v>
+      </c>
+      <c r="M4">
+        <v>9.5</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>5.2</v>
+      </c>
+      <c r="P4">
+        <v>12.2</v>
+      </c>
+      <c r="Q4">
+        <v>6.4</v>
+      </c>
+      <c r="R4">
+        <v>10.9</v>
+      </c>
+      <c r="S4">
+        <v>7.7</v>
+      </c>
+      <c r="T4">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>9.6</v>
+      </c>
+      <c r="D5">
+        <v>5.6</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>8.9</v>
+      </c>
+      <c r="G5">
+        <v>6.2</v>
+      </c>
+      <c r="H5">
+        <v>10.4</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>3.6</v>
+      </c>
+      <c r="K5">
+        <v>6.8</v>
+      </c>
+      <c r="L5">
+        <v>6.3</v>
+      </c>
+      <c r="M5">
+        <v>9.9</v>
+      </c>
+      <c r="N5">
+        <v>6.8</v>
+      </c>
+      <c r="O5">
+        <v>5.3</v>
+      </c>
+      <c r="P5">
+        <v>12.1</v>
+      </c>
+      <c r="Q5">
+        <v>6.8</v>
+      </c>
+      <c r="R5">
+        <v>11.1</v>
+      </c>
+      <c r="S5">
+        <v>7.5</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>7.1</v>
+      </c>
+      <c r="C6">
+        <v>9.9</v>
+      </c>
+      <c r="D6">
+        <v>5.7</v>
+      </c>
+      <c r="E6">
+        <v>4.8</v>
+      </c>
+      <c r="F6">
+        <v>9.6</v>
+      </c>
+      <c r="G6">
+        <v>6.1</v>
+      </c>
+      <c r="H6">
+        <v>10.7</v>
+      </c>
+      <c r="I6">
+        <v>11.6</v>
+      </c>
+      <c r="J6">
+        <v>3.8</v>
+      </c>
+      <c r="K6">
+        <v>6.1</v>
+      </c>
+      <c r="L6">
+        <v>6.2</v>
+      </c>
+      <c r="M6">
+        <v>10.3</v>
+      </c>
+      <c r="N6">
+        <v>6.7</v>
+      </c>
+      <c r="O6">
+        <v>5.5</v>
+      </c>
+      <c r="P6">
+        <v>12.2</v>
+      </c>
+      <c r="Q6">
+        <v>7.6</v>
+      </c>
+      <c r="R6">
+        <v>10.9</v>
+      </c>
+      <c r="S6">
+        <v>6.1</v>
+      </c>
+      <c r="T6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>7.1</v>
+      </c>
+      <c r="C7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D7">
+        <v>5.6</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>11.6</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>5.7</v>
+      </c>
+      <c r="L7">
+        <v>5.5</v>
+      </c>
+      <c r="M7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N7">
+        <v>6.9</v>
+      </c>
+      <c r="O7">
+        <v>5.5</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>7.9</v>
+      </c>
+      <c r="R7">
+        <v>10.8</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>7.1</v>
+      </c>
+      <c r="C8">
+        <v>9.9</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>9.9</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>11.2</v>
+      </c>
+      <c r="I8">
+        <v>11.7</v>
+      </c>
+      <c r="J8">
+        <v>4.3</v>
+      </c>
+      <c r="K8">
+        <v>5.2</v>
+      </c>
+      <c r="L8">
+        <v>5.4</v>
+      </c>
+      <c r="M8">
+        <v>10.1</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>5.4</v>
+      </c>
+      <c r="P8">
+        <v>11.7</v>
+      </c>
+      <c r="Q8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R8">
+        <v>10.7</v>
+      </c>
+      <c r="S8">
+        <v>6.7</v>
+      </c>
+      <c r="T8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>7.1</v>
+      </c>
+      <c r="C9">
+        <v>9.5</v>
+      </c>
+      <c r="D9">
+        <v>5.4</v>
+      </c>
+      <c r="E9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F9">
+        <v>10.5</v>
+      </c>
+      <c r="G9">
+        <v>6.1</v>
+      </c>
+      <c r="H9">
+        <v>11.5</v>
+      </c>
+      <c r="I9">
+        <v>11.8</v>
+      </c>
+      <c r="J9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>9.5</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>5.3</v>
+      </c>
+      <c r="P9">
+        <v>11.6</v>
+      </c>
+      <c r="Q9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R9">
+        <v>9.4</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>7.2</v>
+      </c>
+      <c r="C10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D10">
+        <v>5.2</v>
+      </c>
+      <c r="E10">
+        <v>4.3</v>
+      </c>
+      <c r="F10">
+        <v>10.7</v>
+      </c>
+      <c r="G10">
+        <v>6.1</v>
+      </c>
+      <c r="H10">
+        <v>11.6</v>
+      </c>
+      <c r="I10">
+        <v>11.9</v>
+      </c>
+      <c r="J10">
+        <v>3.7</v>
+      </c>
+      <c r="K10">
+        <v>4.5</v>
+      </c>
+      <c r="L10">
+        <v>5.7</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>7.3</v>
+      </c>
+      <c r="O10">
+        <v>5.4</v>
+      </c>
+      <c r="P10">
+        <v>11.4</v>
+      </c>
+      <c r="Q10">
+        <v>8.9</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>6.1</v>
+      </c>
+      <c r="T10">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>7.4</v>
+      </c>
+      <c r="C11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D11">
+        <v>6.3</v>
+      </c>
+      <c r="E11">
+        <v>5.2</v>
+      </c>
+      <c r="F11">
+        <v>12.1</v>
+      </c>
+      <c r="G11">
+        <v>6.3</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>12.3</v>
+      </c>
+      <c r="J11">
+        <v>3.9</v>
+      </c>
+      <c r="K11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L11">
+        <v>5.8</v>
+      </c>
+      <c r="M11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N11">
+        <v>7.2</v>
+      </c>
+      <c r="O11">
+        <v>5.4</v>
+      </c>
+      <c r="P11">
+        <v>11.6</v>
+      </c>
+      <c r="Q11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>9.9</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>6.4</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>7.1</v>
+      </c>
+      <c r="H12">
+        <v>12.9</v>
+      </c>
+      <c r="I12">
+        <v>13.2</v>
+      </c>
+      <c r="J12">
+        <v>4.3</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>7.3</v>
+      </c>
+      <c r="M12">
+        <v>10.8</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>12.5</v>
+      </c>
+      <c r="Q12">
+        <v>10.3</v>
+      </c>
+      <c r="R12">
+        <v>10.1</v>
+      </c>
+      <c r="S12">
+        <v>7.1</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>9.6</v>
+      </c>
+      <c r="D13">
+        <v>7.7</v>
+      </c>
+      <c r="E13">
+        <v>6.3</v>
+      </c>
+      <c r="F13">
+        <v>13.5</v>
+      </c>
+      <c r="G13">
+        <v>7.5</v>
+      </c>
+      <c r="H13">
+        <v>12.9</v>
+      </c>
+      <c r="I13">
+        <v>13.3</v>
+      </c>
+      <c r="J13">
+        <v>4.7</v>
+      </c>
+      <c r="K13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L13">
+        <v>6.5</v>
+      </c>
+      <c r="M13">
+        <v>10.4</v>
+      </c>
+      <c r="N13">
+        <v>7.9</v>
+      </c>
+      <c r="O13">
+        <v>6.1</v>
+      </c>
+      <c r="P13">
+        <v>12.6</v>
+      </c>
+      <c r="Q13">
+        <v>10.6</v>
+      </c>
+      <c r="R13">
+        <v>10.5</v>
+      </c>
+      <c r="S13">
+        <v>7.6</v>
+      </c>
+      <c r="T13">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D14">
+        <v>6.8</v>
+      </c>
+      <c r="E14">
+        <v>5.3</v>
+      </c>
+      <c r="F14">
+        <v>14.7</v>
+      </c>
+      <c r="G14">
+        <v>7.9</v>
+      </c>
+      <c r="H14">
+        <v>13.1</v>
+      </c>
+      <c r="I14">
+        <v>13.2</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>7.8</v>
+      </c>
+      <c r="L14">
+        <v>5.9</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>8.1</v>
+      </c>
+      <c r="O14">
+        <v>6.3</v>
+      </c>
+      <c r="P14">
+        <v>12.4</v>
+      </c>
+      <c r="Q14">
+        <v>11.5</v>
+      </c>
+      <c r="R14">
+        <v>10.7</v>
+      </c>
+      <c r="S14">
+        <v>7.3</v>
+      </c>
+      <c r="T14">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>8.5</v>
+      </c>
+      <c r="C15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D15">
+        <v>6.7</v>
+      </c>
+      <c r="E15">
+        <v>5.4</v>
+      </c>
+      <c r="F15">
+        <v>15.8</v>
+      </c>
+      <c r="G15">
+        <v>8.5</v>
+      </c>
+      <c r="H15">
+        <v>13.3</v>
+      </c>
+      <c r="I15">
+        <v>13.6</v>
+      </c>
+      <c r="J15">
+        <v>5.4</v>
+      </c>
+      <c r="K15">
+        <v>7.5</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>10.4</v>
+      </c>
+      <c r="N15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O15">
+        <v>6.6</v>
+      </c>
+      <c r="P15">
+        <v>12.6</v>
+      </c>
+      <c r="Q15">
+        <v>11.5</v>
+      </c>
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>7.3</v>
+      </c>
+      <c r="T15">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>8.9</v>
+      </c>
+      <c r="C16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D16">
+        <v>6.6</v>
+      </c>
+      <c r="E16">
+        <v>5.2</v>
+      </c>
+      <c r="F16">
+        <v>14.7</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>13.5</v>
+      </c>
+      <c r="I16">
+        <v>13.9</v>
+      </c>
+      <c r="J16">
+        <v>5.7</v>
+      </c>
+      <c r="K16">
+        <v>7.5</v>
+      </c>
+      <c r="L16">
+        <v>5.9</v>
+      </c>
+      <c r="M16">
+        <v>10.9</v>
+      </c>
+      <c r="N16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O16">
+        <v>6.7</v>
+      </c>
+      <c r="P16">
+        <v>12.9</v>
+      </c>
+      <c r="Q16">
+        <v>12.6</v>
+      </c>
+      <c r="R16">
+        <v>11.2</v>
+      </c>
+      <c r="S16">
+        <v>7.7</v>
+      </c>
+      <c r="T16">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>8.9</v>
+      </c>
+      <c r="C17">
+        <v>9.1</v>
+      </c>
+      <c r="D17">
+        <v>6.6</v>
+      </c>
+      <c r="E17">
+        <v>4.8</v>
+      </c>
+      <c r="F17">
+        <v>15.3</v>
+      </c>
+      <c r="G17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H17">
+        <v>13.6</v>
+      </c>
+      <c r="I17">
+        <v>13.7</v>
+      </c>
+      <c r="J17">
+        <v>6.1</v>
+      </c>
+      <c r="K17">
+        <v>7.3</v>
+      </c>
+      <c r="L17">
+        <v>6.3</v>
+      </c>
+      <c r="M17">
+        <v>9.5</v>
+      </c>
+      <c r="N17">
+        <v>7.7</v>
+      </c>
+      <c r="O17">
+        <v>6.9</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>12.6</v>
+      </c>
+      <c r="R17">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>7.9</v>
+      </c>
+      <c r="T17">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>8.9</v>
+      </c>
+      <c r="C18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D18">
+        <v>6.8</v>
+      </c>
+      <c r="E18">
+        <v>3.7</v>
+      </c>
+      <c r="F18">
+        <v>15.6</v>
+      </c>
+      <c r="G18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H18">
+        <v>13.5</v>
+      </c>
+      <c r="I18">
+        <v>13.7</v>
+      </c>
+      <c r="J18">
+        <v>6.1</v>
+      </c>
+      <c r="K18">
+        <v>7.2</v>
+      </c>
+      <c r="L18">
+        <v>5.9</v>
+      </c>
+      <c r="M18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>6.7</v>
+      </c>
+      <c r="P18">
+        <v>12.8</v>
+      </c>
+      <c r="Q18">
+        <v>12.4</v>
+      </c>
+      <c r="R18">
+        <v>10.8</v>
+      </c>
+      <c r="S18">
+        <v>7.6</v>
+      </c>
+      <c r="T18">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3.6</v>
+      </c>
+      <c r="F19">
+        <v>15.7</v>
+      </c>
+      <c r="G19">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H19">
+        <v>13.5</v>
+      </c>
+      <c r="I19">
+        <v>13.4</v>
+      </c>
+      <c r="J19">
+        <v>5.9</v>
+      </c>
+      <c r="K19">
+        <v>7.2</v>
+      </c>
+      <c r="L19">
+        <v>5.9</v>
+      </c>
+      <c r="M19">
+        <v>9.4</v>
+      </c>
+      <c r="N19">
+        <v>7.1</v>
+      </c>
+      <c r="O19">
+        <v>6.7</v>
+      </c>
+      <c r="P19">
+        <v>12.7</v>
+      </c>
+      <c r="Q19">
+        <v>12.2</v>
+      </c>
+      <c r="R19">
+        <v>10.5</v>
+      </c>
+      <c r="S19">
+        <v>7.9</v>
+      </c>
+      <c r="T19">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>9.1</v>
+      </c>
+      <c r="C20">
+        <v>9.4</v>
+      </c>
+      <c r="D20">
+        <v>6.7</v>
+      </c>
+      <c r="E20">
+        <v>3.4</v>
+      </c>
+      <c r="F20">
+        <v>13.8</v>
+      </c>
+      <c r="G20">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H20">
+        <v>13.3</v>
+      </c>
+      <c r="I20">
+        <v>13.3</v>
+      </c>
+      <c r="J20">
+        <v>5.8</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>5.9</v>
+      </c>
+      <c r="M20">
+        <v>9.6</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>6.5</v>
+      </c>
+      <c r="P20">
+        <v>12.5</v>
+      </c>
+      <c r="Q20">
+        <v>11.6</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>7.8</v>
+      </c>
+      <c r="T20">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C21">
+        <v>9.5</v>
+      </c>
+      <c r="D21">
+        <v>6.7</v>
+      </c>
+      <c r="E21">
+        <v>3.2</v>
+      </c>
+      <c r="F21">
+        <v>13.2</v>
+      </c>
+      <c r="G21">
+        <v>9.4</v>
+      </c>
+      <c r="H21">
+        <v>13.3</v>
+      </c>
+      <c r="I21">
+        <v>13.3</v>
+      </c>
+      <c r="J21">
+        <v>6.1</v>
+      </c>
+      <c r="K21">
+        <v>6.8</v>
+      </c>
+      <c r="L21">
+        <v>6.2</v>
+      </c>
+      <c r="M21">
+        <v>9.5</v>
+      </c>
+      <c r="N21">
+        <v>6.7</v>
+      </c>
+      <c r="O21">
+        <v>6.4</v>
+      </c>
+      <c r="P21">
+        <v>12.4</v>
+      </c>
+      <c r="Q21">
+        <v>11.5</v>
+      </c>
+      <c r="R21">
+        <v>9.9</v>
+      </c>
+      <c r="S21">
+        <v>7.7</v>
+      </c>
+      <c r="T21">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DCD1B1-DEDD-4EA2-B27F-CDAAC59EEB1D}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>97.058823529411768</v>
+      </c>
+      <c r="E2">
+        <v>154.05405405405406</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>69.565217391304358</v>
+      </c>
+      <c r="H2">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>54.098360655737707</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>94.897959183673478</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>79.104477611940297</v>
+      </c>
+      <c r="P2">
+        <v>95.312499999999986</v>
+      </c>
+      <c r="Q2">
+        <v>47.580645161290327</v>
+      </c>
+      <c r="R2">
+        <v>99.074074074074062</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>101.08695652173914</v>
+      </c>
+      <c r="D3">
+        <v>88.235294117647058</v>
+      </c>
+      <c r="E3">
+        <v>108.1081081081081</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>68.478260869565219</v>
+      </c>
+      <c r="H3">
+        <v>76.296296296296305</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>54.098360655737707</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>130.50847457627117</v>
+      </c>
+      <c r="M3">
+        <v>91.836734693877546</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>77.611940298507463</v>
+      </c>
+      <c r="P3">
+        <v>94.531249999999986</v>
+      </c>
+      <c r="Q3">
+        <v>49.193548387096769</v>
+      </c>
+      <c r="R3">
+        <v>100.92592592592592</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>76.404494382022463</v>
+      </c>
+      <c r="C4">
+        <v>102.17391304347827</v>
+      </c>
+      <c r="D4">
+        <v>82.35294117647058</v>
+      </c>
+      <c r="E4">
+        <v>118.91891891891892</v>
+      </c>
+      <c r="F4">
+        <v>56.410256410256423</v>
+      </c>
+      <c r="G4">
+        <v>66.304347826086968</v>
+      </c>
+      <c r="H4">
+        <v>76.296296296296305</v>
+      </c>
+      <c r="I4">
+        <v>83.211678832116803</v>
+      </c>
+      <c r="J4">
+        <v>54.098360655737707</v>
+      </c>
+      <c r="K4">
+        <v>97.222222222222214</v>
+      </c>
+      <c r="L4">
+        <v>120.33898305084745</v>
+      </c>
+      <c r="M4">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>77.611940298507463</v>
+      </c>
+      <c r="P4">
+        <v>95.312499999999986</v>
+      </c>
+      <c r="Q4">
+        <v>51.612903225806448</v>
+      </c>
+      <c r="R4">
+        <v>100.92592592592592</v>
+      </c>
+      <c r="S4">
+        <v>101.31578947368422</v>
+      </c>
+      <c r="T4">
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>78.651685393258418</v>
+      </c>
+      <c r="C5">
+        <v>104.34782608695652</v>
+      </c>
+      <c r="D5">
+        <v>82.35294117647058</v>
+      </c>
+      <c r="E5">
+        <v>124.32432432432429</v>
+      </c>
+      <c r="F5">
+        <v>57.051282051282058</v>
+      </c>
+      <c r="G5">
+        <v>67.391304347826093</v>
+      </c>
+      <c r="H5">
+        <v>77.037037037037038</v>
+      </c>
+      <c r="I5">
+        <v>80.291970802919707</v>
+      </c>
+      <c r="J5">
+        <v>59.016393442622963</v>
+      </c>
+      <c r="K5">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="L5">
+        <v>106.77966101694913</v>
+      </c>
+      <c r="M5">
+        <v>101.0204081632653</v>
+      </c>
+      <c r="N5">
+        <v>97.142857142857139</v>
+      </c>
+      <c r="O5">
+        <v>79.104477611940297</v>
+      </c>
+      <c r="P5">
+        <v>94.531249999999986</v>
+      </c>
+      <c r="Q5">
+        <v>54.838709677419352</v>
+      </c>
+      <c r="R5">
+        <v>102.77777777777777</v>
+      </c>
+      <c r="S5">
+        <v>98.684210526315795</v>
+      </c>
+      <c r="T5">
+        <v>60.150375939849624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>79.775280898876403</v>
+      </c>
+      <c r="C6">
+        <v>107.60869565217392</v>
+      </c>
+      <c r="D6">
+        <v>83.82352941176471</v>
+      </c>
+      <c r="E6">
+        <v>129.72972972972971</v>
+      </c>
+      <c r="F6">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="G6">
+        <v>66.304347826086968</v>
+      </c>
+      <c r="H6">
+        <v>79.259259259259252</v>
+      </c>
+      <c r="I6">
+        <v>84.671532846715323</v>
+      </c>
+      <c r="J6">
+        <v>62.295081967213115</v>
+      </c>
+      <c r="K6">
+        <v>84.722222222222214</v>
+      </c>
+      <c r="L6">
+        <v>105.08474576271185</v>
+      </c>
+      <c r="M6">
+        <v>105.10204081632652</v>
+      </c>
+      <c r="N6">
+        <v>95.714285714285722</v>
+      </c>
+      <c r="O6">
+        <v>82.089552238805965</v>
+      </c>
+      <c r="P6">
+        <v>95.312499999999986</v>
+      </c>
+      <c r="Q6">
+        <v>61.290322580645153</v>
+      </c>
+      <c r="R6">
+        <v>100.92592592592592</v>
+      </c>
+      <c r="S6">
+        <v>80.263157894736835</v>
+      </c>
+      <c r="T6">
+        <v>62.406015037593988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>79.775280898876403</v>
+      </c>
+      <c r="C7">
+        <v>106.5217391304348</v>
+      </c>
+      <c r="D7">
+        <v>82.35294117647058</v>
+      </c>
+      <c r="E7">
+        <v>135.13513513513513</v>
+      </c>
+      <c r="F7">
+        <v>58.974358974358978</v>
+      </c>
+      <c r="G7">
+        <v>65.217391304347828</v>
+      </c>
+      <c r="H7">
+        <v>81.481481481481481</v>
+      </c>
+      <c r="I7">
+        <v>84.671532846715323</v>
+      </c>
+      <c r="J7">
+        <v>65.573770491803288</v>
+      </c>
+      <c r="K7">
+        <v>79.166666666666657</v>
+      </c>
+      <c r="L7">
+        <v>93.220338983050837</v>
+      </c>
+      <c r="M7">
+        <v>104.08163265306121</v>
+      </c>
+      <c r="N7">
+        <v>98.571428571428584</v>
+      </c>
+      <c r="O7">
+        <v>82.089552238805965</v>
+      </c>
+      <c r="P7">
+        <v>93.75</v>
+      </c>
+      <c r="Q7">
+        <v>63.70967741935484</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="T7">
+        <v>63.157894736842103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>79.775280898876403</v>
+      </c>
+      <c r="C8">
+        <v>107.60869565217392</v>
+      </c>
+      <c r="D8">
+        <v>80.882352941176478</v>
+      </c>
+      <c r="E8">
+        <v>108.1081081081081</v>
+      </c>
+      <c r="F8">
+        <v>63.461538461538467</v>
+      </c>
+      <c r="G8">
+        <v>65.217391304347828</v>
+      </c>
+      <c r="H8">
+        <v>82.962962962962962</v>
+      </c>
+      <c r="I8">
+        <v>85.40145985401459</v>
+      </c>
+      <c r="J8">
+        <v>70.491803278688522</v>
+      </c>
+      <c r="K8">
+        <v>72.222222222222214</v>
+      </c>
+      <c r="L8">
+        <v>91.525423728813564</v>
+      </c>
+      <c r="M8">
+        <v>103.0612244897959</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>80.597014925373131</v>
+      </c>
+      <c r="P8">
+        <v>91.406249999999986</v>
+      </c>
+      <c r="Q8">
+        <v>66.935483870967744</v>
+      </c>
+      <c r="R8">
+        <v>99.074074074074062</v>
+      </c>
+      <c r="S8">
+        <v>88.15789473684211</v>
+      </c>
+      <c r="T8">
+        <v>62.406015037593988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>79.775280898876403</v>
+      </c>
+      <c r="C9">
+        <v>103.2608695652174</v>
+      </c>
+      <c r="D9">
+        <v>79.411764705882362</v>
+      </c>
+      <c r="E9">
+        <v>110.81081081081079</v>
+      </c>
+      <c r="F9">
+        <v>67.307692307692307</v>
+      </c>
+      <c r="G9">
+        <v>66.304347826086968</v>
+      </c>
+      <c r="H9">
+        <v>85.18518518518519</v>
+      </c>
+      <c r="I9">
+        <v>86.131386861313871</v>
+      </c>
+      <c r="J9">
+        <v>67.213114754098356</v>
+      </c>
+      <c r="K9">
+        <v>69.444444444444443</v>
+      </c>
+      <c r="L9">
+        <v>84.745762711864401</v>
+      </c>
+      <c r="M9">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>79.104477611940297</v>
+      </c>
+      <c r="P9">
+        <v>90.624999999999986</v>
+      </c>
+      <c r="Q9">
+        <v>70.967741935483872</v>
+      </c>
+      <c r="R9">
+        <v>87.037037037037038</v>
+      </c>
+      <c r="S9">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="T9">
+        <v>62.406015037593988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>80.898876404494374</v>
+      </c>
+      <c r="C10">
+        <v>101.08695652173914</v>
+      </c>
+      <c r="D10">
+        <v>76.47058823529413</v>
+      </c>
+      <c r="E10">
+        <v>116.21621621621621</v>
+      </c>
+      <c r="F10">
+        <v>68.589743589743591</v>
+      </c>
+      <c r="G10">
+        <v>66.304347826086968</v>
+      </c>
+      <c r="H10">
+        <v>85.925925925925924</v>
+      </c>
+      <c r="I10">
+        <v>86.861313868613138</v>
+      </c>
+      <c r="J10">
+        <v>60.655737704918046</v>
+      </c>
+      <c r="K10">
+        <v>62.5</v>
+      </c>
+      <c r="L10">
+        <v>96.610169491525426</v>
+      </c>
+      <c r="M10">
+        <v>91.836734693877546</v>
+      </c>
+      <c r="N10">
+        <v>104.28571428571429</v>
+      </c>
+      <c r="O10">
+        <v>80.597014925373131</v>
+      </c>
+      <c r="P10">
+        <v>89.0625</v>
+      </c>
+      <c r="Q10">
+        <v>71.774193548387103</v>
+      </c>
+      <c r="R10">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="S10">
+        <v>80.263157894736835</v>
+      </c>
+      <c r="T10">
+        <v>61.65413533834586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>83.146067415730343</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>92.64705882352942</v>
+      </c>
+      <c r="E11">
+        <v>140.54054054054055</v>
+      </c>
+      <c r="F11">
+        <v>77.564102564102569</v>
+      </c>
+      <c r="G11">
+        <v>68.478260869565219</v>
+      </c>
+      <c r="H11">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="I11">
+        <v>89.781021897810234</v>
+      </c>
+      <c r="J11">
+        <v>63.934426229508205</v>
+      </c>
+      <c r="K11">
+        <v>70.833333333333329</v>
+      </c>
+      <c r="L11">
+        <v>98.305084745762699</v>
+      </c>
+      <c r="M11">
+        <v>98.979591836734684</v>
+      </c>
+      <c r="N11">
+        <v>102.85714285714288</v>
+      </c>
+      <c r="O11">
+        <v>80.597014925373131</v>
+      </c>
+      <c r="P11">
+        <v>90.624999999999986</v>
+      </c>
+      <c r="Q11">
+        <v>75</v>
+      </c>
+      <c r="R11">
+        <v>85.185185185185176</v>
+      </c>
+      <c r="S11">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="T11">
+        <v>63.909774436090231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>89.887640449438194</v>
+      </c>
+      <c r="C12">
+        <v>107.60869565217392</v>
+      </c>
+      <c r="D12">
+        <v>117.64705882352942</v>
+      </c>
+      <c r="E12">
+        <v>172.97297297297297</v>
+      </c>
+      <c r="F12">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="G12">
+        <v>77.173913043478265</v>
+      </c>
+      <c r="H12">
+        <v>95.555555555555557</v>
+      </c>
+      <c r="I12">
+        <v>96.350364963503651</v>
+      </c>
+      <c r="J12">
+        <v>70.491803278688522</v>
+      </c>
+      <c r="K12">
+        <v>111.11111111111111</v>
+      </c>
+      <c r="L12">
+        <v>123.72881355932202</v>
+      </c>
+      <c r="M12">
+        <v>110.20408163265304</v>
+      </c>
+      <c r="N12">
+        <v>114.28571428571428</v>
+      </c>
+      <c r="O12">
+        <v>89.552238805970148</v>
+      </c>
+      <c r="P12">
+        <v>97.65625</v>
+      </c>
+      <c r="Q12">
+        <v>83.064516129032256</v>
+      </c>
+      <c r="R12">
+        <v>93.518518518518505</v>
+      </c>
+      <c r="S12">
+        <v>93.421052631578945</v>
+      </c>
+      <c r="T12">
+        <v>75.187969924812023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>89.887640449438194</v>
+      </c>
+      <c r="C13">
+        <v>104.34782608695652</v>
+      </c>
+      <c r="D13">
+        <v>113.23529411764706</v>
+      </c>
+      <c r="E13">
+        <v>170.27027027027026</v>
+      </c>
+      <c r="F13">
+        <v>86.538461538461547</v>
+      </c>
+      <c r="G13">
+        <v>81.521739130434796</v>
+      </c>
+      <c r="H13">
+        <v>95.555555555555557</v>
+      </c>
+      <c r="I13">
+        <v>97.080291970802932</v>
+      </c>
+      <c r="J13">
+        <v>77.049180327868854</v>
+      </c>
+      <c r="K13">
+        <v>120.83333333333333</v>
+      </c>
+      <c r="L13">
+        <v>110.16949152542372</v>
+      </c>
+      <c r="M13">
+        <v>106.12244897959184</v>
+      </c>
+      <c r="N13">
+        <v>112.85714285714286</v>
+      </c>
+      <c r="O13">
+        <v>91.044776119402982</v>
+      </c>
+      <c r="P13">
+        <v>98.437499999999986</v>
+      </c>
+      <c r="Q13">
+        <v>85.483870967741922</v>
+      </c>
+      <c r="R13">
+        <v>97.222222222222214</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>75.939849624060145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>92.13483146067415</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>143.24324324324323</v>
+      </c>
+      <c r="F14">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="G14">
+        <v>85.869565217391326</v>
+      </c>
+      <c r="H14">
+        <v>97.037037037037038</v>
+      </c>
+      <c r="I14">
+        <v>96.350364963503651</v>
+      </c>
+      <c r="J14">
+        <v>81.967213114754102</v>
+      </c>
+      <c r="K14">
+        <v>108.33333333333333</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>102.04081632653062</v>
+      </c>
+      <c r="N14">
+        <v>115.71428571428571</v>
+      </c>
+      <c r="O14">
+        <v>94.02985074626865</v>
+      </c>
+      <c r="P14">
+        <v>96.875</v>
+      </c>
+      <c r="Q14">
+        <v>92.741935483870961</v>
+      </c>
+      <c r="R14">
+        <v>99.074074074074062</v>
+      </c>
+      <c r="S14">
+        <v>96.05263157894737</v>
+      </c>
+      <c r="T14">
+        <v>78.94736842105263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>95.50561797752809</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>98.529411764705884</v>
+      </c>
+      <c r="E15">
+        <v>145.94594594594594</v>
+      </c>
+      <c r="F15">
+        <v>101.2820512820513</v>
+      </c>
+      <c r="G15">
+        <v>92.391304347826093</v>
+      </c>
+      <c r="H15">
+        <v>98.518518518518533</v>
+      </c>
+      <c r="I15">
+        <v>99.270072992700733</v>
+      </c>
+      <c r="J15">
+        <v>88.524590163934434</v>
+      </c>
+      <c r="K15">
+        <v>104.16666666666667</v>
+      </c>
+      <c r="L15">
+        <v>101.69491525423729</v>
+      </c>
+      <c r="M15">
+        <v>106.12244897959184</v>
+      </c>
+      <c r="N15">
+        <v>118.57142857142857</v>
+      </c>
+      <c r="O15">
+        <v>98.507462686567166</v>
+      </c>
+      <c r="P15">
+        <v>98.437499999999986</v>
+      </c>
+      <c r="Q15">
+        <v>92.741935483870961</v>
+      </c>
+      <c r="R15">
+        <v>101.85185185185183</v>
+      </c>
+      <c r="S15">
+        <v>96.05263157894737</v>
+      </c>
+      <c r="T15">
+        <v>84.210526315789465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>97.058823529411768</v>
+      </c>
+      <c r="E16">
+        <v>140.54054054054055</v>
+      </c>
+      <c r="F16">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="G16">
+        <v>97.826086956521749</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>101.45985401459853</v>
+      </c>
+      <c r="J16">
+        <v>93.442622950819683</v>
+      </c>
+      <c r="K16">
+        <v>104.16666666666667</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>111.22448979591837</v>
+      </c>
+      <c r="N16">
+        <v>117.14285714285712</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>100.78125</v>
+      </c>
+      <c r="Q16">
+        <v>101.61290322580645</v>
+      </c>
+      <c r="R16">
+        <v>103.7037037037037</v>
+      </c>
+      <c r="S16">
+        <v>101.31578947368422</v>
+      </c>
+      <c r="T16">
+        <v>89.473684210526315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>98.913043478260875</v>
+      </c>
+      <c r="D17">
+        <v>97.058823529411768</v>
+      </c>
+      <c r="E17">
+        <v>129.72972972972971</v>
+      </c>
+      <c r="F17">
+        <v>98.07692307692308</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>100.74074074074073</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>101.38888888888889</v>
+      </c>
+      <c r="L17">
+        <v>106.77966101694913</v>
+      </c>
+      <c r="M17">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="N17">
+        <v>110.00000000000001</v>
+      </c>
+      <c r="O17">
+        <v>102.98507462686568</v>
+      </c>
+      <c r="P17">
+        <v>101.5625</v>
+      </c>
+      <c r="Q17">
+        <v>101.61290322580645</v>
+      </c>
+      <c r="R17">
+        <v>101.85185185185183</v>
+      </c>
+      <c r="S17">
+        <v>103.94736842105263</v>
+      </c>
+      <c r="T17">
+        <v>91.729323308270665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>101.12359550561798</v>
+      </c>
+      <c r="C19">
+        <v>101.08695652173914</v>
+      </c>
+      <c r="D19">
+        <v>102.94117647058825</v>
+      </c>
+      <c r="E19">
+        <v>97.297297297297291</v>
+      </c>
+      <c r="F19">
+        <v>100.64102564102564</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>97.810218978102199</v>
+      </c>
+      <c r="J19">
+        <v>96.721311475409848</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>95.918367346938766</v>
+      </c>
+      <c r="N19">
+        <v>101.42857142857142</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>99.218749999999986</v>
+      </c>
+      <c r="Q19">
+        <v>98.387096774193537</v>
+      </c>
+      <c r="R19">
+        <v>97.222222222222214</v>
+      </c>
+      <c r="S19">
+        <v>103.94736842105263</v>
+      </c>
+      <c r="T19">
+        <v>103.75939849624061</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>102.24719101123594</v>
+      </c>
+      <c r="C20">
+        <v>102.17391304347827</v>
+      </c>
+      <c r="D20">
+        <v>98.529411764705884</v>
+      </c>
+      <c r="E20">
+        <v>91.891891891891888</v>
+      </c>
+      <c r="F20">
+        <v>88.461538461538467</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>98.518518518518533</v>
+      </c>
+      <c r="I20">
+        <v>97.080291970802932</v>
+      </c>
+      <c r="J20">
+        <v>95.081967213114766</v>
+      </c>
+      <c r="K20">
+        <v>97.222222222222214</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>97.959183673469369</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <v>97.014925373134332</v>
+      </c>
+      <c r="P20">
+        <v>97.65625</v>
+      </c>
+      <c r="Q20">
+        <v>93.548387096774192</v>
+      </c>
+      <c r="R20">
+        <v>92.592592592592581</v>
+      </c>
+      <c r="S20">
+        <v>102.63157894736842</v>
+      </c>
+      <c r="T20">
+        <v>103.00751879699249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>103.37078651685391</v>
+      </c>
+      <c r="C21">
+        <v>103.2608695652174</v>
+      </c>
+      <c r="D21">
+        <v>98.529411764705884</v>
+      </c>
+      <c r="E21">
+        <v>86.486486486486484</v>
+      </c>
+      <c r="F21">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="G21">
+        <v>102.17391304347827</v>
+      </c>
+      <c r="H21">
+        <v>98.518518518518533</v>
+      </c>
+      <c r="I21">
+        <v>97.080291970802932</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="L21">
+        <v>105.08474576271185</v>
+      </c>
+      <c r="M21">
+        <v>96.938775510204081</v>
+      </c>
+      <c r="N21">
+        <v>95.714285714285722</v>
+      </c>
+      <c r="O21">
+        <v>95.522388059701484</v>
+      </c>
+      <c r="P21">
+        <v>96.875</v>
+      </c>
+      <c r="Q21">
+        <v>92.741935483870961</v>
+      </c>
+      <c r="R21">
+        <v>91.666666666666657</v>
+      </c>
+      <c r="S21">
+        <v>101.31578947368422</v>
+      </c>
+      <c r="T21">
+        <v>102.25563909774435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C09EDD-5C5A-44F1-B10E-0DABEEA0E347}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -10658,7 +13425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -12040,7 +14807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13415,2770 +16182,6 @@
       </c>
       <c r="T22" s="2">
         <v>751</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:T22"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2">
-        <v>1275.8600000000008</v>
-      </c>
-      <c r="C2">
-        <v>1275.8600000000008</v>
-      </c>
-      <c r="D2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="E2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="F2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="G2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="H2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="I2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="J2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="K2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="L2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="M2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="N2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="O2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="P2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="Q2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="R2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="S2">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="T2">
-        <v>1275.8599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>6.1129482071713115</v>
-      </c>
-      <c r="C3">
-        <v>6.1129482071713115</v>
-      </c>
-      <c r="D3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="E3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="F3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="G3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="H3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="I3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="J3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="K3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="L3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="M3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="N3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="O3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="P3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="Q3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="R3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="S3">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="T3">
-        <v>6.1129482071713097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
-        <v>3.4900000000000029</v>
-      </c>
-      <c r="C4">
-        <v>3.4900000000000029</v>
-      </c>
-      <c r="D4">
-        <v>3.49</v>
-      </c>
-      <c r="E4">
-        <v>3.49</v>
-      </c>
-      <c r="F4">
-        <v>3.49</v>
-      </c>
-      <c r="G4">
-        <v>3.49</v>
-      </c>
-      <c r="H4">
-        <v>3.49</v>
-      </c>
-      <c r="I4">
-        <v>3.49</v>
-      </c>
-      <c r="J4">
-        <v>3.49</v>
-      </c>
-      <c r="K4">
-        <v>3.49</v>
-      </c>
-      <c r="L4">
-        <v>3.49</v>
-      </c>
-      <c r="M4">
-        <v>3.49</v>
-      </c>
-      <c r="N4">
-        <v>3.49</v>
-      </c>
-      <c r="O4">
-        <v>3.49</v>
-      </c>
-      <c r="P4">
-        <v>3.49</v>
-      </c>
-      <c r="Q4">
-        <v>3.49</v>
-      </c>
-      <c r="R4">
-        <v>3.49</v>
-      </c>
-      <c r="S4">
-        <v>3.49</v>
-      </c>
-      <c r="T4">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5">
-        <v>2.0018800000000008</v>
-      </c>
-      <c r="C5">
-        <v>2.0018800000000008</v>
-      </c>
-      <c r="D5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="E5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="F5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="G5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="H5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="I5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="J5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="K5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="L5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="M5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="N5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="O5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="P5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="Q5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="R5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="S5">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="T5">
-        <v>2.0018799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6">
-        <v>1.2413999999999992</v>
-      </c>
-      <c r="C6">
-        <v>1.2413999999999992</v>
-      </c>
-      <c r="D6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="E6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="F6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="G6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="H6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="I6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="J6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="K6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="L6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="M6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="N6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="O6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="P6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="Q6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="R6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="S6">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="T6">
-        <v>1.2414000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7">
-        <v>1.8876799999999998</v>
-      </c>
-      <c r="C7">
-        <v>1.8876799999999998</v>
-      </c>
-      <c r="D7">
-        <v>1.88768</v>
-      </c>
-      <c r="E7">
-        <v>1.88768</v>
-      </c>
-      <c r="F7">
-        <v>1.88768</v>
-      </c>
-      <c r="G7">
-        <v>1.88768</v>
-      </c>
-      <c r="H7">
-        <v>1.88768</v>
-      </c>
-      <c r="I7">
-        <v>1.88768</v>
-      </c>
-      <c r="J7">
-        <v>1.88768</v>
-      </c>
-      <c r="K7">
-        <v>1.88768</v>
-      </c>
-      <c r="L7">
-        <v>1.88768</v>
-      </c>
-      <c r="M7">
-        <v>1.88768</v>
-      </c>
-      <c r="N7">
-        <v>1.88768</v>
-      </c>
-      <c r="O7">
-        <v>1.88768</v>
-      </c>
-      <c r="P7">
-        <v>1.88768</v>
-      </c>
-      <c r="Q7">
-        <v>1.88768</v>
-      </c>
-      <c r="R7">
-        <v>1.88768</v>
-      </c>
-      <c r="S7">
-        <v>1.88768</v>
-      </c>
-      <c r="T7">
-        <v>1.88768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8">
-        <v>3.6209600000000006</v>
-      </c>
-      <c r="C8">
-        <v>3.6209600000000006</v>
-      </c>
-      <c r="D8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="E8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="F8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="G8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="H8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="I8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="J8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="K8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="L8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="M8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="N8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="O8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="P8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="Q8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="R8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="S8">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="T8">
-        <v>3.6209600000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9">
-        <v>4.9362399999999989</v>
-      </c>
-      <c r="C9">
-        <v>4.9362399999999989</v>
-      </c>
-      <c r="D9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="E9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="F9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="G9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="H9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="I9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="J9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="K9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="L9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="M9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="N9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="O9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="P9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="Q9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="R9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="S9">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="T9">
-        <v>4.9362399999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10">
-        <v>4.5312350597609594</v>
-      </c>
-      <c r="C10">
-        <v>4.5312350597609594</v>
-      </c>
-      <c r="D10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="E10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="F10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="G10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="H10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="I10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="J10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="K10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="L10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="M10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="N10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="O10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="P10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="Q10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="R10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="S10">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="T10">
-        <v>4.5312350597609603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11">
-        <v>1.826812749003984</v>
-      </c>
-      <c r="C11">
-        <v>1.826812749003984</v>
-      </c>
-      <c r="D11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="E11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="F11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="G11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="H11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="I11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="J11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="K11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="L11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="M11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="N11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="O11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="P11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="Q11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="R11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="S11">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="T11">
-        <v>1.8268127490039801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12">
-        <v>0.47352000000000022</v>
-      </c>
-      <c r="C12">
-        <v>0.47352000000000022</v>
-      </c>
-      <c r="D12">
-        <v>0.47352</v>
-      </c>
-      <c r="E12">
-        <v>0.47352</v>
-      </c>
-      <c r="F12">
-        <v>0.47352</v>
-      </c>
-      <c r="G12">
-        <v>0.47352</v>
-      </c>
-      <c r="H12">
-        <v>0.47352</v>
-      </c>
-      <c r="I12">
-        <v>0.47352</v>
-      </c>
-      <c r="J12">
-        <v>0.47352</v>
-      </c>
-      <c r="K12">
-        <v>0.47352</v>
-      </c>
-      <c r="L12">
-        <v>0.47352</v>
-      </c>
-      <c r="M12">
-        <v>0.47352</v>
-      </c>
-      <c r="N12">
-        <v>0.47352</v>
-      </c>
-      <c r="O12">
-        <v>0.47352</v>
-      </c>
-      <c r="P12">
-        <v>0.47352</v>
-      </c>
-      <c r="Q12">
-        <v>0.47352</v>
-      </c>
-      <c r="R12">
-        <v>0.47352</v>
-      </c>
-      <c r="S12">
-        <v>0.47352</v>
-      </c>
-      <c r="T12">
-        <v>0.47352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13">
-        <v>0.31764940239043837</v>
-      </c>
-      <c r="C13">
-        <v>0.31764940239043837</v>
-      </c>
-      <c r="D13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="E13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="F13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="G13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="H13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="I13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="J13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="K13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="L13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="M13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="N13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="O13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="P13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="Q13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="R13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="S13">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="T13">
-        <v>0.31764940239043798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14">
-        <v>0.18088000000000004</v>
-      </c>
-      <c r="C14">
-        <v>0.18088000000000004</v>
-      </c>
-      <c r="D14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="G14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="J14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="K14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="L14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="M14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="N14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="P14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="Q14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="R14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="S14">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="T14">
-        <v>0.18088000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15">
-        <v>0.17483999999999983</v>
-      </c>
-      <c r="C15">
-        <v>0.17483999999999983</v>
-      </c>
-      <c r="D15">
-        <v>0.17484</v>
-      </c>
-      <c r="E15">
-        <v>0.17484</v>
-      </c>
-      <c r="F15">
-        <v>0.17484</v>
-      </c>
-      <c r="G15">
-        <v>0.17484</v>
-      </c>
-      <c r="H15">
-        <v>0.17484</v>
-      </c>
-      <c r="I15">
-        <v>0.17484</v>
-      </c>
-      <c r="J15">
-        <v>0.17484</v>
-      </c>
-      <c r="K15">
-        <v>0.17484</v>
-      </c>
-      <c r="L15">
-        <v>0.17484</v>
-      </c>
-      <c r="M15">
-        <v>0.17484</v>
-      </c>
-      <c r="N15">
-        <v>0.17484</v>
-      </c>
-      <c r="O15">
-        <v>0.17484</v>
-      </c>
-      <c r="P15">
-        <v>0.17484</v>
-      </c>
-      <c r="Q15">
-        <v>0.17484</v>
-      </c>
-      <c r="R15">
-        <v>0.17484</v>
-      </c>
-      <c r="S15">
-        <v>0.17484</v>
-      </c>
-      <c r="T15">
-        <v>0.17484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16">
-        <v>0.13116000000000005</v>
-      </c>
-      <c r="C16">
-        <v>0.13116000000000005</v>
-      </c>
-      <c r="D16">
-        <v>0.13116</v>
-      </c>
-      <c r="E16">
-        <v>0.13116</v>
-      </c>
-      <c r="F16">
-        <v>0.13116</v>
-      </c>
-      <c r="G16">
-        <v>0.13116</v>
-      </c>
-      <c r="H16">
-        <v>0.13116</v>
-      </c>
-      <c r="I16">
-        <v>0.13116</v>
-      </c>
-      <c r="J16">
-        <v>0.13116</v>
-      </c>
-      <c r="K16">
-        <v>0.13116</v>
-      </c>
-      <c r="L16">
-        <v>0.13116</v>
-      </c>
-      <c r="M16">
-        <v>0.13116</v>
-      </c>
-      <c r="N16">
-        <v>0.13116</v>
-      </c>
-      <c r="O16">
-        <v>0.13116</v>
-      </c>
-      <c r="P16">
-        <v>0.13116</v>
-      </c>
-      <c r="Q16">
-        <v>0.13116</v>
-      </c>
-      <c r="R16">
-        <v>0.13116</v>
-      </c>
-      <c r="S16">
-        <v>0.13116</v>
-      </c>
-      <c r="T16">
-        <v>0.13116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="C17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="E17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="K17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="L17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="M17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="N17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="P17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="R17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="S17">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="T17">
-        <v>0.12112000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18">
-        <v>0.32270916334661354</v>
-      </c>
-      <c r="C18">
-        <v>0.32270916334661354</v>
-      </c>
-      <c r="D18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="E18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="F18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="G18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="H18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="I18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="J18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="K18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="L18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="M18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="N18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="O18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="P18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="Q18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="R18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="S18">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="T18">
-        <v>0.32270916334661398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="C19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="D19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="E19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="F19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="G19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="H19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="I19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="J19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="K19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="L19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="M19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="N19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="O19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="P19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="Q19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="R19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="S19">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="T19">
-        <v>0.61431999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20">
-        <v>1.2028800000000002</v>
-      </c>
-      <c r="C20">
-        <v>1.2028800000000002</v>
-      </c>
-      <c r="D20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="E20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="F20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="G20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="H20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="I20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="J20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="K20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="L20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="M20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="N20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="O20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="P20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="Q20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="R20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="S20">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="T20">
-        <v>1.2028799999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
-        <v>2.3308433734939786</v>
-      </c>
-      <c r="C21">
-        <v>2.3308433734939786</v>
-      </c>
-      <c r="D21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="E21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="F21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="G21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="H21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="I21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="J21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="K21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="L21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="M21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="N21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="O21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="P21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="Q21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="R21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="S21">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="T21">
-        <v>2.33084337349398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="C22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="D22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="E22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="F22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="G22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="H22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="I22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="J22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="K22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="L22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="M22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="N22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="O22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="P22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="Q22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="R22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="S22">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="T22">
-        <v>2.0520399999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:T22"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="S2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-      <c r="T2" s="1">
-        <v>2.2291235059760957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-      <c r="T3" s="1">
-        <v>2.3366932270916334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2.9256275303643724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="P5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="R5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="S5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-      <c r="T5" s="1">
-        <v>3.1897600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-      <c r="T6" s="1">
-        <v>2.7486799999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="S7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2.1206399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1.6879599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1.8474900398406375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="M11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="O11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="P11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="R11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="S11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-      <c r="T11" s="1">
-        <v>3.7730677290836652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="K12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="L12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="M12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="N12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="P12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="R12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="S12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-      <c r="T12" s="1">
-        <v>4.0274799999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="R13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="S13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-      <c r="T13" s="1">
-        <v>2.8235059760956176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="M14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="O14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="P14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="R14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="S14" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="L15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="M15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="N15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="O15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="P15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="R15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="S15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-      <c r="T15" s="1">
-        <v>3.1355599999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="R16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="S16" s="1">
-        <v>2.75088</v>
-      </c>
-      <c r="T16" s="1">
-        <v>2.75088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="P17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="R17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="S17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-      <c r="T17" s="1">
-        <v>2.3127200000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="L18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="N18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="P18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="R18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="S18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-      <c r="T18" s="1">
-        <v>2.8624701195219124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="S19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2.8704399999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="M20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="R20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="S20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-      <c r="T20" s="1">
-        <v>2.1107228915662652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="R21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="S21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-      <c r="T21" s="1">
-        <v>1.8868273092369479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="L22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="M22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="N22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="O22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="P22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="R22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="S22" s="1">
-        <v>2.2313999999999998</v>
-      </c>
-      <c r="T22" s="1">
-        <v>2.2313999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -17561,6 +17564,2770 @@
       </c>
       <c r="T22">
         <v>59.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>1275.8600000000008</v>
+      </c>
+      <c r="C2">
+        <v>1275.8600000000008</v>
+      </c>
+      <c r="D2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="E2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="F2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="G2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="H2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="I2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="J2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="K2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="L2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="M2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="N2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="O2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="P2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="Q2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="R2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="S2">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="T2">
+        <v>1275.8599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>6.1129482071713115</v>
+      </c>
+      <c r="C3">
+        <v>6.1129482071713115</v>
+      </c>
+      <c r="D3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="E3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="F3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="G3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="H3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="I3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="J3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="K3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="L3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="M3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="N3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="O3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="P3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="Q3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="R3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="S3">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="T3">
+        <v>6.1129482071713097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>3.4900000000000029</v>
+      </c>
+      <c r="C4">
+        <v>3.4900000000000029</v>
+      </c>
+      <c r="D4">
+        <v>3.49</v>
+      </c>
+      <c r="E4">
+        <v>3.49</v>
+      </c>
+      <c r="F4">
+        <v>3.49</v>
+      </c>
+      <c r="G4">
+        <v>3.49</v>
+      </c>
+      <c r="H4">
+        <v>3.49</v>
+      </c>
+      <c r="I4">
+        <v>3.49</v>
+      </c>
+      <c r="J4">
+        <v>3.49</v>
+      </c>
+      <c r="K4">
+        <v>3.49</v>
+      </c>
+      <c r="L4">
+        <v>3.49</v>
+      </c>
+      <c r="M4">
+        <v>3.49</v>
+      </c>
+      <c r="N4">
+        <v>3.49</v>
+      </c>
+      <c r="O4">
+        <v>3.49</v>
+      </c>
+      <c r="P4">
+        <v>3.49</v>
+      </c>
+      <c r="Q4">
+        <v>3.49</v>
+      </c>
+      <c r="R4">
+        <v>3.49</v>
+      </c>
+      <c r="S4">
+        <v>3.49</v>
+      </c>
+      <c r="T4">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>2.0018800000000008</v>
+      </c>
+      <c r="C5">
+        <v>2.0018800000000008</v>
+      </c>
+      <c r="D5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="F5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="G5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="I5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="J5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="K5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="L5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="M5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="N5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="O5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="P5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="Q5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="R5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="S5">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="T5">
+        <v>2.0018799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>1.2413999999999992</v>
+      </c>
+      <c r="C6">
+        <v>1.2413999999999992</v>
+      </c>
+      <c r="D6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="I6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="J6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="K6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="L6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="M6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="N6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="O6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="P6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="R6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="S6">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="T6">
+        <v>1.2414000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>1.8876799999999998</v>
+      </c>
+      <c r="C7">
+        <v>1.8876799999999998</v>
+      </c>
+      <c r="D7">
+        <v>1.88768</v>
+      </c>
+      <c r="E7">
+        <v>1.88768</v>
+      </c>
+      <c r="F7">
+        <v>1.88768</v>
+      </c>
+      <c r="G7">
+        <v>1.88768</v>
+      </c>
+      <c r="H7">
+        <v>1.88768</v>
+      </c>
+      <c r="I7">
+        <v>1.88768</v>
+      </c>
+      <c r="J7">
+        <v>1.88768</v>
+      </c>
+      <c r="K7">
+        <v>1.88768</v>
+      </c>
+      <c r="L7">
+        <v>1.88768</v>
+      </c>
+      <c r="M7">
+        <v>1.88768</v>
+      </c>
+      <c r="N7">
+        <v>1.88768</v>
+      </c>
+      <c r="O7">
+        <v>1.88768</v>
+      </c>
+      <c r="P7">
+        <v>1.88768</v>
+      </c>
+      <c r="Q7">
+        <v>1.88768</v>
+      </c>
+      <c r="R7">
+        <v>1.88768</v>
+      </c>
+      <c r="S7">
+        <v>1.88768</v>
+      </c>
+      <c r="T7">
+        <v>1.88768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>3.6209600000000006</v>
+      </c>
+      <c r="C8">
+        <v>3.6209600000000006</v>
+      </c>
+      <c r="D8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="E8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="F8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="G8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="H8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="I8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="J8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="K8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="L8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="M8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="N8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="O8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="P8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="Q8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="R8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="S8">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="T8">
+        <v>3.6209600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>4.9362399999999989</v>
+      </c>
+      <c r="C9">
+        <v>4.9362399999999989</v>
+      </c>
+      <c r="D9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="E9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="F9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="G9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="H9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="I9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="J9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="K9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="L9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="M9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="N9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="O9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="P9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="Q9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="R9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="S9">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="T9">
+        <v>4.9362399999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>4.5312350597609594</v>
+      </c>
+      <c r="C10">
+        <v>4.5312350597609594</v>
+      </c>
+      <c r="D10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="E10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="F10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="G10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="H10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="I10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="J10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="K10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="L10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="M10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="N10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="O10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="P10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="Q10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="R10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="S10">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="T10">
+        <v>4.5312350597609603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>1.826812749003984</v>
+      </c>
+      <c r="C11">
+        <v>1.826812749003984</v>
+      </c>
+      <c r="D11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="E11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="F11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="G11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="H11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="I11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="J11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="K11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="L11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="M11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="N11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="O11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="P11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="Q11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="R11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="S11">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="T11">
+        <v>1.8268127490039801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>0.47352000000000022</v>
+      </c>
+      <c r="C12">
+        <v>0.47352000000000022</v>
+      </c>
+      <c r="D12">
+        <v>0.47352</v>
+      </c>
+      <c r="E12">
+        <v>0.47352</v>
+      </c>
+      <c r="F12">
+        <v>0.47352</v>
+      </c>
+      <c r="G12">
+        <v>0.47352</v>
+      </c>
+      <c r="H12">
+        <v>0.47352</v>
+      </c>
+      <c r="I12">
+        <v>0.47352</v>
+      </c>
+      <c r="J12">
+        <v>0.47352</v>
+      </c>
+      <c r="K12">
+        <v>0.47352</v>
+      </c>
+      <c r="L12">
+        <v>0.47352</v>
+      </c>
+      <c r="M12">
+        <v>0.47352</v>
+      </c>
+      <c r="N12">
+        <v>0.47352</v>
+      </c>
+      <c r="O12">
+        <v>0.47352</v>
+      </c>
+      <c r="P12">
+        <v>0.47352</v>
+      </c>
+      <c r="Q12">
+        <v>0.47352</v>
+      </c>
+      <c r="R12">
+        <v>0.47352</v>
+      </c>
+      <c r="S12">
+        <v>0.47352</v>
+      </c>
+      <c r="T12">
+        <v>0.47352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>0.31764940239043837</v>
+      </c>
+      <c r="C13">
+        <v>0.31764940239043837</v>
+      </c>
+      <c r="D13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="E13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="F13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="G13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="H13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="I13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="J13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="K13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="L13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="M13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="N13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="O13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="P13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="Q13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="R13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="S13">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="T13">
+        <v>0.31764940239043798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>0.18088000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.18088000000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="Q14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="S14">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="T14">
+        <v>0.18088000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>0.17483999999999983</v>
+      </c>
+      <c r="C15">
+        <v>0.17483999999999983</v>
+      </c>
+      <c r="D15">
+        <v>0.17484</v>
+      </c>
+      <c r="E15">
+        <v>0.17484</v>
+      </c>
+      <c r="F15">
+        <v>0.17484</v>
+      </c>
+      <c r="G15">
+        <v>0.17484</v>
+      </c>
+      <c r="H15">
+        <v>0.17484</v>
+      </c>
+      <c r="I15">
+        <v>0.17484</v>
+      </c>
+      <c r="J15">
+        <v>0.17484</v>
+      </c>
+      <c r="K15">
+        <v>0.17484</v>
+      </c>
+      <c r="L15">
+        <v>0.17484</v>
+      </c>
+      <c r="M15">
+        <v>0.17484</v>
+      </c>
+      <c r="N15">
+        <v>0.17484</v>
+      </c>
+      <c r="O15">
+        <v>0.17484</v>
+      </c>
+      <c r="P15">
+        <v>0.17484</v>
+      </c>
+      <c r="Q15">
+        <v>0.17484</v>
+      </c>
+      <c r="R15">
+        <v>0.17484</v>
+      </c>
+      <c r="S15">
+        <v>0.17484</v>
+      </c>
+      <c r="T15">
+        <v>0.17484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>0.13116000000000005</v>
+      </c>
+      <c r="C16">
+        <v>0.13116000000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.13116</v>
+      </c>
+      <c r="E16">
+        <v>0.13116</v>
+      </c>
+      <c r="F16">
+        <v>0.13116</v>
+      </c>
+      <c r="G16">
+        <v>0.13116</v>
+      </c>
+      <c r="H16">
+        <v>0.13116</v>
+      </c>
+      <c r="I16">
+        <v>0.13116</v>
+      </c>
+      <c r="J16">
+        <v>0.13116</v>
+      </c>
+      <c r="K16">
+        <v>0.13116</v>
+      </c>
+      <c r="L16">
+        <v>0.13116</v>
+      </c>
+      <c r="M16">
+        <v>0.13116</v>
+      </c>
+      <c r="N16">
+        <v>0.13116</v>
+      </c>
+      <c r="O16">
+        <v>0.13116</v>
+      </c>
+      <c r="P16">
+        <v>0.13116</v>
+      </c>
+      <c r="Q16">
+        <v>0.13116</v>
+      </c>
+      <c r="R16">
+        <v>0.13116</v>
+      </c>
+      <c r="S16">
+        <v>0.13116</v>
+      </c>
+      <c r="T16">
+        <v>0.13116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="P17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="R17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="T17">
+        <v>0.12112000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>0.32270916334661354</v>
+      </c>
+      <c r="C18">
+        <v>0.32270916334661354</v>
+      </c>
+      <c r="D18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="E18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="F18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="G18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="H18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="I18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="J18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="K18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="L18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="M18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="N18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="O18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="P18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="Q18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="R18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="S18">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="T18">
+        <v>0.32270916334661398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="F19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="G19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="J19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="K19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="L19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="M19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="N19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="O19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="Q19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="R19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="S19">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="T19">
+        <v>0.61431999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>1.2028800000000002</v>
+      </c>
+      <c r="C20">
+        <v>1.2028800000000002</v>
+      </c>
+      <c r="D20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="E20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="F20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="G20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="I20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="J20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="K20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="L20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="M20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="O20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="P20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="Q20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="R20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="S20">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="T20">
+        <v>1.2028799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>2.3308433734939786</v>
+      </c>
+      <c r="C21">
+        <v>2.3308433734939786</v>
+      </c>
+      <c r="D21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="E21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="F21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="G21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="H21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="I21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="J21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="K21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="L21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="M21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="N21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="O21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="P21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="Q21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="R21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="S21">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="T21">
+        <v>2.33084337349398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="C22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="D22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="E22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="F22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="G22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="I22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="J22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="K22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="L22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="M22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="O22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="P22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="Q22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="R22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="S22">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="T22">
+        <v>2.0520399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2.2291235059760957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2.3366932270916334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2.9256275303643724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3.1897600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2.7486799999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2.1206399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1.6879599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.8474900398406375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3.7730677290836652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4.0274799999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2.8235059760956176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+      <c r="T15" s="1">
+        <v>3.1355599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2.75088</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2.75088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2.3127200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="S18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2.8624701195219124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2.8704399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2.1107228915662652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1.8868273092369479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="R22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="S22" s="1">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2.2313999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11509B3C-E243-4EB4-AC0E-1240725FAEDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3019F4DE-E6BC-482E-B170-B7A155211948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="5190" windowWidth="2040" windowHeight="585" firstSheet="14" activeTab="19" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="6" activeTab="7" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -21,21 +21,22 @@
     <sheet name="inf_var" sheetId="15" r:id="rId6"/>
     <sheet name="gcf" sheetId="5" r:id="rId7"/>
     <sheet name="tb" sheetId="13" r:id="rId8"/>
-    <sheet name="tot_oecd" sheetId="17" r:id="rId9"/>
-    <sheet name="tot_imf" sheetId="18" r:id="rId10"/>
-    <sheet name="cds" sheetId="19" r:id="rId11"/>
-    <sheet name="emu" sheetId="20" r:id="rId12"/>
-    <sheet name="reer" sheetId="21" r:id="rId13"/>
-    <sheet name="pensions" sheetId="23" r:id="rId14"/>
-    <sheet name="pensions_index" sheetId="22" r:id="rId15"/>
-    <sheet name="gdp" sheetId="4" r:id="rId16"/>
-    <sheet name="debt" sheetId="10" r:id="rId17"/>
-    <sheet name="pspp" sheetId="16" r:id="rId18"/>
-    <sheet name="i_us" sheetId="14" r:id="rId19"/>
-    <sheet name="baa" sheetId="2" r:id="rId20"/>
+    <sheet name="openness" sheetId="24" r:id="rId9"/>
+    <sheet name="tot_oecd" sheetId="17" r:id="rId10"/>
+    <sheet name="tot_imf" sheetId="18" r:id="rId11"/>
+    <sheet name="cds" sheetId="19" r:id="rId12"/>
+    <sheet name="emu" sheetId="20" r:id="rId13"/>
+    <sheet name="reer" sheetId="21" r:id="rId14"/>
+    <sheet name="pensions" sheetId="23" r:id="rId15"/>
+    <sheet name="pensions_index" sheetId="22" r:id="rId16"/>
+    <sheet name="gdp" sheetId="4" r:id="rId17"/>
+    <sheet name="debt" sheetId="10" r:id="rId18"/>
+    <sheet name="pspp" sheetId="16" r:id="rId19"/>
+    <sheet name="i_us" sheetId="14" r:id="rId20"/>
+    <sheet name="baa" sheetId="2" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">gdp!$A$1:$T$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">gdp!$A$1:$T$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">i_avg!$A$1:$T$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="21">
   <si>
     <t>Belgium</t>
   </si>
@@ -2427,6 +2428,1450 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013FD78-CD5C-4843-9EA5-955A21902600}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1998</v>
+      </c>
+      <c r="B2">
+        <v>105.65883348693301</v>
+      </c>
+      <c r="C2">
+        <v>100.204022328703</v>
+      </c>
+      <c r="D2">
+        <v>81.213646489818899</v>
+      </c>
+      <c r="E2">
+        <v>103.70701508884</v>
+      </c>
+      <c r="F2">
+        <v>93.872116669624106</v>
+      </c>
+      <c r="G2">
+        <v>99.668974005467106</v>
+      </c>
+      <c r="H2">
+        <v>99.745770239509</v>
+      </c>
+      <c r="I2">
+        <v>105.908131667123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>97.138045203266699</v>
+      </c>
+      <c r="L2">
+        <v>83.533754702461295</v>
+      </c>
+      <c r="M2">
+        <v>93.938128179986293</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>100.023157367248</v>
+      </c>
+      <c r="P2">
+        <v>103.315700174702</v>
+      </c>
+      <c r="Q2">
+        <v>94.466520703759301</v>
+      </c>
+      <c r="R2">
+        <v>103.040017338317</v>
+      </c>
+      <c r="S2">
+        <v>109.787585193806</v>
+      </c>
+      <c r="T2">
+        <v>118.419532322891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="B3">
+        <v>104.677665184804</v>
+      </c>
+      <c r="C3">
+        <v>100.875958583792</v>
+      </c>
+      <c r="D3">
+        <v>81.018155022168102</v>
+      </c>
+      <c r="E3">
+        <v>103.488219020126</v>
+      </c>
+      <c r="F3">
+        <v>94.242292151519706</v>
+      </c>
+      <c r="G3">
+        <v>99.396038824815506</v>
+      </c>
+      <c r="H3">
+        <v>99.995860668238194</v>
+      </c>
+      <c r="I3">
+        <v>105.793976627397</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>100.46689535086</v>
+      </c>
+      <c r="L3">
+        <v>86.844981023998997</v>
+      </c>
+      <c r="M3">
+        <v>96.446015582383097</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>99.289866094551996</v>
+      </c>
+      <c r="P3">
+        <v>102.793507677363</v>
+      </c>
+      <c r="Q3">
+        <v>95.513162451293795</v>
+      </c>
+      <c r="R3">
+        <v>103.273258430848</v>
+      </c>
+      <c r="S3">
+        <v>107.96720438211401</v>
+      </c>
+      <c r="T3">
+        <v>114.88593138125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>102.866121789312</v>
+      </c>
+      <c r="C4">
+        <v>96.700925746489204</v>
+      </c>
+      <c r="D4">
+        <v>83.205250437499998</v>
+      </c>
+      <c r="E4">
+        <v>103.370380141282</v>
+      </c>
+      <c r="F4">
+        <v>92.539560796768299</v>
+      </c>
+      <c r="G4">
+        <v>95.925060355556397</v>
+      </c>
+      <c r="H4">
+        <v>97.330870451220704</v>
+      </c>
+      <c r="I4">
+        <v>100.038434601185</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>94.855980073544799</v>
+      </c>
+      <c r="L4">
+        <v>91.436749710548099</v>
+      </c>
+      <c r="M4">
+        <v>94.655778281984098</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>99.218669637130503</v>
+      </c>
+      <c r="P4">
+        <v>101.74674348398</v>
+      </c>
+      <c r="Q4">
+        <v>92.835785922262104</v>
+      </c>
+      <c r="R4">
+        <v>100.055686138059</v>
+      </c>
+      <c r="S4">
+        <v>111.924661372324</v>
+      </c>
+      <c r="T4">
+        <v>110.68990711036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
+        <v>102.928433347919</v>
+      </c>
+      <c r="C5">
+        <v>96.726958793394999</v>
+      </c>
+      <c r="D5">
+        <v>86.938713444047394</v>
+      </c>
+      <c r="E5">
+        <v>104.68806433877501</v>
+      </c>
+      <c r="F5">
+        <v>93.305985259714404</v>
+      </c>
+      <c r="G5">
+        <v>97.593752132907397</v>
+      </c>
+      <c r="H5">
+        <v>97.617006596741703</v>
+      </c>
+      <c r="I5">
+        <v>101.592184557585</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>96.154125551129795</v>
+      </c>
+      <c r="L5">
+        <v>91.078310733835707</v>
+      </c>
+      <c r="M5">
+        <v>94.343421955949694</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>100.699517018669</v>
+      </c>
+      <c r="P5">
+        <v>101.96182040853</v>
+      </c>
+      <c r="Q5">
+        <v>92.946835021609999</v>
+      </c>
+      <c r="R5">
+        <v>101.781130379751</v>
+      </c>
+      <c r="S5">
+        <v>110.73565494388799</v>
+      </c>
+      <c r="T5">
+        <v>112.30237483467999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6">
+        <v>103.583782407718</v>
+      </c>
+      <c r="C6">
+        <v>98.638838149323007</v>
+      </c>
+      <c r="D6">
+        <v>90.414977665378103</v>
+      </c>
+      <c r="E6">
+        <v>106.89753091516801</v>
+      </c>
+      <c r="F6">
+        <v>94.649032061888406</v>
+      </c>
+      <c r="G6">
+        <v>100.378657969629</v>
+      </c>
+      <c r="H6">
+        <v>99.318959024132496</v>
+      </c>
+      <c r="I6">
+        <v>103.133862430042</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>93.710488342729704</v>
+      </c>
+      <c r="L6">
+        <v>91.372710124401294</v>
+      </c>
+      <c r="M6">
+        <v>94.860212017363807</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>101.477269705701</v>
+      </c>
+      <c r="P6">
+        <v>102.68502192851101</v>
+      </c>
+      <c r="Q6">
+        <v>94.601776676931095</v>
+      </c>
+      <c r="R6">
+        <v>103.715123653261</v>
+      </c>
+      <c r="S6">
+        <v>110.44562769802801</v>
+      </c>
+      <c r="T6">
+        <v>112.133657264371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7">
+        <v>103.297146693489</v>
+      </c>
+      <c r="C7">
+        <v>100.482602602271</v>
+      </c>
+      <c r="D7">
+        <v>91.922517840225098</v>
+      </c>
+      <c r="E7">
+        <v>105.784041056253</v>
+      </c>
+      <c r="F7">
+        <v>96.295403551952305</v>
+      </c>
+      <c r="G7">
+        <v>101.71835640168401</v>
+      </c>
+      <c r="H7">
+        <v>99.285613525274499</v>
+      </c>
+      <c r="I7">
+        <v>104.03251895713601</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>95.569426853121499</v>
+      </c>
+      <c r="L7">
+        <v>91.367291097309803</v>
+      </c>
+      <c r="M7">
+        <v>95.877972902378602</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>101.494416687794</v>
+      </c>
+      <c r="P7">
+        <v>103.50950719107399</v>
+      </c>
+      <c r="Q7">
+        <v>94.8594716098183</v>
+      </c>
+      <c r="R7">
+        <v>104.35980922860401</v>
+      </c>
+      <c r="S7">
+        <v>110.126594201823</v>
+      </c>
+      <c r="T7">
+        <v>110.374013552866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8">
+        <v>102.454267182677</v>
+      </c>
+      <c r="C8">
+        <v>100.628628924381</v>
+      </c>
+      <c r="D8">
+        <v>92.617155331503696</v>
+      </c>
+      <c r="E8">
+        <v>100.101015950045</v>
+      </c>
+      <c r="F8">
+        <v>96.187436134705393</v>
+      </c>
+      <c r="G8">
+        <v>101.390563578032</v>
+      </c>
+      <c r="H8">
+        <v>98.380542934555805</v>
+      </c>
+      <c r="I8">
+        <v>103.031787473219</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>98.019332332920698</v>
+      </c>
+      <c r="L8">
+        <v>99.207647420007703</v>
+      </c>
+      <c r="M8">
+        <v>95.680368836911896</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>101.054536773639</v>
+      </c>
+      <c r="P8">
+        <v>102.965562715383</v>
+      </c>
+      <c r="Q8">
+        <v>94.537251684864401</v>
+      </c>
+      <c r="R8">
+        <v>103.158010210627</v>
+      </c>
+      <c r="S8">
+        <v>109.801996825822</v>
+      </c>
+      <c r="T8">
+        <v>107.901087387654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>101.738785593825</v>
+      </c>
+      <c r="C9">
+        <v>98.908226300730604</v>
+      </c>
+      <c r="D9">
+        <v>94.357214150850297</v>
+      </c>
+      <c r="E9">
+        <v>101.809659410253</v>
+      </c>
+      <c r="F9">
+        <v>95.312107018655396</v>
+      </c>
+      <c r="G9">
+        <v>102.266171501779</v>
+      </c>
+      <c r="H9">
+        <v>97.056838295538299</v>
+      </c>
+      <c r="I9">
+        <v>100.317712468137</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>97.084618596679505</v>
+      </c>
+      <c r="L9">
+        <v>100.29217871813999</v>
+      </c>
+      <c r="M9">
+        <v>95.396571292028497</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>101.35752268746801</v>
+      </c>
+      <c r="P9">
+        <v>102.141765106736</v>
+      </c>
+      <c r="Q9">
+        <v>93.475561491068802</v>
+      </c>
+      <c r="R9">
+        <v>100.960479392373</v>
+      </c>
+      <c r="S9">
+        <v>109.81547682351</v>
+      </c>
+      <c r="T9">
+        <v>104.22530070694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>101.018508230328</v>
+      </c>
+      <c r="C10">
+        <v>97.238882455076194</v>
+      </c>
+      <c r="D10">
+        <v>96.601206348147002</v>
+      </c>
+      <c r="E10">
+        <v>100.84336333030301</v>
+      </c>
+      <c r="F10">
+        <v>95.260475183698304</v>
+      </c>
+      <c r="G10">
+        <v>102.797587930646</v>
+      </c>
+      <c r="H10">
+        <v>95.589377134575003</v>
+      </c>
+      <c r="I10">
+        <v>97.339508114467193</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>96.509064044812106</v>
+      </c>
+      <c r="L10">
+        <v>97.4177577950163</v>
+      </c>
+      <c r="M10">
+        <v>97.400746442324404</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>101.47411027109401</v>
+      </c>
+      <c r="P10">
+        <v>101.023683887506</v>
+      </c>
+      <c r="Q10">
+        <v>94.106395576895096</v>
+      </c>
+      <c r="R10">
+        <v>100.41625822604099</v>
+      </c>
+      <c r="S10">
+        <v>108.268299056331</v>
+      </c>
+      <c r="T10">
+        <v>100.96133642658999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <v>101.174744927663</v>
+      </c>
+      <c r="C11">
+        <v>97.719672211693407</v>
+      </c>
+      <c r="D11">
+        <v>98.561608435535007</v>
+      </c>
+      <c r="E11">
+        <v>101.323642983345</v>
+      </c>
+      <c r="F11">
+        <v>95.730508766871907</v>
+      </c>
+      <c r="G11">
+        <v>103.68574638384599</v>
+      </c>
+      <c r="H11">
+        <v>96.688200426975598</v>
+      </c>
+      <c r="I11">
+        <v>98.469694123777899</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>101.052610366484</v>
+      </c>
+      <c r="L11">
+        <v>98.310260164292401</v>
+      </c>
+      <c r="M11">
+        <v>96.279299843519894</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>101.195457092927</v>
+      </c>
+      <c r="P11">
+        <v>100.588436226939</v>
+      </c>
+      <c r="Q11">
+        <v>94.540588447423204</v>
+      </c>
+      <c r="R11">
+        <v>101.330963409459</v>
+      </c>
+      <c r="S11">
+        <v>107.042722154231</v>
+      </c>
+      <c r="T11">
+        <v>100.89293925214299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>98.531404013006195</v>
+      </c>
+      <c r="C12">
+        <v>96.058963364461505</v>
+      </c>
+      <c r="D12">
+        <v>98.7353547098908</v>
+      </c>
+      <c r="E12">
+        <v>102.385045413802</v>
+      </c>
+      <c r="F12">
+        <v>94.634986344123107</v>
+      </c>
+      <c r="G12">
+        <v>102.00549740086799</v>
+      </c>
+      <c r="H12">
+        <v>96.054328389582096</v>
+      </c>
+      <c r="I12">
+        <v>96.066498727742797</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>99.2787281195465</v>
+      </c>
+      <c r="L12">
+        <v>101.863219361765</v>
+      </c>
+      <c r="M12">
+        <v>97.562295136893894</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>101.033189458943</v>
+      </c>
+      <c r="P12">
+        <v>99.346304038850505</v>
+      </c>
+      <c r="Q12">
+        <v>92.347296238519306</v>
+      </c>
+      <c r="R12">
+        <v>100.04614025593401</v>
+      </c>
+      <c r="S12">
+        <v>105.291047221216</v>
+      </c>
+      <c r="T12">
+        <v>98.975304101003999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>101.505977455688</v>
+      </c>
+      <c r="C13">
+        <v>100.358300017631</v>
+      </c>
+      <c r="D13">
+        <v>99.117923892212602</v>
+      </c>
+      <c r="E13">
+        <v>100.917910902778</v>
+      </c>
+      <c r="F13">
+        <v>93.996124124094095</v>
+      </c>
+      <c r="G13">
+        <v>106.70614961502601</v>
+      </c>
+      <c r="H13">
+        <v>98.601688405551698</v>
+      </c>
+      <c r="I13">
+        <v>101.643930039046</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>99.457707593762393</v>
+      </c>
+      <c r="L13">
+        <v>97.962373256176704</v>
+      </c>
+      <c r="M13">
+        <v>99.130147404500207</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>101.920222476454</v>
+      </c>
+      <c r="P13">
+        <v>101.22564655623199</v>
+      </c>
+      <c r="Q13">
+        <v>96.813360122679995</v>
+      </c>
+      <c r="R13">
+        <v>103.50706866433499</v>
+      </c>
+      <c r="S13">
+        <v>104.09503296240401</v>
+      </c>
+      <c r="T13">
+        <v>100.217946131877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>99.741395198876802</v>
+      </c>
+      <c r="C14">
+        <v>98.123255301832799</v>
+      </c>
+      <c r="D14">
+        <v>97.178048831796502</v>
+      </c>
+      <c r="E14">
+        <v>97.536992038794097</v>
+      </c>
+      <c r="F14">
+        <v>94.3450897072711</v>
+      </c>
+      <c r="G14">
+        <v>103.733354324171</v>
+      </c>
+      <c r="H14">
+        <v>97.241235843477298</v>
+      </c>
+      <c r="I14">
+        <v>97.605252552542098</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>99.567470267749897</v>
+      </c>
+      <c r="L14">
+        <v>98.577763922464399</v>
+      </c>
+      <c r="M14">
+        <v>99.799995074051196</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>100.112042086846</v>
+      </c>
+      <c r="P14">
+        <v>99.563067379926196</v>
+      </c>
+      <c r="Q14">
+        <v>95.470868731172004</v>
+      </c>
+      <c r="R14">
+        <v>99.366967499722904</v>
+      </c>
+      <c r="S14">
+        <v>103.29910468379801</v>
+      </c>
+      <c r="T14">
+        <v>98.150529056929102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15">
+        <v>98.308140025726402</v>
+      </c>
+      <c r="C15">
+        <v>95.592524155121396</v>
+      </c>
+      <c r="D15">
+        <v>97.574769972763207</v>
+      </c>
+      <c r="E15">
+        <v>99.445091582309701</v>
+      </c>
+      <c r="F15">
+        <v>93.841644164232605</v>
+      </c>
+      <c r="G15">
+        <v>100.030947593915</v>
+      </c>
+      <c r="H15">
+        <v>94.918305732721606</v>
+      </c>
+      <c r="I15">
+        <v>95.054123482903705</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>102.588038774228</v>
+      </c>
+      <c r="L15">
+        <v>97.770595157892501</v>
+      </c>
+      <c r="M15">
+        <v>100.336018217605</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>98.574536772684993</v>
+      </c>
+      <c r="P15">
+        <v>97.841218015289002</v>
+      </c>
+      <c r="Q15">
+        <v>93.711744112770205</v>
+      </c>
+      <c r="R15">
+        <v>98.006287773888303</v>
+      </c>
+      <c r="S15">
+        <v>101.921678380722</v>
+      </c>
+      <c r="T15">
+        <v>96.607741853674099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16">
+        <v>98.319813532378802</v>
+      </c>
+      <c r="C16">
+        <v>95.429739290094105</v>
+      </c>
+      <c r="D16">
+        <v>97.109122979281807</v>
+      </c>
+      <c r="E16">
+        <v>97.6947883582977</v>
+      </c>
+      <c r="F16">
+        <v>92.352437229673598</v>
+      </c>
+      <c r="G16">
+        <v>98.942810248778301</v>
+      </c>
+      <c r="H16">
+        <v>94.619096489035101</v>
+      </c>
+      <c r="I16">
+        <v>93.702327923379499</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>99.723805399986702</v>
+      </c>
+      <c r="L16">
+        <v>96.936318647144006</v>
+      </c>
+      <c r="M16">
+        <v>100.290936700674</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>98.6003401943737</v>
+      </c>
+      <c r="P16">
+        <v>97.344096236675398</v>
+      </c>
+      <c r="Q16">
+        <v>94.330862570406296</v>
+      </c>
+      <c r="R16">
+        <v>96.967264181746103</v>
+      </c>
+      <c r="S16">
+        <v>100.660999194799</v>
+      </c>
+      <c r="T16">
+        <v>95.589819141301604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17">
+        <v>98.680773726343602</v>
+      </c>
+      <c r="C17">
+        <v>96.459051784415294</v>
+      </c>
+      <c r="D17">
+        <v>98.0266463962015</v>
+      </c>
+      <c r="E17">
+        <v>97.565348947763198</v>
+      </c>
+      <c r="F17">
+        <v>93.879091907449407</v>
+      </c>
+      <c r="G17">
+        <v>100.33849204632</v>
+      </c>
+      <c r="H17">
+        <v>95.714719177916805</v>
+      </c>
+      <c r="I17">
+        <v>95.280426799973895</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>100.299739363195</v>
+      </c>
+      <c r="L17">
+        <v>96.654650479310007</v>
+      </c>
+      <c r="M17">
+        <v>100.317241319717</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>98.968910726891394</v>
+      </c>
+      <c r="P17">
+        <v>97.489184859161497</v>
+      </c>
+      <c r="Q17">
+        <v>95.980626733560996</v>
+      </c>
+      <c r="R17">
+        <v>97.752905042468598</v>
+      </c>
+      <c r="S17">
+        <v>100.21319431670101</v>
+      </c>
+      <c r="T17">
+        <v>96.294380681669907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18">
+        <v>99.011997929672503</v>
+      </c>
+      <c r="C18">
+        <v>97.704788272621698</v>
+      </c>
+      <c r="D18">
+        <v>99.534399863689003</v>
+      </c>
+      <c r="E18">
+        <v>95.577404832137304</v>
+      </c>
+      <c r="F18">
+        <v>95.424671021257197</v>
+      </c>
+      <c r="G18">
+        <v>99.511702456425994</v>
+      </c>
+      <c r="H18">
+        <v>96.905776559101596</v>
+      </c>
+      <c r="I18">
+        <v>97.731548119504495</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>99.414747769217001</v>
+      </c>
+      <c r="L18">
+        <v>97.471867038216701</v>
+      </c>
+      <c r="M18">
+        <v>101.090816087109</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>98.884867994024802</v>
+      </c>
+      <c r="P18">
+        <v>98.442852455046307</v>
+      </c>
+      <c r="Q18">
+        <v>96.915241970376201</v>
+      </c>
+      <c r="R18">
+        <v>98.749566963362795</v>
+      </c>
+      <c r="S18">
+        <v>100.267099255537</v>
+      </c>
+      <c r="T18">
+        <v>96.984427389211305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>100</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>100.617009230207</v>
+      </c>
+      <c r="C20">
+        <v>101.75736446846599</v>
+      </c>
+      <c r="D20">
+        <v>101.17455603090001</v>
+      </c>
+      <c r="E20">
+        <v>99.740833810982906</v>
+      </c>
+      <c r="F20">
+        <v>99.582975619625799</v>
+      </c>
+      <c r="G20">
+        <v>100.42941956456499</v>
+      </c>
+      <c r="H20">
+        <v>100.98525154300999</v>
+      </c>
+      <c r="I20">
+        <v>103.25309355940099</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>103.02685609257099</v>
+      </c>
+      <c r="L20">
+        <v>101.68114174367</v>
+      </c>
+      <c r="M20">
+        <v>100.50813579484</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>100.5781969263</v>
+      </c>
+      <c r="P20">
+        <v>100.82586389482501</v>
+      </c>
+      <c r="Q20">
+        <v>101.626311080759</v>
+      </c>
+      <c r="R20">
+        <v>100.830388731262</v>
+      </c>
+      <c r="S20">
+        <v>99.612175933132804</v>
+      </c>
+      <c r="T20">
+        <v>99.733448273820102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>99.970544274553504</v>
+      </c>
+      <c r="C21">
+        <v>100.881559779787</v>
+      </c>
+      <c r="D21">
+        <v>100.634449667547</v>
+      </c>
+      <c r="E21">
+        <v>98.347390816524893</v>
+      </c>
+      <c r="F21">
+        <v>99.183594694250104</v>
+      </c>
+      <c r="G21">
+        <v>99.610639139481194</v>
+      </c>
+      <c r="H21">
+        <v>99.676266621477893</v>
+      </c>
+      <c r="I21">
+        <v>101.72300885760001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>103.491974455335</v>
+      </c>
+      <c r="L21">
+        <v>101.96518655546799</v>
+      </c>
+      <c r="M21">
+        <v>99.850858658600103</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>100.352532415005</v>
+      </c>
+      <c r="P21">
+        <v>99.558208296433605</v>
+      </c>
+      <c r="Q21">
+        <v>100.832311894862</v>
+      </c>
+      <c r="R21">
+        <v>100.329569597432</v>
+      </c>
+      <c r="S21">
+        <v>99.059345968887598</v>
+      </c>
+      <c r="T21">
+        <v>99.336438861558307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
+        <v>98.939766274405898</v>
+      </c>
+      <c r="C22">
+        <v>100.059809363917</v>
+      </c>
+      <c r="D22">
+        <v>100.412337259823</v>
+      </c>
+      <c r="E22">
+        <v>97.030186501127105</v>
+      </c>
+      <c r="F22">
+        <v>97.276929520688</v>
+      </c>
+      <c r="G22">
+        <v>98.001989573979301</v>
+      </c>
+      <c r="H22">
+        <v>98.558075446685905</v>
+      </c>
+      <c r="I22">
+        <v>100.948808079839</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>105.347392692526</v>
+      </c>
+      <c r="L22">
+        <v>100.994431959506</v>
+      </c>
+      <c r="M22">
+        <v>100.08384440217201</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>100.216486003816</v>
+      </c>
+      <c r="P22">
+        <v>98.912938286352798</v>
+      </c>
+      <c r="Q22">
+        <v>100.560556057036</v>
+      </c>
+      <c r="R22">
+        <v>100.16848559559</v>
+      </c>
+      <c r="S22">
+        <v>98.477302908807999</v>
+      </c>
+      <c r="T22">
+        <v>100.107828801887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>99.273320484519502</v>
+      </c>
+      <c r="C23">
+        <v>100.932679724254</v>
+      </c>
+      <c r="D23">
+        <v>100.142559636955</v>
+      </c>
+      <c r="E23">
+        <v>97.426768820360195</v>
+      </c>
+      <c r="F23">
+        <v>95.788779105323798</v>
+      </c>
+      <c r="G23">
+        <v>97.116521218492394</v>
+      </c>
+      <c r="H23">
+        <v>99.364689314200703</v>
+      </c>
+      <c r="I23">
+        <v>101.71734231009501</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>106.15638069101099</v>
+      </c>
+      <c r="L23">
+        <v>102.58486169117501</v>
+      </c>
+      <c r="M23">
+        <v>100.42139316080799</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23">
+        <v>100.810731491825</v>
+      </c>
+      <c r="P23">
+        <v>98.692799637693099</v>
+      </c>
+      <c r="Q23">
+        <v>101.21541794325201</v>
+      </c>
+      <c r="R23">
+        <v>100.58422660838499</v>
+      </c>
+      <c r="S23">
+        <v>98.296062615113698</v>
+      </c>
+      <c r="T23">
+        <v>99.461050476036604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFE8547-1AE0-4346-9869-CFEBBD8D8AB7}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3870,7 +5315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75B0808-EC1A-4587-9A1A-DEA6AEC6022B}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -5314,7 +6759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2809D843-2CF4-4031-9046-A4D761BECED7}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -6758,7 +8203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF1C20-346F-4379-8CA6-DDF223F6F245}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -8202,7 +9647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9973994D-6882-4965-B9EC-2EC7492C398A}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -9646,7 +11091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DCD1B1-DEDD-4EA2-B27F-CDAAC59EEB1D}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -11091,7 +12536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C09EDD-5C5A-44F1-B10E-0DABEEA0E347}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -11099,7 +12544,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12535,7 +13980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ACEED6-190A-4890-BB7F-1AA3A6A999CE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13979,7 +15424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABA5FCC-238B-40CE-ACE9-7FBA7AE13711}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15416,1450 +16861,6 @@
       </c>
       <c r="T23" s="2">
         <v>751</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:T23"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1998</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1999</v>
-      </c>
-      <c r="B3">
-        <v>1275.8600000000008</v>
-      </c>
-      <c r="C3">
-        <v>1275.8600000000008</v>
-      </c>
-      <c r="D3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="E3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="F3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="G3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="H3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="I3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="J3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="K3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="L3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="M3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="N3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="O3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="P3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="Q3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="R3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="S3">
-        <v>1275.8599999999999</v>
-      </c>
-      <c r="T3">
-        <v>1275.8599999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2000</v>
-      </c>
-      <c r="B4">
-        <v>6.1129482071713115</v>
-      </c>
-      <c r="C4">
-        <v>6.1129482071713115</v>
-      </c>
-      <c r="D4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="E4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="F4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="G4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="H4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="I4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="J4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="K4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="L4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="M4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="N4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="O4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="P4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="Q4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="R4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="S4">
-        <v>6.1129482071713097</v>
-      </c>
-      <c r="T4">
-        <v>6.1129482071713097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2001</v>
-      </c>
-      <c r="B5">
-        <v>3.4900000000000029</v>
-      </c>
-      <c r="C5">
-        <v>3.4900000000000029</v>
-      </c>
-      <c r="D5">
-        <v>3.49</v>
-      </c>
-      <c r="E5">
-        <v>3.49</v>
-      </c>
-      <c r="F5">
-        <v>3.49</v>
-      </c>
-      <c r="G5">
-        <v>3.49</v>
-      </c>
-      <c r="H5">
-        <v>3.49</v>
-      </c>
-      <c r="I5">
-        <v>3.49</v>
-      </c>
-      <c r="J5">
-        <v>3.49</v>
-      </c>
-      <c r="K5">
-        <v>3.49</v>
-      </c>
-      <c r="L5">
-        <v>3.49</v>
-      </c>
-      <c r="M5">
-        <v>3.49</v>
-      </c>
-      <c r="N5">
-        <v>3.49</v>
-      </c>
-      <c r="O5">
-        <v>3.49</v>
-      </c>
-      <c r="P5">
-        <v>3.49</v>
-      </c>
-      <c r="Q5">
-        <v>3.49</v>
-      </c>
-      <c r="R5">
-        <v>3.49</v>
-      </c>
-      <c r="S5">
-        <v>3.49</v>
-      </c>
-      <c r="T5">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2002</v>
-      </c>
-      <c r="B6">
-        <v>2.0018800000000008</v>
-      </c>
-      <c r="C6">
-        <v>2.0018800000000008</v>
-      </c>
-      <c r="D6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="E6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="F6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="G6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="H6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="I6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="J6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="K6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="L6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="M6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="N6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="O6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="P6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="Q6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="R6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="S6">
-        <v>2.0018799999999999</v>
-      </c>
-      <c r="T6">
-        <v>2.0018799999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2003</v>
-      </c>
-      <c r="B7">
-        <v>1.2413999999999992</v>
-      </c>
-      <c r="C7">
-        <v>1.2413999999999992</v>
-      </c>
-      <c r="D7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="E7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="F7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="G7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="H7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="I7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="J7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="K7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="L7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="M7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="N7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="O7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="P7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="Q7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="R7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="S7">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="T7">
-        <v>1.2414000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2004</v>
-      </c>
-      <c r="B8">
-        <v>1.8876799999999998</v>
-      </c>
-      <c r="C8">
-        <v>1.8876799999999998</v>
-      </c>
-      <c r="D8">
-        <v>1.88768</v>
-      </c>
-      <c r="E8">
-        <v>1.88768</v>
-      </c>
-      <c r="F8">
-        <v>1.88768</v>
-      </c>
-      <c r="G8">
-        <v>1.88768</v>
-      </c>
-      <c r="H8">
-        <v>1.88768</v>
-      </c>
-      <c r="I8">
-        <v>1.88768</v>
-      </c>
-      <c r="J8">
-        <v>1.88768</v>
-      </c>
-      <c r="K8">
-        <v>1.88768</v>
-      </c>
-      <c r="L8">
-        <v>1.88768</v>
-      </c>
-      <c r="M8">
-        <v>1.88768</v>
-      </c>
-      <c r="N8">
-        <v>1.88768</v>
-      </c>
-      <c r="O8">
-        <v>1.88768</v>
-      </c>
-      <c r="P8">
-        <v>1.88768</v>
-      </c>
-      <c r="Q8">
-        <v>1.88768</v>
-      </c>
-      <c r="R8">
-        <v>1.88768</v>
-      </c>
-      <c r="S8">
-        <v>1.88768</v>
-      </c>
-      <c r="T8">
-        <v>1.88768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2005</v>
-      </c>
-      <c r="B9">
-        <v>3.6209600000000006</v>
-      </c>
-      <c r="C9">
-        <v>3.6209600000000006</v>
-      </c>
-      <c r="D9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="E9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="F9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="G9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="H9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="I9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="J9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="K9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="L9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="M9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="N9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="O9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="P9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="Q9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="R9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="S9">
-        <v>3.6209600000000002</v>
-      </c>
-      <c r="T9">
-        <v>3.6209600000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10">
-        <v>4.9362399999999989</v>
-      </c>
-      <c r="C10">
-        <v>4.9362399999999989</v>
-      </c>
-      <c r="D10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="E10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="F10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="G10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="H10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="I10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="J10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="K10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="L10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="M10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="N10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="O10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="P10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="Q10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="R10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="S10">
-        <v>4.9362399999999997</v>
-      </c>
-      <c r="T10">
-        <v>4.9362399999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2007</v>
-      </c>
-      <c r="B11">
-        <v>4.5312350597609594</v>
-      </c>
-      <c r="C11">
-        <v>4.5312350597609594</v>
-      </c>
-      <c r="D11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="E11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="F11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="G11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="H11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="I11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="J11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="K11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="L11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="M11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="N11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="O11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="P11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="Q11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="R11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="S11">
-        <v>4.5312350597609603</v>
-      </c>
-      <c r="T11">
-        <v>4.5312350597609603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2008</v>
-      </c>
-      <c r="B12">
-        <v>1.826812749003984</v>
-      </c>
-      <c r="C12">
-        <v>1.826812749003984</v>
-      </c>
-      <c r="D12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="E12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="F12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="G12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="H12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="I12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="J12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="K12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="L12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="M12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="N12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="O12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="P12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="Q12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="R12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="S12">
-        <v>1.8268127490039801</v>
-      </c>
-      <c r="T12">
-        <v>1.8268127490039801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2009</v>
-      </c>
-      <c r="B13">
-        <v>0.47352000000000022</v>
-      </c>
-      <c r="C13">
-        <v>0.47352000000000022</v>
-      </c>
-      <c r="D13">
-        <v>0.47352</v>
-      </c>
-      <c r="E13">
-        <v>0.47352</v>
-      </c>
-      <c r="F13">
-        <v>0.47352</v>
-      </c>
-      <c r="G13">
-        <v>0.47352</v>
-      </c>
-      <c r="H13">
-        <v>0.47352</v>
-      </c>
-      <c r="I13">
-        <v>0.47352</v>
-      </c>
-      <c r="J13">
-        <v>0.47352</v>
-      </c>
-      <c r="K13">
-        <v>0.47352</v>
-      </c>
-      <c r="L13">
-        <v>0.47352</v>
-      </c>
-      <c r="M13">
-        <v>0.47352</v>
-      </c>
-      <c r="N13">
-        <v>0.47352</v>
-      </c>
-      <c r="O13">
-        <v>0.47352</v>
-      </c>
-      <c r="P13">
-        <v>0.47352</v>
-      </c>
-      <c r="Q13">
-        <v>0.47352</v>
-      </c>
-      <c r="R13">
-        <v>0.47352</v>
-      </c>
-      <c r="S13">
-        <v>0.47352</v>
-      </c>
-      <c r="T13">
-        <v>0.47352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2010</v>
-      </c>
-      <c r="B14">
-        <v>0.31764940239043837</v>
-      </c>
-      <c r="C14">
-        <v>0.31764940239043837</v>
-      </c>
-      <c r="D14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="E14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="F14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="G14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="H14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="I14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="J14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="K14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="L14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="M14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="N14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="O14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="P14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="Q14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="R14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="S14">
-        <v>0.31764940239043798</v>
-      </c>
-      <c r="T14">
-        <v>0.31764940239043798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2011</v>
-      </c>
-      <c r="B15">
-        <v>0.18088000000000004</v>
-      </c>
-      <c r="C15">
-        <v>0.18088000000000004</v>
-      </c>
-      <c r="D15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="E15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="F15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="G15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="J15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="K15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="L15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="M15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="N15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="P15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="Q15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="R15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="S15">
-        <v>0.18088000000000001</v>
-      </c>
-      <c r="T15">
-        <v>0.18088000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2012</v>
-      </c>
-      <c r="B16">
-        <v>0.17483999999999983</v>
-      </c>
-      <c r="C16">
-        <v>0.17483999999999983</v>
-      </c>
-      <c r="D16">
-        <v>0.17484</v>
-      </c>
-      <c r="E16">
-        <v>0.17484</v>
-      </c>
-      <c r="F16">
-        <v>0.17484</v>
-      </c>
-      <c r="G16">
-        <v>0.17484</v>
-      </c>
-      <c r="H16">
-        <v>0.17484</v>
-      </c>
-      <c r="I16">
-        <v>0.17484</v>
-      </c>
-      <c r="J16">
-        <v>0.17484</v>
-      </c>
-      <c r="K16">
-        <v>0.17484</v>
-      </c>
-      <c r="L16">
-        <v>0.17484</v>
-      </c>
-      <c r="M16">
-        <v>0.17484</v>
-      </c>
-      <c r="N16">
-        <v>0.17484</v>
-      </c>
-      <c r="O16">
-        <v>0.17484</v>
-      </c>
-      <c r="P16">
-        <v>0.17484</v>
-      </c>
-      <c r="Q16">
-        <v>0.17484</v>
-      </c>
-      <c r="R16">
-        <v>0.17484</v>
-      </c>
-      <c r="S16">
-        <v>0.17484</v>
-      </c>
-      <c r="T16">
-        <v>0.17484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2013</v>
-      </c>
-      <c r="B17">
-        <v>0.13116000000000005</v>
-      </c>
-      <c r="C17">
-        <v>0.13116000000000005</v>
-      </c>
-      <c r="D17">
-        <v>0.13116</v>
-      </c>
-      <c r="E17">
-        <v>0.13116</v>
-      </c>
-      <c r="F17">
-        <v>0.13116</v>
-      </c>
-      <c r="G17">
-        <v>0.13116</v>
-      </c>
-      <c r="H17">
-        <v>0.13116</v>
-      </c>
-      <c r="I17">
-        <v>0.13116</v>
-      </c>
-      <c r="J17">
-        <v>0.13116</v>
-      </c>
-      <c r="K17">
-        <v>0.13116</v>
-      </c>
-      <c r="L17">
-        <v>0.13116</v>
-      </c>
-      <c r="M17">
-        <v>0.13116</v>
-      </c>
-      <c r="N17">
-        <v>0.13116</v>
-      </c>
-      <c r="O17">
-        <v>0.13116</v>
-      </c>
-      <c r="P17">
-        <v>0.13116</v>
-      </c>
-      <c r="Q17">
-        <v>0.13116</v>
-      </c>
-      <c r="R17">
-        <v>0.13116</v>
-      </c>
-      <c r="S17">
-        <v>0.13116</v>
-      </c>
-      <c r="T17">
-        <v>0.13116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2014</v>
-      </c>
-      <c r="B18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="C18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="D18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="G18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="H18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="J18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="K18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="L18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="M18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="P18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="Q18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="R18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="S18">
-        <v>0.12112000000000001</v>
-      </c>
-      <c r="T18">
-        <v>0.12112000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2015</v>
-      </c>
-      <c r="B19">
-        <v>0.32270916334661354</v>
-      </c>
-      <c r="C19">
-        <v>0.32270916334661354</v>
-      </c>
-      <c r="D19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="E19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="F19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="G19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="H19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="I19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="J19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="K19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="L19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="M19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="N19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="O19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="P19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="Q19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="R19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="S19">
-        <v>0.32270916334661398</v>
-      </c>
-      <c r="T19">
-        <v>0.32270916334661398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2016</v>
-      </c>
-      <c r="B20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="C20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="D20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="E20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="F20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="G20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="H20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="I20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="J20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="K20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="L20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="M20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="N20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="O20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="P20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="Q20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="R20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="S20">
-        <v>0.61431999999999998</v>
-      </c>
-      <c r="T20">
-        <v>0.61431999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2017</v>
-      </c>
-      <c r="B21">
-        <v>1.2028800000000002</v>
-      </c>
-      <c r="C21">
-        <v>1.2028800000000002</v>
-      </c>
-      <c r="D21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="E21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="F21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="G21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="H21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="I21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="J21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="K21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="L21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="M21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="N21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="O21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="P21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="Q21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="R21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="S21">
-        <v>1.2028799999999999</v>
-      </c>
-      <c r="T21">
-        <v>1.2028799999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2018</v>
-      </c>
-      <c r="B22">
-        <v>2.3308433734939786</v>
-      </c>
-      <c r="C22">
-        <v>2.3308433734939786</v>
-      </c>
-      <c r="D22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="E22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="F22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="G22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="H22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="I22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="J22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="K22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="L22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="M22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="N22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="O22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="P22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="Q22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="R22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="S22">
-        <v>2.33084337349398</v>
-      </c>
-      <c r="T22">
-        <v>2.33084337349398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2019</v>
-      </c>
-      <c r="B23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="C23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="D23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="E23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="F23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="G23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="H23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="I23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="J23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="K23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="L23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="M23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="N23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="O23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="P23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="Q23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="R23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="S23">
-        <v>2.0520399999999999</v>
-      </c>
-      <c r="T23">
-        <v>2.0520399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -18312,14 +18313,1458 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0935FD7E-059F-4888-BBAC-31CAC2015028}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="B3">
+        <v>1275.8600000000008</v>
+      </c>
+      <c r="C3">
+        <v>1275.8600000000008</v>
+      </c>
+      <c r="D3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="E3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="F3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="G3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="H3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="I3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="J3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="K3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="L3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="M3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="N3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="O3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="P3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="Q3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="R3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="S3">
+        <v>1275.8599999999999</v>
+      </c>
+      <c r="T3">
+        <v>1275.8599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>6.1129482071713115</v>
+      </c>
+      <c r="C4">
+        <v>6.1129482071713115</v>
+      </c>
+      <c r="D4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="E4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="F4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="G4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="H4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="I4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="J4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="K4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="L4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="M4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="N4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="O4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="P4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="Q4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="R4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="S4">
+        <v>6.1129482071713097</v>
+      </c>
+      <c r="T4">
+        <v>6.1129482071713097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
+        <v>3.4900000000000029</v>
+      </c>
+      <c r="C5">
+        <v>3.4900000000000029</v>
+      </c>
+      <c r="D5">
+        <v>3.49</v>
+      </c>
+      <c r="E5">
+        <v>3.49</v>
+      </c>
+      <c r="F5">
+        <v>3.49</v>
+      </c>
+      <c r="G5">
+        <v>3.49</v>
+      </c>
+      <c r="H5">
+        <v>3.49</v>
+      </c>
+      <c r="I5">
+        <v>3.49</v>
+      </c>
+      <c r="J5">
+        <v>3.49</v>
+      </c>
+      <c r="K5">
+        <v>3.49</v>
+      </c>
+      <c r="L5">
+        <v>3.49</v>
+      </c>
+      <c r="M5">
+        <v>3.49</v>
+      </c>
+      <c r="N5">
+        <v>3.49</v>
+      </c>
+      <c r="O5">
+        <v>3.49</v>
+      </c>
+      <c r="P5">
+        <v>3.49</v>
+      </c>
+      <c r="Q5">
+        <v>3.49</v>
+      </c>
+      <c r="R5">
+        <v>3.49</v>
+      </c>
+      <c r="S5">
+        <v>3.49</v>
+      </c>
+      <c r="T5">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6">
+        <v>2.0018800000000008</v>
+      </c>
+      <c r="C6">
+        <v>2.0018800000000008</v>
+      </c>
+      <c r="D6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="E6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="F6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="G6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="I6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="J6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="K6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="L6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="M6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="N6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="O6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="P6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="Q6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="R6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="S6">
+        <v>2.0018799999999999</v>
+      </c>
+      <c r="T6">
+        <v>2.0018799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7">
+        <v>1.2413999999999992</v>
+      </c>
+      <c r="C7">
+        <v>1.2413999999999992</v>
+      </c>
+      <c r="D7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="I7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="J7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="K7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="L7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="M7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="P7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="R7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="S7">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="T7">
+        <v>1.2414000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8">
+        <v>1.8876799999999998</v>
+      </c>
+      <c r="C8">
+        <v>1.8876799999999998</v>
+      </c>
+      <c r="D8">
+        <v>1.88768</v>
+      </c>
+      <c r="E8">
+        <v>1.88768</v>
+      </c>
+      <c r="F8">
+        <v>1.88768</v>
+      </c>
+      <c r="G8">
+        <v>1.88768</v>
+      </c>
+      <c r="H8">
+        <v>1.88768</v>
+      </c>
+      <c r="I8">
+        <v>1.88768</v>
+      </c>
+      <c r="J8">
+        <v>1.88768</v>
+      </c>
+      <c r="K8">
+        <v>1.88768</v>
+      </c>
+      <c r="L8">
+        <v>1.88768</v>
+      </c>
+      <c r="M8">
+        <v>1.88768</v>
+      </c>
+      <c r="N8">
+        <v>1.88768</v>
+      </c>
+      <c r="O8">
+        <v>1.88768</v>
+      </c>
+      <c r="P8">
+        <v>1.88768</v>
+      </c>
+      <c r="Q8">
+        <v>1.88768</v>
+      </c>
+      <c r="R8">
+        <v>1.88768</v>
+      </c>
+      <c r="S8">
+        <v>1.88768</v>
+      </c>
+      <c r="T8">
+        <v>1.88768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>3.6209600000000006</v>
+      </c>
+      <c r="C9">
+        <v>3.6209600000000006</v>
+      </c>
+      <c r="D9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="E9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="F9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="G9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="H9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="I9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="J9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="K9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="L9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="M9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="N9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="O9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="P9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="Q9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="R9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="S9">
+        <v>3.6209600000000002</v>
+      </c>
+      <c r="T9">
+        <v>3.6209600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>4.9362399999999989</v>
+      </c>
+      <c r="C10">
+        <v>4.9362399999999989</v>
+      </c>
+      <c r="D10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="E10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="F10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="G10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="H10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="I10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="J10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="K10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="L10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="M10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="N10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="O10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="P10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="Q10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="R10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="S10">
+        <v>4.9362399999999997</v>
+      </c>
+      <c r="T10">
+        <v>4.9362399999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <v>4.5312350597609594</v>
+      </c>
+      <c r="C11">
+        <v>4.5312350597609594</v>
+      </c>
+      <c r="D11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="E11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="F11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="G11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="H11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="I11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="J11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="K11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="L11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="M11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="N11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="O11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="P11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="Q11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="R11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="S11">
+        <v>4.5312350597609603</v>
+      </c>
+      <c r="T11">
+        <v>4.5312350597609603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>1.826812749003984</v>
+      </c>
+      <c r="C12">
+        <v>1.826812749003984</v>
+      </c>
+      <c r="D12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="E12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="F12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="G12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="H12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="I12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="J12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="K12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="L12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="M12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="N12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="O12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="P12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="Q12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="R12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="S12">
+        <v>1.8268127490039801</v>
+      </c>
+      <c r="T12">
+        <v>1.8268127490039801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>0.47352000000000022</v>
+      </c>
+      <c r="C13">
+        <v>0.47352000000000022</v>
+      </c>
+      <c r="D13">
+        <v>0.47352</v>
+      </c>
+      <c r="E13">
+        <v>0.47352</v>
+      </c>
+      <c r="F13">
+        <v>0.47352</v>
+      </c>
+      <c r="G13">
+        <v>0.47352</v>
+      </c>
+      <c r="H13">
+        <v>0.47352</v>
+      </c>
+      <c r="I13">
+        <v>0.47352</v>
+      </c>
+      <c r="J13">
+        <v>0.47352</v>
+      </c>
+      <c r="K13">
+        <v>0.47352</v>
+      </c>
+      <c r="L13">
+        <v>0.47352</v>
+      </c>
+      <c r="M13">
+        <v>0.47352</v>
+      </c>
+      <c r="N13">
+        <v>0.47352</v>
+      </c>
+      <c r="O13">
+        <v>0.47352</v>
+      </c>
+      <c r="P13">
+        <v>0.47352</v>
+      </c>
+      <c r="Q13">
+        <v>0.47352</v>
+      </c>
+      <c r="R13">
+        <v>0.47352</v>
+      </c>
+      <c r="S13">
+        <v>0.47352</v>
+      </c>
+      <c r="T13">
+        <v>0.47352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>0.31764940239043837</v>
+      </c>
+      <c r="C14">
+        <v>0.31764940239043837</v>
+      </c>
+      <c r="D14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="E14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="F14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="G14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="H14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="I14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="J14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="K14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="L14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="M14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="N14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="O14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="P14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="Q14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="R14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="S14">
+        <v>0.31764940239043798</v>
+      </c>
+      <c r="T14">
+        <v>0.31764940239043798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15">
+        <v>0.18088000000000004</v>
+      </c>
+      <c r="C15">
+        <v>0.18088000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="R15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="S15">
+        <v>0.18088000000000001</v>
+      </c>
+      <c r="T15">
+        <v>0.18088000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16">
+        <v>0.17483999999999983</v>
+      </c>
+      <c r="C16">
+        <v>0.17483999999999983</v>
+      </c>
+      <c r="D16">
+        <v>0.17484</v>
+      </c>
+      <c r="E16">
+        <v>0.17484</v>
+      </c>
+      <c r="F16">
+        <v>0.17484</v>
+      </c>
+      <c r="G16">
+        <v>0.17484</v>
+      </c>
+      <c r="H16">
+        <v>0.17484</v>
+      </c>
+      <c r="I16">
+        <v>0.17484</v>
+      </c>
+      <c r="J16">
+        <v>0.17484</v>
+      </c>
+      <c r="K16">
+        <v>0.17484</v>
+      </c>
+      <c r="L16">
+        <v>0.17484</v>
+      </c>
+      <c r="M16">
+        <v>0.17484</v>
+      </c>
+      <c r="N16">
+        <v>0.17484</v>
+      </c>
+      <c r="O16">
+        <v>0.17484</v>
+      </c>
+      <c r="P16">
+        <v>0.17484</v>
+      </c>
+      <c r="Q16">
+        <v>0.17484</v>
+      </c>
+      <c r="R16">
+        <v>0.17484</v>
+      </c>
+      <c r="S16">
+        <v>0.17484</v>
+      </c>
+      <c r="T16">
+        <v>0.17484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17">
+        <v>0.13116000000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.13116000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.13116</v>
+      </c>
+      <c r="E17">
+        <v>0.13116</v>
+      </c>
+      <c r="F17">
+        <v>0.13116</v>
+      </c>
+      <c r="G17">
+        <v>0.13116</v>
+      </c>
+      <c r="H17">
+        <v>0.13116</v>
+      </c>
+      <c r="I17">
+        <v>0.13116</v>
+      </c>
+      <c r="J17">
+        <v>0.13116</v>
+      </c>
+      <c r="K17">
+        <v>0.13116</v>
+      </c>
+      <c r="L17">
+        <v>0.13116</v>
+      </c>
+      <c r="M17">
+        <v>0.13116</v>
+      </c>
+      <c r="N17">
+        <v>0.13116</v>
+      </c>
+      <c r="O17">
+        <v>0.13116</v>
+      </c>
+      <c r="P17">
+        <v>0.13116</v>
+      </c>
+      <c r="Q17">
+        <v>0.13116</v>
+      </c>
+      <c r="R17">
+        <v>0.13116</v>
+      </c>
+      <c r="S17">
+        <v>0.13116</v>
+      </c>
+      <c r="T17">
+        <v>0.13116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="R18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="S18">
+        <v>0.12112000000000001</v>
+      </c>
+      <c r="T18">
+        <v>0.12112000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>0.32270916334661354</v>
+      </c>
+      <c r="C19">
+        <v>0.32270916334661354</v>
+      </c>
+      <c r="D19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="E19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="F19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="G19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="H19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="I19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="J19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="K19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="L19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="M19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="N19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="O19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="P19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="Q19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="R19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="S19">
+        <v>0.32270916334661398</v>
+      </c>
+      <c r="T19">
+        <v>0.32270916334661398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="G20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="H20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="J20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="K20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="L20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="M20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="O20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="P20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="R20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="S20">
+        <v>0.61431999999999998</v>
+      </c>
+      <c r="T20">
+        <v>0.61431999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>1.2028800000000002</v>
+      </c>
+      <c r="C21">
+        <v>1.2028800000000002</v>
+      </c>
+      <c r="D21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="F21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="G21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="I21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="J21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="K21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="L21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="M21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="O21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="P21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="Q21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="R21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="S21">
+        <v>1.2028799999999999</v>
+      </c>
+      <c r="T21">
+        <v>1.2028799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
+        <v>2.3308433734939786</v>
+      </c>
+      <c r="C22">
+        <v>2.3308433734939786</v>
+      </c>
+      <c r="D22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="E22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="F22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="G22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="H22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="I22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="J22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="K22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="L22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="M22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="N22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="O22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="P22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="Q22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="R22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="S22">
+        <v>2.33084337349398</v>
+      </c>
+      <c r="T22">
+        <v>2.33084337349398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="C23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="D23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="E23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="F23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="G23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="H23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="I23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="J23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="K23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="L23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="M23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="O23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="P23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="Q23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="R23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="S23">
+        <v>2.0520399999999999</v>
+      </c>
+      <c r="T23">
+        <v>2.0520399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26983,8 +28428,8 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27118,61 +28563,61 @@
         <v>1999</v>
       </c>
       <c r="B3">
-        <v>13.456099999999992</v>
+        <v>9.5860000000000127</v>
       </c>
       <c r="C3">
-        <v>65.202000000000055</v>
+        <v>11.380999999999972</v>
       </c>
       <c r="D3">
-        <v>-0.98490000000000011</v>
+        <v>-0.23704999999999998</v>
       </c>
       <c r="E3">
-        <v>22.959499999999998</v>
+        <v>12.108400000000003</v>
       </c>
       <c r="F3">
-        <v>-18.258099999999999</v>
+        <v>-11.860960000000002</v>
       </c>
       <c r="G3">
-        <v>-29.0047</v>
+        <v>-11.518000000000001</v>
       </c>
       <c r="H3">
-        <v>9.1740999999999531</v>
+        <v>33.51400000000001</v>
       </c>
       <c r="I3">
-        <v>14.005400000000009</v>
+        <v>20.925799999999981</v>
       </c>
       <c r="J3">
-        <v>-2.4119000000000002</v>
+        <v>0.25729999999999986</v>
       </c>
       <c r="K3">
-        <v>-1.1545999999999998</v>
+        <v>-0.61524000000000001</v>
       </c>
       <c r="L3">
-        <v>-1.7651000000000003</v>
+        <v>-1.2691699999999999</v>
       </c>
       <c r="M3">
-        <v>-2.8288999999999991</v>
+        <v>4.6839000000000013</v>
       </c>
       <c r="N3">
-        <v>-0.81160000000000032</v>
+        <v>-8.757000000000037E-2</v>
       </c>
       <c r="O3">
-        <v>11.651700000000005</v>
+        <v>22.684999999999974</v>
       </c>
       <c r="P3">
-        <v>-4.9354999999999976</v>
+        <v>0.92540000000001044</v>
       </c>
       <c r="Q3">
-        <v>-14.479899999999997</v>
+        <v>-12.379389999999997</v>
       </c>
       <c r="R3">
-        <v>-1.4469000000000012</v>
+        <v>-0.74583999999999939</v>
       </c>
       <c r="S3">
-        <v>-1.0388000000000002</v>
+        <v>-1.3687099999999983</v>
       </c>
       <c r="T3">
-        <v>9.5041999999999973</v>
+        <v>11.382999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -27180,61 +28625,61 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>11.75830000000002</v>
+        <v>7.344300000000004</v>
       </c>
       <c r="C4">
-        <v>59.129999999999995</v>
+        <v>3.5720000000000027</v>
       </c>
       <c r="D4">
-        <v>-1.1682999999999999</v>
+        <v>-0.20002000000000031</v>
       </c>
       <c r="E4">
-        <v>28.553599999999996</v>
+        <v>14.998800000000003</v>
       </c>
       <c r="F4">
-        <v>-23.557599999999997</v>
+        <v>-15.507419999999996</v>
       </c>
       <c r="G4">
-        <v>-44.274200000000008</v>
+        <v>-19.147999999999996</v>
       </c>
       <c r="H4">
-        <v>-12.265700000000038</v>
+        <v>19.646000000000015</v>
       </c>
       <c r="I4">
-        <v>1.9067999999999756</v>
+        <v>10.551300000000026</v>
       </c>
       <c r="J4">
-        <v>-2.9550000000000001</v>
+        <v>0.25760000000000005</v>
       </c>
       <c r="K4">
-        <v>-1.4434999999999998</v>
+        <v>-0.54716999999999993</v>
       </c>
       <c r="L4">
-        <v>-1.8262999999999998</v>
+        <v>-0.82655000000000012</v>
       </c>
       <c r="M4">
-        <v>-3.1402999999999999</v>
+        <v>5.7742000000000004</v>
       </c>
       <c r="N4">
-        <v>-1.0398000000000001</v>
+        <v>-0.29762000000000022</v>
       </c>
       <c r="O4">
-        <v>16.092399999999998</v>
+        <v>29.58200000000005</v>
       </c>
       <c r="P4">
-        <v>-5.070999999999998</v>
+        <v>2.8454000000000121</v>
       </c>
       <c r="Q4">
-        <v>-16.878499999999999</v>
+        <v>-14.181780000000003</v>
       </c>
       <c r="R4">
-        <v>-1.4911999999999992</v>
+        <v>-0.69330000000000069</v>
       </c>
       <c r="S4">
-        <v>-1.0045999999999999</v>
+        <v>-0.75272999999999968</v>
       </c>
       <c r="T4">
-        <v>12.624099999999999</v>
+        <v>12.507999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -27242,61 +28687,61 @@
         <v>2001</v>
       </c>
       <c r="B5">
-        <v>13.046300000000002</v>
+        <v>9.640500000000003</v>
       </c>
       <c r="C5">
-        <v>95.496000000000095</v>
+        <v>35.338000000000079</v>
       </c>
       <c r="D5">
-        <v>-1.0998999999999999</v>
+        <v>-0.27620000000000022</v>
       </c>
       <c r="E5">
-        <v>36.041199999999996</v>
+        <v>19.055800000000005</v>
       </c>
       <c r="F5">
-        <v>-24.097700000000003</v>
+        <v>-16.075450000000004</v>
       </c>
       <c r="G5">
-        <v>-42.418599999999998</v>
+        <v>-15.939999999999998</v>
       </c>
       <c r="H5">
-        <v>-5.8383000000000038</v>
+        <v>24.187000000000012</v>
       </c>
       <c r="I5">
-        <v>9.2327999999999975</v>
+        <v>16.474100000000021</v>
       </c>
       <c r="J5">
-        <v>-3.2578</v>
+        <v>0.52160000000000029</v>
       </c>
       <c r="K5">
-        <v>-1.6813000000000002</v>
+        <v>-0.77450999999999981</v>
       </c>
       <c r="L5">
-        <v>-1.9897</v>
+        <v>-0.77571999999999974</v>
       </c>
       <c r="M5">
-        <v>-2.8724000000000007</v>
+        <v>5.5945999999999998</v>
       </c>
       <c r="N5">
-        <v>-0.79190000000000005</v>
+        <v>-7.101000000000024E-2</v>
       </c>
       <c r="O5">
-        <v>24.807299999999969</v>
+        <v>31.602000000000032</v>
       </c>
       <c r="P5">
-        <v>-4.3337000000000074</v>
+        <v>3.7454999999999927</v>
       </c>
       <c r="Q5">
-        <v>-17.175899999999999</v>
+        <v>-13.872549999999997</v>
       </c>
       <c r="R5">
-        <v>-0.9980999999999991</v>
+        <v>-0.22011000000000003</v>
       </c>
       <c r="S5">
-        <v>-2.4179999999999975</v>
+        <v>-2.5578000000000003</v>
       </c>
       <c r="T5">
-        <v>11.833599999999997</v>
+        <v>13.379999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -27304,61 +28749,61 @@
         <v>2002</v>
       </c>
       <c r="B6">
-        <v>18.841300000000018</v>
+        <v>15.240700000000004</v>
       </c>
       <c r="C6">
-        <v>132.77099999999996</v>
+        <v>93.425999999999931</v>
       </c>
       <c r="D6">
-        <v>-1.4371</v>
+        <v>-0.57936999999999994</v>
       </c>
       <c r="E6">
-        <v>37.929999999999993</v>
+        <v>23.363900000000001</v>
       </c>
       <c r="F6">
-        <v>-26.3444</v>
+        <v>-16.547600000000003</v>
       </c>
       <c r="G6">
-        <v>-41.68549999999999</v>
+        <v>-14.925000000000011</v>
       </c>
       <c r="H6">
-        <v>2.5985999999999763</v>
+        <v>31.59899999999999</v>
       </c>
       <c r="I6">
-        <v>7.8378999999999905</v>
+        <v>10.221600000000024</v>
       </c>
       <c r="J6">
-        <v>-3.4537</v>
+        <v>0.13890000000000047</v>
       </c>
       <c r="K6">
-        <v>-1.8625000000000003</v>
+        <v>-0.85132999999999992</v>
       </c>
       <c r="L6">
-        <v>-2.4218000000000002</v>
+        <v>-0.86282000000000103</v>
       </c>
       <c r="M6">
-        <v>-2.5765999999999991</v>
+        <v>6.2952999999999975</v>
       </c>
       <c r="N6">
-        <v>-0.65410000000000013</v>
+        <v>0.19838999999999984</v>
       </c>
       <c r="O6">
-        <v>26.220200000000006</v>
+        <v>34.274999999999977</v>
       </c>
       <c r="P6">
-        <v>0.39560000000000173</v>
+        <v>8.3678999999999917</v>
       </c>
       <c r="Q6">
-        <v>-15.068100000000005</v>
+        <v>-11.634619999999998</v>
       </c>
       <c r="R6">
-        <v>-0.61190000000000033</v>
+        <v>0.23338999999999999</v>
       </c>
       <c r="S6">
-        <v>-2.2826000000000004</v>
+        <v>-2.40137</v>
       </c>
       <c r="T6">
-        <v>11.555900000000001</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -27366,61 +28811,61 @@
         <v>2003</v>
       </c>
       <c r="B7">
-        <v>18.274400000000014</v>
+        <v>15.065200000000004</v>
       </c>
       <c r="C7">
-        <v>129.904</v>
+        <v>83.466999999999985</v>
       </c>
       <c r="D7">
-        <v>-1.7130999999999998</v>
+        <v>-0.73911000000000016</v>
       </c>
       <c r="E7">
-        <v>34.3611</v>
+        <v>22.054400000000001</v>
       </c>
       <c r="F7">
-        <v>-29.958899999999996</v>
+        <v>-19.860030000000002</v>
       </c>
       <c r="G7">
-        <v>-46.372099999999989</v>
+        <v>-17.697000000000003</v>
       </c>
       <c r="H7">
-        <v>-6.0120000000000005</v>
+        <v>23.254999999999995</v>
       </c>
       <c r="I7">
-        <v>1.6035999999999717</v>
+        <v>6.3534000000000219</v>
       </c>
       <c r="J7">
-        <v>-3.1559000000000004</v>
+        <v>0.19519999999999982</v>
       </c>
       <c r="K7">
-        <v>-2.0703999999999998</v>
+        <v>-1.1982200000000001</v>
       </c>
       <c r="L7">
-        <v>-2.3676000000000004</v>
+        <v>-0.96453000000000078</v>
       </c>
       <c r="M7">
-        <v>-2.5355000000000008</v>
+        <v>6.2062999999999953</v>
       </c>
       <c r="N7">
-        <v>-0.86219999999999986</v>
+        <v>4.1340000000000821E-2</v>
       </c>
       <c r="O7">
-        <v>27.676800000000014</v>
+        <v>34.092999999999961</v>
       </c>
       <c r="P7">
-        <v>-2.1088000000000022</v>
+        <v>6.384200000000007</v>
       </c>
       <c r="Q7">
-        <v>-13.651500000000002</v>
+        <v>-9.35501</v>
       </c>
       <c r="R7">
-        <v>-0.95429999999999993</v>
+        <v>-8.1310000000000215E-2</v>
       </c>
       <c r="S7">
-        <v>-0.62539999999999907</v>
+        <v>-0.1986699999999999</v>
       </c>
       <c r="T7">
-        <v>9.421999999999997</v>
+        <v>9.9939999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -27428,61 +28873,61 @@
         <v>2004</v>
       </c>
       <c r="B8">
-        <v>17.079900000000009</v>
+        <v>14.52679999999998</v>
       </c>
       <c r="C8">
-        <v>156.07800000000009</v>
+        <v>117.66300000000001</v>
       </c>
       <c r="D8">
-        <v>-1.9344000000000001</v>
+        <v>-0.76454999999999984</v>
       </c>
       <c r="E8">
-        <v>34.547999999999995</v>
+        <v>22.444599999999994</v>
       </c>
       <c r="F8">
-        <v>-31.7821</v>
+        <v>-16.43139</v>
       </c>
       <c r="G8">
-        <v>-60.86330000000001</v>
+        <v>-31.800999999999988</v>
       </c>
       <c r="H8">
-        <v>-15.144799999999975</v>
+        <v>17.255999999999972</v>
       </c>
       <c r="I8">
-        <v>-1.2207000000000221</v>
+        <v>8.5588999999999942</v>
       </c>
       <c r="J8">
-        <v>-3.6610000000000005</v>
+        <v>-1.7199999999999882E-2</v>
       </c>
       <c r="K8">
-        <v>-2.4815000000000005</v>
+        <v>-1.7181499999999996</v>
       </c>
       <c r="L8">
-        <v>-2.4803999999999995</v>
+        <v>-1.283430000000001</v>
       </c>
       <c r="M8">
-        <v>-3.0525000000000002</v>
+        <v>6.9455999999999989</v>
       </c>
       <c r="N8">
-        <v>-0.90330000000000021</v>
+        <v>-6.4569999999999794E-2</v>
       </c>
       <c r="O8">
-        <v>30.346699999999998</v>
+        <v>40.966000000000008</v>
       </c>
       <c r="P8">
-        <v>-1.2297999999999973</v>
+        <v>7.1300999999999988</v>
       </c>
       <c r="Q8">
-        <v>-15.404400000000003</v>
+        <v>-11.982700000000001</v>
       </c>
       <c r="R8">
-        <v>-1.1234000000000002</v>
+        <v>-0.39977000000000018</v>
       </c>
       <c r="S8">
-        <v>-1.7017999999999986</v>
+        <v>-0.71929000000000087</v>
       </c>
       <c r="T8">
-        <v>8.1016000000000048</v>
+        <v>9.9549999999999983</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -27490,61 +28935,61 @@
         <v>2005</v>
       </c>
       <c r="B9">
-        <v>12.619799999999998</v>
+        <v>12.514999999999986</v>
       </c>
       <c r="C9">
-        <v>155.80899999999997</v>
+        <v>119.00200000000007</v>
       </c>
       <c r="D9">
-        <v>-2.0278</v>
+        <v>-0.57497000000000043</v>
       </c>
       <c r="E9">
-        <v>33.029899999999998</v>
+        <v>18.5291</v>
       </c>
       <c r="F9">
-        <v>-31.580499999999997</v>
+        <v>-16.490099999999998</v>
       </c>
       <c r="G9">
-        <v>-77.277600000000007</v>
+        <v>-44.548000000000002</v>
       </c>
       <c r="H9">
-        <v>-32.711600000000033</v>
+        <v>1.5079999999999814</v>
       </c>
       <c r="I9">
-        <v>-9.3688999999999965</v>
+        <v>-1.476099999999974</v>
       </c>
       <c r="J9">
-        <v>-3.8992999999999998</v>
+        <v>-7.8900000000000858E-2</v>
       </c>
       <c r="K9">
-        <v>-2.8422000000000001</v>
+        <v>-1.9692299999999996</v>
       </c>
       <c r="L9">
-        <v>-3.0077999999999996</v>
+        <v>-1.5189800000000009</v>
       </c>
       <c r="M9">
-        <v>-2.7606999999999982</v>
+        <v>7.6818999999999988</v>
       </c>
       <c r="N9">
-        <v>-1.0603</v>
+        <v>-0.12591000000000019</v>
       </c>
       <c r="O9">
-        <v>34.20150000000001</v>
+        <v>46.591000000000008</v>
       </c>
       <c r="P9">
-        <v>-1.7244000000000028</v>
+        <v>8.1448999999999927</v>
       </c>
       <c r="Q9">
-        <v>-20.242399999999996</v>
+        <v>-13.914849999999994</v>
       </c>
       <c r="R9">
-        <v>-0.87490000000000023</v>
+        <v>-0.1863500000000009</v>
       </c>
       <c r="S9">
-        <v>-2.2185999999999986</v>
+        <v>-1.5772300000000001</v>
       </c>
       <c r="T9">
-        <v>5.4109000000000052</v>
+        <v>6.534000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -27552,61 +28997,61 @@
         <v>2006</v>
       </c>
       <c r="B10">
-        <v>12.033900000000017</v>
+        <v>13.144199999999984</v>
       </c>
       <c r="C10">
-        <v>160.41899999999998</v>
+        <v>129.178</v>
       </c>
       <c r="D10">
-        <v>-2.9923999999999991</v>
+        <v>-1.3717800000000011</v>
       </c>
       <c r="E10">
-        <v>28.359400000000001</v>
+        <v>14.88130000000001</v>
       </c>
       <c r="F10">
-        <v>-36.443300000000001</v>
+        <v>-22.880299999999998</v>
       </c>
       <c r="G10">
-        <v>-91.573299999999989</v>
+        <v>-57.163000000000011</v>
       </c>
       <c r="H10">
-        <v>-36.676900000000046</v>
+        <v>-4.3120000000000118</v>
       </c>
       <c r="I10">
-        <v>-20.451900000000023</v>
+        <v>-12.750699999999995</v>
       </c>
       <c r="J10">
-        <v>-4.4558</v>
+        <v>-0.4695999999999998</v>
       </c>
       <c r="K10">
-        <v>-4.2896000000000001</v>
+        <v>-3.5353000000000003</v>
       </c>
       <c r="L10">
-        <v>-4.1668000000000003</v>
+        <v>-2.4714100000000006</v>
       </c>
       <c r="M10">
-        <v>-3.2735000000000021</v>
+        <v>10.7834</v>
       </c>
       <c r="N10">
-        <v>-1.2037</v>
+        <v>-0.18178999999999945</v>
       </c>
       <c r="O10">
-        <v>37.270699999999977</v>
+        <v>50.213000000000022</v>
       </c>
       <c r="P10">
-        <v>-0.36679999999999779</v>
+        <v>9.6283000000000101</v>
       </c>
       <c r="Q10">
-        <v>-20.6541</v>
+        <v>-13.021929999999998</v>
       </c>
       <c r="R10">
-        <v>-0.72540000000000049</v>
+        <v>-1.5090000000000714E-2</v>
       </c>
       <c r="S10">
-        <v>-2.4878999999999962</v>
+        <v>-1.2098399999999998</v>
       </c>
       <c r="T10">
-        <v>6.2365999999999957</v>
+        <v>7.2010000000000076</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -27614,61 +29059,61 @@
         <v>2007</v>
       </c>
       <c r="B11">
-        <v>14.151200000000017</v>
+        <v>14.20920000000001</v>
       </c>
       <c r="C11">
-        <v>194.25800000000004</v>
+        <v>169.24700000000007</v>
       </c>
       <c r="D11">
-        <v>-3.4053000000000004</v>
+        <v>-1.4417500000000008</v>
       </c>
       <c r="E11">
-        <v>27.523799999999994</v>
+        <v>16.310900000000004</v>
       </c>
       <c r="F11">
-        <v>-42.541800000000002</v>
+        <v>-29.049209999999995</v>
       </c>
       <c r="G11">
-        <v>-99.23690000000002</v>
+        <v>-62.146000000000015</v>
       </c>
       <c r="H11">
-        <v>-51.987900000000025</v>
+        <v>-13.865999999999985</v>
       </c>
       <c r="I11">
-        <v>-8.5963999999999601</v>
+        <v>-5.4802999999999997</v>
       </c>
       <c r="J11">
-        <v>-5.2686000000000002</v>
+        <v>-0.83300000000000018</v>
       </c>
       <c r="K11">
-        <v>-5.1175000000000006</v>
+        <v>-4.2972400000000004</v>
       </c>
       <c r="L11">
-        <v>-5.3030999999999988</v>
+        <v>-3.8115299999999994</v>
       </c>
       <c r="M11">
-        <v>-3.718399999999999</v>
+        <v>12.369799999999998</v>
       </c>
       <c r="N11">
-        <v>-0.99619999999999997</v>
+        <v>3.2460000000000377E-2</v>
       </c>
       <c r="O11">
-        <v>42.457899999999995</v>
+        <v>43.918000000000006</v>
       </c>
       <c r="P11">
-        <v>0.42569999999999197</v>
+        <v>12.462299999999999</v>
       </c>
       <c r="Q11">
-        <v>-21.632799999999996</v>
+        <v>-13.262589999999996</v>
       </c>
       <c r="R11">
-        <v>-1.0583999999999989</v>
+        <v>-0.46612999999999971</v>
       </c>
       <c r="S11">
-        <v>-1.5328000000000017</v>
+        <v>0.272980000000004</v>
       </c>
       <c r="T11">
-        <v>6.071700000000007</v>
+        <v>8.9690000000000083</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -27676,61 +29121,61 @@
         <v>2008</v>
       </c>
       <c r="B12">
-        <v>3.7615999999999872</v>
+        <v>2.3665000000000305</v>
       </c>
       <c r="C12">
-        <v>177.52499999999998</v>
+        <v>154.66300000000012</v>
       </c>
       <c r="D12">
-        <v>-2.4261999999999997</v>
+        <v>-0.6488599999999991</v>
       </c>
       <c r="E12">
-        <v>28.389100000000006</v>
+        <v>16.157100000000014</v>
       </c>
       <c r="F12">
-        <v>-44.301399999999994</v>
+        <v>-30.506710000000005</v>
       </c>
       <c r="G12">
-        <v>-94.716999999999985</v>
+        <v>-52.54200000000003</v>
       </c>
       <c r="H12">
-        <v>-68.366999999999962</v>
+        <v>-23.077999999999975</v>
       </c>
       <c r="I12">
-        <v>-13.034699999999987</v>
+        <v>-12.566499999999962</v>
       </c>
       <c r="J12">
-        <v>-6.1263000000000005</v>
+        <v>-2.4260999999999999</v>
       </c>
       <c r="K12">
-        <v>-4.0780999999999992</v>
+        <v>-3.1453800000000012</v>
       </c>
       <c r="L12">
-        <v>-5.0667999999999971</v>
+        <v>-3.7834199999999996</v>
       </c>
       <c r="M12">
-        <v>-4.394400000000001</v>
+        <v>11.690900000000006</v>
       </c>
       <c r="N12">
-        <v>-1.2364000000000002</v>
+        <v>-1.5219999999999345E-2</v>
       </c>
       <c r="O12">
-        <v>38.741399999999999</v>
+        <v>55.188999999999965</v>
       </c>
       <c r="P12">
-        <v>-2.0426000000000073</v>
+        <v>12.996200000000016</v>
       </c>
       <c r="Q12">
-        <v>-25.346499999999999</v>
+        <v>-17.11074</v>
       </c>
       <c r="R12">
-        <v>-1.9758999999999993</v>
+        <v>-0.79834999999999923</v>
       </c>
       <c r="S12">
-        <v>-1.8828999999999994</v>
+        <v>-1.2173900000000017</v>
       </c>
       <c r="T12">
-        <v>3.1779000000000082</v>
+        <v>7.0240000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -27738,61 +29183,61 @@
         <v>2009</v>
       </c>
       <c r="B13">
-        <v>11.618499999999983</v>
+        <v>7.8370999999999924</v>
       </c>
       <c r="C13">
-        <v>138.86899999999991</v>
+        <v>122.55799999999999</v>
       </c>
       <c r="D13">
-        <v>-0.78329999999999966</v>
+        <v>0.70150999999999986</v>
       </c>
       <c r="E13">
-        <v>38.159199999999998</v>
+        <v>22.920500000000004</v>
       </c>
       <c r="F13">
-        <v>-35.122900000000001</v>
+        <v>-23.229590000000002</v>
       </c>
       <c r="G13">
-        <v>-47.231900000000024</v>
+        <v>-9.3189999999999884</v>
       </c>
       <c r="H13">
-        <v>-56.062299999999993</v>
+        <v>-15.324000000000012</v>
       </c>
       <c r="I13">
-        <v>-5.8753000000000384</v>
+        <v>-9.7858999999999696</v>
       </c>
       <c r="J13">
-        <v>-4.7158999999999995</v>
+        <v>-0.99849999999999994</v>
       </c>
       <c r="K13">
-        <v>-1.5124000000000004</v>
+        <v>-0.30511999999999873</v>
       </c>
       <c r="L13">
-        <v>-1.325899999999999</v>
+        <v>-0.45255000000000045</v>
       </c>
       <c r="M13">
-        <v>-2.8615999999999993</v>
+        <v>11.893900000000002</v>
       </c>
       <c r="N13">
-        <v>-1.1617999999999999</v>
+        <v>-9.2309999999999448E-2</v>
       </c>
       <c r="O13">
-        <v>39.244200000000035</v>
+        <v>47.390999999999963</v>
       </c>
       <c r="P13">
-        <v>-4.3555000000000064</v>
+        <v>9.6569999999999965</v>
       </c>
       <c r="Q13">
-        <v>-19.681500000000003</v>
+        <v>-12.112870000000001</v>
       </c>
       <c r="R13">
-        <v>-0.35770000000000124</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="S13">
-        <v>0.30969999999999942</v>
+        <v>-0.10797999999999774</v>
       </c>
       <c r="T13">
-        <v>1.4087999999999994</v>
+        <v>3.7049999999999912</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -27800,61 +29245,61 @@
         <v>2010</v>
       </c>
       <c r="B14">
-        <v>12.457699999999988</v>
+        <v>6.1822999999999979</v>
       </c>
       <c r="C14">
-        <v>153.96299999999997</v>
+        <v>134.947</v>
       </c>
       <c r="D14">
-        <v>-0.52519999999999989</v>
+        <v>0.94644000000000084</v>
       </c>
       <c r="E14">
-        <v>40.953100000000006</v>
+        <v>27.871800000000007</v>
       </c>
       <c r="F14">
-        <v>-28.486999999999998</v>
+        <v>-19.494509999999998</v>
       </c>
       <c r="G14">
-        <v>-54.762200000000007</v>
+        <v>-10.993999999999971</v>
       </c>
       <c r="H14">
-        <v>-65.854199999999992</v>
+        <v>-25.763000000000034</v>
       </c>
       <c r="I14">
-        <v>-29.982399999999984</v>
+        <v>-29.939000000000021</v>
       </c>
       <c r="J14">
-        <v>-5.4062000000000001</v>
+        <v>-1.6190999999999995</v>
       </c>
       <c r="K14">
-        <v>-1.6286000000000005</v>
+        <v>-0.26446999999999932</v>
       </c>
       <c r="L14">
-        <v>-2.0021999999999984</v>
+        <v>-0.56143000000000143</v>
       </c>
       <c r="M14">
-        <v>-4.5328999999999997</v>
+        <v>13.212400000000002</v>
       </c>
       <c r="N14">
-        <v>-1.1133999999999999</v>
+        <v>-6.0069999999999624E-2</v>
       </c>
       <c r="O14">
-        <v>46.339699999999993</v>
+        <v>51.680000000000007</v>
       </c>
       <c r="P14">
-        <v>-4.8650999999999982</v>
+        <v>10.369799999999998</v>
       </c>
       <c r="Q14">
-        <v>-21.379399999999997</v>
+        <v>-13.730669999999996</v>
       </c>
       <c r="R14">
-        <v>-0.69229999999999947</v>
+        <v>0.38478999999999886</v>
       </c>
       <c r="S14">
-        <v>-0.51120000000000232</v>
+        <v>-0.21117000000000274</v>
       </c>
       <c r="T14">
-        <v>0.5385999999999953</v>
+        <v>2.5670000000000073</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -27862,61 +29307,61 @@
         <v>2011</v>
       </c>
       <c r="B15">
-        <v>6.2706000000000017</v>
+        <v>-0.37220000000002074</v>
       </c>
       <c r="C15">
-        <v>157.40999999999997</v>
+        <v>132.20400000000018</v>
       </c>
       <c r="D15">
-        <v>-0.53900000000000148</v>
+        <v>0.96988999999999947</v>
       </c>
       <c r="E15">
-        <v>39.094200000000001</v>
+        <v>32.16040000000001</v>
       </c>
       <c r="F15">
-        <v>-23.646100000000001</v>
+        <v>-14.023700000000005</v>
       </c>
       <c r="G15">
-        <v>-50.326899999999995</v>
+        <v>2.9440000000000168</v>
       </c>
       <c r="H15">
-        <v>-88.761499999999955</v>
+        <v>-40.095000000000027</v>
       </c>
       <c r="I15">
-        <v>-25.523799999999994</v>
+        <v>-23.092399999999998</v>
       </c>
       <c r="J15">
-        <v>-4.9275000000000002</v>
+        <v>-0.75779999999999959</v>
       </c>
       <c r="K15">
-        <v>-2.2699999999999996</v>
+        <v>-1.01065</v>
       </c>
       <c r="L15">
-        <v>-2.6747000000000014</v>
+        <v>-0.84093000000000018</v>
       </c>
       <c r="M15">
-        <v>-5.7420999999999989</v>
+        <v>14.041299999999993</v>
       </c>
       <c r="N15">
-        <v>-1.3696999999999999</v>
+        <v>0.15366999999999997</v>
       </c>
       <c r="O15">
-        <v>52.25200000000001</v>
+        <v>55.504000000000019</v>
       </c>
       <c r="P15">
-        <v>-10.05019999999999</v>
+        <v>8.6667000000000201</v>
       </c>
       <c r="Q15">
-        <v>-16.723700000000001</v>
+        <v>-7.3781200000000027</v>
       </c>
       <c r="R15">
-        <v>-0.61060000000000159</v>
+        <v>0.45077999999999818</v>
       </c>
       <c r="S15">
-        <v>-0.30449999999999733</v>
+        <v>0.50224000000000046</v>
       </c>
       <c r="T15">
-        <v>-3.6794999999999973</v>
+        <v>-1.5419999999999874</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -27924,61 +29369,61 @@
         <v>2012</v>
       </c>
       <c r="B16">
-        <v>5.300899999999956</v>
+        <v>0.24310000000002674</v>
       </c>
       <c r="C16">
-        <v>191.67200000000003</v>
+        <v>167.46899999999982</v>
       </c>
       <c r="D16">
-        <v>-1.5558000000000014</v>
+        <v>0.29664000000000001</v>
       </c>
       <c r="E16">
-        <v>37.617100000000001</v>
+        <v>30.614100000000008</v>
       </c>
       <c r="F16">
-        <v>-20.488200000000003</v>
+        <v>-8.5081500000000005</v>
       </c>
       <c r="G16">
-        <v>-32.758799999999979</v>
+        <v>21.293999999999983</v>
       </c>
       <c r="H16">
-        <v>-82.274900000000059</v>
+        <v>-27.071000000000026</v>
       </c>
       <c r="I16">
-        <v>9.8892999999999915</v>
+        <v>17.929100000000005</v>
       </c>
       <c r="J16">
-        <v>-4.3243999999999998</v>
+        <v>-0.37199999999999989</v>
       </c>
       <c r="K16">
-        <v>-2.4248999999999992</v>
+        <v>-0.97322000000000131</v>
       </c>
       <c r="L16">
-        <v>-1.8315000000000019</v>
+        <v>0.20382999999999996</v>
       </c>
       <c r="M16">
-        <v>-6.5695000000000014</v>
+        <v>13.686499999999995</v>
       </c>
       <c r="N16">
-        <v>-1.8271000000000002</v>
+        <v>0.33285999999999838</v>
       </c>
       <c r="O16">
-        <v>53.274400000000014</v>
+        <v>63.588000000000022</v>
       </c>
       <c r="P16">
-        <v>-9.2638999999999783</v>
+        <v>8.9069000000000074</v>
       </c>
       <c r="Q16">
-        <v>-11.161100000000005</v>
+        <v>-0.83273999999999404</v>
       </c>
       <c r="R16">
-        <v>9.9600000000002353E-2</v>
+        <v>1.2321600000000004</v>
       </c>
       <c r="S16">
-        <v>2.540300000000002</v>
+        <v>4.0557700000000025</v>
       </c>
       <c r="T16">
-        <v>-2.6392000000000024</v>
+        <v>-3.1239999999999952</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -27986,61 +29431,61 @@
         <v>2013</v>
       </c>
       <c r="B17">
-        <v>12.862700000000018</v>
+        <v>3.1345999999999776</v>
       </c>
       <c r="C17">
-        <v>198.65499999999986</v>
+        <v>161.89099999999985</v>
       </c>
       <c r="D17">
-        <v>-1.6145999999999994</v>
+        <v>0.50746999999999964</v>
       </c>
       <c r="E17">
-        <v>32.640299999999996</v>
+        <v>33.788300000000021</v>
       </c>
       <c r="F17">
-        <v>-18.599599999999999</v>
+        <v>-5.0805100000000039</v>
       </c>
       <c r="G17">
-        <v>-17.140499999999975</v>
+        <v>40.088000000000022</v>
       </c>
       <c r="H17">
-        <v>-76.73780000000005</v>
+        <v>-21.903999999999996</v>
       </c>
       <c r="I17">
-        <v>29.230200000000025</v>
+        <v>38.688400000000001</v>
       </c>
       <c r="J17">
-        <v>-3.2334999999999994</v>
+        <v>0.28439999999999976</v>
       </c>
       <c r="K17">
-        <v>-2.5584999999999987</v>
+        <v>-0.80888999999999989</v>
       </c>
       <c r="L17">
-        <v>-1.6632999999999996</v>
+        <v>0.50820000000000221</v>
       </c>
       <c r="M17">
-        <v>-6.2096</v>
+        <v>14.886900000000011</v>
       </c>
       <c r="N17">
-        <v>-1.8759999999999999</v>
+        <v>0.47968999999999973</v>
       </c>
       <c r="O17">
-        <v>61.636199999999974</v>
+        <v>67.444000000000017</v>
       </c>
       <c r="P17">
-        <v>-6.1156000000000006</v>
+        <v>9.1219000000000108</v>
       </c>
       <c r="Q17">
-        <v>-9.7100999999999971</v>
+        <v>1.8729900000000015</v>
       </c>
       <c r="R17">
-        <v>0.48629999999999995</v>
+        <v>1.704819999999998</v>
       </c>
       <c r="S17">
-        <v>2.8676999999999992</v>
+        <v>4.1663900000000069</v>
       </c>
       <c r="T17">
-        <v>-2.3589999999999947</v>
+        <v>-2.1629999999999967</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -28048,61 +29493,61 @@
         <v>2014</v>
       </c>
       <c r="B18">
-        <v>13.860899999999958</v>
+        <v>3.2998000000000047</v>
       </c>
       <c r="C18">
-        <v>216.45900000000006</v>
+        <v>193.75</v>
       </c>
       <c r="D18">
-        <v>-1.6932000000000009</v>
+        <v>0.69955999999999818</v>
       </c>
       <c r="E18">
-        <v>29.385199999999998</v>
+        <v>35.185400000000016</v>
       </c>
       <c r="F18">
-        <v>-19.609599999999997</v>
+        <v>-4.2937899999999942</v>
       </c>
       <c r="G18">
-        <v>-25.885200000000026</v>
+        <v>31.992000000000019</v>
       </c>
       <c r="H18">
-        <v>-71.444799999999987</v>
+        <v>-24.624000000000024</v>
       </c>
       <c r="I18">
-        <v>41.931500000000028</v>
+        <v>47.122200000000021</v>
       </c>
       <c r="J18">
-        <v>-3.6414999999999997</v>
+        <v>0.16349999999999909</v>
       </c>
       <c r="K18">
-        <v>-2.4452999999999996</v>
+        <v>-0.48156999999999961</v>
       </c>
       <c r="L18">
-        <v>-1.5284000000000013</v>
+        <v>0.66549000000000191</v>
       </c>
       <c r="M18">
-        <v>-5.6972999999999985</v>
+        <v>16.148099999999999</v>
       </c>
       <c r="N18">
-        <v>-2.9263999999999997</v>
+        <v>1.0499499999999991</v>
       </c>
       <c r="O18">
-        <v>62.650100000000009</v>
+        <v>74.557000000000016</v>
       </c>
       <c r="P18">
-        <v>-2.8288000000000011</v>
+        <v>10.892599999999987</v>
       </c>
       <c r="Q18">
-        <v>-10.978299999999997</v>
+        <v>0.25893999999999551</v>
       </c>
       <c r="R18">
-        <v>1.5237999999999978</v>
+        <v>2.541719999999998</v>
       </c>
       <c r="S18">
-        <v>3.5087000000000046</v>
+        <v>3.6739999999999924</v>
       </c>
       <c r="T18">
-        <v>-1.7965000000000018</v>
+        <v>-2.3790000000000049</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -28110,61 +29555,61 @@
         <v>2015</v>
       </c>
       <c r="B19">
-        <v>19.201399999999978</v>
+        <v>5.9089000000000169</v>
       </c>
       <c r="C19">
-        <v>248.19499999999994</v>
+        <v>229.13499999999999</v>
       </c>
       <c r="D19">
-        <v>-1.5216999999999992</v>
+        <v>0.81160000000000032</v>
       </c>
       <c r="E19">
-        <v>41.808199999999999</v>
+        <v>75.678800000000024</v>
       </c>
       <c r="F19">
-        <v>-16.458100000000002</v>
+        <v>9.1079999999998051E-2</v>
       </c>
       <c r="G19">
-        <v>-26.622500000000002</v>
+        <v>32.762999999999977</v>
       </c>
       <c r="H19">
-        <v>-58.098500000000058</v>
+        <v>-12.452999999999975</v>
       </c>
       <c r="I19">
-        <v>41.806899999999985</v>
+        <v>49.888899999999978</v>
       </c>
       <c r="J19">
-        <v>-3.3775000000000004</v>
+        <v>0.4679000000000002</v>
       </c>
       <c r="K19">
-        <v>-2.1953999999999994</v>
+        <v>-0.22197000000000067</v>
       </c>
       <c r="L19">
-        <v>-2.4952000000000005</v>
+        <v>-0.37234999999999729</v>
       </c>
       <c r="M19">
-        <v>-5.5558000000000014</v>
+        <v>17.718599999999995</v>
       </c>
       <c r="N19">
-        <v>-3.0880000000000001</v>
+        <v>0.92952000000000012</v>
       </c>
       <c r="O19">
-        <v>52.511799999999994</v>
+        <v>51.758999999999901</v>
       </c>
       <c r="P19">
-        <v>-2.9422999999999888</v>
+        <v>12.912899999999979</v>
       </c>
       <c r="Q19">
-        <v>-10.710799999999999</v>
+        <v>1.3286900000000088</v>
       </c>
       <c r="R19">
-        <v>1.9053000000000004</v>
+        <v>3.1087999999999987</v>
       </c>
       <c r="S19">
-        <v>2.0690000000000026</v>
+        <v>2.4525099999999895</v>
       </c>
       <c r="T19">
-        <v>-0.53619999999999379</v>
+        <v>-1.2019999999999982</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -28172,61 +29617,61 @@
         <v>2016</v>
       </c>
       <c r="B20">
-        <v>16.925800000000038</v>
+        <v>5.136099999999999</v>
       </c>
       <c r="C20">
-        <v>251.72800000000007</v>
+        <v>230.77099999999996</v>
       </c>
       <c r="D20">
-        <v>-1.6179999999999986</v>
+        <v>0.84811999999999976</v>
       </c>
       <c r="E20">
-        <v>44.851600000000005</v>
+        <v>42.353400000000022</v>
       </c>
       <c r="F20">
-        <v>-16.871099999999998</v>
+        <v>-1.258420000000001</v>
       </c>
       <c r="G20">
-        <v>-19.015899999999988</v>
+        <v>44.41500000000002</v>
       </c>
       <c r="H20">
-        <v>-60.024200000000008</v>
+        <v>-13.518000000000029</v>
       </c>
       <c r="I20">
-        <v>49.643199999999979</v>
+        <v>55.760500000000036</v>
       </c>
       <c r="J20">
-        <v>-4.3964999999999996</v>
+        <v>0.32100000000000151</v>
       </c>
       <c r="K20">
-        <v>-1.9365000000000006</v>
+        <v>0.24628999999999834</v>
       </c>
       <c r="L20">
-        <v>-2.1300000000000026</v>
+        <v>0.30315999999999832</v>
       </c>
       <c r="M20">
-        <v>-5.5021000000000004</v>
+        <v>19.427899999999994</v>
       </c>
       <c r="N20">
-        <v>-2.9319999999999999</v>
+        <v>1.4243099999999984</v>
       </c>
       <c r="O20">
-        <v>63.171000000000049</v>
+        <v>72.33299999999997</v>
       </c>
       <c r="P20">
-        <v>-5.1017999999999972</v>
+        <v>13.697100000000006</v>
       </c>
       <c r="Q20">
-        <v>-11.384999999999998</v>
+        <v>2.1398200000000003</v>
       </c>
       <c r="R20">
-        <v>2.1450999999999993</v>
+        <v>3.4502199999999981</v>
       </c>
       <c r="S20">
-        <v>2.1320999999999941</v>
+        <v>2.3900700000000086</v>
       </c>
       <c r="T20">
-        <v>-2.6743000000000023</v>
+        <v>-2.7790000000000106</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -28234,61 +29679,61 @@
         <v>2017</v>
       </c>
       <c r="B21">
-        <v>18.523099999999999</v>
+        <v>6.2210000000000036</v>
       </c>
       <c r="C21">
-        <v>252.29399999999987</v>
+        <v>230.44200000000001</v>
       </c>
       <c r="D21">
-        <v>-1.8928999999999991</v>
+        <v>1.0176599999999993</v>
       </c>
       <c r="E21">
-        <v>39.165800000000004</v>
+        <v>65.626800000000003</v>
       </c>
       <c r="F21">
-        <v>-18.493199999999998</v>
+        <v>-1.8377899999999983</v>
       </c>
       <c r="G21">
-        <v>-28.556499999999971</v>
+        <v>41.586000000000013</v>
       </c>
       <c r="H21">
-        <v>-74.325699999999983</v>
+        <v>-24.288000000000011</v>
       </c>
       <c r="I21">
-        <v>47.641599999999983</v>
+        <v>49.723699999999951</v>
       </c>
       <c r="J21">
-        <v>-5.2449000000000003</v>
+        <v>-7.5000000000001066E-2</v>
       </c>
       <c r="K21">
-        <v>-2.5685000000000002</v>
+        <v>4.1820000000001301E-2</v>
       </c>
       <c r="L21">
-        <v>-2.1057000000000023</v>
+        <v>1.0075500000000019</v>
       </c>
       <c r="M21">
-        <v>-6.3010000000000002</v>
+        <v>19.977800000000002</v>
       </c>
       <c r="N21">
-        <v>-2.7885000000000004</v>
+        <v>2.399189999999999</v>
       </c>
       <c r="O21">
-        <v>68.714499999999987</v>
+        <v>79.389999999999986</v>
       </c>
       <c r="P21">
-        <v>-6.8199999999999932</v>
+        <v>12.227800000000002</v>
       </c>
       <c r="Q21">
-        <v>-14.670500000000004</v>
+        <v>1.977879999999999</v>
       </c>
       <c r="R21">
-        <v>2.0897999999999968</v>
+        <v>3.8683600000000027</v>
       </c>
       <c r="S21">
-        <v>1.5981000000000023</v>
+        <v>1.8496099999999984</v>
       </c>
       <c r="T21">
-        <v>-2.2213000000000065</v>
+        <v>0.25900000000000034</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -28296,61 +29741,61 @@
         <v>2018</v>
       </c>
       <c r="B22">
-        <v>11.641100000000051</v>
+        <v>-0.75030000000003838</v>
       </c>
       <c r="C22">
-        <v>233.30099999999993</v>
+        <v>206.05899999999997</v>
       </c>
       <c r="D22">
-        <v>-1.7958000000000016</v>
+        <v>0.91461999999999932</v>
       </c>
       <c r="E22">
-        <v>48.22760000000001</v>
+        <v>107.38979999999998</v>
       </c>
       <c r="F22">
-        <v>-20.609299999999998</v>
+        <v>-0.48254000000000019</v>
       </c>
       <c r="G22">
-        <v>-37.177000000000021</v>
+        <v>32.62299999999999</v>
       </c>
       <c r="H22">
-        <v>-75.755599999999959</v>
+        <v>-18.201000000000022</v>
       </c>
       <c r="I22">
-        <v>39.28000000000003</v>
+        <v>42.245899999999892</v>
       </c>
       <c r="J22">
-        <v>-4.9150000000000009</v>
+        <v>0.16610000000000014</v>
       </c>
       <c r="K22">
-        <v>-2.992700000000001</v>
+        <v>-5.3969999999999629E-2</v>
       </c>
       <c r="L22">
-        <v>-2.6716999999999977</v>
+        <v>0.8790300000000002</v>
       </c>
       <c r="M22">
-        <v>-6.5198</v>
+        <v>21.627900000000011</v>
       </c>
       <c r="N22">
-        <v>-2.8055999999999996</v>
+        <v>2.6080900000000007</v>
       </c>
       <c r="O22">
-        <v>68.774100000000089</v>
+        <v>85.071999999999889</v>
       </c>
       <c r="P22">
-        <v>-7.5789999999999793</v>
+        <v>14.354099999999988</v>
       </c>
       <c r="Q22">
-        <v>-17.557400000000001</v>
+        <v>0.84729999999998995</v>
       </c>
       <c r="R22">
-        <v>1.6195000000000022</v>
+        <v>3.9928800000000066</v>
       </c>
       <c r="S22">
-        <v>0.40919999999999845</v>
+        <v>1.8172800000000109</v>
       </c>
       <c r="T22">
-        <v>-2.340999999999994</v>
+        <v>-2.3249999999999886</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -28358,61 +29803,61 @@
         <v>2019</v>
       </c>
       <c r="B23">
-        <v>16.540800000000047</v>
+        <v>1.7299999999977445E-2</v>
       </c>
       <c r="C23">
-        <v>227.62899999999991</v>
+        <v>207.69200000000001</v>
       </c>
       <c r="D23">
-        <v>-1.7104999999999997</v>
+        <v>1.1191800000000001</v>
       </c>
       <c r="E23">
-        <v>62.994299999999996</v>
+        <v>49.914899999999989</v>
       </c>
       <c r="F23">
-        <v>-21.756300000000003</v>
+        <v>-1.7809999999997217E-2</v>
       </c>
       <c r="G23">
-        <v>-34.221599999999967</v>
+        <v>35.161000000000001</v>
       </c>
       <c r="H23">
-        <v>-72.697900000000004</v>
+        <v>-12.501999999999953</v>
       </c>
       <c r="I23">
-        <v>52.933600000000013</v>
+        <v>54.916399999999953</v>
       </c>
       <c r="J23">
-        <v>-5.101700000000001</v>
+        <v>-8.6199999999999832E-2</v>
       </c>
       <c r="K23">
-        <v>-2.9110999999999994</v>
+        <v>2.5220000000000908E-2</v>
       </c>
       <c r="L23">
-        <v>-2.2182999999999993</v>
+        <v>2.4035100000000043</v>
       </c>
       <c r="M23">
-        <v>-6.6875</v>
+        <v>22.858799999999988</v>
       </c>
       <c r="N23">
-        <v>-3.6256000000000004</v>
+        <v>2.6666299999999978</v>
       </c>
       <c r="O23">
-        <v>65.27800000000002</v>
+        <v>87.093999999999937</v>
       </c>
       <c r="P23">
-        <v>-5.289100000000019</v>
+        <v>14.180599999999998</v>
       </c>
       <c r="Q23">
-        <v>-20.395599999999995</v>
+        <v>0.18213000000000079</v>
       </c>
       <c r="R23">
-        <v>0.80030000000000001</v>
+        <v>4.3867000000000047</v>
       </c>
       <c r="S23">
-        <v>-0.38299999999999557</v>
+        <v>0.96798000000001139</v>
       </c>
       <c r="T23">
-        <v>-0.18619999999999948</v>
+        <v>1.1679999999999922</v>
       </c>
     </row>
   </sheetData>
@@ -28421,14 +29866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E013FD78-CD5C-4843-9EA5-955A21902600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DD19C2-B211-444A-9110-35E4DE96D60F}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28499,62 +29944,62 @@
       <c r="A2">
         <v>1998</v>
       </c>
-      <c r="B2">
-        <v>105.65883348693301</v>
-      </c>
-      <c r="C2">
-        <v>100.204022328703</v>
-      </c>
-      <c r="D2">
-        <v>81.213646489818899</v>
-      </c>
-      <c r="E2">
-        <v>103.70701508884</v>
-      </c>
-      <c r="F2">
-        <v>93.872116669624106</v>
-      </c>
-      <c r="G2">
-        <v>99.668974005467106</v>
-      </c>
-      <c r="H2">
-        <v>99.745770239509</v>
-      </c>
-      <c r="I2">
-        <v>105.908131667123</v>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
-        <v>97.138045203266699</v>
-      </c>
-      <c r="L2">
-        <v>83.533754702461295</v>
-      </c>
-      <c r="M2">
-        <v>93.938128179986293</v>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="O2">
-        <v>100.023157367248</v>
-      </c>
-      <c r="P2">
-        <v>103.315700174702</v>
-      </c>
-      <c r="Q2">
-        <v>94.466520703759301</v>
-      </c>
-      <c r="R2">
-        <v>103.040017338317</v>
-      </c>
-      <c r="S2">
-        <v>109.787585193806</v>
-      </c>
-      <c r="T2">
-        <v>118.419532322891</v>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -28562,61 +30007,61 @@
         <v>1999</v>
       </c>
       <c r="B3">
-        <v>104.677665184804</v>
+        <v>303.29640000000001</v>
       </c>
       <c r="C3">
-        <v>100.875958583792</v>
+        <v>1099.0590000000002</v>
       </c>
       <c r="D3">
-        <v>81.018155022168102</v>
+        <v>7.79223</v>
       </c>
       <c r="E3">
-        <v>103.488219020126</v>
+        <v>148.34519999999998</v>
       </c>
       <c r="F3">
-        <v>94.242292151519706</v>
+        <v>63.38588</v>
       </c>
       <c r="G3">
-        <v>99.396038824815506</v>
+        <v>325.48199999999997</v>
       </c>
       <c r="H3">
-        <v>99.995860668238194</v>
+        <v>697.15</v>
       </c>
       <c r="I3">
-        <v>105.793976627397</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
+        <v>524.36099999999999</v>
+      </c>
+      <c r="J3">
+        <v>12.768699999999999</v>
       </c>
       <c r="K3">
-        <v>100.46689535086</v>
+        <v>5.0096400000000001</v>
       </c>
       <c r="L3">
-        <v>86.844981023998997</v>
+        <v>9.5102499999999992</v>
       </c>
       <c r="M3">
-        <v>96.446015582383097</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
+        <v>49.926099999999998</v>
+      </c>
+      <c r="N3">
+        <v>8.6352499999999992</v>
       </c>
       <c r="O3">
-        <v>99.289866094551996</v>
+        <v>479.86900000000003</v>
       </c>
       <c r="P3">
-        <v>102.793507677363</v>
+        <v>159.53379999999999</v>
       </c>
       <c r="Q3">
-        <v>95.513162451293795</v>
+        <v>75.726029999999994</v>
       </c>
       <c r="R3">
-        <v>103.273258430848</v>
+        <v>15.941799999999999</v>
       </c>
       <c r="S3">
-        <v>107.96720438211401</v>
+        <v>27.864350000000002</v>
       </c>
       <c r="T3">
-        <v>114.88593138125</v>
+        <v>84.069000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -28624,61 +30069,61 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>102.866121789312</v>
+        <v>364.64449999999999</v>
       </c>
       <c r="C4">
-        <v>96.700925746489204</v>
+        <v>1297.6399999999999</v>
       </c>
       <c r="D4">
-        <v>83.205250437499998</v>
+        <v>7.8068600000000004</v>
       </c>
       <c r="E4">
-        <v>103.370380141282</v>
+        <v>189.81740000000002</v>
       </c>
       <c r="F4">
-        <v>92.539560796768299</v>
+        <v>82.510559999999998</v>
       </c>
       <c r="G4">
-        <v>95.925060355556397</v>
+        <v>389.24400000000003</v>
       </c>
       <c r="H4">
-        <v>97.330870451220704</v>
+        <v>825.9559999999999</v>
       </c>
       <c r="I4">
-        <v>100.038434601185</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
+        <v>625.79189999999994</v>
+      </c>
+      <c r="J4">
+        <v>14.567600000000001</v>
       </c>
       <c r="K4">
-        <v>94.855980073544799</v>
+        <v>5.6003100000000003</v>
       </c>
       <c r="L4">
-        <v>91.436749710548099</v>
+        <v>11.132249999999999</v>
       </c>
       <c r="M4">
-        <v>94.655778281984098</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
+        <v>62.764800000000001</v>
+      </c>
+      <c r="N4">
+        <v>10.171060000000001</v>
       </c>
       <c r="O4">
-        <v>99.218669637130503</v>
+        <v>567.36799999999994</v>
       </c>
       <c r="P4">
-        <v>101.74674348398</v>
+        <v>182.3356</v>
       </c>
       <c r="Q4">
-        <v>92.835785922262104</v>
+        <v>86.619399999999999</v>
       </c>
       <c r="R4">
-        <v>100.055686138059</v>
+        <v>19.5974</v>
       </c>
       <c r="S4">
-        <v>111.924661372324</v>
+        <v>34.443570000000001</v>
       </c>
       <c r="T4">
-        <v>110.68990711036</v>
+        <v>102.188</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -28686,61 +30131,61 @@
         <v>2001</v>
       </c>
       <c r="B5">
-        <v>102.928433347919</v>
+        <v>368.95029999999997</v>
       </c>
       <c r="C5">
-        <v>96.726958793394999</v>
+        <v>1348.3400000000001</v>
       </c>
       <c r="D5">
-        <v>86.938713444047394</v>
+        <v>8.8356400000000015</v>
       </c>
       <c r="E5">
-        <v>104.68806433877501</v>
+        <v>213.4616</v>
       </c>
       <c r="F5">
-        <v>93.305985259714404</v>
+        <v>85.441569999999999</v>
       </c>
       <c r="G5">
-        <v>97.593752132907397</v>
+        <v>406.55599999999998</v>
       </c>
       <c r="H5">
-        <v>97.617006596741703</v>
+        <v>845.38499999999999</v>
       </c>
       <c r="I5">
-        <v>101.592184557585</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
+        <v>652.52229999999997</v>
+      </c>
+      <c r="J5">
+        <v>15.053000000000001</v>
       </c>
       <c r="K5">
-        <v>96.154125551129795</v>
+        <v>6.4525500000000005</v>
       </c>
       <c r="L5">
-        <v>91.078310733835707</v>
+        <v>13.279</v>
       </c>
       <c r="M5">
-        <v>94.343421955949694</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
+        <v>64.503799999999998</v>
+      </c>
+      <c r="N5">
+        <v>9.3213299999999997</v>
       </c>
       <c r="O5">
-        <v>100.699517018669</v>
+        <v>578.44399999999996</v>
       </c>
       <c r="P5">
-        <v>101.96182040853</v>
+        <v>193.0403</v>
       </c>
       <c r="Q5">
-        <v>92.946835021609999</v>
+        <v>88.378610000000009</v>
       </c>
       <c r="R5">
-        <v>101.781130379751</v>
+        <v>22.106549999999999</v>
       </c>
       <c r="S5">
-        <v>110.73565494388799</v>
+        <v>41.815739999999998</v>
       </c>
       <c r="T5">
-        <v>112.30237483467999</v>
+        <v>101.64</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -28748,61 +30193,61 @@
         <v>2002</v>
       </c>
       <c r="B6">
-        <v>103.583782407718</v>
+        <v>371.86070000000001</v>
       </c>
       <c r="C6">
-        <v>98.638838149323007</v>
+        <v>1339.422</v>
       </c>
       <c r="D6">
-        <v>90.414977665378103</v>
+        <v>9.6466700000000003</v>
       </c>
       <c r="E6">
-        <v>106.89753091516801</v>
+        <v>222.6549</v>
       </c>
       <c r="F6">
-        <v>94.649032061888406</v>
+        <v>82.30086</v>
       </c>
       <c r="G6">
-        <v>100.378657969629</v>
+        <v>412.99700000000001</v>
       </c>
       <c r="H6">
-        <v>99.318959024132496</v>
+        <v>842.69299999999998</v>
       </c>
       <c r="I6">
-        <v>103.133862430042</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
+        <v>648.90640000000008</v>
+      </c>
+      <c r="J6">
+        <v>14.684899999999999</v>
       </c>
       <c r="K6">
-        <v>93.710488342729704</v>
+        <v>6.9946299999999999</v>
       </c>
       <c r="L6">
-        <v>91.372710124401294</v>
+        <v>15.256880000000001</v>
       </c>
       <c r="M6">
-        <v>94.860212017363807</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
+        <v>64.9559</v>
+      </c>
+      <c r="N6">
+        <v>9.8748500000000003</v>
       </c>
       <c r="O6">
-        <v>101.477269705701</v>
+        <v>568.577</v>
       </c>
       <c r="P6">
-        <v>102.68502192851101</v>
+        <v>197.1421</v>
       </c>
       <c r="Q6">
-        <v>94.601776676931095</v>
+        <v>88.823080000000004</v>
       </c>
       <c r="R6">
-        <v>103.715123653261</v>
+        <v>24.408449999999998</v>
       </c>
       <c r="S6">
-        <v>110.44562769802801</v>
+        <v>44.93497</v>
       </c>
       <c r="T6">
-        <v>112.133657264371</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -28810,61 +30255,61 @@
         <v>2003</v>
       </c>
       <c r="B7">
-        <v>103.297146693489</v>
+        <v>373.19639999999998</v>
       </c>
       <c r="C7">
-        <v>100.482602602271</v>
+        <v>1367.8409999999999</v>
       </c>
       <c r="D7">
-        <v>91.922517840225098</v>
+        <v>10.736129999999999</v>
       </c>
       <c r="E7">
-        <v>105.784041056253</v>
+        <v>213.31599999999997</v>
       </c>
       <c r="F7">
-        <v>96.295403551952305</v>
+        <v>86.214370000000002</v>
       </c>
       <c r="G7">
-        <v>101.71835640168401</v>
+        <v>428.92099999999999</v>
       </c>
       <c r="H7">
-        <v>99.285613525274499</v>
+        <v>828.34299999999996</v>
       </c>
       <c r="I7">
-        <v>104.03251895713601</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
+        <v>643.63480000000004</v>
+      </c>
+      <c r="J7">
+        <v>14.6442</v>
       </c>
       <c r="K7">
-        <v>95.569426853121499</v>
+        <v>8.0988000000000007</v>
       </c>
       <c r="L7">
-        <v>91.367291097309803</v>
+        <v>16.356110000000001</v>
       </c>
       <c r="M7">
-        <v>95.877972902378602</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
+        <v>66.543499999999995</v>
+      </c>
+      <c r="N7">
+        <v>10.211359999999999</v>
       </c>
       <c r="O7">
-        <v>101.494416687794</v>
+        <v>573.93700000000001</v>
       </c>
       <c r="P7">
-        <v>103.50950719107399</v>
+        <v>200.3</v>
       </c>
       <c r="Q7">
-        <v>94.8594716098183</v>
+        <v>89.304349999999999</v>
       </c>
       <c r="R7">
-        <v>104.35980922860401</v>
+        <v>26.208689999999997</v>
       </c>
       <c r="S7">
-        <v>110.126594201823</v>
+        <v>51.910629999999998</v>
       </c>
       <c r="T7">
-        <v>110.374013552866</v>
+        <v>103.274</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -28872,61 +30317,61 @@
         <v>2004</v>
       </c>
       <c r="B8">
-        <v>102.454267182677</v>
+        <v>406.4008</v>
       </c>
       <c r="C8">
-        <v>100.628628924381</v>
+        <v>1498.3810000000001</v>
       </c>
       <c r="D8">
-        <v>92.617155331503696</v>
+        <v>12.70857</v>
       </c>
       <c r="E8">
-        <v>100.101015950045</v>
+        <v>229.05759999999998</v>
       </c>
       <c r="F8">
-        <v>96.187436134705393</v>
+        <v>96.661169999999998</v>
       </c>
       <c r="G8">
-        <v>101.390563578032</v>
+        <v>468.601</v>
       </c>
       <c r="H8">
-        <v>98.380542934555805</v>
+        <v>884.81200000000001</v>
       </c>
       <c r="I8">
-        <v>103.031787473219</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
+        <v>688.83969999999999</v>
+      </c>
+      <c r="J8">
+        <v>15.783000000000001</v>
       </c>
       <c r="K8">
-        <v>98.019332332920698</v>
+        <v>10.35413</v>
       </c>
       <c r="L8">
-        <v>99.207647420007703</v>
+        <v>18.553350000000002</v>
       </c>
       <c r="M8">
-        <v>95.680368836911896</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
+        <v>78.557000000000002</v>
+      </c>
+      <c r="N8">
+        <v>10.10563</v>
       </c>
       <c r="O8">
-        <v>101.054536773639</v>
+        <v>622.48599999999999</v>
       </c>
       <c r="P8">
-        <v>102.965562715383</v>
+        <v>220.03370000000001</v>
       </c>
       <c r="Q8">
-        <v>94.537251684864401</v>
+        <v>96.227980000000002</v>
       </c>
       <c r="R8">
-        <v>103.158010210627</v>
+        <v>30.82105</v>
       </c>
       <c r="S8">
-        <v>109.801996825822</v>
+        <v>64.483850000000004</v>
       </c>
       <c r="T8">
-        <v>107.901087387654</v>
+        <v>112.655</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -28934,61 +30379,61 @@
         <v>2005</v>
       </c>
       <c r="B9">
-        <v>101.738785593825</v>
+        <v>448.09440000000001</v>
       </c>
       <c r="C9">
-        <v>98.908226300730604</v>
+        <v>1622.8400000000001</v>
       </c>
       <c r="D9">
-        <v>94.357214150850297</v>
+        <v>15.41991</v>
       </c>
       <c r="E9">
-        <v>101.809659410253</v>
+        <v>252.35310000000001</v>
       </c>
       <c r="F9">
-        <v>95.312107018655396</v>
+        <v>101.41606</v>
       </c>
       <c r="G9">
-        <v>102.266171501779</v>
+        <v>507.84199999999998</v>
       </c>
       <c r="H9">
-        <v>97.056838295538299</v>
+        <v>953.24800000000005</v>
       </c>
       <c r="I9">
-        <v>100.317712468137</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
+        <v>736.37729999999999</v>
+      </c>
+      <c r="J9">
+        <v>16.588699999999999</v>
       </c>
       <c r="K9">
-        <v>97.084618596679505</v>
+        <v>13.71055</v>
       </c>
       <c r="L9">
-        <v>100.29217871813999</v>
+        <v>24.135260000000002</v>
       </c>
       <c r="M9">
-        <v>95.396571292028497</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
+        <v>89.424300000000002</v>
+      </c>
+      <c r="N9">
+        <v>10.87473</v>
       </c>
       <c r="O9">
-        <v>101.35752268746801</v>
+        <v>676.52099999999996</v>
       </c>
       <c r="P9">
-        <v>102.141765106736</v>
+        <v>238.91649999999998</v>
       </c>
       <c r="Q9">
-        <v>93.475561491068802</v>
+        <v>99.800209999999993</v>
       </c>
       <c r="R9">
-        <v>100.960479392373</v>
+        <v>35.012730000000005</v>
       </c>
       <c r="S9">
-        <v>109.81547682351</v>
+        <v>74.581410000000005</v>
       </c>
       <c r="T9">
-        <v>104.22530070694</v>
+        <v>126.116</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -28996,61 +30441,61 @@
         <v>2006</v>
       </c>
       <c r="B10">
-        <v>101.018508230328</v>
+        <v>486.32100000000003</v>
       </c>
       <c r="C10">
-        <v>97.238882455076194</v>
+        <v>1847.2379999999998</v>
       </c>
       <c r="D10">
-        <v>96.601206348147002</v>
+        <v>18.54102</v>
       </c>
       <c r="E10">
-        <v>100.84336333030301</v>
+        <v>277.41469999999998</v>
       </c>
       <c r="F10">
-        <v>95.260475183698304</v>
+        <v>115.14035999999999</v>
       </c>
       <c r="G10">
-        <v>102.797587930646</v>
+        <v>563.91899999999998</v>
       </c>
       <c r="H10">
-        <v>95.589377134575003</v>
+        <v>1036.8760000000002</v>
       </c>
       <c r="I10">
-        <v>97.339508114467193</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
+        <v>825.53530000000001</v>
+      </c>
+      <c r="J10">
+        <v>17.568999999999999</v>
       </c>
       <c r="K10">
-        <v>96.509064044812106</v>
+        <v>17.207640000000001</v>
       </c>
       <c r="L10">
-        <v>97.4177577950163</v>
+        <v>29.257210000000001</v>
       </c>
       <c r="M10">
-        <v>97.400746442324404</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
+        <v>108.3892</v>
+      </c>
+      <c r="N10">
+        <v>13.48053</v>
       </c>
       <c r="O10">
-        <v>101.47411027109401</v>
+        <v>746.88699999999994</v>
       </c>
       <c r="P10">
-        <v>101.023683887506</v>
+        <v>262.7045</v>
       </c>
       <c r="Q10">
-        <v>94.106395576895096</v>
+        <v>113.96665</v>
       </c>
       <c r="R10">
-        <v>100.41625822604099</v>
+        <v>40.844850000000001</v>
       </c>
       <c r="S10">
-        <v>108.268299056331</v>
+        <v>92.785719999999998</v>
       </c>
       <c r="T10">
-        <v>100.96133642658999</v>
+        <v>141.74700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -29058,61 +30503,61 @@
         <v>2007</v>
       </c>
       <c r="B11">
-        <v>101.174744927663</v>
+        <v>523.91039999999998</v>
       </c>
       <c r="C11">
-        <v>97.719672211693407</v>
+        <v>1996.501</v>
       </c>
       <c r="D11">
-        <v>98.561608435535007</v>
+        <v>21.975749999999998</v>
       </c>
       <c r="E11">
-        <v>101.323642983345</v>
+        <v>302.29829999999998</v>
       </c>
       <c r="F11">
-        <v>95.730508766871907</v>
+        <v>133.85611</v>
       </c>
       <c r="G11">
-        <v>103.68574638384599</v>
+        <v>621.09799999999996</v>
       </c>
       <c r="H11">
-        <v>96.688200426975598</v>
+        <v>1095.33</v>
       </c>
       <c r="I11">
-        <v>98.469694123777899</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
+        <v>889.15429999999992</v>
+      </c>
+      <c r="J11">
+        <v>19.485999999999997</v>
       </c>
       <c r="K11">
-        <v>101.052610366484</v>
+        <v>21.670940000000002</v>
       </c>
       <c r="L11">
-        <v>98.310260164292401</v>
+        <v>33.060310000000001</v>
       </c>
       <c r="M11">
-        <v>96.279299843519894</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
+        <v>123.6216</v>
+      </c>
+      <c r="N11">
+        <v>14.88372</v>
       </c>
       <c r="O11">
-        <v>101.195457092927</v>
+        <v>807.75599999999997</v>
       </c>
       <c r="P11">
-        <v>100.588436226939</v>
+        <v>286.06029999999998</v>
       </c>
       <c r="Q11">
-        <v>94.540588447423204</v>
+        <v>122.74383</v>
       </c>
       <c r="R11">
-        <v>101.330963409459</v>
+        <v>48.095230000000001</v>
       </c>
       <c r="S11">
-        <v>107.042722154231</v>
+        <v>105.05932</v>
       </c>
       <c r="T11">
-        <v>100.89293925214299</v>
+        <v>155.00299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -29120,61 +30565,61 @@
         <v>2008</v>
       </c>
       <c r="B12">
-        <v>98.531404013006195</v>
+        <v>566.61750000000006</v>
       </c>
       <c r="C12">
-        <v>96.058963364461505</v>
+        <v>2076.0210000000002</v>
       </c>
       <c r="D12">
-        <v>98.7353547098908</v>
+        <v>22.71508</v>
       </c>
       <c r="E12">
-        <v>102.385045413802</v>
+        <v>299.72669999999999</v>
       </c>
       <c r="F12">
-        <v>94.634986344123107</v>
+        <v>143.57221000000001</v>
       </c>
       <c r="G12">
-        <v>102.00549740086799</v>
+        <v>621.15800000000002</v>
       </c>
       <c r="H12">
-        <v>96.054328389582096</v>
+        <v>1143.568</v>
       </c>
       <c r="I12">
-        <v>96.066498727742797</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
+        <v>892.42949999999996</v>
+      </c>
+      <c r="J12">
+        <v>21.466700000000003</v>
       </c>
       <c r="K12">
-        <v>99.2787281195465</v>
+        <v>22.403480000000002</v>
       </c>
       <c r="L12">
-        <v>101.863219361765</v>
+        <v>41.14808</v>
       </c>
       <c r="M12">
-        <v>97.562295136893894</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
+        <v>130.99530000000001</v>
+      </c>
+      <c r="N12">
+        <v>18.214639999999999</v>
       </c>
       <c r="O12">
-        <v>101.033189458943</v>
+        <v>848.21699999999998</v>
       </c>
       <c r="P12">
-        <v>99.346304038850505</v>
+        <v>299.85360000000003</v>
       </c>
       <c r="Q12">
-        <v>92.347296238519306</v>
+        <v>129.08966000000001</v>
       </c>
       <c r="R12">
-        <v>100.04614025593401</v>
+        <v>51.09787</v>
       </c>
       <c r="S12">
-        <v>105.291047221216</v>
+        <v>111.16526999999999</v>
       </c>
       <c r="T12">
-        <v>98.975304101003999</v>
+        <v>167.42599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -29182,61 +30627,61 @@
         <v>2009</v>
       </c>
       <c r="B13">
-        <v>101.505977455688</v>
+        <v>469.14509999999996</v>
       </c>
       <c r="C13">
-        <v>100.358300017631</v>
+        <v>1742.0619999999999</v>
       </c>
       <c r="D13">
-        <v>99.117923892212602</v>
+        <v>16.50103</v>
       </c>
       <c r="E13">
-        <v>100.917910902778</v>
+        <v>294.27190000000002</v>
       </c>
       <c r="F13">
-        <v>93.996124124094095</v>
+        <v>113.40795</v>
       </c>
       <c r="G13">
-        <v>106.70614961502601</v>
+        <v>502.52700000000004</v>
       </c>
       <c r="H13">
-        <v>98.601688405551698</v>
+        <v>977.16599999999994</v>
       </c>
       <c r="I13">
-        <v>101.643930039046</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
+        <v>716.37009999999998</v>
+      </c>
+      <c r="J13">
+        <v>19.1967</v>
       </c>
       <c r="K13">
-        <v>99.457707593762393</v>
+        <v>16.34646</v>
       </c>
       <c r="L13">
-        <v>97.962373256176704</v>
+        <v>28.432009999999998</v>
       </c>
       <c r="M13">
-        <v>99.130147404500207</v>
-      </c>
-      <c r="N13" t="s">
-        <v>20</v>
+        <v>109.4405</v>
+      </c>
+      <c r="N13">
+        <v>18.230069999999998</v>
       </c>
       <c r="O13">
-        <v>101.920222476454</v>
+        <v>730.375</v>
       </c>
       <c r="P13">
-        <v>101.22564655623199</v>
+        <v>250.77760000000001</v>
       </c>
       <c r="Q13">
-        <v>96.813360122679995</v>
+        <v>107.86829</v>
       </c>
       <c r="R13">
-        <v>103.50706866433499</v>
+        <v>41.012259999999998</v>
       </c>
       <c r="S13">
-        <v>104.09503296240401</v>
+        <v>87.324179999999998</v>
       </c>
       <c r="T13">
-        <v>100.217946131877</v>
+        <v>127.447</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -29244,61 +30689,61 @@
         <v>2010</v>
       </c>
       <c r="B14">
-        <v>99.741395198876802</v>
+        <v>544.70170000000007</v>
       </c>
       <c r="C14">
-        <v>98.123255301832799</v>
+        <v>2048.1509999999998</v>
       </c>
       <c r="D14">
-        <v>97.178048831796502</v>
+        <v>21.179760000000002</v>
       </c>
       <c r="E14">
-        <v>97.536992038794097</v>
+        <v>317.72140000000002</v>
       </c>
       <c r="F14">
-        <v>94.3450897072711</v>
+        <v>119.41037</v>
       </c>
       <c r="G14">
-        <v>103.733354324171</v>
+        <v>567.76600000000008</v>
       </c>
       <c r="H14">
-        <v>97.241235843477298</v>
+        <v>1094.7710000000002</v>
       </c>
       <c r="I14">
-        <v>97.605252552542098</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
+        <v>837.96499999999992</v>
+      </c>
+      <c r="J14">
+        <v>21.176500000000001</v>
       </c>
       <c r="K14">
-        <v>99.567470267749897</v>
+        <v>19.51445</v>
       </c>
       <c r="L14">
-        <v>98.577763922464399</v>
+        <v>36.412410000000001</v>
       </c>
       <c r="M14">
-        <v>99.799995074051196</v>
-      </c>
-      <c r="N14" t="s">
-        <v>20</v>
+        <v>127.02680000000001</v>
+      </c>
+      <c r="N14">
+        <v>20.288270000000001</v>
       </c>
       <c r="O14">
-        <v>100.112042086846</v>
+        <v>840.67200000000003</v>
       </c>
       <c r="P14">
-        <v>99.563067379926196</v>
+        <v>292.99619999999999</v>
       </c>
       <c r="Q14">
-        <v>95.470868731172004</v>
+        <v>121.74610999999999</v>
       </c>
       <c r="R14">
-        <v>99.366967499722904</v>
+        <v>46.360889999999998</v>
       </c>
       <c r="S14">
-        <v>103.29910468379801</v>
+        <v>105.50601</v>
       </c>
       <c r="T14">
-        <v>98.150529056929102</v>
+        <v>141.98099999999999</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -29306,61 +30751,61 @@
         <v>2011</v>
       </c>
       <c r="B15">
-        <v>98.308140025726402</v>
+        <v>607.1644</v>
       </c>
       <c r="C15">
-        <v>95.592524155121396</v>
+        <v>2295.078</v>
       </c>
       <c r="D15">
-        <v>97.574769972763207</v>
+        <v>27.91639</v>
       </c>
       <c r="E15">
-        <v>99.445091582309701</v>
+        <v>322.44579999999996</v>
       </c>
       <c r="F15">
-        <v>93.841644164232605</v>
+        <v>119.75506</v>
       </c>
       <c r="G15">
-        <v>100.030947593915</v>
+        <v>625.42000000000007</v>
       </c>
       <c r="H15">
-        <v>94.918305732721606</v>
+        <v>1210.127</v>
       </c>
       <c r="I15">
-        <v>95.054123482903705</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
+        <v>909.21500000000003</v>
+      </c>
+      <c r="J15">
+        <v>21.9452</v>
       </c>
       <c r="K15">
-        <v>102.588038774228</v>
+        <v>24.487409999999997</v>
       </c>
       <c r="L15">
-        <v>97.770595157892501</v>
+        <v>46.489469999999997</v>
       </c>
       <c r="M15">
-        <v>100.336018217605</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
+        <v>139.61590000000001</v>
+      </c>
+      <c r="N15">
+        <v>21.776429999999998</v>
       </c>
       <c r="O15">
-        <v>98.574536772684993</v>
+        <v>926.57799999999997</v>
       </c>
       <c r="P15">
-        <v>97.841218015289002</v>
+        <v>325.95389999999998</v>
       </c>
       <c r="Q15">
-        <v>93.711744112770205</v>
+        <v>128.72550000000001</v>
       </c>
       <c r="R15">
-        <v>98.006287773888303</v>
+        <v>51.614400000000003</v>
       </c>
       <c r="S15">
-        <v>101.921678380722</v>
+        <v>120.58356000000001</v>
       </c>
       <c r="T15">
-        <v>96.607741853674099</v>
+        <v>155.58600000000001</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -29368,61 +30813,61 @@
         <v>2012</v>
       </c>
       <c r="B16">
-        <v>98.319813532378802</v>
+        <v>620.76049999999998</v>
       </c>
       <c r="C16">
-        <v>95.429739290094105</v>
+        <v>2375.0789999999997</v>
       </c>
       <c r="D16">
-        <v>97.109122979281807</v>
+        <v>30.594519999999999</v>
       </c>
       <c r="E16">
-        <v>97.6947883582977</v>
+        <v>335.41129999999998</v>
       </c>
       <c r="F16">
-        <v>92.352437229673598</v>
+        <v>118.19799</v>
       </c>
       <c r="G16">
-        <v>98.942810248778301</v>
+        <v>627.37599999999998</v>
       </c>
       <c r="H16">
-        <v>94.619096489035101</v>
+        <v>1247.0590000000002</v>
       </c>
       <c r="I16">
-        <v>93.702327923379499</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
+        <v>904.03230000000008</v>
+      </c>
+      <c r="J16">
+        <v>21.8782</v>
       </c>
       <c r="K16">
-        <v>99.723805399986702</v>
+        <v>27.80912</v>
       </c>
       <c r="L16">
-        <v>96.936318647144006</v>
+        <v>52.067449999999994</v>
       </c>
       <c r="M16">
-        <v>100.290936700674</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
+        <v>150.80250000000001</v>
+      </c>
+      <c r="N16">
+        <v>23.357219999999998</v>
       </c>
       <c r="O16">
-        <v>98.6003401943737</v>
+        <v>974.67200000000003</v>
       </c>
       <c r="P16">
-        <v>97.344096236675398</v>
+        <v>335.07069999999999</v>
       </c>
       <c r="Q16">
-        <v>94.330862570406296</v>
+        <v>127.99019999999999</v>
       </c>
       <c r="R16">
-        <v>96.967264181746103</v>
+        <v>51.619019999999999</v>
       </c>
       <c r="S16">
-        <v>100.660999194799</v>
+        <v>129.73751000000001</v>
       </c>
       <c r="T16">
-        <v>95.589819141301604</v>
+        <v>159.16200000000001</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -29430,61 +30875,61 @@
         <v>2013</v>
       </c>
       <c r="B17">
-        <v>98.680773726343602</v>
+        <v>620.1644</v>
       </c>
       <c r="C17">
-        <v>96.459051784415294</v>
+        <v>2391.8649999999998</v>
       </c>
       <c r="D17">
-        <v>98.0266463962015</v>
+        <v>31.477530000000002</v>
       </c>
       <c r="E17">
-        <v>97.565348947763198</v>
+        <v>338.70029999999997</v>
       </c>
       <c r="F17">
-        <v>93.879091907449407</v>
+        <v>114.75005</v>
       </c>
       <c r="G17">
-        <v>100.33849204632</v>
+        <v>632.57799999999997</v>
       </c>
       <c r="H17">
-        <v>95.714719177916805</v>
+        <v>1265.318</v>
       </c>
       <c r="I17">
-        <v>95.280426799973895</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
+        <v>884.87760000000003</v>
+      </c>
+      <c r="J17">
+        <v>21.799199999999999</v>
       </c>
       <c r="K17">
-        <v>100.299739363195</v>
+        <v>28.291370000000001</v>
       </c>
       <c r="L17">
-        <v>96.654650479310007</v>
+        <v>54.622019999999999</v>
       </c>
       <c r="M17">
-        <v>100.317241319717</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
+        <v>162.39589999999998</v>
+      </c>
+      <c r="N17">
+        <v>23.523870000000002</v>
       </c>
       <c r="O17">
-        <v>98.968910726891394</v>
+        <v>987.71800000000007</v>
       </c>
       <c r="P17">
-        <v>97.489184859161497</v>
+        <v>337.08169999999996</v>
       </c>
       <c r="Q17">
-        <v>95.980626733560996</v>
+        <v>133.17907000000002</v>
       </c>
       <c r="R17">
-        <v>97.752905042468598</v>
+        <v>52.405419999999999</v>
       </c>
       <c r="S17">
-        <v>100.21319431670101</v>
+        <v>135.04871</v>
       </c>
       <c r="T17">
-        <v>96.294380681669907</v>
+        <v>157.51900000000001</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -29492,61 +30937,61 @@
         <v>2014</v>
       </c>
       <c r="B18">
-        <v>99.011997929672503</v>
+        <v>639.90160000000003</v>
       </c>
       <c r="C18">
-        <v>97.704788272621698</v>
+        <v>2477.194</v>
       </c>
       <c r="D18">
-        <v>99.534399863689003</v>
+        <v>32.125579999999999</v>
       </c>
       <c r="E18">
-        <v>95.577404832137304</v>
+        <v>393.51400000000001</v>
       </c>
       <c r="F18">
-        <v>95.424671021257197</v>
+        <v>119.96684999999999</v>
       </c>
       <c r="G18">
-        <v>99.511702456425994</v>
+        <v>659.19399999999996</v>
       </c>
       <c r="H18">
-        <v>96.905776559101596</v>
+        <v>1300.152</v>
       </c>
       <c r="I18">
-        <v>97.731548119504495</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
+        <v>900.3152</v>
+      </c>
+      <c r="J18">
+        <v>22.8537</v>
       </c>
       <c r="K18">
-        <v>99.414747769217001</v>
+        <v>29.435310000000001</v>
       </c>
       <c r="L18">
-        <v>97.471867038216701</v>
+        <v>52.209450000000004</v>
       </c>
       <c r="M18">
-        <v>101.090816087109</v>
-      </c>
-      <c r="N18" t="s">
-        <v>20</v>
+        <v>195.71270000000001</v>
+      </c>
+      <c r="N18">
+        <v>24.27901</v>
       </c>
       <c r="O18">
-        <v>98.884867994024802</v>
+        <v>1007.701</v>
       </c>
       <c r="P18">
-        <v>98.442852455046307</v>
+        <v>344.81799999999998</v>
       </c>
       <c r="Q18">
-        <v>96.915241970376201</v>
+        <v>138.9315</v>
       </c>
       <c r="R18">
-        <v>98.749566963362795</v>
+        <v>54.776620000000001</v>
       </c>
       <c r="S18">
-        <v>100.267099255537</v>
+        <v>135.90215999999998</v>
       </c>
       <c r="T18">
-        <v>96.984427389211305</v>
+        <v>153.33699999999999</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -29554,61 +30999,61 @@
         <v>2015</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>642.52250000000004</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>2609.9549999999999</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>31.1404</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>565.45100000000002</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>111.77054000000001</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>691.94900000000007</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>1357.569</v>
       </c>
       <c r="I19">
-        <v>100</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
+        <v>933.92110000000002</v>
+      </c>
+      <c r="J19">
+        <v>24.606100000000001</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>29.884889999999999</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>51.74333</v>
       </c>
       <c r="M19">
-        <v>100</v>
-      </c>
-      <c r="N19" t="s">
-        <v>20</v>
+        <v>212.61700000000002</v>
+      </c>
+      <c r="N19">
+        <v>28.772040000000001</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>1088.9470000000001</v>
       </c>
       <c r="P19">
-        <v>100</v>
+        <v>352.62569999999999</v>
       </c>
       <c r="Q19">
-        <v>100</v>
+        <v>144.65273000000002</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>56.839799999999997</v>
       </c>
       <c r="S19">
-        <v>100</v>
+        <v>144.33909</v>
       </c>
       <c r="T19">
-        <v>100</v>
+        <v>150.892</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -29616,61 +31061,61 @@
         <v>2016</v>
       </c>
       <c r="B20">
-        <v>100.617009230207</v>
+        <v>678.09410000000003</v>
       </c>
       <c r="C20">
-        <v>101.75736446846599</v>
+        <v>2654.0550000000003</v>
       </c>
       <c r="D20">
-        <v>101.17455603090001</v>
+        <v>32.756959999999999</v>
       </c>
       <c r="E20">
-        <v>99.740833810982906</v>
+        <v>614.11740000000009</v>
       </c>
       <c r="F20">
-        <v>99.582975619625799</v>
+        <v>107.3762</v>
       </c>
       <c r="G20">
-        <v>100.42941956456499</v>
+        <v>710.32500000000005</v>
       </c>
       <c r="H20">
-        <v>100.98525154300999</v>
+        <v>1365.056</v>
       </c>
       <c r="I20">
-        <v>103.25309355940099</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
+        <v>938.91650000000004</v>
+      </c>
+      <c r="J20">
+        <v>26.3842</v>
       </c>
       <c r="K20">
-        <v>103.02685609257099</v>
+        <v>30.04223</v>
       </c>
       <c r="L20">
-        <v>101.68114174367</v>
+        <v>52.264679999999998</v>
       </c>
       <c r="M20">
-        <v>100.50813579484</v>
-      </c>
-      <c r="N20" t="s">
-        <v>20</v>
+        <v>214.34569999999999</v>
+      </c>
+      <c r="N20">
+        <v>30.00845</v>
       </c>
       <c r="O20">
-        <v>100.5781969263</v>
+        <v>1054.4209999999998</v>
       </c>
       <c r="P20">
-        <v>100.82586389482501</v>
+        <v>361.11810000000003</v>
       </c>
       <c r="Q20">
-        <v>101.626311080759</v>
+        <v>147.83836000000002</v>
       </c>
       <c r="R20">
-        <v>100.830388731262</v>
+        <v>59.498599999999996</v>
       </c>
       <c r="S20">
-        <v>99.612175933132804</v>
+        <v>149.52043</v>
       </c>
       <c r="T20">
-        <v>99.733448273820102</v>
+        <v>154.21699999999998</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -29678,61 +31123,61 @@
         <v>2017</v>
       </c>
       <c r="B21">
-        <v>99.970544274553504</v>
+        <v>728.59780000000001</v>
       </c>
       <c r="C21">
-        <v>100.881559779787</v>
+        <v>2845.6419999999998</v>
       </c>
       <c r="D21">
-        <v>100.634449667547</v>
+        <v>35.187060000000002</v>
       </c>
       <c r="E21">
-        <v>98.347390816524893</v>
+        <v>653.68299999999999</v>
       </c>
       <c r="F21">
-        <v>99.183594694250104</v>
+        <v>120.74679</v>
       </c>
       <c r="G21">
-        <v>99.610639139481194</v>
+        <v>775.87400000000002</v>
       </c>
       <c r="H21">
-        <v>99.676266621477893</v>
+        <v>1438.96</v>
       </c>
       <c r="I21">
-        <v>101.72300885760001</v>
-      </c>
-      <c r="J21" t="s">
-        <v>20</v>
+        <v>1017.7158999999999</v>
+      </c>
+      <c r="J21">
+        <v>29.338999999999999</v>
       </c>
       <c r="K21">
-        <v>103.491974455335</v>
+        <v>33.255220000000001</v>
       </c>
       <c r="L21">
-        <v>101.96518655546799</v>
+        <v>61.217849999999999</v>
       </c>
       <c r="M21">
-        <v>99.850858658600103</v>
-      </c>
-      <c r="N21" t="s">
-        <v>20</v>
+        <v>227.30199999999999</v>
+      </c>
+      <c r="N21">
+        <v>31.39105</v>
       </c>
       <c r="O21">
-        <v>100.352532415005</v>
+        <v>1151.7159999999999</v>
       </c>
       <c r="P21">
-        <v>99.558208296433605</v>
+        <v>387.97059999999999</v>
       </c>
       <c r="Q21">
-        <v>100.832311894862</v>
+        <v>165.45614</v>
       </c>
       <c r="R21">
-        <v>100.329569597432</v>
+        <v>67.460000000000008</v>
       </c>
       <c r="S21">
-        <v>99.059345968887598</v>
+        <v>158.91169000000002</v>
       </c>
       <c r="T21">
-        <v>99.336438861558307</v>
+        <v>169.911</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -29740,61 +31185,61 @@
         <v>2018</v>
       </c>
       <c r="B22">
-        <v>98.939766274405898</v>
+        <v>760.14949999999999</v>
       </c>
       <c r="C22">
-        <v>100.059809363917</v>
+        <v>2965.4809999999998</v>
       </c>
       <c r="D22">
-        <v>100.412337259823</v>
+        <v>37.752119999999998</v>
       </c>
       <c r="E22">
-        <v>97.030186501127105</v>
+        <v>685.37660000000005</v>
       </c>
       <c r="F22">
-        <v>97.276929520688</v>
+        <v>133.95375999999999</v>
       </c>
       <c r="G22">
-        <v>98.001989573979301</v>
+        <v>811.7170000000001</v>
       </c>
       <c r="H22">
-        <v>98.558075446685905</v>
+        <v>1492.999</v>
       </c>
       <c r="I22">
-        <v>100.948808079839</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
+        <v>1068.7355</v>
+      </c>
+      <c r="J22">
+        <v>30.7227</v>
       </c>
       <c r="K22">
-        <v>105.347392692526</v>
+        <v>35.795490000000001</v>
       </c>
       <c r="L22">
-        <v>100.994431959506</v>
+        <v>67.579629999999995</v>
       </c>
       <c r="M22">
-        <v>100.08384440217201</v>
-      </c>
-      <c r="N22" t="s">
-        <v>20</v>
+        <v>232.4675</v>
+      </c>
+      <c r="N22">
+        <v>33.236490000000003</v>
       </c>
       <c r="O22">
-        <v>100.216486003816</v>
+        <v>1220.298</v>
       </c>
       <c r="P22">
-        <v>98.912938286352798</v>
+        <v>415.75990000000002</v>
       </c>
       <c r="Q22">
-        <v>100.560556057036</v>
+        <v>177.7381</v>
       </c>
       <c r="R22">
-        <v>100.16848559559</v>
+        <v>73.577879999999993</v>
       </c>
       <c r="S22">
-        <v>98.477302908807999</v>
+        <v>170.60898</v>
       </c>
       <c r="T22">
-        <v>100.107828801887</v>
+        <v>182.673</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -29802,61 +31247,61 @@
         <v>2019</v>
       </c>
       <c r="B23">
-        <v>99.273320484519502</v>
+        <v>772.63869999999997</v>
       </c>
       <c r="C23">
-        <v>100.932679724254</v>
+        <v>3016.422</v>
       </c>
       <c r="D23">
-        <v>100.142559636955</v>
+        <v>39.575699999999998</v>
       </c>
       <c r="E23">
-        <v>97.426768820360195</v>
+        <v>830.5915</v>
       </c>
       <c r="F23">
-        <v>95.788779105323798</v>
+        <v>139.43851000000001</v>
       </c>
       <c r="G23">
-        <v>97.116521218492394</v>
+        <v>833.33899999999994</v>
       </c>
       <c r="H23">
-        <v>99.364689314200703</v>
+        <v>1531.222</v>
       </c>
       <c r="I23">
-        <v>101.71734231009501</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
+        <v>1075.0909999999999</v>
+      </c>
+      <c r="J23">
+        <v>31.301000000000002</v>
       </c>
       <c r="K23">
-        <v>106.15638069101099</v>
+        <v>36.489040000000003</v>
       </c>
       <c r="L23">
-        <v>102.58486169117501</v>
+        <v>73.083930000000009</v>
       </c>
       <c r="M23">
-        <v>100.42139316080799</v>
-      </c>
-      <c r="N23" t="s">
-        <v>20</v>
+        <v>242.3254</v>
+      </c>
+      <c r="N23">
+        <v>34.475709999999999</v>
       </c>
       <c r="O23">
-        <v>100.810731491825</v>
+        <v>1253.1759999999999</v>
       </c>
       <c r="P23">
-        <v>98.692799637693099</v>
+        <v>429.38480000000004</v>
       </c>
       <c r="Q23">
-        <v>101.21541794325201</v>
+        <v>186.02283</v>
       </c>
       <c r="R23">
-        <v>100.58422660838499</v>
+        <v>76.683880000000002</v>
       </c>
       <c r="S23">
-        <v>98.296062615113698</v>
+        <v>174.45622</v>
       </c>
       <c r="T23">
-        <v>99.461050476036604</v>
+        <v>190.78199999999998</v>
       </c>
     </row>
   </sheetData>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3019F4DE-E6BC-482E-B170-B7A155211948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018DFDB-7382-4BA7-978D-665BF9660E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="6" activeTab="7" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="10" activeTab="24" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,11 @@
     <sheet name="debt" sheetId="10" r:id="rId18"/>
     <sheet name="pspp" sheetId="16" r:id="rId19"/>
     <sheet name="i_us" sheetId="14" r:id="rId20"/>
-    <sheet name="baa" sheetId="2" r:id="rId21"/>
+    <sheet name="i_us_ey" sheetId="25" r:id="rId21"/>
+    <sheet name="baa" sheetId="2" r:id="rId22"/>
+    <sheet name="baa_ey" sheetId="26" r:id="rId23"/>
+    <sheet name="bbb" sheetId="27" r:id="rId24"/>
+    <sheet name="bbb_ey" sheetId="28" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">gdp!$A$1:$T$23</definedName>
@@ -57,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="21">
   <si>
     <t>Belgium</t>
   </si>
@@ -126,6 +130,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,11 +629,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -18320,7 +18328,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19757,6 +19765,1450 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EE8C45-3647-4C30-B038-EABBDFE6397D}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30:P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1998</v>
+      </c>
+      <c r="B2">
+        <v>4.53</v>
+      </c>
+      <c r="C2">
+        <v>4.53</v>
+      </c>
+      <c r="D2">
+        <v>4.53</v>
+      </c>
+      <c r="E2">
+        <v>4.53</v>
+      </c>
+      <c r="F2">
+        <v>4.53</v>
+      </c>
+      <c r="G2">
+        <v>4.53</v>
+      </c>
+      <c r="H2">
+        <v>4.53</v>
+      </c>
+      <c r="I2">
+        <v>4.53</v>
+      </c>
+      <c r="J2">
+        <v>4.53</v>
+      </c>
+      <c r="K2">
+        <v>4.53</v>
+      </c>
+      <c r="L2">
+        <v>4.53</v>
+      </c>
+      <c r="M2">
+        <v>4.53</v>
+      </c>
+      <c r="N2">
+        <v>4.53</v>
+      </c>
+      <c r="O2">
+        <v>4.53</v>
+      </c>
+      <c r="P2">
+        <v>4.53</v>
+      </c>
+      <c r="Q2">
+        <v>4.53</v>
+      </c>
+      <c r="R2">
+        <v>4.53</v>
+      </c>
+      <c r="S2">
+        <v>4.53</v>
+      </c>
+      <c r="T2">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="B3">
+        <v>5.98</v>
+      </c>
+      <c r="C3">
+        <v>5.98</v>
+      </c>
+      <c r="D3">
+        <v>5.98</v>
+      </c>
+      <c r="E3">
+        <v>5.98</v>
+      </c>
+      <c r="F3">
+        <v>5.98</v>
+      </c>
+      <c r="G3">
+        <v>5.98</v>
+      </c>
+      <c r="H3">
+        <v>5.98</v>
+      </c>
+      <c r="I3">
+        <v>5.98</v>
+      </c>
+      <c r="J3">
+        <v>5.98</v>
+      </c>
+      <c r="K3">
+        <v>5.98</v>
+      </c>
+      <c r="L3">
+        <v>5.98</v>
+      </c>
+      <c r="M3">
+        <v>5.98</v>
+      </c>
+      <c r="N3">
+        <v>5.98</v>
+      </c>
+      <c r="O3">
+        <v>5.98</v>
+      </c>
+      <c r="P3">
+        <v>5.98</v>
+      </c>
+      <c r="Q3">
+        <v>5.98</v>
+      </c>
+      <c r="R3">
+        <v>5.98</v>
+      </c>
+      <c r="S3">
+        <v>5.98</v>
+      </c>
+      <c r="T3">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>5.32</v>
+      </c>
+      <c r="C4">
+        <v>5.32</v>
+      </c>
+      <c r="D4">
+        <v>5.32</v>
+      </c>
+      <c r="E4">
+        <v>5.32</v>
+      </c>
+      <c r="F4">
+        <v>5.32</v>
+      </c>
+      <c r="G4">
+        <v>5.32</v>
+      </c>
+      <c r="H4">
+        <v>5.32</v>
+      </c>
+      <c r="I4">
+        <v>5.32</v>
+      </c>
+      <c r="J4">
+        <v>5.32</v>
+      </c>
+      <c r="K4">
+        <v>5.32</v>
+      </c>
+      <c r="L4">
+        <v>5.32</v>
+      </c>
+      <c r="M4">
+        <v>5.32</v>
+      </c>
+      <c r="N4">
+        <v>5.32</v>
+      </c>
+      <c r="O4">
+        <v>5.32</v>
+      </c>
+      <c r="P4">
+        <v>5.32</v>
+      </c>
+      <c r="Q4">
+        <v>5.32</v>
+      </c>
+      <c r="R4">
+        <v>5.32</v>
+      </c>
+      <c r="S4">
+        <v>5.32</v>
+      </c>
+      <c r="T4">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
+        <v>2.17</v>
+      </c>
+      <c r="C5">
+        <v>2.17</v>
+      </c>
+      <c r="D5">
+        <v>2.17</v>
+      </c>
+      <c r="E5">
+        <v>2.17</v>
+      </c>
+      <c r="F5">
+        <v>2.17</v>
+      </c>
+      <c r="G5">
+        <v>2.17</v>
+      </c>
+      <c r="H5">
+        <v>2.17</v>
+      </c>
+      <c r="I5">
+        <v>2.17</v>
+      </c>
+      <c r="J5">
+        <v>2.17</v>
+      </c>
+      <c r="K5">
+        <v>2.17</v>
+      </c>
+      <c r="L5">
+        <v>2.17</v>
+      </c>
+      <c r="M5">
+        <v>2.17</v>
+      </c>
+      <c r="N5">
+        <v>2.17</v>
+      </c>
+      <c r="O5">
+        <v>2.17</v>
+      </c>
+      <c r="P5">
+        <v>2.17</v>
+      </c>
+      <c r="Q5">
+        <v>2.17</v>
+      </c>
+      <c r="R5">
+        <v>2.17</v>
+      </c>
+      <c r="S5">
+        <v>2.17</v>
+      </c>
+      <c r="T5">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6">
+        <v>1.32</v>
+      </c>
+      <c r="C6">
+        <v>1.32</v>
+      </c>
+      <c r="D6">
+        <v>1.32</v>
+      </c>
+      <c r="E6">
+        <v>1.32</v>
+      </c>
+      <c r="F6">
+        <v>1.32</v>
+      </c>
+      <c r="G6">
+        <v>1.32</v>
+      </c>
+      <c r="H6">
+        <v>1.32</v>
+      </c>
+      <c r="I6">
+        <v>1.32</v>
+      </c>
+      <c r="J6">
+        <v>1.32</v>
+      </c>
+      <c r="K6">
+        <v>1.32</v>
+      </c>
+      <c r="L6">
+        <v>1.32</v>
+      </c>
+      <c r="M6">
+        <v>1.32</v>
+      </c>
+      <c r="N6">
+        <v>1.32</v>
+      </c>
+      <c r="O6">
+        <v>1.32</v>
+      </c>
+      <c r="P6">
+        <v>1.32</v>
+      </c>
+      <c r="Q6">
+        <v>1.32</v>
+      </c>
+      <c r="R6">
+        <v>1.32</v>
+      </c>
+      <c r="S6">
+        <v>1.32</v>
+      </c>
+      <c r="T6">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7">
+        <v>1.26</v>
+      </c>
+      <c r="C7">
+        <v>1.26</v>
+      </c>
+      <c r="D7">
+        <v>1.26</v>
+      </c>
+      <c r="E7">
+        <v>1.26</v>
+      </c>
+      <c r="F7">
+        <v>1.26</v>
+      </c>
+      <c r="G7">
+        <v>1.26</v>
+      </c>
+      <c r="H7">
+        <v>1.26</v>
+      </c>
+      <c r="I7">
+        <v>1.26</v>
+      </c>
+      <c r="J7">
+        <v>1.26</v>
+      </c>
+      <c r="K7">
+        <v>1.26</v>
+      </c>
+      <c r="L7">
+        <v>1.26</v>
+      </c>
+      <c r="M7">
+        <v>1.26</v>
+      </c>
+      <c r="N7">
+        <v>1.26</v>
+      </c>
+      <c r="O7">
+        <v>1.26</v>
+      </c>
+      <c r="P7">
+        <v>1.26</v>
+      </c>
+      <c r="Q7">
+        <v>1.26</v>
+      </c>
+      <c r="R7">
+        <v>1.26</v>
+      </c>
+      <c r="S7">
+        <v>1.26</v>
+      </c>
+      <c r="T7">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8">
+        <v>2.75</v>
+      </c>
+      <c r="C8">
+        <v>2.75</v>
+      </c>
+      <c r="D8">
+        <v>2.75</v>
+      </c>
+      <c r="E8">
+        <v>2.75</v>
+      </c>
+      <c r="F8">
+        <v>2.75</v>
+      </c>
+      <c r="G8">
+        <v>2.75</v>
+      </c>
+      <c r="H8">
+        <v>2.75</v>
+      </c>
+      <c r="I8">
+        <v>2.75</v>
+      </c>
+      <c r="J8">
+        <v>2.75</v>
+      </c>
+      <c r="K8">
+        <v>2.75</v>
+      </c>
+      <c r="L8">
+        <v>2.75</v>
+      </c>
+      <c r="M8">
+        <v>2.75</v>
+      </c>
+      <c r="N8">
+        <v>2.75</v>
+      </c>
+      <c r="O8">
+        <v>2.75</v>
+      </c>
+      <c r="P8">
+        <v>2.75</v>
+      </c>
+      <c r="Q8">
+        <v>2.75</v>
+      </c>
+      <c r="R8">
+        <v>2.75</v>
+      </c>
+      <c r="S8">
+        <v>2.75</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>4.38</v>
+      </c>
+      <c r="C9">
+        <v>4.38</v>
+      </c>
+      <c r="D9">
+        <v>4.38</v>
+      </c>
+      <c r="E9">
+        <v>4.38</v>
+      </c>
+      <c r="F9">
+        <v>4.38</v>
+      </c>
+      <c r="G9">
+        <v>4.38</v>
+      </c>
+      <c r="H9">
+        <v>4.38</v>
+      </c>
+      <c r="I9">
+        <v>4.38</v>
+      </c>
+      <c r="J9">
+        <v>4.38</v>
+      </c>
+      <c r="K9">
+        <v>4.38</v>
+      </c>
+      <c r="L9">
+        <v>4.38</v>
+      </c>
+      <c r="M9">
+        <v>4.38</v>
+      </c>
+      <c r="N9">
+        <v>4.38</v>
+      </c>
+      <c r="O9">
+        <v>4.38</v>
+      </c>
+      <c r="P9">
+        <v>4.38</v>
+      </c>
+      <c r="Q9">
+        <v>4.38</v>
+      </c>
+      <c r="R9">
+        <v>4.38</v>
+      </c>
+      <c r="S9">
+        <v>4.38</v>
+      </c>
+      <c r="T9">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <v>3.34</v>
+      </c>
+      <c r="C11">
+        <v>3.34</v>
+      </c>
+      <c r="D11">
+        <v>3.34</v>
+      </c>
+      <c r="E11">
+        <v>3.34</v>
+      </c>
+      <c r="F11">
+        <v>3.34</v>
+      </c>
+      <c r="G11">
+        <v>3.34</v>
+      </c>
+      <c r="H11">
+        <v>3.34</v>
+      </c>
+      <c r="I11">
+        <v>3.34</v>
+      </c>
+      <c r="J11">
+        <v>3.34</v>
+      </c>
+      <c r="K11">
+        <v>3.34</v>
+      </c>
+      <c r="L11">
+        <v>3.34</v>
+      </c>
+      <c r="M11">
+        <v>3.34</v>
+      </c>
+      <c r="N11">
+        <v>3.34</v>
+      </c>
+      <c r="O11">
+        <v>3.34</v>
+      </c>
+      <c r="P11">
+        <v>3.34</v>
+      </c>
+      <c r="Q11">
+        <v>3.34</v>
+      </c>
+      <c r="R11">
+        <v>3.34</v>
+      </c>
+      <c r="S11">
+        <v>3.34</v>
+      </c>
+      <c r="T11">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>0.37</v>
+      </c>
+      <c r="C12">
+        <v>0.37</v>
+      </c>
+      <c r="D12">
+        <v>0.37</v>
+      </c>
+      <c r="E12">
+        <v>0.37</v>
+      </c>
+      <c r="F12">
+        <v>0.37</v>
+      </c>
+      <c r="G12">
+        <v>0.37</v>
+      </c>
+      <c r="H12">
+        <v>0.37</v>
+      </c>
+      <c r="I12">
+        <v>0.37</v>
+      </c>
+      <c r="J12">
+        <v>0.37</v>
+      </c>
+      <c r="K12">
+        <v>0.37</v>
+      </c>
+      <c r="L12">
+        <v>0.37</v>
+      </c>
+      <c r="M12">
+        <v>0.37</v>
+      </c>
+      <c r="N12">
+        <v>0.37</v>
+      </c>
+      <c r="O12">
+        <v>0.37</v>
+      </c>
+      <c r="P12">
+        <v>0.37</v>
+      </c>
+      <c r="Q12">
+        <v>0.37</v>
+      </c>
+      <c r="R12">
+        <v>0.37</v>
+      </c>
+      <c r="S12">
+        <v>0.37</v>
+      </c>
+      <c r="T12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>0.47</v>
+      </c>
+      <c r="C13">
+        <v>0.47</v>
+      </c>
+      <c r="D13">
+        <v>0.47</v>
+      </c>
+      <c r="E13">
+        <v>0.47</v>
+      </c>
+      <c r="F13">
+        <v>0.47</v>
+      </c>
+      <c r="G13">
+        <v>0.47</v>
+      </c>
+      <c r="H13">
+        <v>0.47</v>
+      </c>
+      <c r="I13">
+        <v>0.47</v>
+      </c>
+      <c r="J13">
+        <v>0.47</v>
+      </c>
+      <c r="K13">
+        <v>0.47</v>
+      </c>
+      <c r="L13">
+        <v>0.47</v>
+      </c>
+      <c r="M13">
+        <v>0.47</v>
+      </c>
+      <c r="N13">
+        <v>0.47</v>
+      </c>
+      <c r="O13">
+        <v>0.47</v>
+      </c>
+      <c r="P13">
+        <v>0.47</v>
+      </c>
+      <c r="Q13">
+        <v>0.47</v>
+      </c>
+      <c r="R13">
+        <v>0.47</v>
+      </c>
+      <c r="S13">
+        <v>0.47</v>
+      </c>
+      <c r="T13">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T14">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15">
+        <v>0.12</v>
+      </c>
+      <c r="C15">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>0.12</v>
+      </c>
+      <c r="E15">
+        <v>0.12</v>
+      </c>
+      <c r="F15">
+        <v>0.12</v>
+      </c>
+      <c r="G15">
+        <v>0.12</v>
+      </c>
+      <c r="H15">
+        <v>0.12</v>
+      </c>
+      <c r="I15">
+        <v>0.12</v>
+      </c>
+      <c r="J15">
+        <v>0.12</v>
+      </c>
+      <c r="K15">
+        <v>0.12</v>
+      </c>
+      <c r="L15">
+        <v>0.12</v>
+      </c>
+      <c r="M15">
+        <v>0.12</v>
+      </c>
+      <c r="N15">
+        <v>0.12</v>
+      </c>
+      <c r="O15">
+        <v>0.12</v>
+      </c>
+      <c r="P15">
+        <v>0.12</v>
+      </c>
+      <c r="Q15">
+        <v>0.12</v>
+      </c>
+      <c r="R15">
+        <v>0.12</v>
+      </c>
+      <c r="S15">
+        <v>0.12</v>
+      </c>
+      <c r="T15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16">
+        <v>0.16</v>
+      </c>
+      <c r="C16">
+        <v>0.16</v>
+      </c>
+      <c r="D16">
+        <v>0.16</v>
+      </c>
+      <c r="E16">
+        <v>0.16</v>
+      </c>
+      <c r="F16">
+        <v>0.16</v>
+      </c>
+      <c r="G16">
+        <v>0.16</v>
+      </c>
+      <c r="H16">
+        <v>0.16</v>
+      </c>
+      <c r="I16">
+        <v>0.16</v>
+      </c>
+      <c r="J16">
+        <v>0.16</v>
+      </c>
+      <c r="K16">
+        <v>0.16</v>
+      </c>
+      <c r="L16">
+        <v>0.16</v>
+      </c>
+      <c r="M16">
+        <v>0.16</v>
+      </c>
+      <c r="N16">
+        <v>0.16</v>
+      </c>
+      <c r="O16">
+        <v>0.16</v>
+      </c>
+      <c r="P16">
+        <v>0.16</v>
+      </c>
+      <c r="Q16">
+        <v>0.16</v>
+      </c>
+      <c r="R16">
+        <v>0.16</v>
+      </c>
+      <c r="S16">
+        <v>0.16</v>
+      </c>
+      <c r="T16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17">
+        <v>0.13</v>
+      </c>
+      <c r="C17">
+        <v>0.13</v>
+      </c>
+      <c r="D17">
+        <v>0.13</v>
+      </c>
+      <c r="E17">
+        <v>0.13</v>
+      </c>
+      <c r="F17">
+        <v>0.13</v>
+      </c>
+      <c r="G17">
+        <v>0.13</v>
+      </c>
+      <c r="H17">
+        <v>0.13</v>
+      </c>
+      <c r="I17">
+        <v>0.13</v>
+      </c>
+      <c r="J17">
+        <v>0.13</v>
+      </c>
+      <c r="K17">
+        <v>0.13</v>
+      </c>
+      <c r="L17">
+        <v>0.13</v>
+      </c>
+      <c r="M17">
+        <v>0.13</v>
+      </c>
+      <c r="N17">
+        <v>0.13</v>
+      </c>
+      <c r="O17">
+        <v>0.13</v>
+      </c>
+      <c r="P17">
+        <v>0.13</v>
+      </c>
+      <c r="Q17">
+        <v>0.13</v>
+      </c>
+      <c r="R17">
+        <v>0.13</v>
+      </c>
+      <c r="S17">
+        <v>0.13</v>
+      </c>
+      <c r="T17">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+      <c r="F18">
+        <v>0.25</v>
+      </c>
+      <c r="G18">
+        <v>0.25</v>
+      </c>
+      <c r="H18">
+        <v>0.25</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <v>0.25</v>
+      </c>
+      <c r="K18">
+        <v>0.25</v>
+      </c>
+      <c r="L18">
+        <v>0.25</v>
+      </c>
+      <c r="M18">
+        <v>0.25</v>
+      </c>
+      <c r="N18">
+        <v>0.25</v>
+      </c>
+      <c r="O18">
+        <v>0.25</v>
+      </c>
+      <c r="P18">
+        <v>0.25</v>
+      </c>
+      <c r="Q18">
+        <v>0.25</v>
+      </c>
+      <c r="R18">
+        <v>0.25</v>
+      </c>
+      <c r="S18">
+        <v>0.25</v>
+      </c>
+      <c r="T18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>0.65</v>
+      </c>
+      <c r="C19">
+        <v>0.65</v>
+      </c>
+      <c r="D19">
+        <v>0.65</v>
+      </c>
+      <c r="E19">
+        <v>0.65</v>
+      </c>
+      <c r="F19">
+        <v>0.65</v>
+      </c>
+      <c r="G19">
+        <v>0.65</v>
+      </c>
+      <c r="H19">
+        <v>0.65</v>
+      </c>
+      <c r="I19">
+        <v>0.65</v>
+      </c>
+      <c r="J19">
+        <v>0.65</v>
+      </c>
+      <c r="K19">
+        <v>0.65</v>
+      </c>
+      <c r="L19">
+        <v>0.65</v>
+      </c>
+      <c r="M19">
+        <v>0.65</v>
+      </c>
+      <c r="N19">
+        <v>0.65</v>
+      </c>
+      <c r="O19">
+        <v>0.65</v>
+      </c>
+      <c r="P19">
+        <v>0.65</v>
+      </c>
+      <c r="Q19">
+        <v>0.65</v>
+      </c>
+      <c r="R19">
+        <v>0.65</v>
+      </c>
+      <c r="S19">
+        <v>0.65</v>
+      </c>
+      <c r="T19">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>0.85</v>
+      </c>
+      <c r="C20">
+        <v>0.85</v>
+      </c>
+      <c r="D20">
+        <v>0.85</v>
+      </c>
+      <c r="E20">
+        <v>0.85</v>
+      </c>
+      <c r="F20">
+        <v>0.85</v>
+      </c>
+      <c r="G20">
+        <v>0.85</v>
+      </c>
+      <c r="H20">
+        <v>0.85</v>
+      </c>
+      <c r="I20">
+        <v>0.85</v>
+      </c>
+      <c r="J20">
+        <v>0.85</v>
+      </c>
+      <c r="K20">
+        <v>0.85</v>
+      </c>
+      <c r="L20">
+        <v>0.85</v>
+      </c>
+      <c r="M20">
+        <v>0.85</v>
+      </c>
+      <c r="N20">
+        <v>0.85</v>
+      </c>
+      <c r="O20">
+        <v>0.85</v>
+      </c>
+      <c r="P20">
+        <v>0.85</v>
+      </c>
+      <c r="Q20">
+        <v>0.85</v>
+      </c>
+      <c r="R20">
+        <v>0.85</v>
+      </c>
+      <c r="S20">
+        <v>0.85</v>
+      </c>
+      <c r="T20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>1.76</v>
+      </c>
+      <c r="C21">
+        <v>1.76</v>
+      </c>
+      <c r="D21">
+        <v>1.76</v>
+      </c>
+      <c r="E21">
+        <v>1.76</v>
+      </c>
+      <c r="F21">
+        <v>1.76</v>
+      </c>
+      <c r="G21">
+        <v>1.76</v>
+      </c>
+      <c r="H21">
+        <v>1.76</v>
+      </c>
+      <c r="I21">
+        <v>1.76</v>
+      </c>
+      <c r="J21">
+        <v>1.76</v>
+      </c>
+      <c r="K21">
+        <v>1.76</v>
+      </c>
+      <c r="L21">
+        <v>1.76</v>
+      </c>
+      <c r="M21">
+        <v>1.76</v>
+      </c>
+      <c r="N21">
+        <v>1.76</v>
+      </c>
+      <c r="O21">
+        <v>1.76</v>
+      </c>
+      <c r="P21">
+        <v>1.76</v>
+      </c>
+      <c r="Q21">
+        <v>1.76</v>
+      </c>
+      <c r="R21">
+        <v>1.76</v>
+      </c>
+      <c r="S21">
+        <v>1.76</v>
+      </c>
+      <c r="T21">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
+        <v>2.63</v>
+      </c>
+      <c r="C22">
+        <v>2.63</v>
+      </c>
+      <c r="D22">
+        <v>2.63</v>
+      </c>
+      <c r="E22">
+        <v>2.63</v>
+      </c>
+      <c r="F22">
+        <v>2.63</v>
+      </c>
+      <c r="G22">
+        <v>2.63</v>
+      </c>
+      <c r="H22">
+        <v>2.63</v>
+      </c>
+      <c r="I22">
+        <v>2.63</v>
+      </c>
+      <c r="J22">
+        <v>2.63</v>
+      </c>
+      <c r="K22">
+        <v>2.63</v>
+      </c>
+      <c r="L22">
+        <v>2.63</v>
+      </c>
+      <c r="M22">
+        <v>2.63</v>
+      </c>
+      <c r="N22">
+        <v>2.63</v>
+      </c>
+      <c r="O22">
+        <v>2.63</v>
+      </c>
+      <c r="P22">
+        <v>2.63</v>
+      </c>
+      <c r="Q22">
+        <v>2.63</v>
+      </c>
+      <c r="R22">
+        <v>2.63</v>
+      </c>
+      <c r="S22">
+        <v>2.63</v>
+      </c>
+      <c r="T22">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>1.59</v>
+      </c>
+      <c r="C23">
+        <v>1.59</v>
+      </c>
+      <c r="D23">
+        <v>1.59</v>
+      </c>
+      <c r="E23">
+        <v>1.59</v>
+      </c>
+      <c r="F23">
+        <v>1.59</v>
+      </c>
+      <c r="G23">
+        <v>1.59</v>
+      </c>
+      <c r="H23">
+        <v>1.59</v>
+      </c>
+      <c r="I23">
+        <v>1.59</v>
+      </c>
+      <c r="J23">
+        <v>1.59</v>
+      </c>
+      <c r="K23">
+        <v>1.59</v>
+      </c>
+      <c r="L23">
+        <v>1.59</v>
+      </c>
+      <c r="M23">
+        <v>1.59</v>
+      </c>
+      <c r="N23">
+        <v>1.59</v>
+      </c>
+      <c r="O23">
+        <v>1.59</v>
+      </c>
+      <c r="P23">
+        <v>1.59</v>
+      </c>
+      <c r="Q23">
+        <v>1.59</v>
+      </c>
+      <c r="R23">
+        <v>1.59</v>
+      </c>
+      <c r="S23">
+        <v>1.59</v>
+      </c>
+      <c r="T23">
+        <v>1.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F202AEAC-DAD9-4EB7-8C25-7C1A71C7BE6D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -19764,7 +21216,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19835,62 +21287,62 @@
       <c r="A2">
         <v>1998</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
+      <c r="B2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1.9572399999999999</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.9572399999999999</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -21193,6 +22645,4338 @@
       </c>
       <c r="T23" s="1">
         <v>2.2313999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC22AFCF-E9AA-4254-82BF-670D0749ACD4}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1998</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="S12" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="T12" s="1">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="T15" s="1">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="S18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="T19" s="1">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="R22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="S22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610FA4FB-7477-4857-B347-56652584FEBF}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1998</v>
+      </c>
+      <c r="B2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="I2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="L2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="M2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="N2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="O2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="P2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="R2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="S2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+      <c r="T2" s="4">
+        <v>33.778700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="J3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="K3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="L3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="M3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="O3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="R3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="S3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+      <c r="T3" s="4">
+        <v>38.669879999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="C4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="D4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="E4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="F4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="H4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="I4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="J4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="K4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="L4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="M4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="N4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="O4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="P4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="R4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="S4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+      <c r="T4" s="4">
+        <v>48.438339999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="I5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="P5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="R5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="S5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+      <c r="T5" s="4">
+        <v>63.762779999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="I6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="J6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="L6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="M6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="N6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="O6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="P6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="R6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="S6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+      <c r="T6" s="4">
+        <v>85.610680000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="C7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="E7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="F7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="G7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="H7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="I7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="J7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="K7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="L7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="M7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="N7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="O7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="P7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="R7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="S7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+      <c r="T7" s="4">
+        <v>65.530879999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="F8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="G8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="H8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="I8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="J8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="K8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="L8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="M8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="N8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="O8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="P8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="R8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="S8" s="4">
+        <v>41.1387</v>
+      </c>
+      <c r="T8" s="4">
+        <v>41.1387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="I9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="J9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="K9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="L9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="M9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="N9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="O9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="P9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="R9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="S9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+      <c r="T9" s="4">
+        <v>42.153019999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="H10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="M10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="N10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="O10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="R10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="S10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+      <c r="T10" s="4">
+        <v>35.118929999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="L11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="M11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="N11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="O11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="P11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="R11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="S11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+      <c r="T11" s="4">
+        <v>45.660989999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="H12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="L12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="M12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="N12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="O12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="P12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="R12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="S12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+      <c r="T12" s="4">
+        <v>156.96207000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="L13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="M13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="N13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="O13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="P13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="R13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="S13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+      <c r="T13" s="4">
+        <v>203.02359000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4">
+        <v>100</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+      <c r="K14" s="4">
+        <v>100</v>
+      </c>
+      <c r="L14" s="4">
+        <v>100</v>
+      </c>
+      <c r="M14" s="4">
+        <v>100</v>
+      </c>
+      <c r="N14" s="4">
+        <v>100</v>
+      </c>
+      <c r="O14" s="4">
+        <v>100</v>
+      </c>
+      <c r="P14" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>100</v>
+      </c>
+      <c r="R14" s="4">
+        <v>100</v>
+      </c>
+      <c r="S14" s="4">
+        <v>100</v>
+      </c>
+      <c r="T14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="C15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="D15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="E15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="F15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="G15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="H15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="I15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="J15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="K15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="L15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="M15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="N15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="O15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="P15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="R15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="S15" s="4">
+        <v>117.0823</v>
+      </c>
+      <c r="T15" s="4">
+        <v>117.0823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="C16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="D16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="E16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="F16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="G16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="H16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="I16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="J16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="K16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="L16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="M16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="N16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="O16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="P16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="R16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="S16" s="4">
+        <v>191.78742</v>
+      </c>
+      <c r="T16" s="4">
+        <v>191.78742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="C17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="D17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="E17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="F17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="G17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="H17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="I17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="J17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="K17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="L17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="M17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="N17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="O17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="P17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="R17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="S17" s="4">
+        <v>117.90315</v>
+      </c>
+      <c r="T17" s="4">
+        <v>117.90315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="C18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="D18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="E18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="F18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="G18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="H18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="I18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="J18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="K18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="L18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="M18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="N18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="O18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="P18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="R18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="S18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+      <c r="T18" s="4">
+        <v>88.720969999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="C19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="D19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="E19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="F19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="G19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="H19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="I19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="J19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="K19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="L19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="M19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="N19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="O19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="P19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="R19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="S19" s="4">
+        <v>133.34957</v>
+      </c>
+      <c r="T19" s="4">
+        <v>133.34957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="H20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="K20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="L20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="M20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="N20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="O20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="P20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="R20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="S20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+      <c r="T20" s="4">
+        <v>159.90594999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="C21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="E21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="I21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="J21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="L21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="M21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="N21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="O21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="P21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="R21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="S21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+      <c r="T21" s="4">
+        <v>87.381489999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="C22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="D22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="E22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="F22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="G22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="H22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="I22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="J22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="K22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="L22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="M22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="N22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="O22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="P22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="R22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="S22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+      <c r="T22" s="4">
+        <v>71.048969999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="C23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="E23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="G23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="I23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="J23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="L23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="M23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="N23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="O23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="P23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="R23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="S23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+      <c r="T23" s="4">
+        <v>103.28288999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D06C9B6-AA8E-4B6F-B496-1DB2B6FAF2F1}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1998</v>
+      </c>
+      <c r="B2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="C2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="D2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="E2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="F2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="G2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="H2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="I2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="J2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="K2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="L2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="M2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="N2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="O2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="P2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="R2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="S2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+      <c r="T2" s="4">
+        <v>57.088970000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="J3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="K3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="L3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="M3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="O3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="R3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="S3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+      <c r="T3" s="4">
+        <v>36.824829999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="C4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="D4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="E4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="F4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="G4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="H4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="I4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="J4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="K4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="L4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="M4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="N4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="O4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="P4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="R4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="S4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+      <c r="T4" s="4">
+        <v>80.653040000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="C5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="D5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="E5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="F5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="G5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="H5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="I5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="J5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="K5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="L5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="M5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="N5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="O5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="P5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="R5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="S5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+      <c r="T5" s="4">
+        <v>67.975759999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="C6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="D6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="E6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="F6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="G6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="H6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="I6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="J6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="K6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="L6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="M6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="N6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="O6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="P6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="R6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="S6" s="4">
+        <v>109.43948</v>
+      </c>
+      <c r="T6" s="4">
+        <v>109.43948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="C7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="E7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="F7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="H7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="I7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="J7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="K7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="L7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="M7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="N7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="O7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="P7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="R7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="S7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+      <c r="T7" s="4">
+        <v>47.263350000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="F8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="H8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="I8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="K8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="L8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="M8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="N8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="O8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="P8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="R8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="S8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+      <c r="T8" s="4">
+        <v>41.373440000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="H9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="I9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="J9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="K9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="L9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="M9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="N9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="O9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="P9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="R9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="S9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+      <c r="T9" s="4">
+        <v>42.788780000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="K10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="L10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="M10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="N10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="O10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="P10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="R10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="S10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+      <c r="T10" s="4">
+        <v>40.211289999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="C11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="D11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="E11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="F11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="G11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="H11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="I11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="J11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="K11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="L11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="M11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="N11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="O11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="P11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="R11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="S11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+      <c r="T11" s="4">
+        <v>94.144239999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="C12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="D12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="E12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="F12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="G12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="H12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="I12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="J12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="K12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="L12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="M12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="N12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="O12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="P12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="R12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="S12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+      <c r="T12" s="4">
+        <v>540.93190000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <v>100</v>
+      </c>
+      <c r="I13" s="4">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4">
+        <v>100</v>
+      </c>
+      <c r="K13" s="4">
+        <v>100</v>
+      </c>
+      <c r="L13" s="4">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4">
+        <v>100</v>
+      </c>
+      <c r="N13" s="4">
+        <v>100</v>
+      </c>
+      <c r="O13" s="4">
+        <v>100</v>
+      </c>
+      <c r="P13" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>100</v>
+      </c>
+      <c r="R13" s="4">
+        <v>100</v>
+      </c>
+      <c r="S13" s="4">
+        <v>100</v>
+      </c>
+      <c r="T13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="C14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="E14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="F14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="H14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="I14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="J14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="K14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="L14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="M14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="N14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="O14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="P14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="R14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="S14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+      <c r="T14" s="4">
+        <v>99.260750000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="C15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="D15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="E15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="F15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="G15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="H15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="I15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="J15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="K15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="L15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="M15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="N15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="O15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="P15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="R15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="S15" s="4">
+        <v>258.73656</v>
+      </c>
+      <c r="T15" s="4">
+        <v>258.73656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="C16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="D16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="E16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="F16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="G16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="H16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="I16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="J16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="K16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="L16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="M16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="N16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="O16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="P16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="R16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="S16" s="4">
+        <v>177.91772</v>
+      </c>
+      <c r="T16" s="4">
+        <v>177.91772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="C17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="D17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="E17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="F17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="G17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="H17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="I17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="J17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="K17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="L17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="M17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="N17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="O17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="P17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="R17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="S17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+      <c r="T17" s="4">
+        <v>88.855580000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="C18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="G18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="I18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="K18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="L18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="M18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="N18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="O18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="P18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="R18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="S18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+      <c r="T18" s="4">
+        <v>141.64931999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="H19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="I19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="J19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="L19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="M19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="N19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="O19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="P19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="R19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="S19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+      <c r="T19" s="4">
+        <v>164.81632999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="C20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="D20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="E20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="F20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="G20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="H20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="I20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="J20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="K20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="L20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="M20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="N20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="O20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="P20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="R20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="S20" s="4">
+        <v>105.18433</v>
+      </c>
+      <c r="T20" s="4">
+        <v>105.18433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="C21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="D21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="E21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="F21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="G21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="H21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="I21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="J21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="K21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="L21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="M21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="N21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="O21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="P21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="R21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="S21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+      <c r="T21" s="4">
+        <v>82.795699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="C22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="E22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="H22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="I22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="K22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="L22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="M22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="N22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="O22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="P22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="R22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="S22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+      <c r="T22" s="4">
+        <v>116.57572999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="C23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="E23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="G23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="I23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="J23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="L23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="M23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="N23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="O23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="P23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="R23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="S23" s="4">
+        <v>105.11172999999999</v>
+      </c>
+      <c r="T23" s="4">
+        <v>105.11172999999999</v>
       </c>
     </row>
   </sheetData>
@@ -28428,7 +34212,7 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>

--- a/input/full_data.xlsx
+++ b/input/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Dropbox\GitHub\macroX_sovereign-yield-spreads\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018DFDB-7382-4BA7-978D-665BF9660E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEB7EBE-2872-45FA-AD3E-6FE139D0EE7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="10" activeTab="24" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="10" activeTab="19" xr2:uid="{6BD05D62-9C8D-4B00-B784-FD56BE4060DE}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="3" r:id="rId1"/>
@@ -18327,8 +18327,8 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18462,61 +18462,61 @@
         <v>1999</v>
       </c>
       <c r="B3">
-        <v>1275.8600000000008</v>
+        <v>5.0831075697211183</v>
       </c>
       <c r="C3">
-        <v>1275.8600000000008</v>
+        <v>5.0831075697211183</v>
       </c>
       <c r="D3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="E3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="F3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="G3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="H3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="I3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="J3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="K3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="L3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="M3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="N3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="O3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="P3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="Q3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="R3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="S3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
       <c r="T3">
-        <v>1275.8599999999999</v>
+        <v>5.0831075697211201</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -25547,7 +25547,7 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
